--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1170,13 +1170,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>36905</v>
+        <v>36954</v>
       </c>
       <c r="D2">
         <v>9004</v>
       </c>
       <c r="E2">
-        <v>67633196</v>
+        <v>67736673</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1310,13 +1310,13 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>16965</v>
+        <v>16983</v>
       </c>
       <c r="D6">
         <v>3779</v>
       </c>
       <c r="E6">
-        <v>77996591</v>
+        <v>78105252</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1380,13 +1380,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>9494</v>
+        <v>9507</v>
       </c>
       <c r="D8">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E8">
-        <v>49338366</v>
+        <v>49414169</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1450,13 +1450,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D10">
         <v>240</v>
       </c>
       <c r="E10">
-        <v>6670386</v>
+        <v>6675306</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1485,13 +1485,13 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>25207</v>
+        <v>25243</v>
       </c>
       <c r="D11">
-        <v>5732</v>
+        <v>5733</v>
       </c>
       <c r="E11">
-        <v>47084300</v>
+        <v>47138363</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1590,13 +1590,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D14">
         <v>30</v>
       </c>
       <c r="E14">
-        <v>1065494</v>
+        <v>1075494</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1625,13 +1625,13 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>8548</v>
+        <v>8555</v>
       </c>
       <c r="D15">
         <v>1803</v>
       </c>
       <c r="E15">
-        <v>38591343</v>
+        <v>38657876</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1695,13 +1695,13 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>4335</v>
+        <v>4337</v>
       </c>
       <c r="D17">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E17">
-        <v>22239506</v>
+        <v>22242506</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1765,13 +1765,13 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D19">
         <v>131</v>
       </c>
       <c r="E19">
-        <v>3074881</v>
+        <v>3084881</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1800,13 +1800,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>32752</v>
+        <v>32812</v>
       </c>
       <c r="D20">
         <v>6881</v>
       </c>
       <c r="E20">
-        <v>61462528</v>
+        <v>61620581</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1940,13 +1940,13 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>13280</v>
+        <v>13300</v>
       </c>
       <c r="D24">
         <v>2530</v>
       </c>
       <c r="E24">
-        <v>62867464</v>
+        <v>63020201</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -2010,13 +2010,13 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>4977</v>
+        <v>4983</v>
       </c>
       <c r="D26">
         <v>901</v>
       </c>
       <c r="E26">
-        <v>27144896</v>
+        <v>27172171</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -2045,13 +2045,13 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D27">
         <v>181</v>
       </c>
       <c r="E27">
-        <v>1959866</v>
+        <v>1964032</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -2080,13 +2080,13 @@
         <v>12</v>
       </c>
       <c r="C28">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D28">
         <v>192</v>
       </c>
       <c r="E28">
-        <v>4137716</v>
+        <v>4141921</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -2115,13 +2115,13 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>15892</v>
+        <v>15915</v>
       </c>
       <c r="D29">
         <v>3503</v>
       </c>
       <c r="E29">
-        <v>33104595</v>
+        <v>33167536</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -2220,13 +2220,13 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>4406</v>
+        <v>4412</v>
       </c>
       <c r="D32">
         <v>887</v>
       </c>
       <c r="E32">
-        <v>20880547</v>
+        <v>20942414</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -2290,13 +2290,13 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D34">
         <v>331</v>
       </c>
       <c r="E34">
-        <v>9373030</v>
+        <v>9396239</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -2325,13 +2325,13 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D35">
         <v>392</v>
       </c>
       <c r="E35">
-        <v>1715704</v>
+        <v>1717733</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -2430,13 +2430,13 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>48500</v>
+        <v>48602</v>
       </c>
       <c r="D38">
         <v>10750</v>
       </c>
       <c r="E38">
-        <v>81567362</v>
+        <v>81758986</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -2570,13 +2570,13 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>20014</v>
+        <v>20045</v>
       </c>
       <c r="D42">
         <v>4096</v>
       </c>
       <c r="E42">
-        <v>92513719</v>
+        <v>92746168</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -2605,13 +2605,13 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D43">
         <v>13</v>
       </c>
       <c r="E43">
-        <v>841793</v>
+        <v>851793</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -2640,13 +2640,13 @@
         <v>12</v>
       </c>
       <c r="C44">
-        <v>11268</v>
+        <v>11284</v>
       </c>
       <c r="D44">
         <v>2152</v>
       </c>
       <c r="E44">
-        <v>57216810</v>
+        <v>57339553</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -2710,13 +2710,13 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="D46">
         <v>219</v>
       </c>
       <c r="E46">
-        <v>3142463</v>
+        <v>3203513</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -2780,13 +2780,13 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>18098</v>
+        <v>18123</v>
       </c>
       <c r="D48">
         <v>4061</v>
       </c>
       <c r="E48">
-        <v>36737512</v>
+        <v>36790799</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2850,13 +2850,13 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D50">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1369759</v>
+        <v>1379759</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2885,13 +2885,13 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>7011</v>
+        <v>7019</v>
       </c>
       <c r="D51">
         <v>1455</v>
       </c>
       <c r="E51">
-        <v>31674892</v>
+        <v>31736643</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2955,13 +2955,13 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>2898</v>
+        <v>2900</v>
       </c>
       <c r="D53">
         <v>566</v>
       </c>
       <c r="E53">
-        <v>13973800</v>
+        <v>14006236</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -2990,13 +2990,13 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D54">
         <v>124</v>
       </c>
       <c r="E54">
-        <v>739937</v>
+        <v>745074</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -3060,13 +3060,13 @@
         <v>12</v>
       </c>
       <c r="C56">
-        <v>93762</v>
+        <v>93892</v>
       </c>
       <c r="D56">
         <v>18738</v>
       </c>
       <c r="E56">
-        <v>194604776</v>
+        <v>194817740</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -3235,13 +3235,13 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>44198</v>
+        <v>44229</v>
       </c>
       <c r="D61">
-        <v>8038</v>
+        <v>8039</v>
       </c>
       <c r="E61">
-        <v>280127112</v>
+        <v>280336802</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -3270,13 +3270,13 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D62">
         <v>37</v>
       </c>
       <c r="E62">
-        <v>7353594</v>
+        <v>7366625</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -3340,13 +3340,13 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>19217</v>
+        <v>19242</v>
       </c>
       <c r="D64">
         <v>3484</v>
       </c>
       <c r="E64">
-        <v>155615823</v>
+        <v>155946659</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -3480,13 +3480,13 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="D68">
         <v>298</v>
       </c>
       <c r="E68">
-        <v>12298226</v>
+        <v>12372326</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
@@ -3515,13 +3515,13 @@
         <v>12</v>
       </c>
       <c r="C69">
-        <v>102312</v>
+        <v>102469</v>
       </c>
       <c r="D69">
         <v>22816</v>
       </c>
       <c r="E69">
-        <v>182455048</v>
+        <v>182726860</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
@@ -3655,13 +3655,13 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D73">
         <v>53</v>
       </c>
       <c r="E73">
-        <v>1773551</v>
+        <v>1778955</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
@@ -3690,13 +3690,13 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <v>47231</v>
+        <v>47271</v>
       </c>
       <c r="D74">
         <v>9655</v>
       </c>
       <c r="E74">
-        <v>231171338</v>
+        <v>231469028</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
@@ -3760,13 +3760,13 @@
         <v>12</v>
       </c>
       <c r="C76">
-        <v>26518</v>
+        <v>26552</v>
       </c>
       <c r="D76">
         <v>5040</v>
       </c>
       <c r="E76">
-        <v>139570407</v>
+        <v>139828609</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
@@ -3935,13 +3935,13 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>53449</v>
+        <v>53530</v>
       </c>
       <c r="D81">
         <v>11908</v>
       </c>
       <c r="E81">
-        <v>94695969</v>
+        <v>94829357</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
@@ -3970,13 +3970,13 @@
         <v>12</v>
       </c>
       <c r="C82">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D82">
         <v>12</v>
       </c>
       <c r="E82">
-        <v>217663</v>
+        <v>219163</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
@@ -4005,13 +4005,13 @@
         <v>12</v>
       </c>
       <c r="C83">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D83">
         <v>80</v>
       </c>
       <c r="E83">
-        <v>2828044</v>
+        <v>2837090</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
@@ -4040,13 +4040,13 @@
         <v>12</v>
       </c>
       <c r="C84">
-        <v>21624</v>
+        <v>21640</v>
       </c>
       <c r="D84">
         <v>4752</v>
       </c>
       <c r="E84">
-        <v>95944676</v>
+        <v>96067784</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -4145,13 +4145,13 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>13412</v>
+        <v>13420</v>
       </c>
       <c r="D87">
         <v>2742</v>
       </c>
       <c r="E87">
-        <v>63303103</v>
+        <v>63537752</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -4180,13 +4180,13 @@
         <v>12</v>
       </c>
       <c r="C88">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D88">
         <v>235</v>
       </c>
       <c r="E88">
-        <v>1670099</v>
+        <v>1679656</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -4250,13 +4250,13 @@
         <v>12</v>
       </c>
       <c r="C90">
-        <v>48313</v>
+        <v>48364</v>
       </c>
       <c r="D90">
-        <v>10638</v>
+        <v>10639</v>
       </c>
       <c r="E90">
-        <v>86234376</v>
+        <v>86325280</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
@@ -4390,13 +4390,13 @@
         <v>12</v>
       </c>
       <c r="C94">
-        <v>24464</v>
+        <v>24495</v>
       </c>
       <c r="D94">
         <v>4829</v>
       </c>
       <c r="E94">
-        <v>116612570</v>
+        <v>116815210</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
@@ -4460,13 +4460,13 @@
         <v>12</v>
       </c>
       <c r="C96">
-        <v>9590</v>
+        <v>9595</v>
       </c>
       <c r="D96">
         <v>1854</v>
       </c>
       <c r="E96">
-        <v>52763287</v>
+        <v>52796339</v>
       </c>
       <c r="F96" t="s">
         <v>13</v>
@@ -4530,13 +4530,13 @@
         <v>12</v>
       </c>
       <c r="C98">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D98">
         <v>155</v>
       </c>
       <c r="E98">
-        <v>1046788</v>
+        <v>1055455</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
@@ -4565,13 +4565,13 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="D99">
         <v>279</v>
       </c>
       <c r="E99">
-        <v>7090947</v>
+        <v>7092457</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -4600,13 +4600,13 @@
         <v>12</v>
       </c>
       <c r="C100">
-        <v>179234</v>
+        <v>179528</v>
       </c>
       <c r="D100">
-        <v>37701</v>
+        <v>37702</v>
       </c>
       <c r="E100">
-        <v>298902302</v>
+        <v>299385743</v>
       </c>
       <c r="F100" t="s">
         <v>13</v>
@@ -4670,13 +4670,13 @@
         <v>12</v>
       </c>
       <c r="C102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D102">
         <v>24</v>
       </c>
       <c r="E102">
-        <v>450199</v>
+        <v>469293</v>
       </c>
       <c r="F102" t="s">
         <v>13</v>
@@ -4775,13 +4775,13 @@
         <v>12</v>
       </c>
       <c r="C105">
-        <v>79503</v>
+        <v>79591</v>
       </c>
       <c r="D105">
-        <v>16049</v>
+        <v>16050</v>
       </c>
       <c r="E105">
-        <v>370516852</v>
+        <v>371090048</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -4880,13 +4880,13 @@
         <v>12</v>
       </c>
       <c r="C108">
-        <v>58010</v>
+        <v>58099</v>
       </c>
       <c r="D108">
-        <v>10892</v>
+        <v>10893</v>
       </c>
       <c r="E108">
-        <v>295115801</v>
+        <v>295757916</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
@@ -4950,13 +4950,13 @@
         <v>12</v>
       </c>
       <c r="C110">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="D110">
         <v>432</v>
       </c>
       <c r="E110">
-        <v>5300310</v>
+        <v>5319921</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
@@ -5020,13 +5020,13 @@
         <v>12</v>
       </c>
       <c r="C112">
-        <v>7155</v>
+        <v>7161</v>
       </c>
       <c r="D112">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E112">
-        <v>29800185</v>
+        <v>29811095</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
@@ -5090,13 +5090,13 @@
         <v>12</v>
       </c>
       <c r="C114">
-        <v>83841</v>
+        <v>83952</v>
       </c>
       <c r="D114">
-        <v>14268</v>
+        <v>14270</v>
       </c>
       <c r="E114">
-        <v>204233994</v>
+        <v>204474850</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
@@ -5265,13 +5265,13 @@
         <v>12</v>
       </c>
       <c r="C119">
-        <v>36824</v>
+        <v>36863</v>
       </c>
       <c r="D119">
         <v>6193</v>
       </c>
       <c r="E119">
-        <v>272148413</v>
+        <v>272670485</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
@@ -5335,13 +5335,13 @@
         <v>12</v>
       </c>
       <c r="C121">
-        <v>13204</v>
+        <v>13223</v>
       </c>
       <c r="D121">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="E121">
-        <v>139855668</v>
+        <v>140138103</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
@@ -5405,13 +5405,13 @@
         <v>12</v>
       </c>
       <c r="C123">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D123">
         <v>241</v>
       </c>
       <c r="E123">
-        <v>3318551</v>
+        <v>3328551</v>
       </c>
       <c r="F123" t="s">
         <v>13</v>
@@ -5510,13 +5510,13 @@
         <v>12</v>
       </c>
       <c r="C126">
-        <v>34060</v>
+        <v>34098</v>
       </c>
       <c r="D126">
-        <v>7709</v>
+        <v>7710</v>
       </c>
       <c r="E126">
-        <v>58293018</v>
+        <v>58362683</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -5650,13 +5650,13 @@
         <v>12</v>
       </c>
       <c r="C130">
-        <v>21020</v>
+        <v>21046</v>
       </c>
       <c r="D130">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E130">
-        <v>109456519</v>
+        <v>109680337</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -5685,13 +5685,13 @@
         <v>12</v>
       </c>
       <c r="C131">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D131">
         <v>21</v>
       </c>
       <c r="E131">
-        <v>3497573</v>
+        <v>3507573</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -5720,13 +5720,13 @@
         <v>12</v>
       </c>
       <c r="C132">
-        <v>6768</v>
+        <v>6772</v>
       </c>
       <c r="D132">
         <v>1292</v>
       </c>
       <c r="E132">
-        <v>40859859</v>
+        <v>40893368</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -5790,13 +5790,13 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D134">
         <v>324</v>
       </c>
       <c r="E134">
-        <v>5660405</v>
+        <v>5672692</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
@@ -5860,13 +5860,13 @@
         <v>12</v>
       </c>
       <c r="C136">
-        <v>29419</v>
+        <v>29460</v>
       </c>
       <c r="D136">
         <v>6630</v>
       </c>
       <c r="E136">
-        <v>51760239</v>
+        <v>51843807</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -6000,13 +6000,13 @@
         <v>12</v>
       </c>
       <c r="C140">
-        <v>16120</v>
+        <v>16128</v>
       </c>
       <c r="D140">
         <v>3407</v>
       </c>
       <c r="E140">
-        <v>77939979</v>
+        <v>78001024</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -6070,13 +6070,13 @@
         <v>12</v>
       </c>
       <c r="C142">
-        <v>5866</v>
+        <v>5877</v>
       </c>
       <c r="D142">
         <v>1163</v>
       </c>
       <c r="E142">
-        <v>29818828</v>
+        <v>29890378</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -6140,13 +6140,13 @@
         <v>12</v>
       </c>
       <c r="C144">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D144">
         <v>63</v>
       </c>
       <c r="E144">
-        <v>537241</v>
+        <v>538445</v>
       </c>
       <c r="F144" t="s">
         <v>14</v>
@@ -6175,13 +6175,13 @@
         <v>12</v>
       </c>
       <c r="C145">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="D145">
         <v>225</v>
       </c>
       <c r="E145">
-        <v>6257405</v>
+        <v>6260071</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -6210,13 +6210,13 @@
         <v>12</v>
       </c>
       <c r="C146">
-        <v>12850</v>
+        <v>12864</v>
       </c>
       <c r="D146">
         <v>2952</v>
       </c>
       <c r="E146">
-        <v>22937786</v>
+        <v>22966895</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -6315,13 +6315,13 @@
         <v>12</v>
       </c>
       <c r="C149">
-        <v>4921</v>
+        <v>4922</v>
       </c>
       <c r="D149">
         <v>1125</v>
       </c>
       <c r="E149">
-        <v>21138666</v>
+        <v>21148666</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -6385,13 +6385,13 @@
         <v>12</v>
       </c>
       <c r="C151">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D151">
         <v>380</v>
       </c>
       <c r="E151">
-        <v>8713692</v>
+        <v>8723692</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
@@ -6490,13 +6490,13 @@
         <v>12</v>
       </c>
       <c r="C154">
-        <v>16902</v>
+        <v>16933</v>
       </c>
       <c r="D154">
-        <v>3759</v>
+        <v>3760</v>
       </c>
       <c r="E154">
-        <v>30906374</v>
+        <v>30972020</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -6525,13 +6525,13 @@
         <v>12</v>
       </c>
       <c r="C155">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D155">
         <v>14</v>
       </c>
       <c r="E155">
-        <v>681412</v>
+        <v>688954</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -6560,13 +6560,13 @@
         <v>12</v>
       </c>
       <c r="C156">
-        <v>7793</v>
+        <v>7802</v>
       </c>
       <c r="D156">
         <v>1629</v>
       </c>
       <c r="E156">
-        <v>38907838</v>
+        <v>38970279</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -6630,13 +6630,13 @@
         <v>12</v>
       </c>
       <c r="C158">
-        <v>4063</v>
+        <v>4069</v>
       </c>
       <c r="D158">
         <v>823</v>
       </c>
       <c r="E158">
-        <v>21183318</v>
+        <v>21251325</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -6770,13 +6770,13 @@
         <v>12</v>
       </c>
       <c r="C162">
-        <v>12744</v>
+        <v>12756</v>
       </c>
       <c r="D162">
         <v>2819</v>
       </c>
       <c r="E162">
-        <v>25283755</v>
+        <v>25300221</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -6840,13 +6840,13 @@
         <v>12</v>
       </c>
       <c r="C164">
-        <v>5211</v>
+        <v>5217</v>
       </c>
       <c r="D164">
         <v>1054</v>
       </c>
       <c r="E164">
-        <v>24363504</v>
+        <v>24401784</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -6910,13 +6910,13 @@
         <v>12</v>
       </c>
       <c r="C166">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D166">
         <v>370</v>
       </c>
       <c r="E166">
-        <v>9791016</v>
+        <v>9792516</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
@@ -6980,13 +6980,13 @@
         <v>12</v>
       </c>
       <c r="C168">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D168">
         <v>82</v>
       </c>
       <c r="E168">
-        <v>1853939</v>
+        <v>1855218</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
@@ -7015,13 +7015,13 @@
         <v>12</v>
       </c>
       <c r="C169">
-        <v>36993</v>
+        <v>37048</v>
       </c>
       <c r="D169">
         <v>8145</v>
       </c>
       <c r="E169">
-        <v>71931771</v>
+        <v>72040869</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -7155,13 +7155,13 @@
         <v>12</v>
       </c>
       <c r="C173">
-        <v>17325</v>
+        <v>17339</v>
       </c>
       <c r="D173">
         <v>3514</v>
       </c>
       <c r="E173">
-        <v>83331826</v>
+        <v>83443695</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -7225,13 +7225,13 @@
         <v>12</v>
       </c>
       <c r="C175">
-        <v>6732</v>
+        <v>6741</v>
       </c>
       <c r="D175">
         <v>1291</v>
       </c>
       <c r="E175">
-        <v>38408317</v>
+        <v>38458396</v>
       </c>
       <c r="F175" t="s">
         <v>14</v>
@@ -7295,13 +7295,13 @@
         <v>12</v>
       </c>
       <c r="C177">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D177">
         <v>415</v>
       </c>
       <c r="E177">
-        <v>4394858</v>
+        <v>4396358</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
@@ -7365,13 +7365,13 @@
         <v>12</v>
       </c>
       <c r="C179">
-        <v>6615</v>
+        <v>6620</v>
       </c>
       <c r="D179">
         <v>1516</v>
       </c>
       <c r="E179">
-        <v>12288084</v>
+        <v>12306148</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -7435,13 +7435,13 @@
         <v>12</v>
       </c>
       <c r="C181">
-        <v>4007</v>
+        <v>4014</v>
       </c>
       <c r="D181">
         <v>835</v>
       </c>
       <c r="E181">
-        <v>20907697</v>
+        <v>20963495</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
@@ -7505,13 +7505,13 @@
         <v>12</v>
       </c>
       <c r="C183">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="D183">
         <v>316</v>
       </c>
       <c r="E183">
-        <v>6513816</v>
+        <v>6541658</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -7610,13 +7610,13 @@
         <v>12</v>
       </c>
       <c r="C186">
-        <v>19712</v>
+        <v>19738</v>
       </c>
       <c r="D186">
         <v>4501</v>
       </c>
       <c r="E186">
-        <v>36525694</v>
+        <v>36579554</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -7645,13 +7645,13 @@
         <v>12</v>
       </c>
       <c r="C187">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D187">
         <v>32</v>
       </c>
       <c r="E187">
-        <v>1081037</v>
+        <v>1137652</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
@@ -7680,13 +7680,13 @@
         <v>12</v>
       </c>
       <c r="C188">
-        <v>8658</v>
+        <v>8666</v>
       </c>
       <c r="D188">
         <v>1799</v>
       </c>
       <c r="E188">
-        <v>40664875</v>
+        <v>40716966</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -7715,13 +7715,13 @@
         <v>12</v>
       </c>
       <c r="C189">
-        <v>4317</v>
+        <v>4321</v>
       </c>
       <c r="D189">
         <v>866</v>
       </c>
       <c r="E189">
-        <v>22141248</v>
+        <v>22168311</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -7750,13 +7750,13 @@
         <v>12</v>
       </c>
       <c r="C190">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D190">
         <v>223</v>
       </c>
       <c r="E190">
-        <v>5364695</v>
+        <v>5376195</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -7785,13 +7785,13 @@
         <v>12</v>
       </c>
       <c r="C191">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D191">
         <v>117</v>
       </c>
       <c r="E191">
-        <v>2560606</v>
+        <v>2593917</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -7820,13 +7820,13 @@
         <v>12</v>
       </c>
       <c r="C192">
-        <v>36365</v>
+        <v>36425</v>
       </c>
       <c r="D192">
-        <v>8472</v>
+        <v>8473</v>
       </c>
       <c r="E192">
-        <v>74452561</v>
+        <v>74561028</v>
       </c>
       <c r="F192" t="s">
         <v>15</v>
@@ -7960,13 +7960,13 @@
         <v>12</v>
       </c>
       <c r="C196">
-        <v>20601</v>
+        <v>20615</v>
       </c>
       <c r="D196">
         <v>4184</v>
       </c>
       <c r="E196">
-        <v>103530261</v>
+        <v>103637174</v>
       </c>
       <c r="F196" t="s">
         <v>15</v>
@@ -8030,13 +8030,13 @@
         <v>12</v>
       </c>
       <c r="C198">
-        <v>3771</v>
+        <v>3778</v>
       </c>
       <c r="D198">
         <v>751</v>
       </c>
       <c r="E198">
-        <v>25145643</v>
+        <v>25204734</v>
       </c>
       <c r="F198" t="s">
         <v>15</v>
@@ -8100,13 +8100,13 @@
         <v>12</v>
       </c>
       <c r="C200">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D200">
         <v>257</v>
       </c>
       <c r="E200">
-        <v>6637742</v>
+        <v>6638673</v>
       </c>
       <c r="F200" t="s">
         <v>15</v>
@@ -8135,13 +8135,13 @@
         <v>12</v>
       </c>
       <c r="C201">
-        <v>54406</v>
+        <v>54480</v>
       </c>
       <c r="D201">
-        <v>13165</v>
+        <v>13166</v>
       </c>
       <c r="E201">
-        <v>109768730</v>
+        <v>109927819</v>
       </c>
       <c r="F201" t="s">
         <v>15</v>
@@ -8240,13 +8240,13 @@
         <v>12</v>
       </c>
       <c r="C204">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="D204">
         <v>198</v>
       </c>
       <c r="E204">
-        <v>10209412</v>
+        <v>10229412</v>
       </c>
       <c r="F204" t="s">
         <v>15</v>
@@ -8275,13 +8275,13 @@
         <v>12</v>
       </c>
       <c r="C205">
-        <v>28549</v>
+        <v>28582</v>
       </c>
       <c r="D205">
         <v>5711</v>
       </c>
       <c r="E205">
-        <v>148902841</v>
+        <v>149137153</v>
       </c>
       <c r="F205" t="s">
         <v>15</v>
@@ -8345,13 +8345,13 @@
         <v>12</v>
       </c>
       <c r="C207">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207">
         <v>3</v>
       </c>
       <c r="E207">
-        <v>465090</v>
+        <v>475090</v>
       </c>
       <c r="F207" t="s">
         <v>15</v>
@@ -8380,13 +8380,13 @@
         <v>12</v>
       </c>
       <c r="C208">
-        <v>8207</v>
+        <v>8219</v>
       </c>
       <c r="D208">
         <v>1577</v>
       </c>
       <c r="E208">
-        <v>54257967</v>
+        <v>54345679</v>
       </c>
       <c r="F208" t="s">
         <v>15</v>
@@ -8415,13 +8415,13 @@
         <v>12</v>
       </c>
       <c r="C209">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D209">
         <v>168</v>
       </c>
       <c r="E209">
-        <v>1612469</v>
+        <v>1615302</v>
       </c>
       <c r="F209" t="s">
         <v>15</v>
@@ -8450,13 +8450,13 @@
         <v>12</v>
       </c>
       <c r="C210">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="D210">
         <v>399</v>
       </c>
       <c r="E210">
-        <v>10620581</v>
+        <v>10629176</v>
       </c>
       <c r="F210" t="s">
         <v>15</v>
@@ -8485,13 +8485,13 @@
         <v>12</v>
       </c>
       <c r="C211">
-        <v>61479</v>
+        <v>61585</v>
       </c>
       <c r="D211">
         <v>14416</v>
       </c>
       <c r="E211">
-        <v>111654803</v>
+        <v>111863226</v>
       </c>
       <c r="F211" t="s">
         <v>15</v>
@@ -8590,13 +8590,13 @@
         <v>12</v>
       </c>
       <c r="C214">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D214">
         <v>162</v>
       </c>
       <c r="E214">
-        <v>7091301</v>
+        <v>7098626</v>
       </c>
       <c r="F214" t="s">
         <v>15</v>
@@ -8625,13 +8625,13 @@
         <v>12</v>
       </c>
       <c r="C215">
-        <v>40793</v>
+        <v>40826</v>
       </c>
       <c r="D215">
         <v>8231</v>
       </c>
       <c r="E215">
-        <v>219351330</v>
+        <v>219612540</v>
       </c>
       <c r="F215" t="s">
         <v>15</v>
@@ -8660,13 +8660,13 @@
         <v>12</v>
       </c>
       <c r="C216">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D216">
         <v>16</v>
       </c>
       <c r="E216">
-        <v>2351085</v>
+        <v>2361085</v>
       </c>
       <c r="F216" t="s">
         <v>15</v>
@@ -8730,13 +8730,13 @@
         <v>12</v>
       </c>
       <c r="C218">
-        <v>8186</v>
+        <v>8192</v>
       </c>
       <c r="D218">
         <v>1657</v>
       </c>
       <c r="E218">
-        <v>55927884</v>
+        <v>55950690</v>
       </c>
       <c r="F218" t="s">
         <v>15</v>
@@ -8835,13 +8835,13 @@
         <v>12</v>
       </c>
       <c r="C221">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="D221">
         <v>508</v>
       </c>
       <c r="E221">
-        <v>14439641</v>
+        <v>14459641</v>
       </c>
       <c r="F221" t="s">
         <v>15</v>
@@ -8870,13 +8870,13 @@
         <v>12</v>
       </c>
       <c r="C222">
-        <v>51945</v>
+        <v>52013</v>
       </c>
       <c r="D222">
         <v>12087</v>
       </c>
       <c r="E222">
-        <v>99994889</v>
+        <v>100133106</v>
       </c>
       <c r="F222" t="s">
         <v>15</v>
@@ -8975,13 +8975,13 @@
         <v>12</v>
       </c>
       <c r="C225">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="D225">
         <v>165</v>
       </c>
       <c r="E225">
-        <v>8576345</v>
+        <v>8607722</v>
       </c>
       <c r="F225" t="s">
         <v>15</v>
@@ -9045,13 +9045,13 @@
         <v>12</v>
       </c>
       <c r="C227">
-        <v>30599</v>
+        <v>30638</v>
       </c>
       <c r="D227">
         <v>6103</v>
       </c>
       <c r="E227">
-        <v>157226451</v>
+        <v>157476641</v>
       </c>
       <c r="F227" t="s">
         <v>15</v>
@@ -9115,13 +9115,13 @@
         <v>12</v>
       </c>
       <c r="C229">
-        <v>7575</v>
+        <v>7587</v>
       </c>
       <c r="D229">
         <v>1505</v>
       </c>
       <c r="E229">
-        <v>45565968</v>
+        <v>45675506</v>
       </c>
       <c r="F229" t="s">
         <v>15</v>
@@ -9220,13 +9220,13 @@
         <v>12</v>
       </c>
       <c r="C232">
-        <v>16917</v>
+        <v>16934</v>
       </c>
       <c r="D232">
         <v>3895</v>
       </c>
       <c r="E232">
-        <v>33511868</v>
+        <v>33541235</v>
       </c>
       <c r="F232" t="s">
         <v>16</v>
@@ -9290,13 +9290,13 @@
         <v>12</v>
       </c>
       <c r="C234">
-        <v>6843</v>
+        <v>6846</v>
       </c>
       <c r="D234">
         <v>1446</v>
       </c>
       <c r="E234">
-        <v>30853019</v>
+        <v>30880955</v>
       </c>
       <c r="F234" t="s">
         <v>16</v>
@@ -9360,13 +9360,13 @@
         <v>12</v>
       </c>
       <c r="C236">
-        <v>2773</v>
+        <v>2780</v>
       </c>
       <c r="D236">
         <v>565</v>
       </c>
       <c r="E236">
-        <v>14526459</v>
+        <v>14546203</v>
       </c>
       <c r="F236" t="s">
         <v>16</v>
@@ -9430,13 +9430,13 @@
         <v>12</v>
       </c>
       <c r="C238">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D238">
         <v>91</v>
       </c>
       <c r="E238">
-        <v>1751132</v>
+        <v>1756912</v>
       </c>
       <c r="F238" t="s">
         <v>16</v>
@@ -9465,13 +9465,13 @@
         <v>12</v>
       </c>
       <c r="C239">
-        <v>20549</v>
+        <v>20584</v>
       </c>
       <c r="D239">
-        <v>4831</v>
+        <v>4832</v>
       </c>
       <c r="E239">
-        <v>38590246</v>
+        <v>38658905</v>
       </c>
       <c r="F239" t="s">
         <v>16</v>
@@ -9570,13 +9570,13 @@
         <v>12</v>
       </c>
       <c r="C242">
-        <v>9844</v>
+        <v>9854</v>
       </c>
       <c r="D242">
         <v>2227</v>
       </c>
       <c r="E242">
-        <v>44402508</v>
+        <v>44516052</v>
       </c>
       <c r="F242" t="s">
         <v>16</v>
@@ -9640,13 +9640,13 @@
         <v>12</v>
       </c>
       <c r="C244">
-        <v>5404</v>
+        <v>5420</v>
       </c>
       <c r="D244">
         <v>1126</v>
       </c>
       <c r="E244">
-        <v>22673662</v>
+        <v>22758627</v>
       </c>
       <c r="F244" t="s">
         <v>16</v>
@@ -9745,13 +9745,13 @@
         <v>12</v>
       </c>
       <c r="C247">
-        <v>12475</v>
+        <v>12497</v>
       </c>
       <c r="D247">
         <v>2734</v>
       </c>
       <c r="E247">
-        <v>23771285</v>
+        <v>23793526</v>
       </c>
       <c r="F247" t="s">
         <v>16</v>
@@ -9850,13 +9850,13 @@
         <v>12</v>
       </c>
       <c r="C250">
-        <v>4984</v>
+        <v>4986</v>
       </c>
       <c r="D250">
         <v>1071</v>
       </c>
       <c r="E250">
-        <v>23259411</v>
+        <v>23278743</v>
       </c>
       <c r="F250" t="s">
         <v>16</v>
@@ -9990,13 +9990,13 @@
         <v>12</v>
       </c>
       <c r="C254">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D254">
         <v>94</v>
       </c>
       <c r="E254">
-        <v>2480872</v>
+        <v>2506374</v>
       </c>
       <c r="F254" t="s">
         <v>16</v>
@@ -10025,13 +10025,13 @@
         <v>12</v>
       </c>
       <c r="C255">
-        <v>41149</v>
+        <v>41226</v>
       </c>
       <c r="D255">
-        <v>9345</v>
+        <v>9346</v>
       </c>
       <c r="E255">
-        <v>72689199</v>
+        <v>72826251</v>
       </c>
       <c r="F255" t="s">
         <v>16</v>
@@ -10165,13 +10165,13 @@
         <v>12</v>
       </c>
       <c r="C259">
-        <v>21402</v>
+        <v>21422</v>
       </c>
       <c r="D259">
         <v>4183</v>
       </c>
       <c r="E259">
-        <v>104829747</v>
+        <v>104943804</v>
       </c>
       <c r="F259" t="s">
         <v>16</v>
@@ -10270,13 +10270,13 @@
         <v>12</v>
       </c>
       <c r="C262">
-        <v>7424</v>
+        <v>7434</v>
       </c>
       <c r="D262">
         <v>1448</v>
       </c>
       <c r="E262">
-        <v>40911416</v>
+        <v>40979969</v>
       </c>
       <c r="F262" t="s">
         <v>16</v>
@@ -10305,13 +10305,13 @@
         <v>12</v>
       </c>
       <c r="C263">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D263">
         <v>349</v>
       </c>
       <c r="E263">
-        <v>7374442</v>
+        <v>7386461</v>
       </c>
       <c r="F263" t="s">
         <v>16</v>
@@ -10375,13 +10375,13 @@
         <v>12</v>
       </c>
       <c r="C265">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="D265">
         <v>296</v>
       </c>
       <c r="E265">
-        <v>6731462</v>
+        <v>6732768</v>
       </c>
       <c r="F265" t="s">
         <v>16</v>
@@ -10445,13 +10445,13 @@
         <v>12</v>
       </c>
       <c r="C267">
-        <v>34352</v>
+        <v>34406</v>
       </c>
       <c r="D267">
         <v>8093</v>
       </c>
       <c r="E267">
-        <v>60816395</v>
+        <v>60911858</v>
       </c>
       <c r="F267" t="s">
         <v>16</v>
@@ -10550,13 +10550,13 @@
         <v>12</v>
       </c>
       <c r="C270">
-        <v>18056</v>
+        <v>18071</v>
       </c>
       <c r="D270">
-        <v>3847</v>
+        <v>3848</v>
       </c>
       <c r="E270">
-        <v>86719875</v>
+        <v>86786218</v>
       </c>
       <c r="F270" t="s">
         <v>16</v>
@@ -10620,13 +10620,13 @@
         <v>12</v>
       </c>
       <c r="C272">
-        <v>8497</v>
+        <v>8510</v>
       </c>
       <c r="D272">
         <v>1754</v>
       </c>
       <c r="E272">
-        <v>39789223</v>
+        <v>39876374</v>
       </c>
       <c r="F272" t="s">
         <v>16</v>
@@ -10655,13 +10655,13 @@
         <v>12</v>
       </c>
       <c r="C273">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D273">
         <v>88</v>
       </c>
       <c r="E273">
-        <v>594800</v>
+        <v>597800</v>
       </c>
       <c r="F273" t="s">
         <v>16</v>
@@ -10725,13 +10725,13 @@
         <v>12</v>
       </c>
       <c r="C275">
-        <v>20077</v>
+        <v>20111</v>
       </c>
       <c r="D275">
-        <v>4593</v>
+        <v>4594</v>
       </c>
       <c r="E275">
-        <v>39624199</v>
+        <v>39706197</v>
       </c>
       <c r="F275" t="s">
         <v>16</v>
@@ -10830,13 +10830,13 @@
         <v>12</v>
       </c>
       <c r="C278">
-        <v>9993</v>
+        <v>10004</v>
       </c>
       <c r="D278">
         <v>2119</v>
       </c>
       <c r="E278">
-        <v>47582986</v>
+        <v>47649106</v>
       </c>
       <c r="F278" t="s">
         <v>16</v>
@@ -10900,13 +10900,13 @@
         <v>12</v>
       </c>
       <c r="C280">
-        <v>3572</v>
+        <v>3576</v>
       </c>
       <c r="D280">
         <v>711</v>
       </c>
       <c r="E280">
-        <v>20581679</v>
+        <v>20602477</v>
       </c>
       <c r="F280" t="s">
         <v>16</v>
@@ -10935,13 +10935,13 @@
         <v>12</v>
       </c>
       <c r="C281">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D281">
         <v>153</v>
       </c>
       <c r="E281">
-        <v>2162543</v>
+        <v>2166186</v>
       </c>
       <c r="F281" t="s">
         <v>16</v>
@@ -10970,13 +10970,13 @@
         <v>12</v>
       </c>
       <c r="C282">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D282">
         <v>152</v>
       </c>
       <c r="E282">
-        <v>3041080</v>
+        <v>3043236</v>
       </c>
       <c r="F282" t="s">
         <v>16</v>
@@ -11005,13 +11005,13 @@
         <v>12</v>
       </c>
       <c r="C283">
-        <v>21808</v>
+        <v>21838</v>
       </c>
       <c r="D283">
         <v>4584</v>
       </c>
       <c r="E283">
-        <v>48910983</v>
+        <v>49005159</v>
       </c>
       <c r="F283" t="s">
         <v>17</v>
@@ -11145,13 +11145,13 @@
         <v>12</v>
       </c>
       <c r="C287">
-        <v>13655</v>
+        <v>13673</v>
       </c>
       <c r="D287">
         <v>2287</v>
       </c>
       <c r="E287">
-        <v>89626784</v>
+        <v>89800409</v>
       </c>
       <c r="F287" t="s">
         <v>17</v>
@@ -11215,13 +11215,13 @@
         <v>12</v>
       </c>
       <c r="C289">
-        <v>8417</v>
+        <v>8428</v>
       </c>
       <c r="D289">
         <v>1461</v>
       </c>
       <c r="E289">
-        <v>50569652</v>
+        <v>50678346</v>
       </c>
       <c r="F289" t="s">
         <v>17</v>
@@ -11285,13 +11285,13 @@
         <v>12</v>
       </c>
       <c r="C291">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D291">
         <v>66</v>
       </c>
       <c r="E291">
-        <v>1640385</v>
+        <v>1641669</v>
       </c>
       <c r="F291" t="s">
         <v>17</v>
@@ -11320,13 +11320,13 @@
         <v>12</v>
       </c>
       <c r="C292">
-        <v>25868</v>
+        <v>25910</v>
       </c>
       <c r="D292">
         <v>4939</v>
       </c>
       <c r="E292">
-        <v>52464586</v>
+        <v>52518653</v>
       </c>
       <c r="F292" t="s">
         <v>17</v>
@@ -11460,13 +11460,13 @@
         <v>12</v>
       </c>
       <c r="C296">
-        <v>12219</v>
+        <v>12230</v>
       </c>
       <c r="D296">
         <v>1972</v>
       </c>
       <c r="E296">
-        <v>69916073</v>
+        <v>70039374</v>
       </c>
       <c r="F296" t="s">
         <v>17</v>
@@ -11530,13 +11530,13 @@
         <v>12</v>
       </c>
       <c r="C298">
-        <v>8615</v>
+        <v>8623</v>
       </c>
       <c r="D298">
         <v>1433</v>
       </c>
       <c r="E298">
-        <v>47446384</v>
+        <v>47515543</v>
       </c>
       <c r="F298" t="s">
         <v>17</v>
@@ -11635,13 +11635,13 @@
         <v>12</v>
       </c>
       <c r="C301">
-        <v>14702</v>
+        <v>14729</v>
       </c>
       <c r="D301">
         <v>3338</v>
       </c>
       <c r="E301">
-        <v>28108426</v>
+        <v>28175966</v>
       </c>
       <c r="F301" t="s">
         <v>18</v>
@@ -11740,13 +11740,13 @@
         <v>12</v>
       </c>
       <c r="C304">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D304">
         <v>22</v>
       </c>
       <c r="E304">
-        <v>806824</v>
+        <v>826101</v>
       </c>
       <c r="F304" t="s">
         <v>18</v>
@@ -11775,13 +11775,13 @@
         <v>12</v>
       </c>
       <c r="C305">
-        <v>5735</v>
+        <v>5740</v>
       </c>
       <c r="D305">
         <v>1239</v>
       </c>
       <c r="E305">
-        <v>25519372</v>
+        <v>25560872</v>
       </c>
       <c r="F305" t="s">
         <v>18</v>
@@ -11845,13 +11845,13 @@
         <v>12</v>
       </c>
       <c r="C307">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="D307">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E307">
-        <v>10681699</v>
+        <v>10703699</v>
       </c>
       <c r="F307" t="s">
         <v>18</v>
@@ -11950,13 +11950,13 @@
         <v>12</v>
       </c>
       <c r="C310">
-        <v>19774</v>
+        <v>19800</v>
       </c>
       <c r="D310">
         <v>4388</v>
       </c>
       <c r="E310">
-        <v>47581824</v>
+        <v>47627900</v>
       </c>
       <c r="F310" t="s">
         <v>18</v>
@@ -12090,13 +12090,13 @@
         <v>12</v>
       </c>
       <c r="C314">
-        <v>8886</v>
+        <v>8896</v>
       </c>
       <c r="D314">
         <v>1879</v>
       </c>
       <c r="E314">
-        <v>42163249</v>
+        <v>42226201</v>
       </c>
       <c r="F314" t="s">
         <v>18</v>
@@ -12125,13 +12125,13 @@
         <v>12</v>
       </c>
       <c r="C315">
-        <v>3977</v>
+        <v>3981</v>
       </c>
       <c r="D315">
         <v>780</v>
       </c>
       <c r="E315">
-        <v>20339187</v>
+        <v>20351757</v>
       </c>
       <c r="F315" t="s">
         <v>18</v>
@@ -12230,13 +12230,13 @@
         <v>12</v>
       </c>
       <c r="C318">
-        <v>3318</v>
+        <v>3323</v>
       </c>
       <c r="D318">
         <v>997</v>
       </c>
       <c r="E318">
-        <v>24621603</v>
+        <v>24668943</v>
       </c>
       <c r="F318" t="s">
         <v>18</v>
@@ -12300,13 +12300,13 @@
         <v>12</v>
       </c>
       <c r="C320">
-        <v>72889</v>
+        <v>73019</v>
       </c>
       <c r="D320">
         <v>15885</v>
       </c>
       <c r="E320">
-        <v>128455133</v>
+        <v>128728132</v>
       </c>
       <c r="F320" t="s">
         <v>18</v>
@@ -12510,13 +12510,13 @@
         <v>12</v>
       </c>
       <c r="C326">
-        <v>44688</v>
+        <v>44730</v>
       </c>
       <c r="D326">
         <v>9054</v>
       </c>
       <c r="E326">
-        <v>222606110</v>
+        <v>222921418</v>
       </c>
       <c r="F326" t="s">
         <v>18</v>
@@ -12615,13 +12615,13 @@
         <v>12</v>
       </c>
       <c r="C329">
-        <v>22254</v>
+        <v>22274</v>
       </c>
       <c r="D329">
         <v>4503</v>
       </c>
       <c r="E329">
-        <v>129697243</v>
+        <v>129830396</v>
       </c>
       <c r="F329" t="s">
         <v>18</v>
@@ -12685,13 +12685,13 @@
         <v>12</v>
       </c>
       <c r="C331">
-        <v>5117</v>
+        <v>5124</v>
       </c>
       <c r="D331">
         <v>962</v>
       </c>
       <c r="E331">
-        <v>23686106</v>
+        <v>23730606</v>
       </c>
       <c r="F331" t="s">
         <v>18</v>
@@ -12720,13 +12720,13 @@
         <v>12</v>
       </c>
       <c r="C332">
-        <v>2935</v>
+        <v>2938</v>
       </c>
       <c r="D332">
         <v>439</v>
       </c>
       <c r="E332">
-        <v>11926989</v>
+        <v>11940433</v>
       </c>
       <c r="F332" t="s">
         <v>18</v>
@@ -12755,13 +12755,13 @@
         <v>12</v>
       </c>
       <c r="C333">
-        <v>8395</v>
+        <v>8404</v>
       </c>
       <c r="D333">
         <v>1910</v>
       </c>
       <c r="E333">
-        <v>15225230</v>
+        <v>15244304</v>
       </c>
       <c r="F333" t="s">
         <v>18</v>
@@ -12825,13 +12825,13 @@
         <v>12</v>
       </c>
       <c r="C335">
-        <v>3666</v>
+        <v>3668</v>
       </c>
       <c r="D335">
         <v>776</v>
       </c>
       <c r="E335">
-        <v>17084639</v>
+        <v>17104639</v>
       </c>
       <c r="F335" t="s">
         <v>18</v>
@@ -12860,13 +12860,13 @@
         <v>12</v>
       </c>
       <c r="C336">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="D336">
         <v>334</v>
       </c>
       <c r="E336">
-        <v>7703377</v>
+        <v>7715315</v>
       </c>
       <c r="F336" t="s">
         <v>18</v>
@@ -12895,13 +12895,13 @@
         <v>12</v>
       </c>
       <c r="C337">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D337">
         <v>83</v>
       </c>
       <c r="E337">
-        <v>448785</v>
+        <v>454970</v>
       </c>
       <c r="F337" t="s">
         <v>18</v>
@@ -12930,13 +12930,13 @@
         <v>12</v>
       </c>
       <c r="C338">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D338">
         <v>64</v>
       </c>
       <c r="E338">
-        <v>1191918</v>
+        <v>1192708</v>
       </c>
       <c r="F338" t="s">
         <v>18</v>
@@ -12965,13 +12965,13 @@
         <v>12</v>
       </c>
       <c r="C339">
-        <v>41391</v>
+        <v>41461</v>
       </c>
       <c r="D339">
         <v>9399</v>
       </c>
       <c r="E339">
-        <v>74862787</v>
+        <v>75002735</v>
       </c>
       <c r="F339" t="s">
         <v>18</v>
@@ -13070,13 +13070,13 @@
         <v>12</v>
       </c>
       <c r="C342">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D342">
         <v>22</v>
       </c>
       <c r="E342">
-        <v>690471</v>
+        <v>696807</v>
       </c>
       <c r="F342" t="s">
         <v>18</v>
@@ -13105,13 +13105,13 @@
         <v>12</v>
       </c>
       <c r="C343">
-        <v>26937</v>
+        <v>26959</v>
       </c>
       <c r="D343">
         <v>5349</v>
       </c>
       <c r="E343">
-        <v>146244689</v>
+        <v>146435368</v>
       </c>
       <c r="F343" t="s">
         <v>18</v>
@@ -13210,13 +13210,13 @@
         <v>12</v>
       </c>
       <c r="C346">
-        <v>13568</v>
+        <v>13587</v>
       </c>
       <c r="D346">
         <v>2648</v>
       </c>
       <c r="E346">
-        <v>75857472</v>
+        <v>75956310</v>
       </c>
       <c r="F346" t="s">
         <v>18</v>
@@ -13245,13 +13245,13 @@
         <v>12</v>
       </c>
       <c r="C347">
-        <v>3136</v>
+        <v>3139</v>
       </c>
       <c r="D347">
         <v>690</v>
       </c>
       <c r="E347">
-        <v>19212101</v>
+        <v>19231255</v>
       </c>
       <c r="F347" t="s">
         <v>18</v>
@@ -13280,13 +13280,13 @@
         <v>12</v>
       </c>
       <c r="C348">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D348">
         <v>241</v>
       </c>
       <c r="E348">
-        <v>6554678</v>
+        <v>6564678</v>
       </c>
       <c r="F348" t="s">
         <v>18</v>
@@ -13315,13 +13315,13 @@
         <v>12</v>
       </c>
       <c r="C349">
-        <v>42372</v>
+        <v>42429</v>
       </c>
       <c r="D349">
-        <v>9943</v>
+        <v>9944</v>
       </c>
       <c r="E349">
-        <v>112059670</v>
+        <v>112186058</v>
       </c>
       <c r="F349" t="s">
         <v>18</v>
@@ -13455,13 +13455,13 @@
         <v>12</v>
       </c>
       <c r="C353">
-        <v>19170</v>
+        <v>19190</v>
       </c>
       <c r="D353">
         <v>3998</v>
       </c>
       <c r="E353">
-        <v>98708661</v>
+        <v>98814730</v>
       </c>
       <c r="F353" t="s">
         <v>18</v>
@@ -13560,13 +13560,13 @@
         <v>12</v>
       </c>
       <c r="C356">
-        <v>8238</v>
+        <v>8243</v>
       </c>
       <c r="D356">
         <v>1601</v>
       </c>
       <c r="E356">
-        <v>52526978</v>
+        <v>52550985</v>
       </c>
       <c r="F356" t="s">
         <v>18</v>
@@ -13665,13 +13665,13 @@
         <v>12</v>
       </c>
       <c r="C359">
-        <v>11805</v>
+        <v>11817</v>
       </c>
       <c r="D359">
         <v>3487</v>
       </c>
       <c r="E359">
-        <v>73951725</v>
+        <v>74046225</v>
       </c>
       <c r="F359" t="s">
         <v>18</v>
@@ -13700,13 +13700,13 @@
         <v>12</v>
       </c>
       <c r="C360">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D360">
         <v>180</v>
       </c>
       <c r="E360">
-        <v>3483805</v>
+        <v>3486010</v>
       </c>
       <c r="F360" t="s">
         <v>18</v>
@@ -13735,13 +13735,13 @@
         <v>12</v>
       </c>
       <c r="C361">
-        <v>39066</v>
+        <v>39126</v>
       </c>
       <c r="D361">
         <v>8711</v>
       </c>
       <c r="E361">
-        <v>65515869</v>
+        <v>65617843</v>
       </c>
       <c r="F361" t="s">
         <v>18</v>
@@ -13840,13 +13840,13 @@
         <v>12</v>
       </c>
       <c r="C364">
-        <v>17877</v>
+        <v>17897</v>
       </c>
       <c r="D364">
         <v>3808</v>
       </c>
       <c r="E364">
-        <v>81903413</v>
+        <v>82035678</v>
       </c>
       <c r="F364" t="s">
         <v>18</v>
@@ -13910,13 +13910,13 @@
         <v>12</v>
       </c>
       <c r="C366">
-        <v>8042</v>
+        <v>8049</v>
       </c>
       <c r="D366">
         <v>1594</v>
       </c>
       <c r="E366">
-        <v>42989637</v>
+        <v>43063951</v>
       </c>
       <c r="F366" t="s">
         <v>18</v>
@@ -13980,13 +13980,13 @@
         <v>12</v>
       </c>
       <c r="C368">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D368">
         <v>100</v>
       </c>
       <c r="E368">
-        <v>681043</v>
+        <v>682543</v>
       </c>
       <c r="F368" t="s">
         <v>18</v>
@@ -14015,13 +14015,13 @@
         <v>12</v>
       </c>
       <c r="C369">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="D369">
         <v>245</v>
       </c>
       <c r="E369">
-        <v>5642262</v>
+        <v>5649093</v>
       </c>
       <c r="F369" t="s">
         <v>18</v>
@@ -14050,13 +14050,13 @@
         <v>12</v>
       </c>
       <c r="C370">
-        <v>9115</v>
+        <v>9132</v>
       </c>
       <c r="D370">
         <v>2062</v>
       </c>
       <c r="E370">
-        <v>17548062</v>
+        <v>17576866</v>
       </c>
       <c r="F370" t="s">
         <v>18</v>
@@ -14155,13 +14155,13 @@
         <v>12</v>
       </c>
       <c r="C373">
-        <v>3441</v>
+        <v>3444</v>
       </c>
       <c r="D373">
         <v>724</v>
       </c>
       <c r="E373">
-        <v>15760334</v>
+        <v>15771161</v>
       </c>
       <c r="F373" t="s">
         <v>18</v>
@@ -14190,13 +14190,13 @@
         <v>12</v>
       </c>
       <c r="C374">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="D374">
         <v>322</v>
       </c>
       <c r="E374">
-        <v>6692906</v>
+        <v>6704406</v>
       </c>
       <c r="F374" t="s">
         <v>18</v>
@@ -14225,13 +14225,13 @@
         <v>12</v>
       </c>
       <c r="C375">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D375">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E375">
-        <v>346592</v>
+        <v>348092</v>
       </c>
       <c r="F375" t="s">
         <v>18</v>
@@ -14295,13 +14295,13 @@
         <v>12</v>
       </c>
       <c r="C377">
-        <v>46508</v>
+        <v>46573</v>
       </c>
       <c r="D377">
         <v>10697</v>
       </c>
       <c r="E377">
-        <v>82766466</v>
+        <v>82913191</v>
       </c>
       <c r="F377" t="s">
         <v>18</v>
@@ -14400,13 +14400,13 @@
         <v>12</v>
       </c>
       <c r="C380">
-        <v>23826</v>
+        <v>23854</v>
       </c>
       <c r="D380">
         <v>5076</v>
       </c>
       <c r="E380">
-        <v>120543445</v>
+        <v>120750511</v>
       </c>
       <c r="F380" t="s">
         <v>18</v>
@@ -14470,13 +14470,13 @@
         <v>12</v>
       </c>
       <c r="C382">
-        <v>15838</v>
+        <v>15848</v>
       </c>
       <c r="D382">
         <v>3244</v>
       </c>
       <c r="E382">
-        <v>73649975</v>
+        <v>73722495</v>
       </c>
       <c r="F382" t="s">
         <v>18</v>
@@ -14505,13 +14505,13 @@
         <v>12</v>
       </c>
       <c r="C383">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D383">
         <v>131</v>
       </c>
       <c r="E383">
-        <v>671399</v>
+        <v>672099</v>
       </c>
       <c r="F383" t="s">
         <v>18</v>
@@ -14540,13 +14540,13 @@
         <v>12</v>
       </c>
       <c r="C384">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D384">
         <v>208</v>
       </c>
       <c r="E384">
-        <v>7786187</v>
+        <v>7808157</v>
       </c>
       <c r="F384" t="s">
         <v>18</v>
@@ -14575,13 +14575,13 @@
         <v>12</v>
       </c>
       <c r="C385">
-        <v>24429</v>
+        <v>24458</v>
       </c>
       <c r="D385">
         <v>5297</v>
       </c>
       <c r="E385">
-        <v>45155749</v>
+        <v>45200206</v>
       </c>
       <c r="F385" t="s">
         <v>18</v>
@@ -14715,13 +14715,13 @@
         <v>12</v>
       </c>
       <c r="C389">
-        <v>13299</v>
+        <v>13309</v>
       </c>
       <c r="D389">
         <v>2750</v>
       </c>
       <c r="E389">
-        <v>61119544</v>
+        <v>61185219</v>
       </c>
       <c r="F389" t="s">
         <v>18</v>
@@ -14785,13 +14785,13 @@
         <v>12</v>
       </c>
       <c r="C391">
-        <v>5118</v>
+        <v>5120</v>
       </c>
       <c r="D391">
         <v>1014</v>
       </c>
       <c r="E391">
-        <v>26256399</v>
+        <v>26267899</v>
       </c>
       <c r="F391" t="s">
         <v>18</v>
@@ -14820,13 +14820,13 @@
         <v>12</v>
       </c>
       <c r="C392">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D392">
         <v>77</v>
       </c>
       <c r="E392">
-        <v>616731</v>
+        <v>617363</v>
       </c>
       <c r="F392" t="s">
         <v>18</v>
@@ -14855,13 +14855,13 @@
         <v>12</v>
       </c>
       <c r="C393">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D393">
         <v>134</v>
       </c>
       <c r="E393">
-        <v>2284447</v>
+        <v>2287786</v>
       </c>
       <c r="F393" t="s">
         <v>18</v>
@@ -14890,13 +14890,13 @@
         <v>12</v>
       </c>
       <c r="C394">
-        <v>61562</v>
+        <v>61665</v>
       </c>
       <c r="D394">
         <v>12266</v>
       </c>
       <c r="E394">
-        <v>97977372</v>
+        <v>98150108</v>
       </c>
       <c r="F394" t="s">
         <v>19</v>
@@ -14995,13 +14995,13 @@
         <v>12</v>
       </c>
       <c r="C397">
-        <v>15061</v>
+        <v>15084</v>
       </c>
       <c r="D397">
         <v>3289</v>
       </c>
       <c r="E397">
-        <v>49644907</v>
+        <v>49767621</v>
       </c>
       <c r="F397" t="s">
         <v>19</v>
@@ -15065,13 +15065,13 @@
         <v>12</v>
       </c>
       <c r="C399">
-        <v>13874</v>
+        <v>13888</v>
       </c>
       <c r="D399">
         <v>2815</v>
       </c>
       <c r="E399">
-        <v>36334418</v>
+        <v>36390593</v>
       </c>
       <c r="F399" t="s">
         <v>19</v>
@@ -15100,13 +15100,13 @@
         <v>12</v>
       </c>
       <c r="C400">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D400">
         <v>201</v>
       </c>
       <c r="E400">
-        <v>1579285</v>
+        <v>1583285</v>
       </c>
       <c r="F400" t="s">
         <v>19</v>
@@ -15135,13 +15135,13 @@
         <v>12</v>
       </c>
       <c r="C401">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D401">
         <v>192</v>
       </c>
       <c r="E401">
-        <v>1435237</v>
+        <v>1440969</v>
       </c>
       <c r="F401" t="s">
         <v>19</v>
@@ -15170,13 +15170,13 @@
         <v>12</v>
       </c>
       <c r="C402">
-        <v>24906</v>
+        <v>24923</v>
       </c>
       <c r="D402">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="E402">
-        <v>49731187</v>
+        <v>49755521</v>
       </c>
       <c r="F402" t="s">
         <v>20</v>
@@ -15240,13 +15240,13 @@
         <v>12</v>
       </c>
       <c r="C404">
-        <v>5333</v>
+        <v>5339</v>
       </c>
       <c r="D404">
         <v>901</v>
       </c>
       <c r="E404">
-        <v>15321904</v>
+        <v>15334314</v>
       </c>
       <c r="F404" t="s">
         <v>20</v>
@@ -15310,13 +15310,13 @@
         <v>12</v>
       </c>
       <c r="C406">
-        <v>7879</v>
+        <v>7886</v>
       </c>
       <c r="D406">
         <v>1264</v>
       </c>
       <c r="E406">
-        <v>19669149</v>
+        <v>19679867</v>
       </c>
       <c r="F406" t="s">
         <v>20</v>
@@ -15450,13 +15450,13 @@
         <v>12</v>
       </c>
       <c r="C410">
-        <v>24908</v>
+        <v>24941</v>
       </c>
       <c r="D410">
         <v>5518</v>
       </c>
       <c r="E410">
-        <v>50002697</v>
+        <v>50075480</v>
       </c>
       <c r="F410" t="s">
         <v>21</v>
@@ -15520,13 +15520,13 @@
         <v>12</v>
       </c>
       <c r="C412">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D412">
         <v>49</v>
       </c>
       <c r="E412">
-        <v>1676454</v>
+        <v>1686454</v>
       </c>
       <c r="F412" t="s">
         <v>21</v>
@@ -15555,13 +15555,13 @@
         <v>12</v>
       </c>
       <c r="C413">
-        <v>9830</v>
+        <v>9840</v>
       </c>
       <c r="D413">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="E413">
-        <v>48772716</v>
+        <v>48823502</v>
       </c>
       <c r="F413" t="s">
         <v>21</v>
@@ -15625,13 +15625,13 @@
         <v>12</v>
       </c>
       <c r="C415">
-        <v>5229</v>
+        <v>5234</v>
       </c>
       <c r="D415">
         <v>1038</v>
       </c>
       <c r="E415">
-        <v>24921433</v>
+        <v>24950627</v>
       </c>
       <c r="F415" t="s">
         <v>21</v>
@@ -15660,13 +15660,13 @@
         <v>12</v>
       </c>
       <c r="C416">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D416">
         <v>20</v>
       </c>
       <c r="E416">
-        <v>911961</v>
+        <v>1111961</v>
       </c>
       <c r="F416" t="s">
         <v>21</v>
@@ -15765,13 +15765,13 @@
         <v>12</v>
       </c>
       <c r="C419">
-        <v>140234</v>
+        <v>140451</v>
       </c>
       <c r="D419">
-        <v>30549</v>
+        <v>30550</v>
       </c>
       <c r="E419">
-        <v>241648338</v>
+        <v>242038968</v>
       </c>
       <c r="F419" t="s">
         <v>21</v>
@@ -15870,13 +15870,13 @@
         <v>12</v>
       </c>
       <c r="C422">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="D422">
         <v>208</v>
       </c>
       <c r="E422">
-        <v>9951126</v>
+        <v>9969993</v>
       </c>
       <c r="F422" t="s">
         <v>21</v>
@@ -15905,13 +15905,13 @@
         <v>12</v>
       </c>
       <c r="C423">
-        <v>66156</v>
+        <v>66229</v>
       </c>
       <c r="D423">
-        <v>13130</v>
+        <v>13131</v>
       </c>
       <c r="E423">
-        <v>319608136</v>
+        <v>320189356</v>
       </c>
       <c r="F423" t="s">
         <v>21</v>
@@ -16010,13 +16010,13 @@
         <v>12</v>
       </c>
       <c r="C426">
-        <v>37610</v>
+        <v>37662</v>
       </c>
       <c r="D426">
         <v>6899</v>
       </c>
       <c r="E426">
-        <v>192941988</v>
+        <v>193212685</v>
       </c>
       <c r="F426" t="s">
         <v>21</v>
@@ -16045,13 +16045,13 @@
         <v>12</v>
       </c>
       <c r="C427">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D427">
         <v>276</v>
       </c>
       <c r="E427">
-        <v>2204630</v>
+        <v>2212183</v>
       </c>
       <c r="F427" t="s">
         <v>21</v>
@@ -16080,13 +16080,13 @@
         <v>12</v>
       </c>
       <c r="C428">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="D428">
         <v>693</v>
       </c>
       <c r="E428">
-        <v>19681240</v>
+        <v>19697540</v>
       </c>
       <c r="F428" t="s">
         <v>21</v>
@@ -16150,13 +16150,13 @@
         <v>12</v>
       </c>
       <c r="C430">
-        <v>41933</v>
+        <v>42002</v>
       </c>
       <c r="D430">
-        <v>9194</v>
+        <v>9195</v>
       </c>
       <c r="E430">
-        <v>74741210</v>
+        <v>74875043</v>
       </c>
       <c r="F430" t="s">
         <v>21</v>
@@ -16255,13 +16255,13 @@
         <v>12</v>
       </c>
       <c r="C433">
-        <v>19031</v>
+        <v>19055</v>
       </c>
       <c r="D433">
         <v>4015</v>
       </c>
       <c r="E433">
-        <v>86378568</v>
+        <v>86526918</v>
       </c>
       <c r="F433" t="s">
         <v>21</v>
@@ -16325,13 +16325,13 @@
         <v>12</v>
       </c>
       <c r="C435">
-        <v>13509</v>
+        <v>13530</v>
       </c>
       <c r="D435">
         <v>2497</v>
       </c>
       <c r="E435">
-        <v>61629938</v>
+        <v>61709907</v>
       </c>
       <c r="F435" t="s">
         <v>21</v>
@@ -16430,13 +16430,13 @@
         <v>12</v>
       </c>
       <c r="C438">
-        <v>70877</v>
+        <v>70986</v>
       </c>
       <c r="D438">
         <v>15794</v>
       </c>
       <c r="E438">
-        <v>127515809</v>
+        <v>127729562</v>
       </c>
       <c r="F438" t="s">
         <v>21</v>
@@ -16535,13 +16535,13 @@
         <v>12</v>
       </c>
       <c r="C441">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D441">
         <v>171</v>
       </c>
       <c r="E441">
-        <v>7466338</v>
+        <v>7470681</v>
       </c>
       <c r="F441" t="s">
         <v>21</v>
@@ -16570,13 +16570,13 @@
         <v>12</v>
       </c>
       <c r="C442">
-        <v>30117</v>
+        <v>30155</v>
       </c>
       <c r="D442">
         <v>6187</v>
       </c>
       <c r="E442">
-        <v>150755384</v>
+        <v>151007826</v>
       </c>
       <c r="F442" t="s">
         <v>21</v>
@@ -16675,13 +16675,13 @@
         <v>12</v>
       </c>
       <c r="C445">
-        <v>14073</v>
+        <v>14090</v>
       </c>
       <c r="D445">
         <v>2795</v>
       </c>
       <c r="E445">
-        <v>82061742</v>
+        <v>82173135</v>
       </c>
       <c r="F445" t="s">
         <v>21</v>
@@ -16710,13 +16710,13 @@
         <v>12</v>
       </c>
       <c r="C446">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D446">
         <v>217</v>
       </c>
       <c r="E446">
-        <v>1752253</v>
+        <v>1753749</v>
       </c>
       <c r="F446" t="s">
         <v>21</v>
@@ -16780,13 +16780,13 @@
         <v>12</v>
       </c>
       <c r="C448">
-        <v>30339</v>
+        <v>30383</v>
       </c>
       <c r="D448">
         <v>6832</v>
       </c>
       <c r="E448">
-        <v>55017502</v>
+        <v>55099755</v>
       </c>
       <c r="F448" t="s">
         <v>21</v>
@@ -16920,13 +16920,13 @@
         <v>12</v>
       </c>
       <c r="C452">
-        <v>11559</v>
+        <v>11563</v>
       </c>
       <c r="D452">
         <v>2372</v>
       </c>
       <c r="E452">
-        <v>61441450</v>
+        <v>61472950</v>
       </c>
       <c r="F452" t="s">
         <v>21</v>
@@ -16990,13 +16990,13 @@
         <v>12</v>
       </c>
       <c r="C454">
-        <v>5977</v>
+        <v>5985</v>
       </c>
       <c r="D454">
         <v>1158</v>
       </c>
       <c r="E454">
-        <v>33449355</v>
+        <v>33550149</v>
       </c>
       <c r="F454" t="s">
         <v>21</v>
@@ -17025,13 +17025,13 @@
         <v>12</v>
       </c>
       <c r="C455">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D455">
         <v>92</v>
       </c>
       <c r="E455">
-        <v>802429</v>
+        <v>805283</v>
       </c>
       <c r="F455" t="s">
         <v>21</v>
@@ -17060,13 +17060,13 @@
         <v>12</v>
       </c>
       <c r="C456">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D456">
         <v>194</v>
       </c>
       <c r="E456">
-        <v>3712412</v>
+        <v>3713753</v>
       </c>
       <c r="F456" t="s">
         <v>21</v>
@@ -17095,13 +17095,13 @@
         <v>12</v>
       </c>
       <c r="C457">
-        <v>84413</v>
+        <v>84571</v>
       </c>
       <c r="D457">
         <v>16340</v>
       </c>
       <c r="E457">
-        <v>147183133</v>
+        <v>147480504</v>
       </c>
       <c r="F457" t="s">
         <v>22</v>
@@ -17200,13 +17200,13 @@
         <v>12</v>
       </c>
       <c r="C460">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D460">
         <v>68</v>
       </c>
       <c r="E460">
-        <v>2403025</v>
+        <v>2412720</v>
       </c>
       <c r="F460" t="s">
         <v>22</v>
@@ -17235,13 +17235,13 @@
         <v>12</v>
       </c>
       <c r="C461">
-        <v>32575</v>
+        <v>32629</v>
       </c>
       <c r="D461">
         <v>7017</v>
       </c>
       <c r="E461">
-        <v>143227809</v>
+        <v>143669818</v>
       </c>
       <c r="F461" t="s">
         <v>22</v>
@@ -17270,13 +17270,13 @@
         <v>12</v>
       </c>
       <c r="C462">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D462">
         <v>16</v>
       </c>
       <c r="E462">
-        <v>1407969</v>
+        <v>1443629</v>
       </c>
       <c r="F462" t="s">
         <v>22</v>
@@ -17305,13 +17305,13 @@
         <v>12</v>
       </c>
       <c r="C463">
-        <v>32068</v>
+        <v>32121</v>
       </c>
       <c r="D463">
         <v>5972</v>
       </c>
       <c r="E463">
-        <v>133040278</v>
+        <v>133249792</v>
       </c>
       <c r="F463" t="s">
         <v>22</v>
@@ -17410,13 +17410,13 @@
         <v>12</v>
       </c>
       <c r="C466">
-        <v>156097</v>
+        <v>156447</v>
       </c>
       <c r="D466">
         <v>27217</v>
       </c>
       <c r="E466">
-        <v>277942382</v>
+        <v>278629784</v>
       </c>
       <c r="F466" t="s">
         <v>22</v>
@@ -17515,13 +17515,13 @@
         <v>12</v>
       </c>
       <c r="C469">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D469">
         <v>157</v>
       </c>
       <c r="E469">
-        <v>9617918</v>
+        <v>9626895</v>
       </c>
       <c r="F469" t="s">
         <v>22</v>
@@ -17550,13 +17550,13 @@
         <v>12</v>
       </c>
       <c r="C470">
-        <v>67158</v>
+        <v>67249</v>
       </c>
       <c r="D470">
         <v>11924</v>
       </c>
       <c r="E470">
-        <v>332916186</v>
+        <v>333568225</v>
       </c>
       <c r="F470" t="s">
         <v>22</v>
@@ -17620,13 +17620,13 @@
         <v>12</v>
       </c>
       <c r="C472">
-        <v>68396</v>
+        <v>68521</v>
       </c>
       <c r="D472">
-        <v>11420</v>
+        <v>11421</v>
       </c>
       <c r="E472">
-        <v>351446910</v>
+        <v>352578408</v>
       </c>
       <c r="F472" t="s">
         <v>22</v>
@@ -17655,13 +17655,13 @@
         <v>12</v>
       </c>
       <c r="C473">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D473">
         <v>152</v>
       </c>
       <c r="E473">
-        <v>1111928</v>
+        <v>1117584</v>
       </c>
       <c r="F473" t="s">
         <v>22</v>
@@ -17690,13 +17690,13 @@
         <v>12</v>
       </c>
       <c r="C474">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="D474">
         <v>420</v>
       </c>
       <c r="E474">
-        <v>9583679</v>
+        <v>9593679</v>
       </c>
       <c r="F474" t="s">
         <v>22</v>
@@ -17725,13 +17725,13 @@
         <v>12</v>
       </c>
       <c r="C475">
-        <v>391431</v>
+        <v>392283</v>
       </c>
       <c r="D475">
-        <v>70226</v>
+        <v>70231</v>
       </c>
       <c r="E475">
-        <v>691456338</v>
+        <v>693167465</v>
       </c>
       <c r="F475" t="s">
         <v>22</v>
@@ -17795,13 +17795,13 @@
         <v>12</v>
       </c>
       <c r="C477">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D477">
         <v>77</v>
       </c>
       <c r="E477">
-        <v>2334688</v>
+        <v>2337074</v>
       </c>
       <c r="F477" t="s">
         <v>22</v>
@@ -17900,13 +17900,13 @@
         <v>12</v>
       </c>
       <c r="C480">
-        <v>3414</v>
+        <v>3417</v>
       </c>
       <c r="D480">
         <v>519</v>
       </c>
       <c r="E480">
-        <v>54989764</v>
+        <v>55059796</v>
       </c>
       <c r="F480" t="s">
         <v>22</v>
@@ -17970,13 +17970,13 @@
         <v>12</v>
       </c>
       <c r="C482">
-        <v>260736</v>
+        <v>261170</v>
       </c>
       <c r="D482">
-        <v>42328</v>
+        <v>42329</v>
       </c>
       <c r="E482">
-        <v>1488977185</v>
+        <v>1491841639</v>
       </c>
       <c r="F482" t="s">
         <v>22</v>
@@ -18005,13 +18005,13 @@
         <v>12</v>
       </c>
       <c r="C483">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="D483">
         <v>412</v>
       </c>
       <c r="E483">
-        <v>68254632</v>
+        <v>68520671</v>
       </c>
       <c r="F483" t="s">
         <v>22</v>
@@ -18075,13 +18075,13 @@
         <v>12</v>
       </c>
       <c r="C485">
-        <v>204407</v>
+        <v>204765</v>
       </c>
       <c r="D485">
         <v>33412</v>
       </c>
       <c r="E485">
-        <v>1421674006</v>
+        <v>1424325040</v>
       </c>
       <c r="F485" t="s">
         <v>22</v>
@@ -18145,13 +18145,13 @@
         <v>12</v>
       </c>
       <c r="C487">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="D487">
         <v>604</v>
       </c>
       <c r="E487">
-        <v>7427218</v>
+        <v>7433414</v>
       </c>
       <c r="F487" t="s">
         <v>22</v>
@@ -18215,13 +18215,13 @@
         <v>12</v>
       </c>
       <c r="C489">
-        <v>10772</v>
+        <v>10789</v>
       </c>
       <c r="D489">
         <v>1814</v>
       </c>
       <c r="E489">
-        <v>58185094</v>
+        <v>58256847</v>
       </c>
       <c r="F489" t="s">
         <v>22</v>
@@ -18320,13 +18320,13 @@
         <v>12</v>
       </c>
       <c r="C492">
-        <v>98916</v>
+        <v>99109</v>
       </c>
       <c r="D492">
         <v>18986</v>
       </c>
       <c r="E492">
-        <v>173289618</v>
+        <v>173672694</v>
       </c>
       <c r="F492" t="s">
         <v>22</v>
@@ -18425,13 +18425,13 @@
         <v>12</v>
       </c>
       <c r="C495">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D495">
         <v>114</v>
       </c>
       <c r="E495">
-        <v>4720235</v>
+        <v>4747660</v>
       </c>
       <c r="F495" t="s">
         <v>22</v>
@@ -18460,13 +18460,13 @@
         <v>12</v>
       </c>
       <c r="C496">
-        <v>38148</v>
+        <v>38182</v>
       </c>
       <c r="D496">
         <v>7938</v>
       </c>
       <c r="E496">
-        <v>176716333</v>
+        <v>176929574</v>
       </c>
       <c r="F496" t="s">
         <v>22</v>
@@ -18565,13 +18565,13 @@
         <v>12</v>
       </c>
       <c r="C499">
-        <v>35321</v>
+        <v>35381</v>
       </c>
       <c r="D499">
-        <v>6516</v>
+        <v>6517</v>
       </c>
       <c r="E499">
-        <v>153373586</v>
+        <v>153641591</v>
       </c>
       <c r="F499" t="s">
         <v>22</v>
@@ -18635,13 +18635,13 @@
         <v>12</v>
       </c>
       <c r="C501">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="D501">
         <v>289</v>
       </c>
       <c r="E501">
-        <v>5641345</v>
+        <v>5645779</v>
       </c>
       <c r="F501" t="s">
         <v>22</v>
@@ -18705,13 +18705,13 @@
         <v>12</v>
       </c>
       <c r="C503">
-        <v>174516</v>
+        <v>174917</v>
       </c>
       <c r="D503">
         <v>27616</v>
       </c>
       <c r="E503">
-        <v>322530469</v>
+        <v>323299431</v>
       </c>
       <c r="F503" t="s">
         <v>22</v>
@@ -18810,13 +18810,13 @@
         <v>12</v>
       </c>
       <c r="C506">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D506">
         <v>113</v>
       </c>
       <c r="E506">
-        <v>4354522</v>
+        <v>4364522</v>
       </c>
       <c r="F506" t="s">
         <v>22</v>
@@ -18845,13 +18845,13 @@
         <v>12</v>
       </c>
       <c r="C507">
-        <v>57200</v>
+        <v>57302</v>
       </c>
       <c r="D507">
         <v>11193</v>
       </c>
       <c r="E507">
-        <v>259591360</v>
+        <v>260191413</v>
       </c>
       <c r="F507" t="s">
         <v>22</v>
@@ -18915,13 +18915,13 @@
         <v>12</v>
       </c>
       <c r="C509">
-        <v>65511</v>
+        <v>65641</v>
       </c>
       <c r="D509">
-        <v>10839</v>
+        <v>10840</v>
       </c>
       <c r="E509">
-        <v>245050784</v>
+        <v>245551798</v>
       </c>
       <c r="F509" t="s">
         <v>22</v>
@@ -18985,13 +18985,13 @@
         <v>12</v>
       </c>
       <c r="C511">
-        <v>2949</v>
+        <v>2959</v>
       </c>
       <c r="D511">
         <v>534</v>
       </c>
       <c r="E511">
-        <v>10537637</v>
+        <v>10558714</v>
       </c>
       <c r="F511" t="s">
         <v>22</v>
@@ -19020,13 +19020,13 @@
         <v>12</v>
       </c>
       <c r="C512">
-        <v>135252</v>
+        <v>135574</v>
       </c>
       <c r="D512">
         <v>23517</v>
       </c>
       <c r="E512">
-        <v>237260323</v>
+        <v>237884029</v>
       </c>
       <c r="F512" t="s">
         <v>22</v>
@@ -19090,13 +19090,13 @@
         <v>12</v>
       </c>
       <c r="C514">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D514">
         <v>92</v>
       </c>
       <c r="E514">
-        <v>4467689</v>
+        <v>4472872</v>
       </c>
       <c r="F514" t="s">
         <v>22</v>
@@ -19125,13 +19125,13 @@
         <v>12</v>
       </c>
       <c r="C515">
-        <v>45674</v>
+        <v>45736</v>
       </c>
       <c r="D515">
-        <v>8724</v>
+        <v>8725</v>
       </c>
       <c r="E515">
-        <v>208235176</v>
+        <v>208559336</v>
       </c>
       <c r="F515" t="s">
         <v>22</v>
@@ -19230,13 +19230,13 @@
         <v>12</v>
       </c>
       <c r="C518">
-        <v>51511</v>
+        <v>51605</v>
       </c>
       <c r="D518">
         <v>8705</v>
       </c>
       <c r="E518">
-        <v>213337495</v>
+        <v>213818501</v>
       </c>
       <c r="F518" t="s">
         <v>22</v>
@@ -19265,13 +19265,13 @@
         <v>12</v>
       </c>
       <c r="C519">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D519">
         <v>138</v>
       </c>
       <c r="E519">
-        <v>1083914</v>
+        <v>1087597</v>
       </c>
       <c r="F519" t="s">
         <v>22</v>
@@ -19300,13 +19300,13 @@
         <v>12</v>
       </c>
       <c r="C520">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="D520">
         <v>455</v>
       </c>
       <c r="E520">
-        <v>13449420</v>
+        <v>13461205</v>
       </c>
       <c r="F520" t="s">
         <v>22</v>
@@ -19335,13 +19335,13 @@
         <v>12</v>
       </c>
       <c r="C521">
-        <v>102041</v>
+        <v>102271</v>
       </c>
       <c r="D521">
         <v>17585</v>
       </c>
       <c r="E521">
-        <v>185083404</v>
+        <v>185552975</v>
       </c>
       <c r="F521" t="s">
         <v>22</v>
@@ -19405,13 +19405,13 @@
         <v>12</v>
       </c>
       <c r="C523">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D523">
         <v>128</v>
       </c>
       <c r="E523">
-        <v>6156808</v>
+        <v>6166808</v>
       </c>
       <c r="F523" t="s">
         <v>22</v>
@@ -19440,13 +19440,13 @@
         <v>12</v>
       </c>
       <c r="C524">
-        <v>33406</v>
+        <v>33445</v>
       </c>
       <c r="D524">
         <v>7076</v>
       </c>
       <c r="E524">
-        <v>145415121</v>
+        <v>145613726</v>
       </c>
       <c r="F524" t="s">
         <v>22</v>
@@ -19510,13 +19510,13 @@
         <v>12</v>
       </c>
       <c r="C526">
-        <v>38939</v>
+        <v>39004</v>
       </c>
       <c r="D526">
         <v>6816</v>
       </c>
       <c r="E526">
-        <v>144863304</v>
+        <v>145224223</v>
       </c>
       <c r="F526" t="s">
         <v>22</v>
@@ -19615,13 +19615,13 @@
         <v>12</v>
       </c>
       <c r="C529">
-        <v>93711</v>
+        <v>93910</v>
       </c>
       <c r="D529">
         <v>19196</v>
       </c>
       <c r="E529">
-        <v>160132818</v>
+        <v>160497649</v>
       </c>
       <c r="F529" t="s">
         <v>22</v>
@@ -19685,13 +19685,13 @@
         <v>12</v>
       </c>
       <c r="C531">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D531">
         <v>100</v>
       </c>
       <c r="E531">
-        <v>4472407</v>
+        <v>4482407</v>
       </c>
       <c r="F531" t="s">
         <v>22</v>
@@ -19720,13 +19720,13 @@
         <v>12</v>
       </c>
       <c r="C532">
-        <v>40829</v>
+        <v>40898</v>
       </c>
       <c r="D532">
         <v>8523</v>
       </c>
       <c r="E532">
-        <v>192470047</v>
+        <v>192875139</v>
       </c>
       <c r="F532" t="s">
         <v>22</v>
@@ -19755,13 +19755,13 @@
         <v>12</v>
       </c>
       <c r="C533">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D533">
         <v>27</v>
       </c>
       <c r="E533">
-        <v>1272828</v>
+        <v>1292168</v>
       </c>
       <c r="F533" t="s">
         <v>22</v>
@@ -19790,13 +19790,13 @@
         <v>12</v>
       </c>
       <c r="C534">
-        <v>35004</v>
+        <v>35058</v>
       </c>
       <c r="D534">
         <v>6623</v>
       </c>
       <c r="E534">
-        <v>150609342</v>
+        <v>150837036</v>
       </c>
       <c r="F534" t="s">
         <v>22</v>
@@ -19860,13 +19860,13 @@
         <v>12</v>
       </c>
       <c r="C536">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D536">
         <v>131</v>
       </c>
       <c r="E536">
-        <v>1072284</v>
+        <v>1073284</v>
       </c>
       <c r="F536" t="s">
         <v>22</v>
@@ -19895,13 +19895,13 @@
         <v>12</v>
       </c>
       <c r="C537">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D537">
         <v>245</v>
       </c>
       <c r="E537">
-        <v>6260333</v>
+        <v>6263981</v>
       </c>
       <c r="F537" t="s">
         <v>22</v>
@@ -19930,13 +19930,13 @@
         <v>12</v>
       </c>
       <c r="C538">
-        <v>71390</v>
+        <v>71469</v>
       </c>
       <c r="D538">
-        <v>17461</v>
+        <v>17462</v>
       </c>
       <c r="E538">
-        <v>108351022</v>
+        <v>108476776</v>
       </c>
       <c r="F538" t="s">
         <v>23</v>
@@ -20105,13 +20105,13 @@
         <v>12</v>
       </c>
       <c r="C543">
-        <v>21876</v>
+        <v>21899</v>
       </c>
       <c r="D543">
         <v>6122</v>
       </c>
       <c r="E543">
-        <v>68743871</v>
+        <v>68862250</v>
       </c>
       <c r="F543" t="s">
         <v>23</v>
@@ -20175,13 +20175,13 @@
         <v>12</v>
       </c>
       <c r="C545">
-        <v>6402</v>
+        <v>6408</v>
       </c>
       <c r="D545">
         <v>1634</v>
       </c>
       <c r="E545">
-        <v>22768213</v>
+        <v>22776063</v>
       </c>
       <c r="F545" t="s">
         <v>23</v>
@@ -20280,13 +20280,13 @@
         <v>12</v>
       </c>
       <c r="C548">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D548">
         <v>169</v>
       </c>
       <c r="E548">
-        <v>996368</v>
+        <v>997868</v>
       </c>
       <c r="F548" t="s">
         <v>23</v>
@@ -20350,13 +20350,13 @@
         <v>12</v>
       </c>
       <c r="C550">
-        <v>33436</v>
+        <v>33473</v>
       </c>
       <c r="D550">
         <v>7102</v>
       </c>
       <c r="E550">
-        <v>52914751</v>
+        <v>52970745</v>
       </c>
       <c r="F550" t="s">
         <v>24</v>
@@ -20455,13 +20455,13 @@
         <v>12</v>
       </c>
       <c r="C553">
-        <v>14301</v>
+        <v>14307</v>
       </c>
       <c r="D553">
         <v>3211</v>
       </c>
       <c r="E553">
-        <v>48594136</v>
+        <v>48639542</v>
       </c>
       <c r="F553" t="s">
         <v>24</v>
@@ -20525,13 +20525,13 @@
         <v>12</v>
       </c>
       <c r="C555">
-        <v>10023</v>
+        <v>10032</v>
       </c>
       <c r="D555">
         <v>2093</v>
       </c>
       <c r="E555">
-        <v>27995237</v>
+        <v>28033165</v>
       </c>
       <c r="F555" t="s">
         <v>24</v>
@@ -20595,13 +20595,13 @@
         <v>12</v>
       </c>
       <c r="C557">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D557">
         <v>127</v>
       </c>
       <c r="E557">
-        <v>1350115</v>
+        <v>1355960</v>
       </c>
       <c r="F557" t="s">
         <v>24</v>
@@ -20630,13 +20630,13 @@
         <v>12</v>
       </c>
       <c r="C558">
-        <v>43267</v>
+        <v>43334</v>
       </c>
       <c r="D558">
         <v>5415</v>
       </c>
       <c r="E558">
-        <v>100654132</v>
+        <v>100760409</v>
       </c>
       <c r="F558" t="s">
         <v>25</v>
@@ -20665,13 +20665,13 @@
         <v>12</v>
       </c>
       <c r="C559">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="D559">
         <v>681</v>
       </c>
       <c r="E559">
-        <v>11802563</v>
+        <v>11805563</v>
       </c>
       <c r="F559" t="s">
         <v>25</v>
@@ -20805,13 +20805,13 @@
         <v>12</v>
       </c>
       <c r="C563">
-        <v>47252</v>
+        <v>47316</v>
       </c>
       <c r="D563">
         <v>10829</v>
       </c>
       <c r="E563">
-        <v>88126279</v>
+        <v>88231563</v>
       </c>
       <c r="F563" t="s">
         <v>26</v>
@@ -20910,13 +20910,13 @@
         <v>12</v>
       </c>
       <c r="C566">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D566">
         <v>161</v>
       </c>
       <c r="E566">
-        <v>8007704</v>
+        <v>8016277</v>
       </c>
       <c r="F566" t="s">
         <v>26</v>
@@ -20945,13 +20945,13 @@
         <v>12</v>
       </c>
       <c r="C567">
-        <v>25293</v>
+        <v>25321</v>
       </c>
       <c r="D567">
         <v>4890</v>
       </c>
       <c r="E567">
-        <v>134370306</v>
+        <v>134560077</v>
       </c>
       <c r="F567" t="s">
         <v>26</v>
@@ -21015,13 +21015,13 @@
         <v>12</v>
       </c>
       <c r="C569">
-        <v>10476</v>
+        <v>10491</v>
       </c>
       <c r="D569">
         <v>1915</v>
       </c>
       <c r="E569">
-        <v>68722504</v>
+        <v>68868810</v>
       </c>
       <c r="F569" t="s">
         <v>26</v>
@@ -21050,13 +21050,13 @@
         <v>12</v>
       </c>
       <c r="C570">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D570">
         <v>186</v>
       </c>
       <c r="E570">
-        <v>1871166</v>
+        <v>1872666</v>
       </c>
       <c r="F570" t="s">
         <v>26</v>
@@ -21085,13 +21085,13 @@
         <v>12</v>
       </c>
       <c r="C571">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="D571">
         <v>318</v>
       </c>
       <c r="E571">
-        <v>7832899</v>
+        <v>7852899</v>
       </c>
       <c r="F571" t="s">
         <v>26</v>
@@ -21120,13 +21120,13 @@
         <v>12</v>
       </c>
       <c r="C572">
-        <v>32555</v>
+        <v>32621</v>
       </c>
       <c r="D572">
         <v>7176</v>
       </c>
       <c r="E572">
-        <v>60137998</v>
+        <v>60253447</v>
       </c>
       <c r="F572" t="s">
         <v>26</v>
@@ -21190,13 +21190,13 @@
         <v>12</v>
       </c>
       <c r="C574">
-        <v>14261</v>
+        <v>14280</v>
       </c>
       <c r="D574">
         <v>3109</v>
       </c>
       <c r="E574">
-        <v>64089233</v>
+        <v>64230100</v>
       </c>
       <c r="F574" t="s">
         <v>26</v>
@@ -21260,13 +21260,13 @@
         <v>12</v>
       </c>
       <c r="C576">
-        <v>7242</v>
+        <v>7246</v>
       </c>
       <c r="D576">
         <v>1421</v>
       </c>
       <c r="E576">
-        <v>32930597</v>
+        <v>32980262</v>
       </c>
       <c r="F576" t="s">
         <v>26</v>
@@ -21295,13 +21295,13 @@
         <v>12</v>
       </c>
       <c r="C577">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D577">
         <v>100</v>
       </c>
       <c r="E577">
-        <v>983585</v>
+        <v>992329</v>
       </c>
       <c r="F577" t="s">
         <v>26</v>
@@ -21365,13 +21365,13 @@
         <v>12</v>
       </c>
       <c r="C579">
-        <v>29752</v>
+        <v>29789</v>
       </c>
       <c r="D579">
         <v>6688</v>
       </c>
       <c r="E579">
-        <v>63328355</v>
+        <v>63384672</v>
       </c>
       <c r="F579" t="s">
         <v>26</v>
@@ -21540,13 +21540,13 @@
         <v>12</v>
       </c>
       <c r="C584">
-        <v>14390</v>
+        <v>14408</v>
       </c>
       <c r="D584">
         <v>2850</v>
       </c>
       <c r="E584">
-        <v>75316111</v>
+        <v>75477586</v>
       </c>
       <c r="F584" t="s">
         <v>26</v>
@@ -21610,13 +21610,13 @@
         <v>12</v>
       </c>
       <c r="C586">
-        <v>3522</v>
+        <v>3528</v>
       </c>
       <c r="D586">
         <v>674</v>
       </c>
       <c r="E586">
-        <v>24341102</v>
+        <v>24366167</v>
       </c>
       <c r="F586" t="s">
         <v>26</v>
@@ -21645,13 +21645,13 @@
         <v>12</v>
       </c>
       <c r="C587">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D587">
         <v>153</v>
       </c>
       <c r="E587">
-        <v>1728928</v>
+        <v>1730428</v>
       </c>
       <c r="F587" t="s">
         <v>26</v>
@@ -21715,13 +21715,13 @@
         <v>12</v>
       </c>
       <c r="C589">
-        <v>15967</v>
+        <v>15994</v>
       </c>
       <c r="D589">
         <v>3654</v>
       </c>
       <c r="E589">
-        <v>32702158</v>
+        <v>32750559</v>
       </c>
       <c r="F589" t="s">
         <v>26</v>
@@ -21855,13 +21855,13 @@
         <v>12</v>
       </c>
       <c r="C593">
-        <v>6331</v>
+        <v>6334</v>
       </c>
       <c r="D593">
         <v>1369</v>
       </c>
       <c r="E593">
-        <v>28695340</v>
+        <v>28720274</v>
       </c>
       <c r="F593" t="s">
         <v>26</v>
@@ -21890,13 +21890,13 @@
         <v>12</v>
       </c>
       <c r="C594">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="D594">
         <v>463</v>
       </c>
       <c r="E594">
-        <v>11592927</v>
+        <v>11602927</v>
       </c>
       <c r="F594" t="s">
         <v>26</v>
@@ -21995,13 +21995,13 @@
         <v>12</v>
       </c>
       <c r="C597">
-        <v>63835</v>
+        <v>63925</v>
       </c>
       <c r="D597">
         <v>14251</v>
       </c>
       <c r="E597">
-        <v>117799950</v>
+        <v>117954317</v>
       </c>
       <c r="F597" t="s">
         <v>26</v>
@@ -22135,13 +22135,13 @@
         <v>12</v>
       </c>
       <c r="C601">
-        <v>30264</v>
+        <v>30295</v>
       </c>
       <c r="D601">
         <v>6072</v>
       </c>
       <c r="E601">
-        <v>159520259</v>
+        <v>159815504</v>
       </c>
       <c r="F601" t="s">
         <v>26</v>
@@ -22170,13 +22170,13 @@
         <v>12</v>
       </c>
       <c r="C602">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D602">
         <v>19</v>
       </c>
       <c r="E602">
-        <v>1056871</v>
+        <v>1077062</v>
       </c>
       <c r="F602" t="s">
         <v>26</v>
@@ -22205,13 +22205,13 @@
         <v>12</v>
       </c>
       <c r="C603">
-        <v>14332</v>
+        <v>14355</v>
       </c>
       <c r="D603">
         <v>2680</v>
       </c>
       <c r="E603">
-        <v>79007762</v>
+        <v>79149180</v>
       </c>
       <c r="F603" t="s">
         <v>26</v>
@@ -22240,13 +22240,13 @@
         <v>12</v>
       </c>
       <c r="C604">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D604">
         <v>150</v>
       </c>
       <c r="E604">
-        <v>1104519</v>
+        <v>1105506</v>
       </c>
       <c r="F604" t="s">
         <v>26</v>
@@ -22275,13 +22275,13 @@
         <v>12</v>
       </c>
       <c r="C605">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="D605">
         <v>428</v>
       </c>
       <c r="E605">
-        <v>10873617</v>
+        <v>10883757</v>
       </c>
       <c r="F605" t="s">
         <v>26</v>
@@ -22310,13 +22310,13 @@
         <v>12</v>
       </c>
       <c r="C606">
-        <v>23894</v>
+        <v>23936</v>
       </c>
       <c r="D606">
         <v>5504</v>
       </c>
       <c r="E606">
-        <v>41091944</v>
+        <v>41152925</v>
       </c>
       <c r="F606" t="s">
         <v>27</v>
@@ -22450,13 +22450,13 @@
         <v>12</v>
       </c>
       <c r="C610">
-        <v>9133</v>
+        <v>9143</v>
       </c>
       <c r="D610">
         <v>1962</v>
       </c>
       <c r="E610">
-        <v>44839504</v>
+        <v>44906084</v>
       </c>
       <c r="F610" t="s">
         <v>27</v>
@@ -22520,13 +22520,13 @@
         <v>12</v>
       </c>
       <c r="C612">
-        <v>2965</v>
+        <v>2968</v>
       </c>
       <c r="D612">
         <v>630</v>
       </c>
       <c r="E612">
-        <v>19033677</v>
+        <v>19041606</v>
       </c>
       <c r="F612" t="s">
         <v>27</v>
@@ -22590,13 +22590,13 @@
         <v>12</v>
       </c>
       <c r="C614">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D614">
         <v>142</v>
       </c>
       <c r="E614">
-        <v>3003463</v>
+        <v>3010683</v>
       </c>
       <c r="F614" t="s">
         <v>27</v>
@@ -22625,13 +22625,13 @@
         <v>12</v>
       </c>
       <c r="C615">
-        <v>57973</v>
+        <v>58055</v>
       </c>
       <c r="D615">
         <v>13712</v>
       </c>
       <c r="E615">
-        <v>102508348</v>
+        <v>102683734</v>
       </c>
       <c r="F615" t="s">
         <v>27</v>
@@ -22765,13 +22765,13 @@
         <v>12</v>
       </c>
       <c r="C619">
-        <v>28768</v>
+        <v>28803</v>
       </c>
       <c r="D619">
         <v>5920</v>
       </c>
       <c r="E619">
-        <v>154615752</v>
+        <v>154948559</v>
       </c>
       <c r="F619" t="s">
         <v>27</v>
@@ -22835,13 +22835,13 @@
         <v>12</v>
       </c>
       <c r="C621">
-        <v>8979</v>
+        <v>8988</v>
       </c>
       <c r="D621">
         <v>1775</v>
       </c>
       <c r="E621">
-        <v>53850073</v>
+        <v>53890558</v>
       </c>
       <c r="F621" t="s">
         <v>27</v>
@@ -22870,13 +22870,13 @@
         <v>12</v>
       </c>
       <c r="C622">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D622">
         <v>308</v>
       </c>
       <c r="E622">
-        <v>3652016</v>
+        <v>3662016</v>
       </c>
       <c r="F622" t="s">
         <v>27</v>
@@ -22905,13 +22905,13 @@
         <v>12</v>
       </c>
       <c r="C623">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="D623">
         <v>305</v>
       </c>
       <c r="E623">
-        <v>7127631</v>
+        <v>7134132</v>
       </c>
       <c r="F623" t="s">
         <v>27</v>
@@ -22940,13 +22940,13 @@
         <v>12</v>
       </c>
       <c r="C624">
-        <v>16637</v>
+        <v>16671</v>
       </c>
       <c r="D624">
         <v>3935</v>
       </c>
       <c r="E624">
-        <v>31484395</v>
+        <v>31590475</v>
       </c>
       <c r="F624" t="s">
         <v>27</v>
@@ -23010,13 +23010,13 @@
         <v>12</v>
       </c>
       <c r="C626">
-        <v>6875</v>
+        <v>6883</v>
       </c>
       <c r="D626">
         <v>1437</v>
       </c>
       <c r="E626">
-        <v>33233130</v>
+        <v>33340100</v>
       </c>
       <c r="F626" t="s">
         <v>27</v>
@@ -23080,13 +23080,13 @@
         <v>12</v>
       </c>
       <c r="C628">
-        <v>3729</v>
+        <v>3734</v>
       </c>
       <c r="D628">
         <v>710</v>
       </c>
       <c r="E628">
-        <v>19105871</v>
+        <v>19145249</v>
       </c>
       <c r="F628" t="s">
         <v>27</v>
@@ -23220,13 +23220,13 @@
         <v>12</v>
       </c>
       <c r="C632">
-        <v>8125</v>
+        <v>8137</v>
       </c>
       <c r="D632">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="E632">
-        <v>14322183</v>
+        <v>14344552</v>
       </c>
       <c r="F632" t="s">
         <v>27</v>
@@ -23430,13 +23430,13 @@
         <v>12</v>
       </c>
       <c r="C638">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D638">
         <v>77</v>
       </c>
       <c r="E638">
-        <v>1501325</v>
+        <v>1504174</v>
       </c>
       <c r="F638" t="s">
         <v>27</v>
@@ -23465,13 +23465,13 @@
         <v>12</v>
       </c>
       <c r="C639">
-        <v>19162</v>
+        <v>19184</v>
       </c>
       <c r="D639">
         <v>4545</v>
       </c>
       <c r="E639">
-        <v>33908380</v>
+        <v>33939653</v>
       </c>
       <c r="F639" t="s">
         <v>27</v>
@@ -23570,13 +23570,13 @@
         <v>12</v>
       </c>
       <c r="C642">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D642">
         <v>28</v>
       </c>
       <c r="E642">
-        <v>1015095</v>
+        <v>1019199</v>
       </c>
       <c r="F642" t="s">
         <v>27</v>
@@ -23605,13 +23605,13 @@
         <v>12</v>
       </c>
       <c r="C643">
-        <v>8433</v>
+        <v>8440</v>
       </c>
       <c r="D643">
         <v>1844</v>
       </c>
       <c r="E643">
-        <v>42110621</v>
+        <v>42180138</v>
       </c>
       <c r="F643" t="s">
         <v>27</v>
@@ -23675,13 +23675,13 @@
         <v>12</v>
       </c>
       <c r="C645">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="D645">
         <v>434</v>
       </c>
       <c r="E645">
-        <v>12492914</v>
+        <v>12533525</v>
       </c>
       <c r="F645" t="s">
         <v>27</v>
@@ -23780,13 +23780,13 @@
         <v>12</v>
       </c>
       <c r="C648">
-        <v>42361</v>
+        <v>42429</v>
       </c>
       <c r="D648">
         <v>9309</v>
       </c>
       <c r="E648">
-        <v>77804444</v>
+        <v>77961845</v>
       </c>
       <c r="F648" t="s">
         <v>27</v>
@@ -23850,13 +23850,13 @@
         <v>12</v>
       </c>
       <c r="C650">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D650">
         <v>17</v>
       </c>
       <c r="E650">
-        <v>363311</v>
+        <v>369708</v>
       </c>
       <c r="F650" t="s">
         <v>27</v>
@@ -23920,13 +23920,13 @@
         <v>12</v>
       </c>
       <c r="C652">
-        <v>15191</v>
+        <v>15212</v>
       </c>
       <c r="D652">
         <v>2907</v>
       </c>
       <c r="E652">
-        <v>72997356</v>
+        <v>73190954</v>
       </c>
       <c r="F652" t="s">
         <v>27</v>
@@ -23990,13 +23990,13 @@
         <v>12</v>
       </c>
       <c r="C654">
-        <v>6961</v>
+        <v>6971</v>
       </c>
       <c r="D654">
         <v>1222</v>
       </c>
       <c r="E654">
-        <v>35743506</v>
+        <v>35802977</v>
       </c>
       <c r="F654" t="s">
         <v>27</v>
@@ -24060,13 +24060,13 @@
         <v>12</v>
       </c>
       <c r="C656">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="D656">
         <v>179</v>
       </c>
       <c r="E656">
-        <v>3865694</v>
+        <v>3868222</v>
       </c>
       <c r="F656" t="s">
         <v>27</v>
@@ -24095,13 +24095,13 @@
         <v>12</v>
       </c>
       <c r="C657">
-        <v>157526</v>
+        <v>157795</v>
       </c>
       <c r="D657">
-        <v>36145</v>
+        <v>36146</v>
       </c>
       <c r="E657">
-        <v>270724831</v>
+        <v>271182178</v>
       </c>
       <c r="F657" t="s">
         <v>27</v>
@@ -24270,13 +24270,13 @@
         <v>12</v>
       </c>
       <c r="C662">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D662">
         <v>108</v>
       </c>
       <c r="E662">
-        <v>4786242</v>
+        <v>4796242</v>
       </c>
       <c r="F662" t="s">
         <v>27</v>
@@ -24340,13 +24340,13 @@
         <v>12</v>
       </c>
       <c r="C664">
-        <v>68582</v>
+        <v>68654</v>
       </c>
       <c r="D664">
         <v>14318</v>
       </c>
       <c r="E664">
-        <v>337963000</v>
+        <v>338502533</v>
       </c>
       <c r="F664" t="s">
         <v>27</v>
@@ -24445,13 +24445,13 @@
         <v>12</v>
       </c>
       <c r="C667">
-        <v>36826</v>
+        <v>36873</v>
       </c>
       <c r="D667">
         <v>7137</v>
       </c>
       <c r="E667">
-        <v>187411282</v>
+        <v>187880294</v>
       </c>
       <c r="F667" t="s">
         <v>27</v>
@@ -24550,13 +24550,13 @@
         <v>12</v>
       </c>
       <c r="C670">
-        <v>8513</v>
+        <v>8532</v>
       </c>
       <c r="D670">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E670">
-        <v>55827070</v>
+        <v>55991053</v>
       </c>
       <c r="F670" t="s">
         <v>27</v>
@@ -24620,13 +24620,13 @@
         <v>12</v>
       </c>
       <c r="C672">
-        <v>4621</v>
+        <v>4630</v>
       </c>
       <c r="D672">
         <v>813</v>
       </c>
       <c r="E672">
-        <v>18317883</v>
+        <v>18336269</v>
       </c>
       <c r="F672" t="s">
         <v>27</v>
@@ -24655,13 +24655,13 @@
         <v>12</v>
       </c>
       <c r="C673">
-        <v>23488</v>
+        <v>23523</v>
       </c>
       <c r="D673">
         <v>5331</v>
       </c>
       <c r="E673">
-        <v>40548721</v>
+        <v>40601016</v>
       </c>
       <c r="F673" t="s">
         <v>27</v>
@@ -24725,13 +24725,13 @@
         <v>12</v>
       </c>
       <c r="C675">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D675">
         <v>43</v>
       </c>
       <c r="E675">
-        <v>1286172</v>
+        <v>1290374</v>
       </c>
       <c r="F675" t="s">
         <v>27</v>
@@ -24760,13 +24760,13 @@
         <v>12</v>
       </c>
       <c r="C676">
-        <v>10476</v>
+        <v>10485</v>
       </c>
       <c r="D676">
         <v>2217</v>
       </c>
       <c r="E676">
-        <v>51852520</v>
+        <v>51953531</v>
       </c>
       <c r="F676" t="s">
         <v>27</v>
@@ -24830,13 +24830,13 @@
         <v>12</v>
       </c>
       <c r="C678">
-        <v>4327</v>
+        <v>4329</v>
       </c>
       <c r="D678">
         <v>836</v>
       </c>
       <c r="E678">
-        <v>20099786</v>
+        <v>20104078</v>
       </c>
       <c r="F678" t="s">
         <v>27</v>
@@ -24865,13 +24865,13 @@
         <v>12</v>
       </c>
       <c r="C679">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D679">
         <v>91</v>
       </c>
       <c r="E679">
-        <v>479435</v>
+        <v>481422</v>
       </c>
       <c r="F679" t="s">
         <v>27</v>
@@ -24900,13 +24900,13 @@
         <v>12</v>
       </c>
       <c r="C680">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D680">
         <v>154</v>
       </c>
       <c r="E680">
-        <v>3705679</v>
+        <v>3725679</v>
       </c>
       <c r="F680" t="s">
         <v>27</v>
@@ -24935,13 +24935,13 @@
         <v>12</v>
       </c>
       <c r="C681">
-        <v>37750</v>
+        <v>37803</v>
       </c>
       <c r="D681">
         <v>8752</v>
       </c>
       <c r="E681">
-        <v>65883427</v>
+        <v>65959696</v>
       </c>
       <c r="F681" t="s">
         <v>27</v>
@@ -25040,13 +25040,13 @@
         <v>12</v>
       </c>
       <c r="C684">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D684">
         <v>22</v>
       </c>
       <c r="E684">
-        <v>735808</v>
+        <v>747741</v>
       </c>
       <c r="F684" t="s">
         <v>27</v>
@@ -25075,13 +25075,13 @@
         <v>12</v>
       </c>
       <c r="C685">
-        <v>18146</v>
+        <v>18162</v>
       </c>
       <c r="D685">
         <v>3629</v>
       </c>
       <c r="E685">
-        <v>92120306</v>
+        <v>92465380</v>
       </c>
       <c r="F685" t="s">
         <v>27</v>
@@ -25145,13 +25145,13 @@
         <v>12</v>
       </c>
       <c r="C687">
-        <v>6321</v>
+        <v>6326</v>
       </c>
       <c r="D687">
         <v>1254</v>
       </c>
       <c r="E687">
-        <v>38528070</v>
+        <v>38573589</v>
       </c>
       <c r="F687" t="s">
         <v>27</v>
@@ -25215,13 +25215,13 @@
         <v>12</v>
       </c>
       <c r="C689">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D689">
         <v>190</v>
       </c>
       <c r="E689">
-        <v>4550326</v>
+        <v>4551443</v>
       </c>
       <c r="F689" t="s">
         <v>27</v>
@@ -25250,13 +25250,13 @@
         <v>12</v>
       </c>
       <c r="C690">
-        <v>23672</v>
+        <v>23713</v>
       </c>
       <c r="D690">
         <v>5601</v>
       </c>
       <c r="E690">
-        <v>40065004</v>
+        <v>40151744</v>
       </c>
       <c r="F690" t="s">
         <v>27</v>
@@ -25355,13 +25355,13 @@
         <v>12</v>
       </c>
       <c r="C693">
-        <v>10378</v>
+        <v>10382</v>
       </c>
       <c r="D693">
         <v>2186</v>
       </c>
       <c r="E693">
-        <v>46122085</v>
+        <v>46144265</v>
       </c>
       <c r="F693" t="s">
         <v>27</v>
@@ -25425,13 +25425,13 @@
         <v>12</v>
       </c>
       <c r="C695">
-        <v>4266</v>
+        <v>4276</v>
       </c>
       <c r="D695">
         <v>880</v>
       </c>
       <c r="E695">
-        <v>20942442</v>
+        <v>20992696</v>
       </c>
       <c r="F695" t="s">
         <v>27</v>
@@ -25495,13 +25495,13 @@
         <v>12</v>
       </c>
       <c r="C697">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D697">
         <v>172</v>
       </c>
       <c r="E697">
-        <v>3551994</v>
+        <v>3552888</v>
       </c>
       <c r="F697" t="s">
         <v>27</v>
@@ -25530,13 +25530,13 @@
         <v>12</v>
       </c>
       <c r="C698">
-        <v>63211</v>
+        <v>63308</v>
       </c>
       <c r="D698">
-        <v>14732</v>
+        <v>14733</v>
       </c>
       <c r="E698">
-        <v>107541292</v>
+        <v>107693675</v>
       </c>
       <c r="F698" t="s">
         <v>27</v>
@@ -25635,13 +25635,13 @@
         <v>12</v>
       </c>
       <c r="C701">
-        <v>34458</v>
+        <v>34494</v>
       </c>
       <c r="D701">
         <v>6895</v>
       </c>
       <c r="E701">
-        <v>172863740</v>
+        <v>173138126</v>
       </c>
       <c r="F701" t="s">
         <v>27</v>
@@ -25705,13 +25705,13 @@
         <v>12</v>
       </c>
       <c r="C703">
-        <v>13101</v>
+        <v>13108</v>
       </c>
       <c r="D703">
         <v>2456</v>
       </c>
       <c r="E703">
-        <v>72791805</v>
+        <v>72845395</v>
       </c>
       <c r="F703" t="s">
         <v>27</v>
@@ -25775,13 +25775,13 @@
         <v>12</v>
       </c>
       <c r="C705">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="D705">
         <v>533</v>
       </c>
       <c r="E705">
-        <v>4057860</v>
+        <v>4059360</v>
       </c>
       <c r="F705" t="s">
         <v>27</v>
@@ -25810,13 +25810,13 @@
         <v>12</v>
       </c>
       <c r="C706">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="D706">
         <v>410</v>
       </c>
       <c r="E706">
-        <v>8022278</v>
+        <v>8026924</v>
       </c>
       <c r="F706" t="s">
         <v>27</v>
@@ -25880,13 +25880,13 @@
         <v>12</v>
       </c>
       <c r="C708">
-        <v>25443</v>
+        <v>25479</v>
       </c>
       <c r="D708">
         <v>5905</v>
       </c>
       <c r="E708">
-        <v>45506111</v>
+        <v>45567153</v>
       </c>
       <c r="F708" t="s">
         <v>27</v>
@@ -25950,13 +25950,13 @@
         <v>12</v>
       </c>
       <c r="C710">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D710">
         <v>39</v>
       </c>
       <c r="E710">
-        <v>1838014</v>
+        <v>1847032</v>
       </c>
       <c r="F710" t="s">
         <v>27</v>
@@ -25985,13 +25985,13 @@
         <v>12</v>
       </c>
       <c r="C711">
-        <v>11386</v>
+        <v>11398</v>
       </c>
       <c r="D711">
         <v>2498</v>
       </c>
       <c r="E711">
-        <v>54892837</v>
+        <v>54994591</v>
       </c>
       <c r="F711" t="s">
         <v>27</v>
@@ -26090,13 +26090,13 @@
         <v>12</v>
       </c>
       <c r="C714">
-        <v>3357</v>
+        <v>3362</v>
       </c>
       <c r="D714">
         <v>667</v>
       </c>
       <c r="E714">
-        <v>20455436</v>
+        <v>20472201</v>
       </c>
       <c r="F714" t="s">
         <v>27</v>
@@ -26160,13 +26160,13 @@
         <v>12</v>
       </c>
       <c r="C716">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D716">
         <v>236</v>
       </c>
       <c r="E716">
-        <v>4976220</v>
+        <v>4976828</v>
       </c>
       <c r="F716" t="s">
         <v>27</v>
@@ -26195,13 +26195,13 @@
         <v>12</v>
       </c>
       <c r="C717">
-        <v>14722</v>
+        <v>14748</v>
       </c>
       <c r="D717">
         <v>3470</v>
       </c>
       <c r="E717">
-        <v>23177895</v>
+        <v>23205434</v>
       </c>
       <c r="F717" t="s">
         <v>28</v>
@@ -26265,13 +26265,13 @@
         <v>12</v>
       </c>
       <c r="C719">
-        <v>4751</v>
+        <v>4760</v>
       </c>
       <c r="D719">
         <v>943</v>
       </c>
       <c r="E719">
-        <v>22862498</v>
+        <v>22949209</v>
       </c>
       <c r="F719" t="s">
         <v>28</v>
@@ -26335,13 +26335,13 @@
         <v>12</v>
       </c>
       <c r="C721">
-        <v>3006</v>
+        <v>3014</v>
       </c>
       <c r="D721">
         <v>568</v>
       </c>
       <c r="E721">
-        <v>13745391</v>
+        <v>13798014</v>
       </c>
       <c r="F721" t="s">
         <v>28</v>
@@ -26440,13 +26440,13 @@
         <v>12</v>
       </c>
       <c r="C724">
-        <v>36590</v>
+        <v>36653</v>
       </c>
       <c r="D724">
         <v>7906</v>
       </c>
       <c r="E724">
-        <v>64363256</v>
+        <v>64476254</v>
       </c>
       <c r="F724" t="s">
         <v>28</v>
@@ -26580,13 +26580,13 @@
         <v>12</v>
       </c>
       <c r="C728">
-        <v>14893</v>
+        <v>14907</v>
       </c>
       <c r="D728">
         <v>2816</v>
       </c>
       <c r="E728">
-        <v>73397262</v>
+        <v>73498600</v>
       </c>
       <c r="F728" t="s">
         <v>28</v>
@@ -26650,13 +26650,13 @@
         <v>12</v>
       </c>
       <c r="C730">
-        <v>9581</v>
+        <v>9599</v>
       </c>
       <c r="D730">
         <v>1697</v>
       </c>
       <c r="E730">
-        <v>44069213</v>
+        <v>44161446</v>
       </c>
       <c r="F730" t="s">
         <v>28</v>
@@ -26720,13 +26720,13 @@
         <v>12</v>
       </c>
       <c r="C732">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="D732">
         <v>235</v>
       </c>
       <c r="E732">
-        <v>3952580</v>
+        <v>3966882</v>
       </c>
       <c r="F732" t="s">
         <v>28</v>
@@ -26755,13 +26755,13 @@
         <v>12</v>
       </c>
       <c r="C733">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D733">
         <v>173</v>
       </c>
       <c r="E733">
-        <v>4292231</v>
+        <v>4294780</v>
       </c>
       <c r="F733" t="s">
         <v>28</v>
@@ -26790,13 +26790,13 @@
         <v>12</v>
       </c>
       <c r="C734">
-        <v>25953</v>
+        <v>26003</v>
       </c>
       <c r="D734">
         <v>5720</v>
       </c>
       <c r="E734">
-        <v>50163221</v>
+        <v>50280255</v>
       </c>
       <c r="F734" t="s">
         <v>28</v>
@@ -26860,13 +26860,13 @@
         <v>12</v>
       </c>
       <c r="C736">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D736">
         <v>46</v>
       </c>
       <c r="E736">
-        <v>1492514</v>
+        <v>1502514</v>
       </c>
       <c r="F736" t="s">
         <v>28</v>
@@ -26895,13 +26895,13 @@
         <v>12</v>
       </c>
       <c r="C737">
-        <v>10673</v>
+        <v>10684</v>
       </c>
       <c r="D737">
         <v>2145</v>
       </c>
       <c r="E737">
-        <v>50676189</v>
+        <v>50760949</v>
       </c>
       <c r="F737" t="s">
         <v>28</v>
@@ -26965,13 +26965,13 @@
         <v>12</v>
       </c>
       <c r="C739">
-        <v>3800</v>
+        <v>3808</v>
       </c>
       <c r="D739">
         <v>669</v>
       </c>
       <c r="E739">
-        <v>21036959</v>
+        <v>21098214</v>
       </c>
       <c r="F739" t="s">
         <v>28</v>
@@ -27035,13 +27035,13 @@
         <v>12</v>
       </c>
       <c r="C741">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="D741">
         <v>408</v>
       </c>
       <c r="E741">
-        <v>1771510</v>
+        <v>1776010</v>
       </c>
       <c r="F741" t="s">
         <v>28</v>
@@ -27070,13 +27070,13 @@
         <v>12</v>
       </c>
       <c r="C742">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D742">
         <v>158</v>
       </c>
       <c r="E742">
-        <v>4433859</v>
+        <v>4481038</v>
       </c>
       <c r="F742" t="s">
         <v>28</v>
@@ -27105,13 +27105,13 @@
         <v>12</v>
       </c>
       <c r="C743">
-        <v>73191</v>
+        <v>73326</v>
       </c>
       <c r="D743">
-        <v>15645</v>
+        <v>15646</v>
       </c>
       <c r="E743">
-        <v>119943706</v>
+        <v>120167562</v>
       </c>
       <c r="F743" t="s">
         <v>28</v>
@@ -27245,13 +27245,13 @@
         <v>12</v>
       </c>
       <c r="C747">
-        <v>34589</v>
+        <v>34623</v>
       </c>
       <c r="D747">
         <v>6877</v>
       </c>
       <c r="E747">
-        <v>152522194</v>
+        <v>152771217</v>
       </c>
       <c r="F747" t="s">
         <v>28</v>
@@ -27315,13 +27315,13 @@
         <v>12</v>
       </c>
       <c r="C749">
-        <v>17262</v>
+        <v>17282</v>
       </c>
       <c r="D749">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="E749">
-        <v>78955204</v>
+        <v>79074439</v>
       </c>
       <c r="F749" t="s">
         <v>28</v>
@@ -27385,13 +27385,13 @@
         <v>12</v>
       </c>
       <c r="C751">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="D751">
         <v>389</v>
       </c>
       <c r="E751">
-        <v>6411223</v>
+        <v>6423765</v>
       </c>
       <c r="F751" t="s">
         <v>28</v>
@@ -27420,13 +27420,13 @@
         <v>12</v>
       </c>
       <c r="C752">
-        <v>2652</v>
+        <v>2655</v>
       </c>
       <c r="D752">
         <v>419</v>
       </c>
       <c r="E752">
-        <v>8166747</v>
+        <v>8169368</v>
       </c>
       <c r="F752" t="s">
         <v>28</v>
@@ -27455,13 +27455,13 @@
         <v>12</v>
       </c>
       <c r="C753">
-        <v>16528</v>
+        <v>16556</v>
       </c>
       <c r="D753">
         <v>3855</v>
       </c>
       <c r="E753">
-        <v>29676129</v>
+        <v>29735969</v>
       </c>
       <c r="F753" t="s">
         <v>28</v>
@@ -27525,13 +27525,13 @@
         <v>12</v>
       </c>
       <c r="C755">
-        <v>6583</v>
+        <v>6593</v>
       </c>
       <c r="D755">
         <v>1409</v>
       </c>
       <c r="E755">
-        <v>28152120</v>
+        <v>28215585</v>
       </c>
       <c r="F755" t="s">
         <v>28</v>
@@ -27595,13 +27595,13 @@
         <v>12</v>
       </c>
       <c r="C757">
-        <v>3251</v>
+        <v>3254</v>
       </c>
       <c r="D757">
         <v>622</v>
       </c>
       <c r="E757">
-        <v>14641563</v>
+        <v>14663063</v>
       </c>
       <c r="F757" t="s">
         <v>28</v>
@@ -27630,13 +27630,13 @@
         <v>12</v>
       </c>
       <c r="C758">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="D758">
         <v>365</v>
       </c>
       <c r="E758">
-        <v>6472613</v>
+        <v>6494145</v>
       </c>
       <c r="F758" t="s">
         <v>28</v>
@@ -27665,13 +27665,13 @@
         <v>12</v>
       </c>
       <c r="C759">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D759">
         <v>127</v>
       </c>
       <c r="E759">
-        <v>2832066</v>
+        <v>2842066</v>
       </c>
       <c r="F759" t="s">
         <v>28</v>
@@ -27700,13 +27700,13 @@
         <v>12</v>
       </c>
       <c r="C760">
-        <v>127545</v>
+        <v>127759</v>
       </c>
       <c r="D760">
-        <v>28553</v>
+        <v>28555</v>
       </c>
       <c r="E760">
-        <v>199441480</v>
+        <v>199778989</v>
       </c>
       <c r="F760" t="s">
         <v>28</v>
@@ -27875,13 +27875,13 @@
         <v>12</v>
       </c>
       <c r="C765">
-        <v>55359</v>
+        <v>55407</v>
       </c>
       <c r="D765">
         <v>11203</v>
       </c>
       <c r="E765">
-        <v>266365515</v>
+        <v>266611563</v>
       </c>
       <c r="F765" t="s">
         <v>28</v>
@@ -27980,13 +27980,13 @@
         <v>12</v>
       </c>
       <c r="C768">
-        <v>34739</v>
+        <v>34777</v>
       </c>
       <c r="D768">
         <v>6758</v>
       </c>
       <c r="E768">
-        <v>160316526</v>
+        <v>160532526</v>
       </c>
       <c r="F768" t="s">
         <v>28</v>
@@ -28050,13 +28050,13 @@
         <v>12</v>
       </c>
       <c r="C770">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D770">
         <v>272</v>
       </c>
       <c r="E770">
-        <v>1649838</v>
+        <v>1654338</v>
       </c>
       <c r="F770" t="s">
         <v>28</v>
@@ -28120,13 +28120,13 @@
         <v>12</v>
       </c>
       <c r="C772">
-        <v>5048</v>
+        <v>5053</v>
       </c>
       <c r="D772">
         <v>834</v>
       </c>
       <c r="E772">
-        <v>18747240</v>
+        <v>18750274</v>
       </c>
       <c r="F772" t="s">
         <v>28</v>
@@ -28155,13 +28155,13 @@
         <v>12</v>
       </c>
       <c r="C773">
-        <v>27259</v>
+        <v>27307</v>
       </c>
       <c r="D773">
-        <v>5388</v>
+        <v>5389</v>
       </c>
       <c r="E773">
-        <v>55781613</v>
+        <v>55863806</v>
       </c>
       <c r="F773" t="s">
         <v>28</v>
@@ -28295,13 +28295,13 @@
         <v>12</v>
       </c>
       <c r="C777">
-        <v>12432</v>
+        <v>12451</v>
       </c>
       <c r="D777">
         <v>2044</v>
       </c>
       <c r="E777">
-        <v>70854930</v>
+        <v>71023134</v>
       </c>
       <c r="F777" t="s">
         <v>28</v>
@@ -28400,13 +28400,13 @@
         <v>12</v>
       </c>
       <c r="C780">
-        <v>4121</v>
+        <v>4131</v>
       </c>
       <c r="D780">
         <v>691</v>
       </c>
       <c r="E780">
-        <v>25485424</v>
+        <v>25540224</v>
       </c>
       <c r="F780" t="s">
         <v>28</v>
@@ -28470,13 +28470,13 @@
         <v>12</v>
       </c>
       <c r="C782">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D782">
         <v>81</v>
       </c>
       <c r="E782">
-        <v>631691</v>
+        <v>633191</v>
       </c>
       <c r="F782" t="s">
         <v>28</v>
@@ -28575,13 +28575,13 @@
         <v>12</v>
       </c>
       <c r="C785">
-        <v>129878</v>
+        <v>130138</v>
       </c>
       <c r="D785">
         <v>28131</v>
       </c>
       <c r="E785">
-        <v>207091774</v>
+        <v>207476913</v>
       </c>
       <c r="F785" t="s">
         <v>28</v>
@@ -28715,13 +28715,13 @@
         <v>12</v>
       </c>
       <c r="C789">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D789">
         <v>72</v>
       </c>
       <c r="E789">
-        <v>3489964</v>
+        <v>3509177</v>
       </c>
       <c r="F789" t="s">
         <v>28</v>
@@ -28785,13 +28785,13 @@
         <v>12</v>
       </c>
       <c r="C791">
-        <v>60357</v>
+        <v>60437</v>
       </c>
       <c r="D791">
-        <v>11570</v>
+        <v>11571</v>
       </c>
       <c r="E791">
-        <v>289498225</v>
+        <v>289940593</v>
       </c>
       <c r="F791" t="s">
         <v>28</v>
@@ -28890,13 +28890,13 @@
         <v>12</v>
       </c>
       <c r="C794">
-        <v>41749</v>
+        <v>41802</v>
       </c>
       <c r="D794">
         <v>7418</v>
       </c>
       <c r="E794">
-        <v>195042706</v>
+        <v>195339114</v>
       </c>
       <c r="F794" t="s">
         <v>28</v>
@@ -28925,13 +28925,13 @@
         <v>12</v>
       </c>
       <c r="C795">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="D795">
         <v>585</v>
       </c>
       <c r="E795">
-        <v>9990984</v>
+        <v>9999934</v>
       </c>
       <c r="F795" t="s">
         <v>28</v>
@@ -28960,13 +28960,13 @@
         <v>12</v>
       </c>
       <c r="C796">
-        <v>5116</v>
+        <v>5126</v>
       </c>
       <c r="D796">
         <v>768</v>
       </c>
       <c r="E796">
-        <v>17861335</v>
+        <v>17881045</v>
       </c>
       <c r="F796" t="s">
         <v>28</v>
@@ -28995,13 +28995,13 @@
         <v>12</v>
       </c>
       <c r="C797">
-        <v>17155</v>
+        <v>17189</v>
       </c>
       <c r="D797">
         <v>3894</v>
       </c>
       <c r="E797">
-        <v>31583789</v>
+        <v>31650600</v>
       </c>
       <c r="F797" t="s">
         <v>28</v>
@@ -29100,13 +29100,13 @@
         <v>12</v>
       </c>
       <c r="C800">
-        <v>6857</v>
+        <v>6864</v>
       </c>
       <c r="D800">
         <v>1323</v>
       </c>
       <c r="E800">
-        <v>31791045</v>
+        <v>31829212</v>
       </c>
       <c r="F800" t="s">
         <v>28</v>
@@ -29135,13 +29135,13 @@
         <v>12</v>
       </c>
       <c r="C801">
-        <v>3123</v>
+        <v>3126</v>
       </c>
       <c r="D801">
         <v>580</v>
       </c>
       <c r="E801">
-        <v>17644535</v>
+        <v>17662651</v>
       </c>
       <c r="F801" t="s">
         <v>28</v>
@@ -29205,13 +29205,13 @@
         <v>12</v>
       </c>
       <c r="C803">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D803">
         <v>113</v>
       </c>
       <c r="E803">
-        <v>3089065</v>
+        <v>3090135</v>
       </c>
       <c r="F803" t="s">
         <v>28</v>
@@ -29240,13 +29240,13 @@
         <v>12</v>
       </c>
       <c r="C804">
-        <v>8673</v>
+        <v>8685</v>
       </c>
       <c r="D804">
         <v>1913</v>
       </c>
       <c r="E804">
-        <v>18087708</v>
+        <v>18107960</v>
       </c>
       <c r="F804" t="s">
         <v>28</v>
@@ -29310,13 +29310,13 @@
         <v>12</v>
       </c>
       <c r="C806">
-        <v>3215</v>
+        <v>3221</v>
       </c>
       <c r="D806">
         <v>629</v>
       </c>
       <c r="E806">
-        <v>16716123</v>
+        <v>16742137</v>
       </c>
       <c r="F806" t="s">
         <v>28</v>
@@ -29380,13 +29380,13 @@
         <v>12</v>
       </c>
       <c r="C808">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D808">
         <v>205</v>
       </c>
       <c r="E808">
-        <v>5838270</v>
+        <v>5848270</v>
       </c>
       <c r="F808" t="s">
         <v>28</v>
@@ -29485,13 +29485,13 @@
         <v>12</v>
       </c>
       <c r="C811">
-        <v>48925</v>
+        <v>49013</v>
       </c>
       <c r="D811">
         <v>10665</v>
       </c>
       <c r="E811">
-        <v>84803028</v>
+        <v>84950680</v>
       </c>
       <c r="F811" t="s">
         <v>28</v>
@@ -29625,13 +29625,13 @@
         <v>12</v>
       </c>
       <c r="C815">
-        <v>21561</v>
+        <v>21577</v>
       </c>
       <c r="D815">
         <v>4094</v>
       </c>
       <c r="E815">
-        <v>103508360</v>
+        <v>103580835</v>
       </c>
       <c r="F815" t="s">
         <v>28</v>
@@ -29695,13 +29695,13 @@
         <v>12</v>
       </c>
       <c r="C817">
-        <v>14228</v>
+        <v>14242</v>
       </c>
       <c r="D817">
         <v>2484</v>
       </c>
       <c r="E817">
-        <v>78166447</v>
+        <v>78246752</v>
       </c>
       <c r="F817" t="s">
         <v>28</v>
@@ -29765,13 +29765,13 @@
         <v>12</v>
       </c>
       <c r="C819">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D819">
         <v>270</v>
       </c>
       <c r="E819">
-        <v>3595299</v>
+        <v>3596799</v>
       </c>
       <c r="F819" t="s">
         <v>28</v>
@@ -29835,13 +29835,13 @@
         <v>12</v>
       </c>
       <c r="C821">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D821">
         <v>275</v>
       </c>
       <c r="E821">
-        <v>5342004</v>
+        <v>5342849</v>
       </c>
       <c r="F821" t="s">
         <v>28</v>
@@ -29870,13 +29870,13 @@
         <v>12</v>
       </c>
       <c r="C822">
-        <v>30548</v>
+        <v>30611</v>
       </c>
       <c r="D822">
         <v>7235</v>
       </c>
       <c r="E822">
-        <v>47933863</v>
+        <v>48017006</v>
       </c>
       <c r="F822" t="s">
         <v>28</v>
@@ -29975,13 +29975,13 @@
         <v>12</v>
       </c>
       <c r="C825">
-        <v>12574</v>
+        <v>12590</v>
       </c>
       <c r="D825">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="E825">
-        <v>54581570</v>
+        <v>54728464</v>
       </c>
       <c r="F825" t="s">
         <v>28</v>
@@ -30045,13 +30045,13 @@
         <v>12</v>
       </c>
       <c r="C827">
-        <v>6333</v>
+        <v>6341</v>
       </c>
       <c r="D827">
         <v>1279</v>
       </c>
       <c r="E827">
-        <v>24741460</v>
+        <v>24777983</v>
       </c>
       <c r="F827" t="s">
         <v>28</v>
@@ -30150,13 +30150,13 @@
         <v>12</v>
       </c>
       <c r="C830">
-        <v>20259</v>
+        <v>20293</v>
       </c>
       <c r="D830">
         <v>4769</v>
       </c>
       <c r="E830">
-        <v>32675653</v>
+        <v>32717584</v>
       </c>
       <c r="F830" t="s">
         <v>28</v>
@@ -30255,13 +30255,13 @@
         <v>12</v>
       </c>
       <c r="C833">
-        <v>7978</v>
+        <v>7987</v>
       </c>
       <c r="D833">
         <v>1830</v>
       </c>
       <c r="E833">
-        <v>34763342</v>
+        <v>34841694</v>
       </c>
       <c r="F833" t="s">
         <v>28</v>
@@ -30325,13 +30325,13 @@
         <v>12</v>
       </c>
       <c r="C835">
-        <v>3973</v>
+        <v>3976</v>
       </c>
       <c r="D835">
         <v>805</v>
       </c>
       <c r="E835">
-        <v>17056295</v>
+        <v>17061033</v>
       </c>
       <c r="F835" t="s">
         <v>28</v>
@@ -30430,13 +30430,13 @@
         <v>12</v>
       </c>
       <c r="C838">
-        <v>92592</v>
+        <v>92735</v>
       </c>
       <c r="D838">
-        <v>22257</v>
+        <v>22258</v>
       </c>
       <c r="E838">
-        <v>159397587</v>
+        <v>159707477</v>
       </c>
       <c r="F838" t="s">
         <v>29</v>
@@ -30535,13 +30535,13 @@
         <v>12</v>
       </c>
       <c r="C841">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D841">
         <v>141</v>
       </c>
       <c r="E841">
-        <v>5671921</v>
+        <v>5681921</v>
       </c>
       <c r="F841" t="s">
         <v>29</v>
@@ -30570,13 +30570,13 @@
         <v>12</v>
       </c>
       <c r="C842">
-        <v>54918</v>
+        <v>54989</v>
       </c>
       <c r="D842">
         <v>11350</v>
       </c>
       <c r="E842">
-        <v>272928951</v>
+        <v>273392620</v>
       </c>
       <c r="F842" t="s">
         <v>29</v>
@@ -30640,13 +30640,13 @@
         <v>12</v>
       </c>
       <c r="C844">
-        <v>17385</v>
+        <v>17414</v>
       </c>
       <c r="D844">
         <v>3341</v>
       </c>
       <c r="E844">
-        <v>104129077</v>
+        <v>104321400</v>
       </c>
       <c r="F844" t="s">
         <v>29</v>
@@ -30675,13 +30675,13 @@
         <v>12</v>
       </c>
       <c r="C845">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D845">
         <v>390</v>
       </c>
       <c r="E845">
-        <v>4801571</v>
+        <v>4803857</v>
       </c>
       <c r="F845" t="s">
         <v>29</v>
@@ -30710,13 +30710,13 @@
         <v>12</v>
       </c>
       <c r="C846">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="D846">
         <v>586</v>
       </c>
       <c r="E846">
-        <v>16077366</v>
+        <v>16079400</v>
       </c>
       <c r="F846" t="s">
         <v>29</v>
@@ -30745,13 +30745,13 @@
         <v>12</v>
       </c>
       <c r="C847">
-        <v>46412</v>
+        <v>46473</v>
       </c>
       <c r="D847">
         <v>10714</v>
       </c>
       <c r="E847">
-        <v>84917829</v>
+        <v>85041831</v>
       </c>
       <c r="F847" t="s">
         <v>29</v>
@@ -30815,13 +30815,13 @@
         <v>12</v>
       </c>
       <c r="C849">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D849">
         <v>83</v>
       </c>
       <c r="E849">
-        <v>4546320</v>
+        <v>4556320</v>
       </c>
       <c r="F849" t="s">
         <v>29</v>
@@ -30850,13 +30850,13 @@
         <v>12</v>
       </c>
       <c r="C850">
-        <v>25576</v>
+        <v>25596</v>
       </c>
       <c r="D850">
         <v>5519</v>
       </c>
       <c r="E850">
-        <v>125951068</v>
+        <v>126073669</v>
       </c>
       <c r="F850" t="s">
         <v>29</v>
@@ -30955,13 +30955,13 @@
         <v>12</v>
       </c>
       <c r="C853">
-        <v>6949</v>
+        <v>6950</v>
       </c>
       <c r="D853">
         <v>1346</v>
       </c>
       <c r="E853">
-        <v>40447852</v>
+        <v>40450688</v>
       </c>
       <c r="F853" t="s">
         <v>29</v>
@@ -31025,13 +31025,13 @@
         <v>12</v>
       </c>
       <c r="C855">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D855">
         <v>476</v>
       </c>
       <c r="E855">
-        <v>6904016</v>
+        <v>6914016</v>
       </c>
       <c r="F855" t="s">
         <v>29</v>
@@ -31060,13 +31060,13 @@
         <v>12</v>
       </c>
       <c r="C856">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="D856">
         <v>405</v>
       </c>
       <c r="E856">
-        <v>8932087</v>
+        <v>8937272</v>
       </c>
       <c r="F856" t="s">
         <v>29</v>
@@ -31095,13 +31095,13 @@
         <v>12</v>
       </c>
       <c r="C857">
-        <v>15006</v>
+        <v>15034</v>
       </c>
       <c r="D857">
         <v>3452</v>
       </c>
       <c r="E857">
-        <v>29715783</v>
+        <v>29769168</v>
       </c>
       <c r="F857" t="s">
         <v>29</v>
@@ -31165,13 +31165,13 @@
         <v>12</v>
       </c>
       <c r="C859">
-        <v>7273</v>
+        <v>7277</v>
       </c>
       <c r="D859">
         <v>1700</v>
       </c>
       <c r="E859">
-        <v>33837108</v>
+        <v>33857791</v>
       </c>
       <c r="F859" t="s">
         <v>29</v>
@@ -31200,13 +31200,13 @@
         <v>12</v>
       </c>
       <c r="C860">
-        <v>1814</v>
+        <v>1820</v>
       </c>
       <c r="D860">
         <v>403</v>
       </c>
       <c r="E860">
-        <v>9529648</v>
+        <v>9559389</v>
       </c>
       <c r="F860" t="s">
         <v>29</v>
@@ -31235,13 +31235,13 @@
         <v>12</v>
       </c>
       <c r="C861">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D861">
         <v>94</v>
       </c>
       <c r="E861">
-        <v>1029078</v>
+        <v>1030578</v>
       </c>
       <c r="F861" t="s">
         <v>29</v>
@@ -31270,13 +31270,13 @@
         <v>12</v>
       </c>
       <c r="C862">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D862">
         <v>139</v>
       </c>
       <c r="E862">
-        <v>3345970</v>
+        <v>3346568</v>
       </c>
       <c r="F862" t="s">
         <v>29</v>
@@ -31305,13 +31305,13 @@
         <v>12</v>
       </c>
       <c r="C863">
-        <v>27810</v>
+        <v>27841</v>
       </c>
       <c r="D863">
         <v>6340</v>
       </c>
       <c r="E863">
-        <v>52207621</v>
+        <v>52258076</v>
       </c>
       <c r="F863" t="s">
         <v>29</v>
@@ -31410,13 +31410,13 @@
         <v>12</v>
       </c>
       <c r="C866">
-        <v>13507</v>
+        <v>13523</v>
       </c>
       <c r="D866">
         <v>2881</v>
       </c>
       <c r="E866">
-        <v>68475824</v>
+        <v>68616015</v>
       </c>
       <c r="F866" t="s">
         <v>29</v>
@@ -31480,13 +31480,13 @@
         <v>12</v>
       </c>
       <c r="C868">
-        <v>4151</v>
+        <v>4158</v>
       </c>
       <c r="D868">
         <v>793</v>
       </c>
       <c r="E868">
-        <v>25776745</v>
+        <v>25809528</v>
       </c>
       <c r="F868" t="s">
         <v>29</v>
@@ -31550,13 +31550,13 @@
         <v>12</v>
       </c>
       <c r="C870">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D870">
         <v>170</v>
       </c>
       <c r="E870">
-        <v>4329574</v>
+        <v>4339574</v>
       </c>
       <c r="F870" t="s">
         <v>29</v>
@@ -31585,13 +31585,13 @@
         <v>12</v>
       </c>
       <c r="C871">
-        <v>40629</v>
+        <v>40678</v>
       </c>
       <c r="D871">
         <v>9636</v>
       </c>
       <c r="E871">
-        <v>73538754</v>
+        <v>73646807</v>
       </c>
       <c r="F871" t="s">
         <v>29</v>
@@ -31725,13 +31725,13 @@
         <v>12</v>
       </c>
       <c r="C875">
-        <v>26642</v>
+        <v>26677</v>
       </c>
       <c r="D875">
         <v>5677</v>
       </c>
       <c r="E875">
-        <v>140878651</v>
+        <v>141162682</v>
       </c>
       <c r="F875" t="s">
         <v>29</v>
@@ -31795,13 +31795,13 @@
         <v>12</v>
       </c>
       <c r="C877">
-        <v>6717</v>
+        <v>6727</v>
       </c>
       <c r="D877">
         <v>1288</v>
       </c>
       <c r="E877">
-        <v>48483692</v>
+        <v>48570255</v>
       </c>
       <c r="F877" t="s">
         <v>29</v>
@@ -31900,13 +31900,13 @@
         <v>12</v>
       </c>
       <c r="C880">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D880">
         <v>273</v>
       </c>
       <c r="E880">
-        <v>6132504</v>
+        <v>6144038</v>
       </c>
       <c r="F880" t="s">
         <v>29</v>
@@ -31935,13 +31935,13 @@
         <v>12</v>
       </c>
       <c r="C881">
-        <v>20385</v>
+        <v>20406</v>
       </c>
       <c r="D881">
         <v>4217</v>
       </c>
       <c r="E881">
-        <v>39808843</v>
+        <v>39836229</v>
       </c>
       <c r="F881" t="s">
         <v>30</v>
@@ -32075,13 +32075,13 @@
         <v>12</v>
       </c>
       <c r="C885">
-        <v>9000</v>
+        <v>9007</v>
       </c>
       <c r="D885">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="E885">
-        <v>44202818</v>
+        <v>44257419</v>
       </c>
       <c r="F885" t="s">
         <v>30</v>
@@ -32145,13 +32145,13 @@
         <v>12</v>
       </c>
       <c r="C887">
-        <v>4659</v>
+        <v>4668</v>
       </c>
       <c r="D887">
         <v>778</v>
       </c>
       <c r="E887">
-        <v>24098784</v>
+        <v>24141619</v>
       </c>
       <c r="F887" t="s">
         <v>30</v>
@@ -32320,13 +32320,13 @@
         <v>12</v>
       </c>
       <c r="C892">
-        <v>160628</v>
+        <v>160976</v>
       </c>
       <c r="D892">
-        <v>30690</v>
+        <v>30691</v>
       </c>
       <c r="E892">
-        <v>273312863</v>
+        <v>273919579</v>
       </c>
       <c r="F892" t="s">
         <v>30</v>
@@ -32495,13 +32495,13 @@
         <v>12</v>
       </c>
       <c r="C897">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D897">
         <v>146</v>
       </c>
       <c r="E897">
-        <v>9116800</v>
+        <v>9121720</v>
       </c>
       <c r="F897" t="s">
         <v>30</v>
@@ -32565,13 +32565,13 @@
         <v>12</v>
       </c>
       <c r="C899">
-        <v>76479</v>
+        <v>76558</v>
       </c>
       <c r="D899">
         <v>13176</v>
       </c>
       <c r="E899">
-        <v>407507704</v>
+        <v>408046320</v>
       </c>
       <c r="F899" t="s">
         <v>30</v>
@@ -32600,13 +32600,13 @@
         <v>12</v>
       </c>
       <c r="C900">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D900">
         <v>54</v>
       </c>
       <c r="E900">
-        <v>8990993</v>
+        <v>9190993</v>
       </c>
       <c r="F900" t="s">
         <v>30</v>
@@ -32670,13 +32670,13 @@
         <v>12</v>
       </c>
       <c r="C902">
-        <v>55647</v>
+        <v>55722</v>
       </c>
       <c r="D902">
-        <v>8939</v>
+        <v>8940</v>
       </c>
       <c r="E902">
-        <v>297962586</v>
+        <v>298406147</v>
       </c>
       <c r="F902" t="s">
         <v>30</v>
@@ -32740,13 +32740,13 @@
         <v>12</v>
       </c>
       <c r="C904">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D904">
         <v>299</v>
       </c>
       <c r="E904">
-        <v>2298199</v>
+        <v>2299699</v>
       </c>
       <c r="F904" t="s">
         <v>30</v>
@@ -32775,13 +32775,13 @@
         <v>12</v>
       </c>
       <c r="C905">
-        <v>3220</v>
+        <v>3225</v>
       </c>
       <c r="D905">
         <v>483</v>
       </c>
       <c r="E905">
-        <v>12486322</v>
+        <v>12501382</v>
       </c>
       <c r="F905" t="s">
         <v>30</v>
@@ -32810,13 +32810,13 @@
         <v>12</v>
       </c>
       <c r="C906">
-        <v>192411</v>
+        <v>192774</v>
       </c>
       <c r="D906">
-        <v>40296</v>
+        <v>40299</v>
       </c>
       <c r="E906">
-        <v>316454126</v>
+        <v>317029027</v>
       </c>
       <c r="F906" t="s">
         <v>30</v>
@@ -32985,13 +32985,13 @@
         <v>12</v>
       </c>
       <c r="C911">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="D911">
         <v>208</v>
       </c>
       <c r="E911">
-        <v>10340348</v>
+        <v>10372297</v>
       </c>
       <c r="F911" t="s">
         <v>30</v>
@@ -33055,13 +33055,13 @@
         <v>12</v>
       </c>
       <c r="C913">
-        <v>91461</v>
+        <v>91558</v>
       </c>
       <c r="D913">
         <v>17523</v>
       </c>
       <c r="E913">
-        <v>430300393</v>
+        <v>430856627</v>
       </c>
       <c r="F913" t="s">
         <v>30</v>
@@ -33090,13 +33090,13 @@
         <v>12</v>
       </c>
       <c r="C914">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D914">
         <v>39</v>
       </c>
       <c r="E914">
-        <v>5318975</v>
+        <v>5328975</v>
       </c>
       <c r="F914" t="s">
         <v>30</v>
@@ -33160,13 +33160,13 @@
         <v>12</v>
       </c>
       <c r="C916">
-        <v>74547</v>
+        <v>74651</v>
       </c>
       <c r="D916">
         <v>13337</v>
       </c>
       <c r="E916">
-        <v>351353539</v>
+        <v>351997159</v>
       </c>
       <c r="F916" t="s">
         <v>30</v>
@@ -33195,13 +33195,13 @@
         <v>12</v>
       </c>
       <c r="C917">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="D917">
         <v>429</v>
       </c>
       <c r="E917">
-        <v>4260740</v>
+        <v>4263857</v>
       </c>
       <c r="F917" t="s">
         <v>30</v>
@@ -33230,13 +33230,13 @@
         <v>12</v>
       </c>
       <c r="C918">
-        <v>7403</v>
+        <v>7408</v>
       </c>
       <c r="D918">
         <v>1176</v>
       </c>
       <c r="E918">
-        <v>27528078</v>
+        <v>27543814</v>
       </c>
       <c r="F918" t="s">
         <v>30</v>
@@ -33265,13 +33265,13 @@
         <v>12</v>
       </c>
       <c r="C919">
-        <v>30996</v>
+        <v>31061</v>
       </c>
       <c r="D919">
         <v>5497</v>
       </c>
       <c r="E919">
-        <v>68357784</v>
+        <v>68493428</v>
       </c>
       <c r="F919" t="s">
         <v>30</v>
@@ -33335,13 +33335,13 @@
         <v>12</v>
       </c>
       <c r="C921">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D921">
         <v>12</v>
       </c>
       <c r="E921">
-        <v>371264</v>
+        <v>385600</v>
       </c>
       <c r="F921" t="s">
         <v>30</v>
@@ -33405,13 +33405,13 @@
         <v>12</v>
       </c>
       <c r="C923">
-        <v>11562</v>
+        <v>11581</v>
       </c>
       <c r="D923">
         <v>1950</v>
       </c>
       <c r="E923">
-        <v>72052977</v>
+        <v>72240308</v>
       </c>
       <c r="F923" t="s">
         <v>30</v>
@@ -33475,13 +33475,13 @@
         <v>12</v>
       </c>
       <c r="C925">
-        <v>4225</v>
+        <v>4227</v>
       </c>
       <c r="D925">
         <v>646</v>
       </c>
       <c r="E925">
-        <v>26826163</v>
+        <v>26837665</v>
       </c>
       <c r="F925" t="s">
         <v>30</v>
@@ -33615,13 +33615,13 @@
         <v>12</v>
       </c>
       <c r="C929">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D929">
         <v>135</v>
       </c>
       <c r="E929">
-        <v>3911980</v>
+        <v>3913480</v>
       </c>
       <c r="F929" t="s">
         <v>30</v>
@@ -33650,13 +33650,13 @@
         <v>12</v>
       </c>
       <c r="C930">
-        <v>124443</v>
+        <v>124653</v>
       </c>
       <c r="D930">
-        <v>26909</v>
+        <v>26911</v>
       </c>
       <c r="E930">
-        <v>211256215</v>
+        <v>211616545</v>
       </c>
       <c r="F930" t="s">
         <v>30</v>
@@ -33790,13 +33790,13 @@
         <v>12</v>
       </c>
       <c r="C934">
-        <v>51111</v>
+        <v>51185</v>
       </c>
       <c r="D934">
         <v>10109</v>
       </c>
       <c r="E934">
-        <v>255472196</v>
+        <v>256038551</v>
       </c>
       <c r="F934" t="s">
         <v>30</v>
@@ -33825,13 +33825,13 @@
         <v>12</v>
       </c>
       <c r="C935">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D935">
         <v>28</v>
       </c>
       <c r="E935">
-        <v>4405331</v>
+        <v>4428731</v>
       </c>
       <c r="F935" t="s">
         <v>30</v>
@@ -33860,13 +33860,13 @@
         <v>12</v>
       </c>
       <c r="C936">
-        <v>36915</v>
+        <v>36967</v>
       </c>
       <c r="D936">
-        <v>6889</v>
+        <v>6890</v>
       </c>
       <c r="E936">
-        <v>183380524</v>
+        <v>183646975</v>
       </c>
       <c r="F936" t="s">
         <v>30</v>
@@ -33965,13 +33965,13 @@
         <v>12</v>
       </c>
       <c r="C939">
-        <v>2741</v>
+        <v>2748</v>
       </c>
       <c r="D939">
         <v>440</v>
       </c>
       <c r="E939">
-        <v>9894810</v>
+        <v>9935738</v>
       </c>
       <c r="F939" t="s">
         <v>30</v>
@@ -34000,13 +34000,13 @@
         <v>12</v>
       </c>
       <c r="C940">
-        <v>63359</v>
+        <v>63479</v>
       </c>
       <c r="D940">
         <v>13581</v>
       </c>
       <c r="E940">
-        <v>108875765</v>
+        <v>109114139</v>
       </c>
       <c r="F940" t="s">
         <v>30</v>
@@ -34140,13 +34140,13 @@
         <v>12</v>
       </c>
       <c r="C944">
-        <v>28415</v>
+        <v>28452</v>
       </c>
       <c r="D944">
         <v>5370</v>
       </c>
       <c r="E944">
-        <v>133959529</v>
+        <v>134373770</v>
       </c>
       <c r="F944" t="s">
         <v>30</v>
@@ -34210,13 +34210,13 @@
         <v>12</v>
       </c>
       <c r="C946">
-        <v>18091</v>
+        <v>18132</v>
       </c>
       <c r="D946">
         <v>3294</v>
       </c>
       <c r="E946">
-        <v>86155722</v>
+        <v>86444591</v>
       </c>
       <c r="F946" t="s">
         <v>30</v>
@@ -34280,13 +34280,13 @@
         <v>12</v>
       </c>
       <c r="C948">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="D948">
         <v>549</v>
       </c>
       <c r="E948">
-        <v>12107422</v>
+        <v>12108922</v>
       </c>
       <c r="F948" t="s">
         <v>30</v>
@@ -34315,13 +34315,13 @@
         <v>12</v>
       </c>
       <c r="C949">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="D949">
         <v>344</v>
       </c>
       <c r="E949">
-        <v>8163330</v>
+        <v>8164720</v>
       </c>
       <c r="F949" t="s">
         <v>30</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1170,13 +1170,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>36954</v>
+        <v>37047</v>
       </c>
       <c r="D2">
         <v>9004</v>
       </c>
       <c r="E2">
-        <v>67736673</v>
+        <v>67999759</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1310,13 +1310,13 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>16983</v>
+        <v>17037</v>
       </c>
       <c r="D6">
         <v>3779</v>
       </c>
       <c r="E6">
-        <v>78105252</v>
+        <v>78478942</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1380,13 +1380,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>9507</v>
+        <v>9549</v>
       </c>
       <c r="D8">
         <v>2010</v>
       </c>
       <c r="E8">
-        <v>49414169</v>
+        <v>49851164</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1450,13 +1450,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="D10">
         <v>240</v>
       </c>
       <c r="E10">
-        <v>6675306</v>
+        <v>6739170</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1485,13 +1485,13 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>25243</v>
+        <v>25303</v>
       </c>
       <c r="D11">
         <v>5733</v>
       </c>
       <c r="E11">
-        <v>47138363</v>
+        <v>47313241</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1625,13 +1625,13 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>8555</v>
+        <v>8593</v>
       </c>
       <c r="D15">
         <v>1803</v>
       </c>
       <c r="E15">
-        <v>38657876</v>
+        <v>38936969</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1695,13 +1695,13 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>4337</v>
+        <v>4353</v>
       </c>
       <c r="D17">
         <v>830</v>
       </c>
       <c r="E17">
-        <v>22242506</v>
+        <v>22332280</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1730,13 +1730,13 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>1225</v>
+        <v>1240</v>
       </c>
       <c r="D18">
         <v>419</v>
       </c>
       <c r="E18">
-        <v>2083417</v>
+        <v>2105529</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1765,13 +1765,13 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D19">
         <v>131</v>
       </c>
       <c r="E19">
-        <v>3084881</v>
+        <v>3094591</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1800,13 +1800,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>32812</v>
+        <v>32882</v>
       </c>
       <c r="D20">
         <v>6881</v>
       </c>
       <c r="E20">
-        <v>61620581</v>
+        <v>61828405</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1870,13 +1870,13 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22">
         <v>11</v>
       </c>
       <c r="E22">
-        <v>256437</v>
+        <v>257699</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -1940,13 +1940,13 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>13300</v>
+        <v>13336</v>
       </c>
       <c r="D24">
         <v>2530</v>
       </c>
       <c r="E24">
-        <v>63020201</v>
+        <v>63228102</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -2010,13 +2010,13 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>4983</v>
+        <v>4995</v>
       </c>
       <c r="D26">
         <v>901</v>
       </c>
       <c r="E26">
-        <v>27172171</v>
+        <v>27227622</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -2080,13 +2080,13 @@
         <v>12</v>
       </c>
       <c r="C28">
-        <v>1131</v>
+        <v>1136</v>
       </c>
       <c r="D28">
         <v>192</v>
       </c>
       <c r="E28">
-        <v>4141921</v>
+        <v>4153452</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -2115,13 +2115,13 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>15915</v>
+        <v>15959</v>
       </c>
       <c r="D29">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="E29">
-        <v>33167536</v>
+        <v>33280232</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -2185,13 +2185,13 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D31">
         <v>24</v>
       </c>
       <c r="E31">
-        <v>1393922</v>
+        <v>1413922</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -2220,13 +2220,13 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>4412</v>
+        <v>4431</v>
       </c>
       <c r="D32">
         <v>887</v>
       </c>
       <c r="E32">
-        <v>20942414</v>
+        <v>21080843</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -2290,13 +2290,13 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <v>1661</v>
+        <v>1671</v>
       </c>
       <c r="D34">
         <v>331</v>
       </c>
       <c r="E34">
-        <v>9396239</v>
+        <v>9598382</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -2325,13 +2325,13 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="D35">
         <v>392</v>
       </c>
       <c r="E35">
-        <v>1717733</v>
+        <v>1722233</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -2430,13 +2430,13 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>48602</v>
+        <v>48718</v>
       </c>
       <c r="D38">
-        <v>10750</v>
+        <v>10751</v>
       </c>
       <c r="E38">
-        <v>81758986</v>
+        <v>82037094</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -2500,13 +2500,13 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D40">
         <v>29</v>
       </c>
       <c r="E40">
-        <v>937885</v>
+        <v>945701</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -2570,13 +2570,13 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>20045</v>
+        <v>20115</v>
       </c>
       <c r="D42">
         <v>4096</v>
       </c>
       <c r="E42">
-        <v>92746168</v>
+        <v>93382143</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -2640,13 +2640,13 @@
         <v>12</v>
       </c>
       <c r="C44">
-        <v>11284</v>
+        <v>11336</v>
       </c>
       <c r="D44">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="E44">
-        <v>57339553</v>
+        <v>57740365</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -2745,13 +2745,13 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>2264</v>
+        <v>2278</v>
       </c>
       <c r="D47">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E47">
-        <v>8059289</v>
+        <v>8136454</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2780,13 +2780,13 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>18123</v>
+        <v>18169</v>
       </c>
       <c r="D48">
         <v>4061</v>
       </c>
       <c r="E48">
-        <v>36790799</v>
+        <v>36936032</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2850,13 +2850,13 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D50">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1379759</v>
+        <v>1393239</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2885,13 +2885,13 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>7019</v>
+        <v>7040</v>
       </c>
       <c r="D51">
         <v>1455</v>
       </c>
       <c r="E51">
-        <v>31736643</v>
+        <v>31861692</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2955,13 +2955,13 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>2900</v>
+        <v>2914</v>
       </c>
       <c r="D53">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E53">
-        <v>14006236</v>
+        <v>14102730</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -2990,13 +2990,13 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D54">
         <v>124</v>
       </c>
       <c r="E54">
-        <v>745074</v>
+        <v>746574</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -3060,13 +3060,13 @@
         <v>12</v>
       </c>
       <c r="C56">
-        <v>93892</v>
+        <v>94127</v>
       </c>
       <c r="D56">
-        <v>18738</v>
+        <v>18743</v>
       </c>
       <c r="E56">
-        <v>194817740</v>
+        <v>195620704</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -3130,13 +3130,13 @@
         <v>12</v>
       </c>
       <c r="C58">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D58">
         <v>57</v>
       </c>
       <c r="E58">
-        <v>2184882</v>
+        <v>2206685</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
@@ -3165,13 +3165,13 @@
         <v>12</v>
       </c>
       <c r="C59">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D59">
         <v>68</v>
       </c>
       <c r="E59">
-        <v>3385258</v>
+        <v>3386758</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -3235,13 +3235,13 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>44229</v>
+        <v>44443</v>
       </c>
       <c r="D61">
-        <v>8039</v>
+        <v>8040</v>
       </c>
       <c r="E61">
-        <v>280336802</v>
+        <v>282353847</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -3270,13 +3270,13 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D62">
         <v>37</v>
       </c>
       <c r="E62">
-        <v>7366625</v>
+        <v>7376625</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -3305,13 +3305,13 @@
         <v>12</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63">
-        <v>356475</v>
+        <v>455486</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
@@ -3340,13 +3340,13 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>19242</v>
+        <v>19342</v>
       </c>
       <c r="D64">
         <v>3484</v>
       </c>
       <c r="E64">
-        <v>155946659</v>
+        <v>157560792</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -3410,13 +3410,13 @@
         <v>12</v>
       </c>
       <c r="C66">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D66">
         <v>232</v>
       </c>
       <c r="E66">
-        <v>2273469</v>
+        <v>2278326</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
@@ -3480,13 +3480,13 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="D68">
         <v>298</v>
       </c>
       <c r="E68">
-        <v>12372326</v>
+        <v>12399380</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
@@ -3515,13 +3515,13 @@
         <v>12</v>
       </c>
       <c r="C69">
-        <v>102469</v>
+        <v>102664</v>
       </c>
       <c r="D69">
-        <v>22816</v>
+        <v>22819</v>
       </c>
       <c r="E69">
-        <v>182726860</v>
+        <v>183194942</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
@@ -3550,13 +3550,13 @@
         <v>12</v>
       </c>
       <c r="C70">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D70">
         <v>18</v>
       </c>
       <c r="E70">
-        <v>238214</v>
+        <v>257811</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
@@ -3620,13 +3620,13 @@
         <v>12</v>
       </c>
       <c r="C72">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D72">
         <v>5</v>
       </c>
       <c r="E72">
-        <v>285455</v>
+        <v>292881</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
@@ -3655,13 +3655,13 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D73">
         <v>53</v>
       </c>
       <c r="E73">
-        <v>1778955</v>
+        <v>1783581</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
@@ -3690,13 +3690,13 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <v>47271</v>
+        <v>47410</v>
       </c>
       <c r="D74">
-        <v>9655</v>
+        <v>9657</v>
       </c>
       <c r="E74">
-        <v>231469028</v>
+        <v>232720274</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
@@ -3725,13 +3725,13 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D75">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E75">
-        <v>2859942</v>
+        <v>3245328</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
@@ -3760,13 +3760,13 @@
         <v>12</v>
       </c>
       <c r="C76">
-        <v>26552</v>
+        <v>26621</v>
       </c>
       <c r="D76">
-        <v>5040</v>
+        <v>5041</v>
       </c>
       <c r="E76">
-        <v>139828609</v>
+        <v>140419680</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
@@ -3830,13 +3830,13 @@
         <v>12</v>
       </c>
       <c r="C78">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="D78">
         <v>224</v>
       </c>
       <c r="E78">
-        <v>1795012</v>
+        <v>1805554</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
@@ -3900,13 +3900,13 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>3477</v>
+        <v>3486</v>
       </c>
       <c r="D80">
         <v>605</v>
       </c>
       <c r="E80">
-        <v>16413684</v>
+        <v>16479431</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
@@ -3935,13 +3935,13 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>53530</v>
+        <v>53617</v>
       </c>
       <c r="D81">
-        <v>11908</v>
+        <v>11909</v>
       </c>
       <c r="E81">
-        <v>94829357</v>
+        <v>95058573</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
@@ -4005,13 +4005,13 @@
         <v>12</v>
       </c>
       <c r="C83">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D83">
         <v>80</v>
       </c>
       <c r="E83">
-        <v>2837090</v>
+        <v>2850913</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
@@ -4040,13 +4040,13 @@
         <v>12</v>
       </c>
       <c r="C84">
-        <v>21640</v>
+        <v>21744</v>
       </c>
       <c r="D84">
-        <v>4752</v>
+        <v>4754</v>
       </c>
       <c r="E84">
-        <v>96067784</v>
+        <v>96859438</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -4145,13 +4145,13 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>13420</v>
+        <v>13450</v>
       </c>
       <c r="D87">
-        <v>2742</v>
+        <v>2744</v>
       </c>
       <c r="E87">
-        <v>63537752</v>
+        <v>63908925</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -4215,13 +4215,13 @@
         <v>12</v>
       </c>
       <c r="C89">
-        <v>2768</v>
+        <v>2774</v>
       </c>
       <c r="D89">
         <v>456</v>
       </c>
       <c r="E89">
-        <v>10479892</v>
+        <v>10513900</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -4250,13 +4250,13 @@
         <v>12</v>
       </c>
       <c r="C90">
-        <v>48364</v>
+        <v>48477</v>
       </c>
       <c r="D90">
-        <v>10639</v>
+        <v>10640</v>
       </c>
       <c r="E90">
-        <v>86325280</v>
+        <v>86701177</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
@@ -4355,13 +4355,13 @@
         <v>12</v>
       </c>
       <c r="C93">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D93">
         <v>41</v>
       </c>
       <c r="E93">
-        <v>1860460</v>
+        <v>1870460</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
@@ -4390,13 +4390,13 @@
         <v>12</v>
       </c>
       <c r="C94">
-        <v>24495</v>
+        <v>24586</v>
       </c>
       <c r="D94">
         <v>4829</v>
       </c>
       <c r="E94">
-        <v>116815210</v>
+        <v>117460400</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
@@ -4460,13 +4460,13 @@
         <v>12</v>
       </c>
       <c r="C96">
-        <v>9595</v>
+        <v>9630</v>
       </c>
       <c r="D96">
         <v>1854</v>
       </c>
       <c r="E96">
-        <v>52796339</v>
+        <v>53245652</v>
       </c>
       <c r="F96" t="s">
         <v>13</v>
@@ -4530,13 +4530,13 @@
         <v>12</v>
       </c>
       <c r="C98">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D98">
         <v>155</v>
       </c>
       <c r="E98">
-        <v>1055455</v>
+        <v>1056915</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
@@ -4565,13 +4565,13 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>1628</v>
+        <v>1635</v>
       </c>
       <c r="D99">
         <v>279</v>
       </c>
       <c r="E99">
-        <v>7092457</v>
+        <v>7154939</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -4600,13 +4600,13 @@
         <v>12</v>
       </c>
       <c r="C100">
-        <v>179528</v>
+        <v>179883</v>
       </c>
       <c r="D100">
-        <v>37702</v>
+        <v>37706</v>
       </c>
       <c r="E100">
-        <v>299385743</v>
+        <v>300185575</v>
       </c>
       <c r="F100" t="s">
         <v>13</v>
@@ -4705,13 +4705,13 @@
         <v>12</v>
       </c>
       <c r="C103">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D103">
         <v>112</v>
       </c>
       <c r="E103">
-        <v>4062555</v>
+        <v>4094257</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
@@ -4775,13 +4775,13 @@
         <v>12</v>
       </c>
       <c r="C105">
-        <v>79591</v>
+        <v>79880</v>
       </c>
       <c r="D105">
-        <v>16050</v>
+        <v>16051</v>
       </c>
       <c r="E105">
-        <v>371090048</v>
+        <v>373431437</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -4880,13 +4880,13 @@
         <v>12</v>
       </c>
       <c r="C108">
-        <v>58099</v>
+        <v>58289</v>
       </c>
       <c r="D108">
-        <v>10893</v>
+        <v>10894</v>
       </c>
       <c r="E108">
-        <v>295757916</v>
+        <v>297291467</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
@@ -5020,13 +5020,13 @@
         <v>12</v>
       </c>
       <c r="C112">
-        <v>7161</v>
+        <v>7201</v>
       </c>
       <c r="D112">
         <v>1132</v>
       </c>
       <c r="E112">
-        <v>29811095</v>
+        <v>30048514</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
@@ -5055,13 +5055,13 @@
         <v>12</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113">
         <v>3</v>
       </c>
       <c r="E113">
-        <v>45753</v>
+        <v>49680</v>
       </c>
       <c r="F113" t="s">
         <v>13</v>
@@ -5090,13 +5090,13 @@
         <v>12</v>
       </c>
       <c r="C114">
-        <v>83952</v>
+        <v>84248</v>
       </c>
       <c r="D114">
-        <v>14270</v>
+        <v>14273</v>
       </c>
       <c r="E114">
-        <v>204474850</v>
+        <v>205665127</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
@@ -5195,13 +5195,13 @@
         <v>12</v>
       </c>
       <c r="C117">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D117">
         <v>83</v>
       </c>
       <c r="E117">
-        <v>6194941</v>
+        <v>6290657</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
@@ -5265,13 +5265,13 @@
         <v>12</v>
       </c>
       <c r="C119">
-        <v>36863</v>
+        <v>37012</v>
       </c>
       <c r="D119">
-        <v>6193</v>
+        <v>6195</v>
       </c>
       <c r="E119">
-        <v>272670485</v>
+        <v>273839093</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
@@ -5300,13 +5300,13 @@
         <v>12</v>
       </c>
       <c r="C120">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D120">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E120">
-        <v>13287164</v>
+        <v>13836106</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
@@ -5335,13 +5335,13 @@
         <v>12</v>
       </c>
       <c r="C121">
-        <v>13223</v>
+        <v>13271</v>
       </c>
       <c r="D121">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="E121">
-        <v>140138103</v>
+        <v>140932007</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
@@ -5405,13 +5405,13 @@
         <v>12</v>
       </c>
       <c r="C123">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D123">
         <v>241</v>
       </c>
       <c r="E123">
-        <v>3328551</v>
+        <v>3367662</v>
       </c>
       <c r="F123" t="s">
         <v>13</v>
@@ -5475,13 +5475,13 @@
         <v>12</v>
       </c>
       <c r="C125">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="D125">
         <v>270</v>
       </c>
       <c r="E125">
-        <v>9803543</v>
+        <v>9812641</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
@@ -5510,13 +5510,13 @@
         <v>12</v>
       </c>
       <c r="C126">
-        <v>34098</v>
+        <v>34190</v>
       </c>
       <c r="D126">
-        <v>7710</v>
+        <v>7711</v>
       </c>
       <c r="E126">
-        <v>58362683</v>
+        <v>58557390</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -5615,13 +5615,13 @@
         <v>12</v>
       </c>
       <c r="C129">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D129">
         <v>30</v>
       </c>
       <c r="E129">
-        <v>1140143</v>
+        <v>1150143</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -5650,13 +5650,13 @@
         <v>12</v>
       </c>
       <c r="C130">
-        <v>21046</v>
+        <v>21129</v>
       </c>
       <c r="D130">
         <v>4171</v>
       </c>
       <c r="E130">
-        <v>109680337</v>
+        <v>110358407</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -5685,13 +5685,13 @@
         <v>12</v>
       </c>
       <c r="C131">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D131">
         <v>21</v>
       </c>
       <c r="E131">
-        <v>3507573</v>
+        <v>3517573</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -5720,13 +5720,13 @@
         <v>12</v>
       </c>
       <c r="C132">
-        <v>6772</v>
+        <v>6815</v>
       </c>
       <c r="D132">
         <v>1292</v>
       </c>
       <c r="E132">
-        <v>40893368</v>
+        <v>41331760</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -5790,13 +5790,13 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D134">
         <v>324</v>
       </c>
       <c r="E134">
-        <v>5672692</v>
+        <v>5677529</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
@@ -5825,13 +5825,13 @@
         <v>12</v>
       </c>
       <c r="C135">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="D135">
         <v>218</v>
       </c>
       <c r="E135">
-        <v>5780514</v>
+        <v>5793838</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -5860,13 +5860,13 @@
         <v>12</v>
       </c>
       <c r="C136">
-        <v>29460</v>
+        <v>29533</v>
       </c>
       <c r="D136">
-        <v>6630</v>
+        <v>6631</v>
       </c>
       <c r="E136">
-        <v>51843807</v>
+        <v>52007088</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -6000,13 +6000,13 @@
         <v>12</v>
       </c>
       <c r="C140">
-        <v>16128</v>
+        <v>16205</v>
       </c>
       <c r="D140">
         <v>3407</v>
       </c>
       <c r="E140">
-        <v>78001024</v>
+        <v>78612618</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -6035,13 +6035,13 @@
         <v>12</v>
       </c>
       <c r="C141">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D141">
         <v>9</v>
       </c>
       <c r="E141">
-        <v>828613</v>
+        <v>938948</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -6070,13 +6070,13 @@
         <v>12</v>
       </c>
       <c r="C142">
-        <v>5877</v>
+        <v>5907</v>
       </c>
       <c r="D142">
         <v>1163</v>
       </c>
       <c r="E142">
-        <v>29890378</v>
+        <v>30098168</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -6175,13 +6175,13 @@
         <v>12</v>
       </c>
       <c r="C145">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="D145">
         <v>225</v>
       </c>
       <c r="E145">
-        <v>6260071</v>
+        <v>6295974</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -6210,13 +6210,13 @@
         <v>12</v>
       </c>
       <c r="C146">
-        <v>12864</v>
+        <v>12902</v>
       </c>
       <c r="D146">
         <v>2952</v>
       </c>
       <c r="E146">
-        <v>22966895</v>
+        <v>23072462</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -6245,13 +6245,13 @@
         <v>12</v>
       </c>
       <c r="C147">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D147">
         <v>3</v>
       </c>
       <c r="E147">
-        <v>79534</v>
+        <v>89534</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -6315,13 +6315,13 @@
         <v>12</v>
       </c>
       <c r="C149">
-        <v>4922</v>
+        <v>4944</v>
       </c>
       <c r="D149">
         <v>1125</v>
       </c>
       <c r="E149">
-        <v>21148666</v>
+        <v>21329179</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -6385,13 +6385,13 @@
         <v>12</v>
       </c>
       <c r="C151">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="D151">
         <v>380</v>
       </c>
       <c r="E151">
-        <v>8723692</v>
+        <v>8791404</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
@@ -6455,13 +6455,13 @@
         <v>12</v>
       </c>
       <c r="C153">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D153">
         <v>65</v>
       </c>
       <c r="E153">
-        <v>768563</v>
+        <v>771827</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -6490,13 +6490,13 @@
         <v>12</v>
       </c>
       <c r="C154">
-        <v>16933</v>
+        <v>16976</v>
       </c>
       <c r="D154">
         <v>3760</v>
       </c>
       <c r="E154">
-        <v>30972020</v>
+        <v>31107228</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -6560,13 +6560,13 @@
         <v>12</v>
       </c>
       <c r="C156">
-        <v>7802</v>
+        <v>7851</v>
       </c>
       <c r="D156">
         <v>1629</v>
       </c>
       <c r="E156">
-        <v>38970279</v>
+        <v>39267001</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -6630,13 +6630,13 @@
         <v>12</v>
       </c>
       <c r="C158">
-        <v>4069</v>
+        <v>4081</v>
       </c>
       <c r="D158">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E158">
-        <v>21251325</v>
+        <v>21304162</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -6665,13 +6665,13 @@
         <v>12</v>
       </c>
       <c r="C159">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D159">
         <v>106</v>
       </c>
       <c r="E159">
-        <v>1547478</v>
+        <v>1557376</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -6735,13 +6735,13 @@
         <v>12</v>
       </c>
       <c r="C161">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D161">
         <v>110</v>
       </c>
       <c r="E161">
-        <v>3987172</v>
+        <v>3999220</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
@@ -6770,13 +6770,13 @@
         <v>12</v>
       </c>
       <c r="C162">
-        <v>12756</v>
+        <v>12803</v>
       </c>
       <c r="D162">
         <v>2819</v>
       </c>
       <c r="E162">
-        <v>25300221</v>
+        <v>25469285</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -6840,13 +6840,13 @@
         <v>12</v>
       </c>
       <c r="C164">
-        <v>5217</v>
+        <v>5242</v>
       </c>
       <c r="D164">
         <v>1054</v>
       </c>
       <c r="E164">
-        <v>24401784</v>
+        <v>24578555</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -6875,13 +6875,13 @@
         <v>12</v>
       </c>
       <c r="C165">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D165">
         <v>3</v>
       </c>
       <c r="E165">
-        <v>123276</v>
+        <v>127015</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -6910,13 +6910,13 @@
         <v>12</v>
       </c>
       <c r="C166">
-        <v>1853</v>
+        <v>1862</v>
       </c>
       <c r="D166">
         <v>370</v>
       </c>
       <c r="E166">
-        <v>9792516</v>
+        <v>9853693</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
@@ -6980,13 +6980,13 @@
         <v>12</v>
       </c>
       <c r="C168">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D168">
         <v>82</v>
       </c>
       <c r="E168">
-        <v>1855218</v>
+        <v>1856328</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
@@ -7015,13 +7015,13 @@
         <v>12</v>
       </c>
       <c r="C169">
-        <v>37048</v>
+        <v>37142</v>
       </c>
       <c r="D169">
         <v>8145</v>
       </c>
       <c r="E169">
-        <v>72040869</v>
+        <v>72360345</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -7155,13 +7155,13 @@
         <v>12</v>
       </c>
       <c r="C173">
-        <v>17339</v>
+        <v>17429</v>
       </c>
       <c r="D173">
         <v>3514</v>
       </c>
       <c r="E173">
-        <v>83443695</v>
+        <v>84343267</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -7190,13 +7190,13 @@
         <v>12</v>
       </c>
       <c r="C174">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D174">
         <v>11</v>
       </c>
       <c r="E174">
-        <v>943887</v>
+        <v>958041</v>
       </c>
       <c r="F174" t="s">
         <v>14</v>
@@ -7225,13 +7225,13 @@
         <v>12</v>
       </c>
       <c r="C175">
-        <v>6741</v>
+        <v>6758</v>
       </c>
       <c r="D175">
         <v>1291</v>
       </c>
       <c r="E175">
-        <v>38458396</v>
+        <v>38567772</v>
       </c>
       <c r="F175" t="s">
         <v>14</v>
@@ -7295,13 +7295,13 @@
         <v>12</v>
       </c>
       <c r="C177">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="D177">
         <v>415</v>
       </c>
       <c r="E177">
-        <v>4396358</v>
+        <v>4399358</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
@@ -7330,13 +7330,13 @@
         <v>12</v>
       </c>
       <c r="C178">
-        <v>1503</v>
+        <v>1514</v>
       </c>
       <c r="D178">
         <v>240</v>
       </c>
       <c r="E178">
-        <v>5969914</v>
+        <v>6051701</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
@@ -7365,13 +7365,13 @@
         <v>12</v>
       </c>
       <c r="C179">
-        <v>6620</v>
+        <v>6631</v>
       </c>
       <c r="D179">
         <v>1516</v>
       </c>
       <c r="E179">
-        <v>12306148</v>
+        <v>12362059</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -7435,13 +7435,13 @@
         <v>12</v>
       </c>
       <c r="C181">
-        <v>4014</v>
+        <v>4023</v>
       </c>
       <c r="D181">
         <v>835</v>
       </c>
       <c r="E181">
-        <v>20963495</v>
+        <v>21016524</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
@@ -7505,13 +7505,13 @@
         <v>12</v>
       </c>
       <c r="C183">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="D183">
         <v>316</v>
       </c>
       <c r="E183">
-        <v>6541658</v>
+        <v>6575324</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -7610,13 +7610,13 @@
         <v>12</v>
       </c>
       <c r="C186">
-        <v>19738</v>
+        <v>19775</v>
       </c>
       <c r="D186">
         <v>4501</v>
       </c>
       <c r="E186">
-        <v>36579554</v>
+        <v>36675370</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -7680,13 +7680,13 @@
         <v>12</v>
       </c>
       <c r="C188">
-        <v>8666</v>
+        <v>8701</v>
       </c>
       <c r="D188">
         <v>1799</v>
       </c>
       <c r="E188">
-        <v>40716966</v>
+        <v>41013891</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -7715,13 +7715,13 @@
         <v>12</v>
       </c>
       <c r="C189">
-        <v>4321</v>
+        <v>4333</v>
       </c>
       <c r="D189">
         <v>866</v>
       </c>
       <c r="E189">
-        <v>22168311</v>
+        <v>22242852</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -7750,13 +7750,13 @@
         <v>12</v>
       </c>
       <c r="C190">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D190">
         <v>223</v>
       </c>
       <c r="E190">
-        <v>5376195</v>
+        <v>5386695</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -7785,13 +7785,13 @@
         <v>12</v>
       </c>
       <c r="C191">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D191">
         <v>117</v>
       </c>
       <c r="E191">
-        <v>2593917</v>
+        <v>2602377</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -7820,13 +7820,13 @@
         <v>12</v>
       </c>
       <c r="C192">
-        <v>36425</v>
+        <v>36512</v>
       </c>
       <c r="D192">
         <v>8473</v>
       </c>
       <c r="E192">
-        <v>74561028</v>
+        <v>74905269</v>
       </c>
       <c r="F192" t="s">
         <v>15</v>
@@ -7925,13 +7925,13 @@
         <v>12</v>
       </c>
       <c r="C195">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="D195">
         <v>118</v>
       </c>
       <c r="E195">
-        <v>5519631</v>
+        <v>5550959</v>
       </c>
       <c r="F195" t="s">
         <v>15</v>
@@ -7960,13 +7960,13 @@
         <v>12</v>
       </c>
       <c r="C196">
-        <v>20615</v>
+        <v>20705</v>
       </c>
       <c r="D196">
         <v>4184</v>
       </c>
       <c r="E196">
-        <v>103637174</v>
+        <v>104373923</v>
       </c>
       <c r="F196" t="s">
         <v>15</v>
@@ -8030,13 +8030,13 @@
         <v>12</v>
       </c>
       <c r="C198">
-        <v>3778</v>
+        <v>3787</v>
       </c>
       <c r="D198">
         <v>751</v>
       </c>
       <c r="E198">
-        <v>25204734</v>
+        <v>25261413</v>
       </c>
       <c r="F198" t="s">
         <v>15</v>
@@ -8065,13 +8065,13 @@
         <v>12</v>
       </c>
       <c r="C199">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D199">
         <v>244</v>
       </c>
       <c r="E199">
-        <v>2174291</v>
+        <v>2175791</v>
       </c>
       <c r="F199" t="s">
         <v>15</v>
@@ -8100,13 +8100,13 @@
         <v>12</v>
       </c>
       <c r="C200">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="D200">
         <v>257</v>
       </c>
       <c r="E200">
-        <v>6638673</v>
+        <v>6666690</v>
       </c>
       <c r="F200" t="s">
         <v>15</v>
@@ -8135,13 +8135,13 @@
         <v>12</v>
       </c>
       <c r="C201">
-        <v>54480</v>
+        <v>54629</v>
       </c>
       <c r="D201">
-        <v>13166</v>
+        <v>13167</v>
       </c>
       <c r="E201">
-        <v>109927819</v>
+        <v>110410177</v>
       </c>
       <c r="F201" t="s">
         <v>15</v>
@@ -8240,13 +8240,13 @@
         <v>12</v>
       </c>
       <c r="C204">
-        <v>1478</v>
+        <v>1489</v>
       </c>
       <c r="D204">
         <v>198</v>
       </c>
       <c r="E204">
-        <v>10229412</v>
+        <v>10282327</v>
       </c>
       <c r="F204" t="s">
         <v>15</v>
@@ -8275,13 +8275,13 @@
         <v>12</v>
       </c>
       <c r="C205">
-        <v>28582</v>
+        <v>28703</v>
       </c>
       <c r="D205">
-        <v>5711</v>
+        <v>5712</v>
       </c>
       <c r="E205">
-        <v>149137153</v>
+        <v>150130490</v>
       </c>
       <c r="F205" t="s">
         <v>15</v>
@@ -8380,13 +8380,13 @@
         <v>12</v>
       </c>
       <c r="C208">
-        <v>8219</v>
+        <v>8254</v>
       </c>
       <c r="D208">
         <v>1577</v>
       </c>
       <c r="E208">
-        <v>54345679</v>
+        <v>54637405</v>
       </c>
       <c r="F208" t="s">
         <v>15</v>
@@ -8450,13 +8450,13 @@
         <v>12</v>
       </c>
       <c r="C210">
-        <v>2154</v>
+        <v>2171</v>
       </c>
       <c r="D210">
         <v>399</v>
       </c>
       <c r="E210">
-        <v>10629176</v>
+        <v>10777171</v>
       </c>
       <c r="F210" t="s">
         <v>15</v>
@@ -8485,13 +8485,13 @@
         <v>12</v>
       </c>
       <c r="C211">
-        <v>61585</v>
+        <v>61694</v>
       </c>
       <c r="D211">
-        <v>14416</v>
+        <v>14417</v>
       </c>
       <c r="E211">
-        <v>111863226</v>
+        <v>112185901</v>
       </c>
       <c r="F211" t="s">
         <v>15</v>
@@ -8590,13 +8590,13 @@
         <v>12</v>
       </c>
       <c r="C214">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D214">
         <v>162</v>
       </c>
       <c r="E214">
-        <v>7098626</v>
+        <v>7105813</v>
       </c>
       <c r="F214" t="s">
         <v>15</v>
@@ -8625,13 +8625,13 @@
         <v>12</v>
       </c>
       <c r="C215">
-        <v>40826</v>
+        <v>40959</v>
       </c>
       <c r="D215">
         <v>8231</v>
       </c>
       <c r="E215">
-        <v>219612540</v>
+        <v>220657279</v>
       </c>
       <c r="F215" t="s">
         <v>15</v>
@@ -8730,13 +8730,13 @@
         <v>12</v>
       </c>
       <c r="C218">
-        <v>8192</v>
+        <v>8212</v>
       </c>
       <c r="D218">
         <v>1657</v>
       </c>
       <c r="E218">
-        <v>55950690</v>
+        <v>56110423</v>
       </c>
       <c r="F218" t="s">
         <v>15</v>
@@ -8765,13 +8765,13 @@
         <v>12</v>
       </c>
       <c r="C219">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D219">
         <v>4</v>
       </c>
       <c r="E219">
-        <v>507932</v>
+        <v>508966</v>
       </c>
       <c r="F219" t="s">
         <v>15</v>
@@ -8835,13 +8835,13 @@
         <v>12</v>
       </c>
       <c r="C221">
-        <v>3018</v>
+        <v>3024</v>
       </c>
       <c r="D221">
         <v>508</v>
       </c>
       <c r="E221">
-        <v>14459641</v>
+        <v>14508785</v>
       </c>
       <c r="F221" t="s">
         <v>15</v>
@@ -8870,13 +8870,13 @@
         <v>12</v>
       </c>
       <c r="C222">
-        <v>52013</v>
+        <v>52127</v>
       </c>
       <c r="D222">
         <v>12087</v>
       </c>
       <c r="E222">
-        <v>100133106</v>
+        <v>100505529</v>
       </c>
       <c r="F222" t="s">
         <v>15</v>
@@ -8905,13 +8905,13 @@
         <v>12</v>
       </c>
       <c r="C223">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D223">
         <v>5</v>
       </c>
       <c r="E223">
-        <v>43905</v>
+        <v>45981</v>
       </c>
       <c r="F223" t="s">
         <v>15</v>
@@ -8940,13 +8940,13 @@
         <v>12</v>
       </c>
       <c r="C224">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D224">
         <v>15</v>
       </c>
       <c r="E224">
-        <v>354099</v>
+        <v>364099</v>
       </c>
       <c r="F224" t="s">
         <v>15</v>
@@ -8975,13 +8975,13 @@
         <v>12</v>
       </c>
       <c r="C225">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="D225">
         <v>165</v>
       </c>
       <c r="E225">
-        <v>8607722</v>
+        <v>8630722</v>
       </c>
       <c r="F225" t="s">
         <v>15</v>
@@ -9045,13 +9045,13 @@
         <v>12</v>
       </c>
       <c r="C227">
-        <v>30638</v>
+        <v>30774</v>
       </c>
       <c r="D227">
-        <v>6103</v>
+        <v>6104</v>
       </c>
       <c r="E227">
-        <v>157476641</v>
+        <v>158632196</v>
       </c>
       <c r="F227" t="s">
         <v>15</v>
@@ -9115,13 +9115,13 @@
         <v>12</v>
       </c>
       <c r="C229">
-        <v>7587</v>
+        <v>7628</v>
       </c>
       <c r="D229">
         <v>1505</v>
       </c>
       <c r="E229">
-        <v>45675506</v>
+        <v>46132274</v>
       </c>
       <c r="F229" t="s">
         <v>15</v>
@@ -9150,13 +9150,13 @@
         <v>12</v>
       </c>
       <c r="C230">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D230">
         <v>236</v>
       </c>
       <c r="E230">
-        <v>2249170</v>
+        <v>2281003</v>
       </c>
       <c r="F230" t="s">
         <v>15</v>
@@ -9185,13 +9185,13 @@
         <v>12</v>
       </c>
       <c r="C231">
-        <v>1868</v>
+        <v>1876</v>
       </c>
       <c r="D231">
         <v>299</v>
       </c>
       <c r="E231">
-        <v>8458176</v>
+        <v>8572617</v>
       </c>
       <c r="F231" t="s">
         <v>15</v>
@@ -9220,13 +9220,13 @@
         <v>12</v>
       </c>
       <c r="C232">
-        <v>16934</v>
+        <v>16973</v>
       </c>
       <c r="D232">
         <v>3895</v>
       </c>
       <c r="E232">
-        <v>33541235</v>
+        <v>33654171</v>
       </c>
       <c r="F232" t="s">
         <v>16</v>
@@ -9290,13 +9290,13 @@
         <v>12</v>
       </c>
       <c r="C234">
-        <v>6846</v>
+        <v>6863</v>
       </c>
       <c r="D234">
         <v>1446</v>
       </c>
       <c r="E234">
-        <v>30880955</v>
+        <v>31010170</v>
       </c>
       <c r="F234" t="s">
         <v>16</v>
@@ -9360,13 +9360,13 @@
         <v>12</v>
       </c>
       <c r="C236">
-        <v>2780</v>
+        <v>2796</v>
       </c>
       <c r="D236">
         <v>565</v>
       </c>
       <c r="E236">
-        <v>14546203</v>
+        <v>14629399</v>
       </c>
       <c r="F236" t="s">
         <v>16</v>
@@ -9395,13 +9395,13 @@
         <v>12</v>
       </c>
       <c r="C237">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D237">
         <v>199</v>
       </c>
       <c r="E237">
-        <v>3957596</v>
+        <v>3987489</v>
       </c>
       <c r="F237" t="s">
         <v>16</v>
@@ -9430,13 +9430,13 @@
         <v>12</v>
       </c>
       <c r="C238">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D238">
         <v>91</v>
       </c>
       <c r="E238">
-        <v>1756912</v>
+        <v>1765712</v>
       </c>
       <c r="F238" t="s">
         <v>16</v>
@@ -9465,13 +9465,13 @@
         <v>12</v>
       </c>
       <c r="C239">
-        <v>20584</v>
+        <v>20632</v>
       </c>
       <c r="D239">
         <v>4832</v>
       </c>
       <c r="E239">
-        <v>38658905</v>
+        <v>38847910</v>
       </c>
       <c r="F239" t="s">
         <v>16</v>
@@ -9535,13 +9535,13 @@
         <v>12</v>
       </c>
       <c r="C241">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D241">
         <v>42</v>
       </c>
       <c r="E241">
-        <v>1598704</v>
+        <v>1600204</v>
       </c>
       <c r="F241" t="s">
         <v>16</v>
@@ -9570,13 +9570,13 @@
         <v>12</v>
       </c>
       <c r="C242">
-        <v>9854</v>
+        <v>9897</v>
       </c>
       <c r="D242">
         <v>2227</v>
       </c>
       <c r="E242">
-        <v>44516052</v>
+        <v>44863200</v>
       </c>
       <c r="F242" t="s">
         <v>16</v>
@@ -9640,13 +9640,13 @@
         <v>12</v>
       </c>
       <c r="C244">
-        <v>5420</v>
+        <v>5449</v>
       </c>
       <c r="D244">
         <v>1126</v>
       </c>
       <c r="E244">
-        <v>22758627</v>
+        <v>22963141</v>
       </c>
       <c r="F244" t="s">
         <v>16</v>
@@ -9710,13 +9710,13 @@
         <v>12</v>
       </c>
       <c r="C246">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D246">
         <v>115</v>
       </c>
       <c r="E246">
-        <v>1967318</v>
+        <v>1989021</v>
       </c>
       <c r="F246" t="s">
         <v>16</v>
@@ -9745,13 +9745,13 @@
         <v>12</v>
       </c>
       <c r="C247">
-        <v>12497</v>
+        <v>12519</v>
       </c>
       <c r="D247">
         <v>2734</v>
       </c>
       <c r="E247">
-        <v>23793526</v>
+        <v>23877432</v>
       </c>
       <c r="F247" t="s">
         <v>16</v>
@@ -9850,13 +9850,13 @@
         <v>12</v>
       </c>
       <c r="C250">
-        <v>4986</v>
+        <v>5012</v>
       </c>
       <c r="D250">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E250">
-        <v>23278743</v>
+        <v>23428962</v>
       </c>
       <c r="F250" t="s">
         <v>16</v>
@@ -9920,13 +9920,13 @@
         <v>12</v>
       </c>
       <c r="C252">
-        <v>2057</v>
+        <v>2066</v>
       </c>
       <c r="D252">
         <v>388</v>
       </c>
       <c r="E252">
-        <v>10869722</v>
+        <v>10923808</v>
       </c>
       <c r="F252" t="s">
         <v>16</v>
@@ -9990,13 +9990,13 @@
         <v>12</v>
       </c>
       <c r="C254">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D254">
         <v>94</v>
       </c>
       <c r="E254">
-        <v>2506374</v>
+        <v>2531842</v>
       </c>
       <c r="F254" t="s">
         <v>16</v>
@@ -10025,13 +10025,13 @@
         <v>12</v>
       </c>
       <c r="C255">
-        <v>41226</v>
+        <v>41297</v>
       </c>
       <c r="D255">
-        <v>9346</v>
+        <v>9347</v>
       </c>
       <c r="E255">
-        <v>72826251</v>
+        <v>73001685</v>
       </c>
       <c r="F255" t="s">
         <v>16</v>
@@ -10130,13 +10130,13 @@
         <v>12</v>
       </c>
       <c r="C258">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D258">
         <v>62</v>
       </c>
       <c r="E258">
-        <v>2866899</v>
+        <v>2885627</v>
       </c>
       <c r="F258" t="s">
         <v>16</v>
@@ -10165,13 +10165,13 @@
         <v>12</v>
       </c>
       <c r="C259">
-        <v>21422</v>
+        <v>21487</v>
       </c>
       <c r="D259">
         <v>4183</v>
       </c>
       <c r="E259">
-        <v>104943804</v>
+        <v>105478272</v>
       </c>
       <c r="F259" t="s">
         <v>16</v>
@@ -10270,13 +10270,13 @@
         <v>12</v>
       </c>
       <c r="C262">
-        <v>7434</v>
+        <v>7465</v>
       </c>
       <c r="D262">
         <v>1448</v>
       </c>
       <c r="E262">
-        <v>40979969</v>
+        <v>41225663</v>
       </c>
       <c r="F262" t="s">
         <v>16</v>
@@ -10305,13 +10305,13 @@
         <v>12</v>
       </c>
       <c r="C263">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D263">
         <v>349</v>
       </c>
       <c r="E263">
-        <v>7386461</v>
+        <v>7396461</v>
       </c>
       <c r="F263" t="s">
         <v>16</v>
@@ -10375,13 +10375,13 @@
         <v>12</v>
       </c>
       <c r="C265">
-        <v>1736</v>
+        <v>1742</v>
       </c>
       <c r="D265">
         <v>296</v>
       </c>
       <c r="E265">
-        <v>6732768</v>
+        <v>6758788</v>
       </c>
       <c r="F265" t="s">
         <v>16</v>
@@ -10445,13 +10445,13 @@
         <v>12</v>
       </c>
       <c r="C267">
-        <v>34406</v>
+        <v>34480</v>
       </c>
       <c r="D267">
         <v>8093</v>
       </c>
       <c r="E267">
-        <v>60911858</v>
+        <v>61147012</v>
       </c>
       <c r="F267" t="s">
         <v>16</v>
@@ -10515,13 +10515,13 @@
         <v>12</v>
       </c>
       <c r="C269">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D269">
         <v>61</v>
       </c>
       <c r="E269">
-        <v>2102848</v>
+        <v>2112848</v>
       </c>
       <c r="F269" t="s">
         <v>16</v>
@@ -10550,13 +10550,13 @@
         <v>12</v>
       </c>
       <c r="C270">
-        <v>18071</v>
+        <v>18134</v>
       </c>
       <c r="D270">
-        <v>3848</v>
+        <v>3849</v>
       </c>
       <c r="E270">
-        <v>86786218</v>
+        <v>87234377</v>
       </c>
       <c r="F270" t="s">
         <v>16</v>
@@ -10620,13 +10620,13 @@
         <v>12</v>
       </c>
       <c r="C272">
-        <v>8510</v>
+        <v>8527</v>
       </c>
       <c r="D272">
         <v>1754</v>
       </c>
       <c r="E272">
-        <v>39876374</v>
+        <v>40009244</v>
       </c>
       <c r="F272" t="s">
         <v>16</v>
@@ -10655,13 +10655,13 @@
         <v>12</v>
       </c>
       <c r="C273">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D273">
         <v>88</v>
       </c>
       <c r="E273">
-        <v>597800</v>
+        <v>604836</v>
       </c>
       <c r="F273" t="s">
         <v>16</v>
@@ -10690,13 +10690,13 @@
         <v>12</v>
       </c>
       <c r="C274">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="D274">
         <v>261</v>
       </c>
       <c r="E274">
-        <v>6074458</v>
+        <v>6086009</v>
       </c>
       <c r="F274" t="s">
         <v>16</v>
@@ -10725,13 +10725,13 @@
         <v>12</v>
       </c>
       <c r="C275">
-        <v>20111</v>
+        <v>20153</v>
       </c>
       <c r="D275">
         <v>4594</v>
       </c>
       <c r="E275">
-        <v>39706197</v>
+        <v>39837723</v>
       </c>
       <c r="F275" t="s">
         <v>16</v>
@@ -10830,13 +10830,13 @@
         <v>12</v>
       </c>
       <c r="C278">
-        <v>10004</v>
+        <v>10037</v>
       </c>
       <c r="D278">
         <v>2119</v>
       </c>
       <c r="E278">
-        <v>47649106</v>
+        <v>47847696</v>
       </c>
       <c r="F278" t="s">
         <v>16</v>
@@ -10865,13 +10865,13 @@
         <v>12</v>
       </c>
       <c r="C279">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D279">
         <v>4</v>
       </c>
       <c r="E279">
-        <v>165302</v>
+        <v>180921</v>
       </c>
       <c r="F279" t="s">
         <v>16</v>
@@ -10900,13 +10900,13 @@
         <v>12</v>
       </c>
       <c r="C280">
-        <v>3576</v>
+        <v>3591</v>
       </c>
       <c r="D280">
         <v>711</v>
       </c>
       <c r="E280">
-        <v>20602477</v>
+        <v>20717348</v>
       </c>
       <c r="F280" t="s">
         <v>16</v>
@@ -10935,13 +10935,13 @@
         <v>12</v>
       </c>
       <c r="C281">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D281">
         <v>153</v>
       </c>
       <c r="E281">
-        <v>2166186</v>
+        <v>2183857</v>
       </c>
       <c r="F281" t="s">
         <v>16</v>
@@ -10970,13 +10970,13 @@
         <v>12</v>
       </c>
       <c r="C282">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="D282">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E282">
-        <v>3043236</v>
+        <v>3103837</v>
       </c>
       <c r="F282" t="s">
         <v>16</v>
@@ -11005,13 +11005,13 @@
         <v>12</v>
       </c>
       <c r="C283">
-        <v>21838</v>
+        <v>21877</v>
       </c>
       <c r="D283">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="E283">
-        <v>49005159</v>
+        <v>49151826</v>
       </c>
       <c r="F283" t="s">
         <v>17</v>
@@ -11145,13 +11145,13 @@
         <v>12</v>
       </c>
       <c r="C287">
-        <v>13673</v>
+        <v>13721</v>
       </c>
       <c r="D287">
         <v>2287</v>
       </c>
       <c r="E287">
-        <v>89800409</v>
+        <v>90288139</v>
       </c>
       <c r="F287" t="s">
         <v>17</v>
@@ -11180,13 +11180,13 @@
         <v>12</v>
       </c>
       <c r="C288">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D288">
         <v>8</v>
       </c>
       <c r="E288">
-        <v>1044175</v>
+        <v>1138113</v>
       </c>
       <c r="F288" t="s">
         <v>17</v>
@@ -11215,13 +11215,13 @@
         <v>12</v>
       </c>
       <c r="C289">
-        <v>8428</v>
+        <v>8450</v>
       </c>
       <c r="D289">
         <v>1461</v>
       </c>
       <c r="E289">
-        <v>50678346</v>
+        <v>50833233</v>
       </c>
       <c r="F289" t="s">
         <v>17</v>
@@ -11320,13 +11320,13 @@
         <v>12</v>
       </c>
       <c r="C292">
-        <v>25910</v>
+        <v>25967</v>
       </c>
       <c r="D292">
-        <v>4939</v>
+        <v>4940</v>
       </c>
       <c r="E292">
-        <v>52518653</v>
+        <v>52697813</v>
       </c>
       <c r="F292" t="s">
         <v>17</v>
@@ -11460,13 +11460,13 @@
         <v>12</v>
       </c>
       <c r="C296">
-        <v>12230</v>
+        <v>12286</v>
       </c>
       <c r="D296">
         <v>1972</v>
       </c>
       <c r="E296">
-        <v>70039374</v>
+        <v>70656413</v>
       </c>
       <c r="F296" t="s">
         <v>17</v>
@@ -11530,13 +11530,13 @@
         <v>12</v>
       </c>
       <c r="C298">
-        <v>8623</v>
+        <v>8640</v>
       </c>
       <c r="D298">
         <v>1433</v>
       </c>
       <c r="E298">
-        <v>47515543</v>
+        <v>47652217</v>
       </c>
       <c r="F298" t="s">
         <v>17</v>
@@ -11565,13 +11565,13 @@
         <v>12</v>
       </c>
       <c r="C299">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D299">
         <v>139</v>
       </c>
       <c r="E299">
-        <v>2071037</v>
+        <v>2077689</v>
       </c>
       <c r="F299" t="s">
         <v>17</v>
@@ -11635,13 +11635,13 @@
         <v>12</v>
       </c>
       <c r="C301">
-        <v>14729</v>
+        <v>14768</v>
       </c>
       <c r="D301">
         <v>3338</v>
       </c>
       <c r="E301">
-        <v>28175966</v>
+        <v>28293950</v>
       </c>
       <c r="F301" t="s">
         <v>18</v>
@@ -11775,13 +11775,13 @@
         <v>12</v>
       </c>
       <c r="C305">
-        <v>5740</v>
+        <v>5761</v>
       </c>
       <c r="D305">
         <v>1239</v>
       </c>
       <c r="E305">
-        <v>25560872</v>
+        <v>25726945</v>
       </c>
       <c r="F305" t="s">
         <v>18</v>
@@ -11845,13 +11845,13 @@
         <v>12</v>
       </c>
       <c r="C307">
-        <v>2224</v>
+        <v>2230</v>
       </c>
       <c r="D307">
         <v>479</v>
       </c>
       <c r="E307">
-        <v>10703699</v>
+        <v>10740999</v>
       </c>
       <c r="F307" t="s">
         <v>18</v>
@@ -11915,13 +11915,13 @@
         <v>12</v>
       </c>
       <c r="C309">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D309">
         <v>84</v>
       </c>
       <c r="E309">
-        <v>2405309</v>
+        <v>2430537</v>
       </c>
       <c r="F309" t="s">
         <v>18</v>
@@ -11950,13 +11950,13 @@
         <v>12</v>
       </c>
       <c r="C310">
-        <v>19800</v>
+        <v>19865</v>
       </c>
       <c r="D310">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="E310">
-        <v>47627900</v>
+        <v>47898984</v>
       </c>
       <c r="F310" t="s">
         <v>18</v>
@@ -12055,13 +12055,13 @@
         <v>12</v>
       </c>
       <c r="C313">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D313">
         <v>60</v>
       </c>
       <c r="E313">
-        <v>2972772</v>
+        <v>3009313</v>
       </c>
       <c r="F313" t="s">
         <v>18</v>
@@ -12090,13 +12090,13 @@
         <v>12</v>
       </c>
       <c r="C314">
-        <v>8896</v>
+        <v>8937</v>
       </c>
       <c r="D314">
         <v>1879</v>
       </c>
       <c r="E314">
-        <v>42226201</v>
+        <v>42649834</v>
       </c>
       <c r="F314" t="s">
         <v>18</v>
@@ -12125,13 +12125,13 @@
         <v>12</v>
       </c>
       <c r="C315">
-        <v>3981</v>
+        <v>4001</v>
       </c>
       <c r="D315">
         <v>780</v>
       </c>
       <c r="E315">
-        <v>20351757</v>
+        <v>20501685</v>
       </c>
       <c r="F315" t="s">
         <v>18</v>
@@ -12230,13 +12230,13 @@
         <v>12</v>
       </c>
       <c r="C318">
-        <v>3323</v>
+        <v>3340</v>
       </c>
       <c r="D318">
         <v>997</v>
       </c>
       <c r="E318">
-        <v>24668943</v>
+        <v>24839766</v>
       </c>
       <c r="F318" t="s">
         <v>18</v>
@@ -12265,13 +12265,13 @@
         <v>12</v>
       </c>
       <c r="C319">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D319">
         <v>97</v>
       </c>
       <c r="E319">
-        <v>2012168</v>
+        <v>2035113</v>
       </c>
       <c r="F319" t="s">
         <v>18</v>
@@ -12300,13 +12300,13 @@
         <v>12</v>
       </c>
       <c r="C320">
-        <v>73019</v>
+        <v>73207</v>
       </c>
       <c r="D320">
-        <v>15885</v>
+        <v>15888</v>
       </c>
       <c r="E320">
-        <v>128728132</v>
+        <v>129240518</v>
       </c>
       <c r="F320" t="s">
         <v>18</v>
@@ -12440,13 +12440,13 @@
         <v>12</v>
       </c>
       <c r="C324">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D324">
         <v>27</v>
       </c>
       <c r="E324">
-        <v>1176882</v>
+        <v>1184205</v>
       </c>
       <c r="F324" t="s">
         <v>18</v>
@@ -12475,13 +12475,13 @@
         <v>12</v>
       </c>
       <c r="C325">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D325">
         <v>4</v>
       </c>
       <c r="E325">
-        <v>414830</v>
+        <v>614830</v>
       </c>
       <c r="F325" t="s">
         <v>18</v>
@@ -12510,13 +12510,13 @@
         <v>12</v>
       </c>
       <c r="C326">
-        <v>44730</v>
+        <v>44870</v>
       </c>
       <c r="D326">
         <v>9054</v>
       </c>
       <c r="E326">
-        <v>222921418</v>
+        <v>224057956</v>
       </c>
       <c r="F326" t="s">
         <v>18</v>
@@ -12545,13 +12545,13 @@
         <v>12</v>
       </c>
       <c r="C327">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D327">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E327">
-        <v>3099278</v>
+        <v>3102278</v>
       </c>
       <c r="F327" t="s">
         <v>18</v>
@@ -12615,13 +12615,13 @@
         <v>12</v>
       </c>
       <c r="C329">
-        <v>22274</v>
+        <v>22340</v>
       </c>
       <c r="D329">
-        <v>4503</v>
+        <v>4505</v>
       </c>
       <c r="E329">
-        <v>129830396</v>
+        <v>130380926</v>
       </c>
       <c r="F329" t="s">
         <v>18</v>
@@ -12685,13 +12685,13 @@
         <v>12</v>
       </c>
       <c r="C331">
-        <v>5124</v>
+        <v>5153</v>
       </c>
       <c r="D331">
         <v>962</v>
       </c>
       <c r="E331">
-        <v>23730606</v>
+        <v>23881890</v>
       </c>
       <c r="F331" t="s">
         <v>18</v>
@@ -12720,13 +12720,13 @@
         <v>12</v>
       </c>
       <c r="C332">
-        <v>2938</v>
+        <v>2946</v>
       </c>
       <c r="D332">
         <v>439</v>
       </c>
       <c r="E332">
-        <v>11940433</v>
+        <v>12005754</v>
       </c>
       <c r="F332" t="s">
         <v>18</v>
@@ -12755,13 +12755,13 @@
         <v>12</v>
       </c>
       <c r="C333">
-        <v>8404</v>
+        <v>8425</v>
       </c>
       <c r="D333">
         <v>1910</v>
       </c>
       <c r="E333">
-        <v>15244304</v>
+        <v>15289715</v>
       </c>
       <c r="F333" t="s">
         <v>18</v>
@@ -12825,13 +12825,13 @@
         <v>12</v>
       </c>
       <c r="C335">
-        <v>3668</v>
+        <v>3686</v>
       </c>
       <c r="D335">
         <v>776</v>
       </c>
       <c r="E335">
-        <v>17104639</v>
+        <v>17276361</v>
       </c>
       <c r="F335" t="s">
         <v>18</v>
@@ -12860,13 +12860,13 @@
         <v>12</v>
       </c>
       <c r="C336">
-        <v>1586</v>
+        <v>1591</v>
       </c>
       <c r="D336">
         <v>334</v>
       </c>
       <c r="E336">
-        <v>7715315</v>
+        <v>7788475</v>
       </c>
       <c r="F336" t="s">
         <v>18</v>
@@ -12895,13 +12895,13 @@
         <v>12</v>
       </c>
       <c r="C337">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D337">
         <v>83</v>
       </c>
       <c r="E337">
-        <v>454970</v>
+        <v>460737</v>
       </c>
       <c r="F337" t="s">
         <v>18</v>
@@ -12965,13 +12965,13 @@
         <v>12</v>
       </c>
       <c r="C339">
-        <v>41461</v>
+        <v>41558</v>
       </c>
       <c r="D339">
         <v>9399</v>
       </c>
       <c r="E339">
-        <v>75002735</v>
+        <v>75235488</v>
       </c>
       <c r="F339" t="s">
         <v>18</v>
@@ -13000,13 +13000,13 @@
         <v>12</v>
       </c>
       <c r="C340">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D340">
         <v>5</v>
       </c>
       <c r="E340">
-        <v>66321</v>
+        <v>85060</v>
       </c>
       <c r="F340" t="s">
         <v>18</v>
@@ -13070,13 +13070,13 @@
         <v>12</v>
       </c>
       <c r="C342">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D342">
         <v>22</v>
       </c>
       <c r="E342">
-        <v>696807</v>
+        <v>698307</v>
       </c>
       <c r="F342" t="s">
         <v>18</v>
@@ -13105,13 +13105,13 @@
         <v>12</v>
       </c>
       <c r="C343">
-        <v>26959</v>
+        <v>27071</v>
       </c>
       <c r="D343">
         <v>5349</v>
       </c>
       <c r="E343">
-        <v>146435368</v>
+        <v>147463629</v>
       </c>
       <c r="F343" t="s">
         <v>18</v>
@@ -13210,13 +13210,13 @@
         <v>12</v>
       </c>
       <c r="C346">
-        <v>13587</v>
+        <v>13639</v>
       </c>
       <c r="D346">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="E346">
-        <v>75956310</v>
+        <v>76315921</v>
       </c>
       <c r="F346" t="s">
         <v>18</v>
@@ -13245,13 +13245,13 @@
         <v>12</v>
       </c>
       <c r="C347">
-        <v>3139</v>
+        <v>3174</v>
       </c>
       <c r="D347">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="E347">
-        <v>19231255</v>
+        <v>19461340</v>
       </c>
       <c r="F347" t="s">
         <v>18</v>
@@ -13280,13 +13280,13 @@
         <v>12</v>
       </c>
       <c r="C348">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D348">
         <v>241</v>
       </c>
       <c r="E348">
-        <v>6564678</v>
+        <v>6589337</v>
       </c>
       <c r="F348" t="s">
         <v>18</v>
@@ -13315,13 +13315,13 @@
         <v>12</v>
       </c>
       <c r="C349">
-        <v>42429</v>
+        <v>42548</v>
       </c>
       <c r="D349">
-        <v>9944</v>
+        <v>9946</v>
       </c>
       <c r="E349">
-        <v>112186058</v>
+        <v>112686986</v>
       </c>
       <c r="F349" t="s">
         <v>18</v>
@@ -13420,13 +13420,13 @@
         <v>12</v>
       </c>
       <c r="C352">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D352">
         <v>83</v>
       </c>
       <c r="E352">
-        <v>2766814</v>
+        <v>2769814</v>
       </c>
       <c r="F352" t="s">
         <v>18</v>
@@ -13455,13 +13455,13 @@
         <v>12</v>
       </c>
       <c r="C353">
-        <v>19190</v>
+        <v>19245</v>
       </c>
       <c r="D353">
         <v>3998</v>
       </c>
       <c r="E353">
-        <v>98814730</v>
+        <v>99353227</v>
       </c>
       <c r="F353" t="s">
         <v>18</v>
@@ -13525,13 +13525,13 @@
         <v>12</v>
       </c>
       <c r="C355">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D355">
         <v>6</v>
       </c>
       <c r="E355">
-        <v>941808</v>
+        <v>951808</v>
       </c>
       <c r="F355" t="s">
         <v>18</v>
@@ -13560,13 +13560,13 @@
         <v>12</v>
       </c>
       <c r="C356">
-        <v>8243</v>
+        <v>8277</v>
       </c>
       <c r="D356">
         <v>1601</v>
       </c>
       <c r="E356">
-        <v>52550985</v>
+        <v>52981040</v>
       </c>
       <c r="F356" t="s">
         <v>18</v>
@@ -13630,13 +13630,13 @@
         <v>12</v>
       </c>
       <c r="C358">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D358">
         <v>135</v>
       </c>
       <c r="E358">
-        <v>13217156</v>
+        <v>13292423</v>
       </c>
       <c r="F358" t="s">
         <v>18</v>
@@ -13665,13 +13665,13 @@
         <v>12</v>
       </c>
       <c r="C359">
-        <v>11817</v>
+        <v>11881</v>
       </c>
       <c r="D359">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E359">
-        <v>74046225</v>
+        <v>74488867</v>
       </c>
       <c r="F359" t="s">
         <v>18</v>
@@ -13700,13 +13700,13 @@
         <v>12</v>
       </c>
       <c r="C360">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D360">
         <v>180</v>
       </c>
       <c r="E360">
-        <v>3486010</v>
+        <v>3492206</v>
       </c>
       <c r="F360" t="s">
         <v>18</v>
@@ -13735,13 +13735,13 @@
         <v>12</v>
       </c>
       <c r="C361">
-        <v>39126</v>
+        <v>39199</v>
       </c>
       <c r="D361">
-        <v>8711</v>
+        <v>8712</v>
       </c>
       <c r="E361">
-        <v>65617843</v>
+        <v>65824911</v>
       </c>
       <c r="F361" t="s">
         <v>18</v>
@@ -13840,13 +13840,13 @@
         <v>12</v>
       </c>
       <c r="C364">
-        <v>17897</v>
+        <v>17954</v>
       </c>
       <c r="D364">
         <v>3808</v>
       </c>
       <c r="E364">
-        <v>82035678</v>
+        <v>82473515</v>
       </c>
       <c r="F364" t="s">
         <v>18</v>
@@ -13875,13 +13875,13 @@
         <v>12</v>
       </c>
       <c r="C365">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D365">
         <v>16</v>
       </c>
       <c r="E365">
-        <v>1749593</v>
+        <v>1775792</v>
       </c>
       <c r="F365" t="s">
         <v>18</v>
@@ -13910,13 +13910,13 @@
         <v>12</v>
       </c>
       <c r="C366">
-        <v>8049</v>
+        <v>8079</v>
       </c>
       <c r="D366">
         <v>1594</v>
       </c>
       <c r="E366">
-        <v>43063951</v>
+        <v>43233007</v>
       </c>
       <c r="F366" t="s">
         <v>18</v>
@@ -14015,13 +14015,13 @@
         <v>12</v>
       </c>
       <c r="C369">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="D369">
         <v>245</v>
       </c>
       <c r="E369">
-        <v>5649093</v>
+        <v>5673751</v>
       </c>
       <c r="F369" t="s">
         <v>18</v>
@@ -14050,13 +14050,13 @@
         <v>12</v>
       </c>
       <c r="C370">
-        <v>9132</v>
+        <v>9158</v>
       </c>
       <c r="D370">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="E370">
-        <v>17576866</v>
+        <v>17669390</v>
       </c>
       <c r="F370" t="s">
         <v>18</v>
@@ -14120,13 +14120,13 @@
         <v>12</v>
       </c>
       <c r="C372">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D372">
         <v>17</v>
       </c>
       <c r="E372">
-        <v>1117634</v>
+        <v>1126018</v>
       </c>
       <c r="F372" t="s">
         <v>18</v>
@@ -14155,13 +14155,13 @@
         <v>12</v>
       </c>
       <c r="C373">
-        <v>3444</v>
+        <v>3462</v>
       </c>
       <c r="D373">
         <v>724</v>
       </c>
       <c r="E373">
-        <v>15771161</v>
+        <v>15897415</v>
       </c>
       <c r="F373" t="s">
         <v>18</v>
@@ -14190,13 +14190,13 @@
         <v>12</v>
       </c>
       <c r="C374">
-        <v>1554</v>
+        <v>1559</v>
       </c>
       <c r="D374">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E374">
-        <v>6704406</v>
+        <v>6748809</v>
       </c>
       <c r="F374" t="s">
         <v>18</v>
@@ -14260,13 +14260,13 @@
         <v>12</v>
       </c>
       <c r="C376">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D376">
         <v>43</v>
       </c>
       <c r="E376">
-        <v>1678093</v>
+        <v>1717454</v>
       </c>
       <c r="F376" t="s">
         <v>18</v>
@@ -14295,13 +14295,13 @@
         <v>12</v>
       </c>
       <c r="C377">
-        <v>46573</v>
+        <v>46681</v>
       </c>
       <c r="D377">
         <v>10697</v>
       </c>
       <c r="E377">
-        <v>82913191</v>
+        <v>83264388</v>
       </c>
       <c r="F377" t="s">
         <v>18</v>
@@ -14365,13 +14365,13 @@
         <v>12</v>
       </c>
       <c r="C379">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D379">
         <v>14</v>
       </c>
       <c r="E379">
-        <v>679191</v>
+        <v>689191</v>
       </c>
       <c r="F379" t="s">
         <v>18</v>
@@ -14400,13 +14400,13 @@
         <v>12</v>
       </c>
       <c r="C380">
-        <v>23854</v>
+        <v>23947</v>
       </c>
       <c r="D380">
-        <v>5076</v>
+        <v>5077</v>
       </c>
       <c r="E380">
-        <v>120750511</v>
+        <v>121746137</v>
       </c>
       <c r="F380" t="s">
         <v>18</v>
@@ -14470,13 +14470,13 @@
         <v>12</v>
       </c>
       <c r="C382">
-        <v>15848</v>
+        <v>15909</v>
       </c>
       <c r="D382">
         <v>3244</v>
       </c>
       <c r="E382">
-        <v>73722495</v>
+        <v>74276858</v>
       </c>
       <c r="F382" t="s">
         <v>18</v>
@@ -14540,13 +14540,13 @@
         <v>12</v>
       </c>
       <c r="C384">
-        <v>1283</v>
+        <v>1294</v>
       </c>
       <c r="D384">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E384">
-        <v>7808157</v>
+        <v>7902530</v>
       </c>
       <c r="F384" t="s">
         <v>18</v>
@@ -14575,13 +14575,13 @@
         <v>12</v>
       </c>
       <c r="C385">
-        <v>24458</v>
+        <v>24525</v>
       </c>
       <c r="D385">
         <v>5297</v>
       </c>
       <c r="E385">
-        <v>45200206</v>
+        <v>45382168</v>
       </c>
       <c r="F385" t="s">
         <v>18</v>
@@ -14680,13 +14680,13 @@
         <v>12</v>
       </c>
       <c r="C388">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D388">
         <v>28</v>
       </c>
       <c r="E388">
-        <v>843867</v>
+        <v>853867</v>
       </c>
       <c r="F388" t="s">
         <v>18</v>
@@ -14715,13 +14715,13 @@
         <v>12</v>
       </c>
       <c r="C389">
-        <v>13309</v>
+        <v>13355</v>
       </c>
       <c r="D389">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="E389">
-        <v>61185219</v>
+        <v>61530082</v>
       </c>
       <c r="F389" t="s">
         <v>18</v>
@@ -14785,13 +14785,13 @@
         <v>12</v>
       </c>
       <c r="C391">
-        <v>5120</v>
+        <v>5144</v>
       </c>
       <c r="D391">
         <v>1014</v>
       </c>
       <c r="E391">
-        <v>26267899</v>
+        <v>26596293</v>
       </c>
       <c r="F391" t="s">
         <v>18</v>
@@ -14855,13 +14855,13 @@
         <v>12</v>
       </c>
       <c r="C393">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="D393">
         <v>134</v>
       </c>
       <c r="E393">
-        <v>2287786</v>
+        <v>2308331</v>
       </c>
       <c r="F393" t="s">
         <v>18</v>
@@ -14890,13 +14890,13 @@
         <v>12</v>
       </c>
       <c r="C394">
-        <v>61665</v>
+        <v>61802</v>
       </c>
       <c r="D394">
-        <v>12266</v>
+        <v>12267</v>
       </c>
       <c r="E394">
-        <v>98150108</v>
+        <v>98494197</v>
       </c>
       <c r="F394" t="s">
         <v>19</v>
@@ -14960,13 +14960,13 @@
         <v>12</v>
       </c>
       <c r="C396">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D396">
         <v>13</v>
       </c>
       <c r="E396">
-        <v>518289</v>
+        <v>519250</v>
       </c>
       <c r="F396" t="s">
         <v>19</v>
@@ -14995,13 +14995,13 @@
         <v>12</v>
       </c>
       <c r="C397">
-        <v>15084</v>
+        <v>15142</v>
       </c>
       <c r="D397">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="E397">
-        <v>49767621</v>
+        <v>50403015</v>
       </c>
       <c r="F397" t="s">
         <v>19</v>
@@ -15030,13 +15030,13 @@
         <v>12</v>
       </c>
       <c r="C398">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D398">
         <v>7</v>
       </c>
       <c r="E398">
-        <v>686380</v>
+        <v>820747</v>
       </c>
       <c r="F398" t="s">
         <v>19</v>
@@ -15065,13 +15065,13 @@
         <v>12</v>
       </c>
       <c r="C399">
-        <v>13888</v>
+        <v>13914</v>
       </c>
       <c r="D399">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="E399">
-        <v>36390593</v>
+        <v>36510209</v>
       </c>
       <c r="F399" t="s">
         <v>19</v>
@@ -15100,13 +15100,13 @@
         <v>12</v>
       </c>
       <c r="C400">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D400">
         <v>201</v>
       </c>
       <c r="E400">
-        <v>1583285</v>
+        <v>1590596</v>
       </c>
       <c r="F400" t="s">
         <v>19</v>
@@ -15135,13 +15135,13 @@
         <v>12</v>
       </c>
       <c r="C401">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D401">
         <v>192</v>
       </c>
       <c r="E401">
-        <v>1440969</v>
+        <v>1443197</v>
       </c>
       <c r="F401" t="s">
         <v>19</v>
@@ -15170,13 +15170,13 @@
         <v>12</v>
       </c>
       <c r="C402">
-        <v>24923</v>
+        <v>24984</v>
       </c>
       <c r="D402">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="E402">
-        <v>49755521</v>
+        <v>49847854</v>
       </c>
       <c r="F402" t="s">
         <v>20</v>
@@ -15240,13 +15240,13 @@
         <v>12</v>
       </c>
       <c r="C404">
-        <v>5339</v>
+        <v>5354</v>
       </c>
       <c r="D404">
         <v>901</v>
       </c>
       <c r="E404">
-        <v>15334314</v>
+        <v>15411130</v>
       </c>
       <c r="F404" t="s">
         <v>20</v>
@@ -15310,13 +15310,13 @@
         <v>12</v>
       </c>
       <c r="C406">
-        <v>7886</v>
+        <v>7900</v>
       </c>
       <c r="D406">
         <v>1264</v>
       </c>
       <c r="E406">
-        <v>19679867</v>
+        <v>19736991</v>
       </c>
       <c r="F406" t="s">
         <v>20</v>
@@ -15380,13 +15380,13 @@
         <v>12</v>
       </c>
       <c r="C408">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D408">
         <v>56</v>
       </c>
       <c r="E408">
-        <v>624998</v>
+        <v>626498</v>
       </c>
       <c r="F408" t="s">
         <v>20</v>
@@ -15450,13 +15450,13 @@
         <v>12</v>
       </c>
       <c r="C410">
-        <v>24941</v>
+        <v>24998</v>
       </c>
       <c r="D410">
-        <v>5518</v>
+        <v>5520</v>
       </c>
       <c r="E410">
-        <v>50075480</v>
+        <v>50235668</v>
       </c>
       <c r="F410" t="s">
         <v>21</v>
@@ -15520,13 +15520,13 @@
         <v>12</v>
       </c>
       <c r="C412">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D412">
         <v>49</v>
       </c>
       <c r="E412">
-        <v>1686454</v>
+        <v>1689454</v>
       </c>
       <c r="F412" t="s">
         <v>21</v>
@@ -15555,13 +15555,13 @@
         <v>12</v>
       </c>
       <c r="C413">
-        <v>9840</v>
+        <v>9864</v>
       </c>
       <c r="D413">
         <v>2101</v>
       </c>
       <c r="E413">
-        <v>48823502</v>
+        <v>48967802</v>
       </c>
       <c r="F413" t="s">
         <v>21</v>
@@ -15590,13 +15590,13 @@
         <v>12</v>
       </c>
       <c r="C414">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D414">
         <v>11</v>
       </c>
       <c r="E414">
-        <v>855855</v>
+        <v>867443</v>
       </c>
       <c r="F414" t="s">
         <v>21</v>
@@ -15625,13 +15625,13 @@
         <v>12</v>
       </c>
       <c r="C415">
-        <v>5234</v>
+        <v>5254</v>
       </c>
       <c r="D415">
         <v>1038</v>
       </c>
       <c r="E415">
-        <v>24950627</v>
+        <v>25327004</v>
       </c>
       <c r="F415" t="s">
         <v>21</v>
@@ -15695,13 +15695,13 @@
         <v>12</v>
       </c>
       <c r="C417">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D417">
         <v>309</v>
       </c>
       <c r="E417">
-        <v>5834254</v>
+        <v>5879908</v>
       </c>
       <c r="F417" t="s">
         <v>21</v>
@@ -15730,13 +15730,13 @@
         <v>12</v>
       </c>
       <c r="C418">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D418">
         <v>112</v>
       </c>
       <c r="E418">
-        <v>2515704</v>
+        <v>2525704</v>
       </c>
       <c r="F418" t="s">
         <v>21</v>
@@ -15765,13 +15765,13 @@
         <v>12</v>
       </c>
       <c r="C419">
-        <v>140451</v>
+        <v>140717</v>
       </c>
       <c r="D419">
-        <v>30550</v>
+        <v>30552</v>
       </c>
       <c r="E419">
-        <v>242038968</v>
+        <v>242647038</v>
       </c>
       <c r="F419" t="s">
         <v>21</v>
@@ -15870,13 +15870,13 @@
         <v>12</v>
       </c>
       <c r="C422">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="D422">
         <v>208</v>
       </c>
       <c r="E422">
-        <v>9969993</v>
+        <v>10023952</v>
       </c>
       <c r="F422" t="s">
         <v>21</v>
@@ -15905,13 +15905,13 @@
         <v>12</v>
       </c>
       <c r="C423">
-        <v>66229</v>
+        <v>66477</v>
       </c>
       <c r="D423">
-        <v>13131</v>
+        <v>13132</v>
       </c>
       <c r="E423">
-        <v>320189356</v>
+        <v>322240508</v>
       </c>
       <c r="F423" t="s">
         <v>21</v>
@@ -15940,13 +15940,13 @@
         <v>12</v>
       </c>
       <c r="C424">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D424">
         <v>57</v>
       </c>
       <c r="E424">
-        <v>7756816</v>
+        <v>7872768</v>
       </c>
       <c r="F424" t="s">
         <v>21</v>
@@ -16010,13 +16010,13 @@
         <v>12</v>
       </c>
       <c r="C426">
-        <v>37662</v>
+        <v>37782</v>
       </c>
       <c r="D426">
-        <v>6899</v>
+        <v>6902</v>
       </c>
       <c r="E426">
-        <v>193212685</v>
+        <v>194490547</v>
       </c>
       <c r="F426" t="s">
         <v>21</v>
@@ -16045,13 +16045,13 @@
         <v>12</v>
       </c>
       <c r="C427">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="D427">
         <v>276</v>
       </c>
       <c r="E427">
-        <v>2212183</v>
+        <v>2224867</v>
       </c>
       <c r="F427" t="s">
         <v>21</v>
@@ -16080,13 +16080,13 @@
         <v>12</v>
       </c>
       <c r="C428">
-        <v>4260</v>
+        <v>4282</v>
       </c>
       <c r="D428">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E428">
-        <v>19697540</v>
+        <v>19872715</v>
       </c>
       <c r="F428" t="s">
         <v>21</v>
@@ -16150,13 +16150,13 @@
         <v>12</v>
       </c>
       <c r="C430">
-        <v>42002</v>
+        <v>42098</v>
       </c>
       <c r="D430">
         <v>9195</v>
       </c>
       <c r="E430">
-        <v>74875043</v>
+        <v>75138390</v>
       </c>
       <c r="F430" t="s">
         <v>21</v>
@@ -16220,13 +16220,13 @@
         <v>12</v>
       </c>
       <c r="C432">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D432">
         <v>113</v>
       </c>
       <c r="E432">
-        <v>4985591</v>
+        <v>5044265</v>
       </c>
       <c r="F432" t="s">
         <v>21</v>
@@ -16255,13 +16255,13 @@
         <v>12</v>
       </c>
       <c r="C433">
-        <v>19055</v>
+        <v>19120</v>
       </c>
       <c r="D433">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="E433">
-        <v>86526918</v>
+        <v>87005817</v>
       </c>
       <c r="F433" t="s">
         <v>21</v>
@@ -16290,13 +16290,13 @@
         <v>12</v>
       </c>
       <c r="C434">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D434">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E434">
-        <v>932944</v>
+        <v>1179295</v>
       </c>
       <c r="F434" t="s">
         <v>21</v>
@@ -16325,13 +16325,13 @@
         <v>12</v>
       </c>
       <c r="C435">
-        <v>13530</v>
+        <v>13594</v>
       </c>
       <c r="D435">
         <v>2497</v>
       </c>
       <c r="E435">
-        <v>61709907</v>
+        <v>62149491</v>
       </c>
       <c r="F435" t="s">
         <v>21</v>
@@ -16395,13 +16395,13 @@
         <v>12</v>
       </c>
       <c r="C437">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="D437">
         <v>184</v>
       </c>
       <c r="E437">
-        <v>3617386</v>
+        <v>3632314</v>
       </c>
       <c r="F437" t="s">
         <v>21</v>
@@ -16430,13 +16430,13 @@
         <v>12</v>
       </c>
       <c r="C438">
-        <v>70986</v>
+        <v>71109</v>
       </c>
       <c r="D438">
-        <v>15794</v>
+        <v>15795</v>
       </c>
       <c r="E438">
-        <v>127729562</v>
+        <v>128050704</v>
       </c>
       <c r="F438" t="s">
         <v>21</v>
@@ -16535,13 +16535,13 @@
         <v>12</v>
       </c>
       <c r="C441">
-        <v>1319</v>
+        <v>1326</v>
       </c>
       <c r="D441">
         <v>171</v>
       </c>
       <c r="E441">
-        <v>7470681</v>
+        <v>7524005</v>
       </c>
       <c r="F441" t="s">
         <v>21</v>
@@ -16570,13 +16570,13 @@
         <v>12</v>
       </c>
       <c r="C442">
-        <v>30155</v>
+        <v>30257</v>
       </c>
       <c r="D442">
         <v>6187</v>
       </c>
       <c r="E442">
-        <v>151007826</v>
+        <v>151748545</v>
       </c>
       <c r="F442" t="s">
         <v>21</v>
@@ -16675,13 +16675,13 @@
         <v>12</v>
       </c>
       <c r="C445">
-        <v>14090</v>
+        <v>14137</v>
       </c>
       <c r="D445">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="E445">
-        <v>82173135</v>
+        <v>82543528</v>
       </c>
       <c r="F445" t="s">
         <v>21</v>
@@ -16710,13 +16710,13 @@
         <v>12</v>
       </c>
       <c r="C446">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D446">
         <v>217</v>
       </c>
       <c r="E446">
-        <v>1753749</v>
+        <v>1757677</v>
       </c>
       <c r="F446" t="s">
         <v>21</v>
@@ -16745,13 +16745,13 @@
         <v>12</v>
       </c>
       <c r="C447">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="D447">
         <v>233</v>
       </c>
       <c r="E447">
-        <v>4374335</v>
+        <v>4410254</v>
       </c>
       <c r="F447" t="s">
         <v>21</v>
@@ -16780,13 +16780,13 @@
         <v>12</v>
       </c>
       <c r="C448">
-        <v>30383</v>
+        <v>30461</v>
       </c>
       <c r="D448">
         <v>6832</v>
       </c>
       <c r="E448">
-        <v>55099755</v>
+        <v>55332156</v>
       </c>
       <c r="F448" t="s">
         <v>21</v>
@@ -16885,13 +16885,13 @@
         <v>12</v>
       </c>
       <c r="C451">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="D451">
         <v>79</v>
       </c>
       <c r="E451">
-        <v>2623304</v>
+        <v>2661613</v>
       </c>
       <c r="F451" t="s">
         <v>21</v>
@@ -16920,13 +16920,13 @@
         <v>12</v>
       </c>
       <c r="C452">
-        <v>11563</v>
+        <v>11618</v>
       </c>
       <c r="D452">
         <v>2372</v>
       </c>
       <c r="E452">
-        <v>61472950</v>
+        <v>61859976</v>
       </c>
       <c r="F452" t="s">
         <v>21</v>
@@ -16990,13 +16990,13 @@
         <v>12</v>
       </c>
       <c r="C454">
-        <v>5985</v>
+        <v>6024</v>
       </c>
       <c r="D454">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="E454">
-        <v>33550149</v>
+        <v>33850157</v>
       </c>
       <c r="F454" t="s">
         <v>21</v>
@@ -17025,13 +17025,13 @@
         <v>12</v>
       </c>
       <c r="C455">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D455">
         <v>92</v>
       </c>
       <c r="E455">
-        <v>805283</v>
+        <v>806783</v>
       </c>
       <c r="F455" t="s">
         <v>21</v>
@@ -17060,13 +17060,13 @@
         <v>12</v>
       </c>
       <c r="C456">
-        <v>1119</v>
+        <v>1130</v>
       </c>
       <c r="D456">
         <v>194</v>
       </c>
       <c r="E456">
-        <v>3713753</v>
+        <v>3766528</v>
       </c>
       <c r="F456" t="s">
         <v>21</v>
@@ -17095,13 +17095,13 @@
         <v>12</v>
       </c>
       <c r="C457">
-        <v>84571</v>
+        <v>84765</v>
       </c>
       <c r="D457">
-        <v>16340</v>
+        <v>16344</v>
       </c>
       <c r="E457">
-        <v>147480504</v>
+        <v>148013661</v>
       </c>
       <c r="F457" t="s">
         <v>22</v>
@@ -17200,13 +17200,13 @@
         <v>12</v>
       </c>
       <c r="C460">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D460">
         <v>68</v>
       </c>
       <c r="E460">
-        <v>2412720</v>
+        <v>2471220</v>
       </c>
       <c r="F460" t="s">
         <v>22</v>
@@ -17235,13 +17235,13 @@
         <v>12</v>
       </c>
       <c r="C461">
-        <v>32629</v>
+        <v>32754</v>
       </c>
       <c r="D461">
-        <v>7017</v>
+        <v>7019</v>
       </c>
       <c r="E461">
-        <v>143669818</v>
+        <v>144752936</v>
       </c>
       <c r="F461" t="s">
         <v>22</v>
@@ -17305,13 +17305,13 @@
         <v>12</v>
       </c>
       <c r="C463">
-        <v>32121</v>
+        <v>32220</v>
       </c>
       <c r="D463">
-        <v>5972</v>
+        <v>5973</v>
       </c>
       <c r="E463">
-        <v>133249792</v>
+        <v>133915495</v>
       </c>
       <c r="F463" t="s">
         <v>22</v>
@@ -17375,13 +17375,13 @@
         <v>12</v>
       </c>
       <c r="C465">
-        <v>1234</v>
+        <v>1248</v>
       </c>
       <c r="D465">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E465">
-        <v>5333351</v>
+        <v>5368404</v>
       </c>
       <c r="F465" t="s">
         <v>22</v>
@@ -17410,13 +17410,13 @@
         <v>12</v>
       </c>
       <c r="C466">
-        <v>156447</v>
+        <v>156740</v>
       </c>
       <c r="D466">
-        <v>27217</v>
+        <v>27220</v>
       </c>
       <c r="E466">
-        <v>278629784</v>
+        <v>279304183</v>
       </c>
       <c r="F466" t="s">
         <v>22</v>
@@ -17480,13 +17480,13 @@
         <v>12</v>
       </c>
       <c r="C468">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D468">
         <v>13</v>
       </c>
       <c r="E468">
-        <v>369588</v>
+        <v>385241</v>
       </c>
       <c r="F468" t="s">
         <v>22</v>
@@ -17515,13 +17515,13 @@
         <v>12</v>
       </c>
       <c r="C469">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="D469">
         <v>157</v>
       </c>
       <c r="E469">
-        <v>9626895</v>
+        <v>9648395</v>
       </c>
       <c r="F469" t="s">
         <v>22</v>
@@ -17550,13 +17550,13 @@
         <v>12</v>
       </c>
       <c r="C470">
-        <v>67249</v>
+        <v>67480</v>
       </c>
       <c r="D470">
-        <v>11924</v>
+        <v>11925</v>
       </c>
       <c r="E470">
-        <v>333568225</v>
+        <v>335789245</v>
       </c>
       <c r="F470" t="s">
         <v>22</v>
@@ -17585,13 +17585,13 @@
         <v>12</v>
       </c>
       <c r="C471">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D471">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E471">
-        <v>13070415</v>
+        <v>13208892</v>
       </c>
       <c r="F471" t="s">
         <v>22</v>
@@ -17620,13 +17620,13 @@
         <v>12</v>
       </c>
       <c r="C472">
-        <v>68521</v>
+        <v>68724</v>
       </c>
       <c r="D472">
-        <v>11421</v>
+        <v>11424</v>
       </c>
       <c r="E472">
-        <v>352578408</v>
+        <v>355130268</v>
       </c>
       <c r="F472" t="s">
         <v>22</v>
@@ -17690,13 +17690,13 @@
         <v>12</v>
       </c>
       <c r="C474">
-        <v>2396</v>
+        <v>2400</v>
       </c>
       <c r="D474">
         <v>420</v>
       </c>
       <c r="E474">
-        <v>9593679</v>
+        <v>9612433</v>
       </c>
       <c r="F474" t="s">
         <v>22</v>
@@ -17725,13 +17725,13 @@
         <v>12</v>
       </c>
       <c r="C475">
-        <v>392283</v>
+        <v>393001</v>
       </c>
       <c r="D475">
-        <v>70231</v>
+        <v>70235</v>
       </c>
       <c r="E475">
-        <v>693167465</v>
+        <v>694907180</v>
       </c>
       <c r="F475" t="s">
         <v>22</v>
@@ -17760,13 +17760,13 @@
         <v>12</v>
       </c>
       <c r="C476">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D476">
         <v>22</v>
       </c>
       <c r="E476">
-        <v>525997</v>
+        <v>527497</v>
       </c>
       <c r="F476" t="s">
         <v>22</v>
@@ -17795,13 +17795,13 @@
         <v>12</v>
       </c>
       <c r="C477">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D477">
         <v>77</v>
       </c>
       <c r="E477">
-        <v>2337074</v>
+        <v>2350271</v>
       </c>
       <c r="F477" t="s">
         <v>22</v>
@@ -17900,13 +17900,13 @@
         <v>12</v>
       </c>
       <c r="C480">
-        <v>3417</v>
+        <v>3440</v>
       </c>
       <c r="D480">
         <v>519</v>
       </c>
       <c r="E480">
-        <v>55059796</v>
+        <v>55627993</v>
       </c>
       <c r="F480" t="s">
         <v>22</v>
@@ -17935,13 +17935,13 @@
         <v>12</v>
       </c>
       <c r="C481">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D481">
         <v>30</v>
       </c>
       <c r="E481">
-        <v>4498291</v>
+        <v>4698291</v>
       </c>
       <c r="F481" t="s">
         <v>22</v>
@@ -17970,13 +17970,13 @@
         <v>12</v>
       </c>
       <c r="C482">
-        <v>261170</v>
+        <v>262004</v>
       </c>
       <c r="D482">
-        <v>42329</v>
+        <v>42333</v>
       </c>
       <c r="E482">
-        <v>1491841639</v>
+        <v>1500630962</v>
       </c>
       <c r="F482" t="s">
         <v>22</v>
@@ -18005,13 +18005,13 @@
         <v>12</v>
       </c>
       <c r="C483">
-        <v>2425</v>
+        <v>2434</v>
       </c>
       <c r="D483">
         <v>412</v>
       </c>
       <c r="E483">
-        <v>68520671</v>
+        <v>69184830</v>
       </c>
       <c r="F483" t="s">
         <v>22</v>
@@ -18040,13 +18040,13 @@
         <v>12</v>
       </c>
       <c r="C484">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D484">
         <v>42</v>
       </c>
       <c r="E484">
-        <v>12371736</v>
+        <v>12424822</v>
       </c>
       <c r="F484" t="s">
         <v>22</v>
@@ -18075,13 +18075,13 @@
         <v>12</v>
       </c>
       <c r="C485">
-        <v>204765</v>
+        <v>205378</v>
       </c>
       <c r="D485">
-        <v>33412</v>
+        <v>33417</v>
       </c>
       <c r="E485">
-        <v>1424325040</v>
+        <v>1435463251</v>
       </c>
       <c r="F485" t="s">
         <v>22</v>
@@ -18145,13 +18145,13 @@
         <v>12</v>
       </c>
       <c r="C487">
-        <v>2870</v>
+        <v>2873</v>
       </c>
       <c r="D487">
         <v>604</v>
       </c>
       <c r="E487">
-        <v>7433414</v>
+        <v>7447961</v>
       </c>
       <c r="F487" t="s">
         <v>22</v>
@@ -18215,13 +18215,13 @@
         <v>12</v>
       </c>
       <c r="C489">
-        <v>10789</v>
+        <v>10817</v>
       </c>
       <c r="D489">
         <v>1814</v>
       </c>
       <c r="E489">
-        <v>58256847</v>
+        <v>58639217</v>
       </c>
       <c r="F489" t="s">
         <v>22</v>
@@ -18320,13 +18320,13 @@
         <v>12</v>
       </c>
       <c r="C492">
-        <v>99109</v>
+        <v>99303</v>
       </c>
       <c r="D492">
-        <v>18986</v>
+        <v>18987</v>
       </c>
       <c r="E492">
-        <v>173672694</v>
+        <v>174095192</v>
       </c>
       <c r="F492" t="s">
         <v>22</v>
@@ -18425,13 +18425,13 @@
         <v>12</v>
       </c>
       <c r="C495">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="D495">
         <v>114</v>
       </c>
       <c r="E495">
-        <v>4747660</v>
+        <v>4791560</v>
       </c>
       <c r="F495" t="s">
         <v>22</v>
@@ -18460,13 +18460,13 @@
         <v>12</v>
       </c>
       <c r="C496">
-        <v>38182</v>
+        <v>38303</v>
       </c>
       <c r="D496">
-        <v>7938</v>
+        <v>7940</v>
       </c>
       <c r="E496">
-        <v>176929574</v>
+        <v>177818072</v>
       </c>
       <c r="F496" t="s">
         <v>22</v>
@@ -18495,13 +18495,13 @@
         <v>12</v>
       </c>
       <c r="C497">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D497">
         <v>16</v>
       </c>
       <c r="E497">
-        <v>1146118</v>
+        <v>1156518</v>
       </c>
       <c r="F497" t="s">
         <v>22</v>
@@ -18565,13 +18565,13 @@
         <v>12</v>
       </c>
       <c r="C499">
-        <v>35381</v>
+        <v>35482</v>
       </c>
       <c r="D499">
-        <v>6517</v>
+        <v>6520</v>
       </c>
       <c r="E499">
-        <v>153641591</v>
+        <v>154344984</v>
       </c>
       <c r="F499" t="s">
         <v>22</v>
@@ -18600,13 +18600,13 @@
         <v>12</v>
       </c>
       <c r="C500">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D500">
         <v>326</v>
       </c>
       <c r="E500">
-        <v>2418078</v>
+        <v>2421078</v>
       </c>
       <c r="F500" t="s">
         <v>22</v>
@@ -18635,13 +18635,13 @@
         <v>12</v>
       </c>
       <c r="C501">
-        <v>1475</v>
+        <v>1490</v>
       </c>
       <c r="D501">
         <v>289</v>
       </c>
       <c r="E501">
-        <v>5645779</v>
+        <v>5722590</v>
       </c>
       <c r="F501" t="s">
         <v>22</v>
@@ -18705,13 +18705,13 @@
         <v>12</v>
       </c>
       <c r="C503">
-        <v>174917</v>
+        <v>175274</v>
       </c>
       <c r="D503">
-        <v>27616</v>
+        <v>27620</v>
       </c>
       <c r="E503">
-        <v>323299431</v>
+        <v>324092776</v>
       </c>
       <c r="F503" t="s">
         <v>22</v>
@@ -18810,13 +18810,13 @@
         <v>12</v>
       </c>
       <c r="C506">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D506">
         <v>113</v>
       </c>
       <c r="E506">
-        <v>4364522</v>
+        <v>4376022</v>
       </c>
       <c r="F506" t="s">
         <v>22</v>
@@ -18845,13 +18845,13 @@
         <v>12</v>
       </c>
       <c r="C507">
-        <v>57302</v>
+        <v>57456</v>
       </c>
       <c r="D507">
         <v>11193</v>
       </c>
       <c r="E507">
-        <v>260191413</v>
+        <v>261592863</v>
       </c>
       <c r="F507" t="s">
         <v>22</v>
@@ -18880,13 +18880,13 @@
         <v>12</v>
       </c>
       <c r="C508">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D508">
         <v>30</v>
       </c>
       <c r="E508">
-        <v>6796625</v>
+        <v>6988179</v>
       </c>
       <c r="F508" t="s">
         <v>22</v>
@@ -18915,13 +18915,13 @@
         <v>12</v>
       </c>
       <c r="C509">
-        <v>65641</v>
+        <v>65838</v>
       </c>
       <c r="D509">
-        <v>10840</v>
+        <v>10841</v>
       </c>
       <c r="E509">
-        <v>245551798</v>
+        <v>247672364</v>
       </c>
       <c r="F509" t="s">
         <v>22</v>
@@ -18950,13 +18950,13 @@
         <v>12</v>
       </c>
       <c r="C510">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D510">
         <v>126</v>
       </c>
       <c r="E510">
-        <v>867774</v>
+        <v>867845</v>
       </c>
       <c r="F510" t="s">
         <v>22</v>
@@ -18985,13 +18985,13 @@
         <v>12</v>
       </c>
       <c r="C511">
-        <v>2959</v>
+        <v>2971</v>
       </c>
       <c r="D511">
         <v>534</v>
       </c>
       <c r="E511">
-        <v>10558714</v>
+        <v>10807187</v>
       </c>
       <c r="F511" t="s">
         <v>22</v>
@@ -19020,13 +19020,13 @@
         <v>12</v>
       </c>
       <c r="C512">
-        <v>135574</v>
+        <v>135813</v>
       </c>
       <c r="D512">
-        <v>23517</v>
+        <v>23518</v>
       </c>
       <c r="E512">
-        <v>237884029</v>
+        <v>238387849</v>
       </c>
       <c r="F512" t="s">
         <v>22</v>
@@ -19090,13 +19090,13 @@
         <v>12</v>
       </c>
       <c r="C514">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D514">
         <v>92</v>
       </c>
       <c r="E514">
-        <v>4472872</v>
+        <v>4591608</v>
       </c>
       <c r="F514" t="s">
         <v>22</v>
@@ -19125,13 +19125,13 @@
         <v>12</v>
       </c>
       <c r="C515">
-        <v>45736</v>
+        <v>45861</v>
       </c>
       <c r="D515">
         <v>8725</v>
       </c>
       <c r="E515">
-        <v>208559336</v>
+        <v>209815318</v>
       </c>
       <c r="F515" t="s">
         <v>22</v>
@@ -19160,13 +19160,13 @@
         <v>12</v>
       </c>
       <c r="C516">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D516">
         <v>28</v>
       </c>
       <c r="E516">
-        <v>4298630</v>
+        <v>4372964</v>
       </c>
       <c r="F516" t="s">
         <v>22</v>
@@ -19230,13 +19230,13 @@
         <v>12</v>
       </c>
       <c r="C518">
-        <v>51605</v>
+        <v>51714</v>
       </c>
       <c r="D518">
         <v>8705</v>
       </c>
       <c r="E518">
-        <v>213818501</v>
+        <v>215317188</v>
       </c>
       <c r="F518" t="s">
         <v>22</v>
@@ -19265,13 +19265,13 @@
         <v>12</v>
       </c>
       <c r="C519">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D519">
         <v>138</v>
       </c>
       <c r="E519">
-        <v>1087597</v>
+        <v>1089097</v>
       </c>
       <c r="F519" t="s">
         <v>22</v>
@@ -19300,13 +19300,13 @@
         <v>12</v>
       </c>
       <c r="C520">
-        <v>2483</v>
+        <v>2499</v>
       </c>
       <c r="D520">
         <v>455</v>
       </c>
       <c r="E520">
-        <v>13461205</v>
+        <v>13538078</v>
       </c>
       <c r="F520" t="s">
         <v>22</v>
@@ -19335,13 +19335,13 @@
         <v>12</v>
       </c>
       <c r="C521">
-        <v>102271</v>
+        <v>102450</v>
       </c>
       <c r="D521">
-        <v>17585</v>
+        <v>17586</v>
       </c>
       <c r="E521">
-        <v>185552975</v>
+        <v>185967173</v>
       </c>
       <c r="F521" t="s">
         <v>22</v>
@@ -19370,13 +19370,13 @@
         <v>12</v>
       </c>
       <c r="C522">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D522">
         <v>4</v>
       </c>
       <c r="E522">
-        <v>83685</v>
+        <v>93685</v>
       </c>
       <c r="F522" t="s">
         <v>22</v>
@@ -19405,13 +19405,13 @@
         <v>12</v>
       </c>
       <c r="C523">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D523">
         <v>128</v>
       </c>
       <c r="E523">
-        <v>6166808</v>
+        <v>6178111</v>
       </c>
       <c r="F523" t="s">
         <v>22</v>
@@ -19440,13 +19440,13 @@
         <v>12</v>
       </c>
       <c r="C524">
-        <v>33445</v>
+        <v>33543</v>
       </c>
       <c r="D524">
         <v>7076</v>
       </c>
       <c r="E524">
-        <v>145613726</v>
+        <v>146596822</v>
       </c>
       <c r="F524" t="s">
         <v>22</v>
@@ -19475,13 +19475,13 @@
         <v>12</v>
       </c>
       <c r="C525">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D525">
         <v>17</v>
       </c>
       <c r="E525">
-        <v>959981</v>
+        <v>961481</v>
       </c>
       <c r="F525" t="s">
         <v>22</v>
@@ -19510,13 +19510,13 @@
         <v>12</v>
       </c>
       <c r="C526">
-        <v>39004</v>
+        <v>39094</v>
       </c>
       <c r="D526">
         <v>6816</v>
       </c>
       <c r="E526">
-        <v>145224223</v>
+        <v>145927703</v>
       </c>
       <c r="F526" t="s">
         <v>22</v>
@@ -19580,13 +19580,13 @@
         <v>12</v>
       </c>
       <c r="C528">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="D528">
         <v>235</v>
       </c>
       <c r="E528">
-        <v>4390931</v>
+        <v>4408861</v>
       </c>
       <c r="F528" t="s">
         <v>22</v>
@@ -19615,13 +19615,13 @@
         <v>12</v>
       </c>
       <c r="C529">
-        <v>93910</v>
+        <v>94063</v>
       </c>
       <c r="D529">
-        <v>19196</v>
+        <v>19197</v>
       </c>
       <c r="E529">
-        <v>160497649</v>
+        <v>160826868</v>
       </c>
       <c r="F529" t="s">
         <v>22</v>
@@ -19685,13 +19685,13 @@
         <v>12</v>
       </c>
       <c r="C531">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D531">
         <v>100</v>
       </c>
       <c r="E531">
-        <v>4482407</v>
+        <v>4555023</v>
       </c>
       <c r="F531" t="s">
         <v>22</v>
@@ -19720,13 +19720,13 @@
         <v>12</v>
       </c>
       <c r="C532">
-        <v>40898</v>
+        <v>41027</v>
       </c>
       <c r="D532">
         <v>8523</v>
       </c>
       <c r="E532">
-        <v>192875139</v>
+        <v>193892733</v>
       </c>
       <c r="F532" t="s">
         <v>22</v>
@@ -19790,13 +19790,13 @@
         <v>12</v>
       </c>
       <c r="C534">
-        <v>35058</v>
+        <v>35146</v>
       </c>
       <c r="D534">
-        <v>6623</v>
+        <v>6624</v>
       </c>
       <c r="E534">
-        <v>150837036</v>
+        <v>151371330</v>
       </c>
       <c r="F534" t="s">
         <v>22</v>
@@ -19895,13 +19895,13 @@
         <v>12</v>
       </c>
       <c r="C537">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="D537">
         <v>245</v>
       </c>
       <c r="E537">
-        <v>6263981</v>
+        <v>6300624</v>
       </c>
       <c r="F537" t="s">
         <v>22</v>
@@ -19930,13 +19930,13 @@
         <v>12</v>
       </c>
       <c r="C538">
-        <v>71469</v>
+        <v>71579</v>
       </c>
       <c r="D538">
-        <v>17462</v>
+        <v>17464</v>
       </c>
       <c r="E538">
-        <v>108476776</v>
+        <v>108717425</v>
       </c>
       <c r="F538" t="s">
         <v>23</v>
@@ -20105,13 +20105,13 @@
         <v>12</v>
       </c>
       <c r="C543">
-        <v>21899</v>
+        <v>21986</v>
       </c>
       <c r="D543">
-        <v>6122</v>
+        <v>6124</v>
       </c>
       <c r="E543">
-        <v>68862250</v>
+        <v>69611106</v>
       </c>
       <c r="F543" t="s">
         <v>23</v>
@@ -20175,13 +20175,13 @@
         <v>12</v>
       </c>
       <c r="C545">
-        <v>6408</v>
+        <v>6433</v>
       </c>
       <c r="D545">
         <v>1634</v>
       </c>
       <c r="E545">
-        <v>22776063</v>
+        <v>23122316</v>
       </c>
       <c r="F545" t="s">
         <v>23</v>
@@ -20350,13 +20350,13 @@
         <v>12</v>
       </c>
       <c r="C550">
-        <v>33473</v>
+        <v>33527</v>
       </c>
       <c r="D550">
         <v>7102</v>
       </c>
       <c r="E550">
-        <v>52970745</v>
+        <v>53076113</v>
       </c>
       <c r="F550" t="s">
         <v>24</v>
@@ -20455,13 +20455,13 @@
         <v>12</v>
       </c>
       <c r="C553">
-        <v>14307</v>
+        <v>14343</v>
       </c>
       <c r="D553">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="E553">
-        <v>48639542</v>
+        <v>48966221</v>
       </c>
       <c r="F553" t="s">
         <v>24</v>
@@ -20490,13 +20490,13 @@
         <v>12</v>
       </c>
       <c r="C554">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D554">
         <v>7</v>
       </c>
       <c r="E554">
-        <v>816778</v>
+        <v>1216778</v>
       </c>
       <c r="F554" t="s">
         <v>24</v>
@@ -20525,13 +20525,13 @@
         <v>12</v>
       </c>
       <c r="C555">
-        <v>10032</v>
+        <v>10054</v>
       </c>
       <c r="D555">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="E555">
-        <v>28033165</v>
+        <v>28135731</v>
       </c>
       <c r="F555" t="s">
         <v>24</v>
@@ -20595,13 +20595,13 @@
         <v>12</v>
       </c>
       <c r="C557">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D557">
         <v>127</v>
       </c>
       <c r="E557">
-        <v>1355960</v>
+        <v>1365960</v>
       </c>
       <c r="F557" t="s">
         <v>24</v>
@@ -20630,13 +20630,13 @@
         <v>12</v>
       </c>
       <c r="C558">
-        <v>43334</v>
+        <v>43377</v>
       </c>
       <c r="D558">
         <v>5415</v>
       </c>
       <c r="E558">
-        <v>100760409</v>
+        <v>100825171</v>
       </c>
       <c r="F558" t="s">
         <v>25</v>
@@ -20665,13 +20665,13 @@
         <v>12</v>
       </c>
       <c r="C559">
-        <v>4094</v>
+        <v>4102</v>
       </c>
       <c r="D559">
         <v>681</v>
       </c>
       <c r="E559">
-        <v>11805563</v>
+        <v>11844913</v>
       </c>
       <c r="F559" t="s">
         <v>25</v>
@@ -20805,13 +20805,13 @@
         <v>12</v>
       </c>
       <c r="C563">
-        <v>47316</v>
+        <v>47410</v>
       </c>
       <c r="D563">
-        <v>10829</v>
+        <v>10831</v>
       </c>
       <c r="E563">
-        <v>88231563</v>
+        <v>88490132</v>
       </c>
       <c r="F563" t="s">
         <v>26</v>
@@ -20910,13 +20910,13 @@
         <v>12</v>
       </c>
       <c r="C566">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D566">
         <v>161</v>
       </c>
       <c r="E566">
-        <v>8016277</v>
+        <v>8102539</v>
       </c>
       <c r="F566" t="s">
         <v>26</v>
@@ -20945,13 +20945,13 @@
         <v>12</v>
       </c>
       <c r="C567">
-        <v>25321</v>
+        <v>25419</v>
       </c>
       <c r="D567">
         <v>4890</v>
       </c>
       <c r="E567">
-        <v>134560077</v>
+        <v>135590798</v>
       </c>
       <c r="F567" t="s">
         <v>26</v>
@@ -21015,13 +21015,13 @@
         <v>12</v>
       </c>
       <c r="C569">
-        <v>10491</v>
+        <v>10519</v>
       </c>
       <c r="D569">
         <v>1915</v>
       </c>
       <c r="E569">
-        <v>68868810</v>
+        <v>69219070</v>
       </c>
       <c r="F569" t="s">
         <v>26</v>
@@ -21050,13 +21050,13 @@
         <v>12</v>
       </c>
       <c r="C570">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D570">
         <v>186</v>
       </c>
       <c r="E570">
-        <v>1872666</v>
+        <v>1874166</v>
       </c>
       <c r="F570" t="s">
         <v>26</v>
@@ -21085,13 +21085,13 @@
         <v>12</v>
       </c>
       <c r="C571">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="D571">
         <v>318</v>
       </c>
       <c r="E571">
-        <v>7852899</v>
+        <v>7879832</v>
       </c>
       <c r="F571" t="s">
         <v>26</v>
@@ -21120,13 +21120,13 @@
         <v>12</v>
       </c>
       <c r="C572">
-        <v>32621</v>
+        <v>32690</v>
       </c>
       <c r="D572">
         <v>7176</v>
       </c>
       <c r="E572">
-        <v>60253447</v>
+        <v>60449928</v>
       </c>
       <c r="F572" t="s">
         <v>26</v>
@@ -21155,13 +21155,13 @@
         <v>12</v>
       </c>
       <c r="C573">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D573">
         <v>63</v>
       </c>
       <c r="E573">
-        <v>2212484</v>
+        <v>2229019</v>
       </c>
       <c r="F573" t="s">
         <v>26</v>
@@ -21190,13 +21190,13 @@
         <v>12</v>
       </c>
       <c r="C574">
-        <v>14280</v>
+        <v>14327</v>
       </c>
       <c r="D574">
         <v>3109</v>
       </c>
       <c r="E574">
-        <v>64230100</v>
+        <v>64671912</v>
       </c>
       <c r="F574" t="s">
         <v>26</v>
@@ -21260,13 +21260,13 @@
         <v>12</v>
       </c>
       <c r="C576">
-        <v>7246</v>
+        <v>7274</v>
       </c>
       <c r="D576">
         <v>1421</v>
       </c>
       <c r="E576">
-        <v>32980262</v>
+        <v>33138499</v>
       </c>
       <c r="F576" t="s">
         <v>26</v>
@@ -21330,13 +21330,13 @@
         <v>12</v>
       </c>
       <c r="C578">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D578">
         <v>157</v>
       </c>
       <c r="E578">
-        <v>2537339</v>
+        <v>2554962</v>
       </c>
       <c r="F578" t="s">
         <v>26</v>
@@ -21365,13 +21365,13 @@
         <v>12</v>
       </c>
       <c r="C579">
-        <v>29789</v>
+        <v>29879</v>
       </c>
       <c r="D579">
-        <v>6688</v>
+        <v>6689</v>
       </c>
       <c r="E579">
-        <v>63384672</v>
+        <v>63666860</v>
       </c>
       <c r="F579" t="s">
         <v>26</v>
@@ -21470,13 +21470,13 @@
         <v>12</v>
       </c>
       <c r="C582">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="D582">
         <v>104</v>
       </c>
       <c r="E582">
-        <v>4603484</v>
+        <v>4652258</v>
       </c>
       <c r="F582" t="s">
         <v>26</v>
@@ -21540,13 +21540,13 @@
         <v>12</v>
       </c>
       <c r="C584">
-        <v>14408</v>
+        <v>14461</v>
       </c>
       <c r="D584">
         <v>2850</v>
       </c>
       <c r="E584">
-        <v>75477586</v>
+        <v>75853704</v>
       </c>
       <c r="F584" t="s">
         <v>26</v>
@@ -21610,13 +21610,13 @@
         <v>12</v>
       </c>
       <c r="C586">
-        <v>3528</v>
+        <v>3541</v>
       </c>
       <c r="D586">
         <v>674</v>
       </c>
       <c r="E586">
-        <v>24366167</v>
+        <v>24530901</v>
       </c>
       <c r="F586" t="s">
         <v>26</v>
@@ -21645,13 +21645,13 @@
         <v>12</v>
       </c>
       <c r="C587">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D587">
         <v>153</v>
       </c>
       <c r="E587">
-        <v>1730428</v>
+        <v>1733469</v>
       </c>
       <c r="F587" t="s">
         <v>26</v>
@@ -21680,13 +21680,13 @@
         <v>12</v>
       </c>
       <c r="C588">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="D588">
         <v>157</v>
       </c>
       <c r="E588">
-        <v>4093511</v>
+        <v>4131165</v>
       </c>
       <c r="F588" t="s">
         <v>26</v>
@@ -21715,13 +21715,13 @@
         <v>12</v>
       </c>
       <c r="C589">
-        <v>15994</v>
+        <v>16037</v>
       </c>
       <c r="D589">
         <v>3654</v>
       </c>
       <c r="E589">
-        <v>32750559</v>
+        <v>32894681</v>
       </c>
       <c r="F589" t="s">
         <v>26</v>
@@ -21820,13 +21820,13 @@
         <v>12</v>
       </c>
       <c r="C592">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D592">
         <v>40</v>
       </c>
       <c r="E592">
-        <v>1651884</v>
+        <v>1660572</v>
       </c>
       <c r="F592" t="s">
         <v>26</v>
@@ -21855,13 +21855,13 @@
         <v>12</v>
       </c>
       <c r="C593">
-        <v>6334</v>
+        <v>6362</v>
       </c>
       <c r="D593">
         <v>1369</v>
       </c>
       <c r="E593">
-        <v>28720274</v>
+        <v>28938655</v>
       </c>
       <c r="F593" t="s">
         <v>26</v>
@@ -21890,13 +21890,13 @@
         <v>12</v>
       </c>
       <c r="C594">
-        <v>2334</v>
+        <v>2342</v>
       </c>
       <c r="D594">
         <v>463</v>
       </c>
       <c r="E594">
-        <v>11602927</v>
+        <v>11736148</v>
       </c>
       <c r="F594" t="s">
         <v>26</v>
@@ -21925,13 +21925,13 @@
         <v>12</v>
       </c>
       <c r="C595">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D595">
         <v>92</v>
       </c>
       <c r="E595">
-        <v>805556</v>
+        <v>807393</v>
       </c>
       <c r="F595" t="s">
         <v>26</v>
@@ -21995,13 +21995,13 @@
         <v>12</v>
       </c>
       <c r="C597">
-        <v>63925</v>
+        <v>64105</v>
       </c>
       <c r="D597">
-        <v>14251</v>
+        <v>14253</v>
       </c>
       <c r="E597">
-        <v>117954317</v>
+        <v>118441244</v>
       </c>
       <c r="F597" t="s">
         <v>26</v>
@@ -22100,13 +22100,13 @@
         <v>12</v>
       </c>
       <c r="C600">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D600">
         <v>131</v>
       </c>
       <c r="E600">
-        <v>6512899</v>
+        <v>6524399</v>
       </c>
       <c r="F600" t="s">
         <v>26</v>
@@ -22135,13 +22135,13 @@
         <v>12</v>
       </c>
       <c r="C601">
-        <v>30295</v>
+        <v>30412</v>
       </c>
       <c r="D601">
         <v>6072</v>
       </c>
       <c r="E601">
-        <v>159815504</v>
+        <v>160759830</v>
       </c>
       <c r="F601" t="s">
         <v>26</v>
@@ -22205,13 +22205,13 @@
         <v>12</v>
       </c>
       <c r="C603">
-        <v>14355</v>
+        <v>14415</v>
       </c>
       <c r="D603">
         <v>2680</v>
       </c>
       <c r="E603">
-        <v>79149180</v>
+        <v>79832023</v>
       </c>
       <c r="F603" t="s">
         <v>26</v>
@@ -22240,13 +22240,13 @@
         <v>12</v>
       </c>
       <c r="C604">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D604">
         <v>150</v>
       </c>
       <c r="E604">
-        <v>1105506</v>
+        <v>1107006</v>
       </c>
       <c r="F604" t="s">
         <v>26</v>
@@ -22275,13 +22275,13 @@
         <v>12</v>
       </c>
       <c r="C605">
-        <v>2390</v>
+        <v>2397</v>
       </c>
       <c r="D605">
         <v>428</v>
       </c>
       <c r="E605">
-        <v>10883757</v>
+        <v>10915971</v>
       </c>
       <c r="F605" t="s">
         <v>26</v>
@@ -22310,13 +22310,13 @@
         <v>12</v>
       </c>
       <c r="C606">
-        <v>23936</v>
+        <v>23997</v>
       </c>
       <c r="D606">
         <v>5504</v>
       </c>
       <c r="E606">
-        <v>41152925</v>
+        <v>41312844</v>
       </c>
       <c r="F606" t="s">
         <v>27</v>
@@ -22380,13 +22380,13 @@
         <v>12</v>
       </c>
       <c r="C608">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D608">
         <v>28</v>
       </c>
       <c r="E608">
-        <v>772003</v>
+        <v>775072</v>
       </c>
       <c r="F608" t="s">
         <v>27</v>
@@ -22450,13 +22450,13 @@
         <v>12</v>
       </c>
       <c r="C610">
-        <v>9143</v>
+        <v>9169</v>
       </c>
       <c r="D610">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E610">
-        <v>44906084</v>
+        <v>45138200</v>
       </c>
       <c r="F610" t="s">
         <v>27</v>
@@ -22520,13 +22520,13 @@
         <v>12</v>
       </c>
       <c r="C612">
-        <v>2968</v>
+        <v>2976</v>
       </c>
       <c r="D612">
         <v>630</v>
       </c>
       <c r="E612">
-        <v>19041606</v>
+        <v>19093411</v>
       </c>
       <c r="F612" t="s">
         <v>27</v>
@@ -22555,13 +22555,13 @@
         <v>12</v>
       </c>
       <c r="C613">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D613">
         <v>73</v>
       </c>
       <c r="E613">
-        <v>954156</v>
+        <v>976879</v>
       </c>
       <c r="F613" t="s">
         <v>27</v>
@@ -22590,13 +22590,13 @@
         <v>12</v>
       </c>
       <c r="C614">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="D614">
         <v>142</v>
       </c>
       <c r="E614">
-        <v>3010683</v>
+        <v>3041972</v>
       </c>
       <c r="F614" t="s">
         <v>27</v>
@@ -22625,13 +22625,13 @@
         <v>12</v>
       </c>
       <c r="C615">
-        <v>58055</v>
+        <v>58190</v>
       </c>
       <c r="D615">
-        <v>13712</v>
+        <v>13714</v>
       </c>
       <c r="E615">
-        <v>102683734</v>
+        <v>102994643</v>
       </c>
       <c r="F615" t="s">
         <v>27</v>
@@ -22660,13 +22660,13 @@
         <v>12</v>
       </c>
       <c r="C616">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D616">
         <v>19</v>
       </c>
       <c r="E616">
-        <v>222546</v>
+        <v>233271</v>
       </c>
       <c r="F616" t="s">
         <v>27</v>
@@ -22730,13 +22730,13 @@
         <v>12</v>
       </c>
       <c r="C618">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D618">
         <v>77</v>
       </c>
       <c r="E618">
-        <v>2782766</v>
+        <v>2843256</v>
       </c>
       <c r="F618" t="s">
         <v>27</v>
@@ -22765,13 +22765,13 @@
         <v>12</v>
       </c>
       <c r="C619">
-        <v>28803</v>
+        <v>28918</v>
       </c>
       <c r="D619">
         <v>5920</v>
       </c>
       <c r="E619">
-        <v>154948559</v>
+        <v>155911087</v>
       </c>
       <c r="F619" t="s">
         <v>27</v>
@@ -22835,13 +22835,13 @@
         <v>12</v>
       </c>
       <c r="C621">
-        <v>8988</v>
+        <v>9030</v>
       </c>
       <c r="D621">
         <v>1775</v>
       </c>
       <c r="E621">
-        <v>53890558</v>
+        <v>54242779</v>
       </c>
       <c r="F621" t="s">
         <v>27</v>
@@ -22905,13 +22905,13 @@
         <v>12</v>
       </c>
       <c r="C623">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="D623">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E623">
-        <v>7134132</v>
+        <v>7209092</v>
       </c>
       <c r="F623" t="s">
         <v>27</v>
@@ -22940,13 +22940,13 @@
         <v>12</v>
       </c>
       <c r="C624">
-        <v>16671</v>
+        <v>16707</v>
       </c>
       <c r="D624">
         <v>3935</v>
       </c>
       <c r="E624">
-        <v>31590475</v>
+        <v>31704830</v>
       </c>
       <c r="F624" t="s">
         <v>27</v>
@@ -23010,13 +23010,13 @@
         <v>12</v>
       </c>
       <c r="C626">
-        <v>6883</v>
+        <v>6910</v>
       </c>
       <c r="D626">
         <v>1437</v>
       </c>
       <c r="E626">
-        <v>33340100</v>
+        <v>33537015</v>
       </c>
       <c r="F626" t="s">
         <v>27</v>
@@ -23080,13 +23080,13 @@
         <v>12</v>
       </c>
       <c r="C628">
-        <v>3734</v>
+        <v>3760</v>
       </c>
       <c r="D628">
         <v>710</v>
       </c>
       <c r="E628">
-        <v>19145249</v>
+        <v>19301845</v>
       </c>
       <c r="F628" t="s">
         <v>27</v>
@@ -23115,13 +23115,13 @@
         <v>12</v>
       </c>
       <c r="C629">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D629">
         <v>207</v>
       </c>
       <c r="E629">
-        <v>1053729</v>
+        <v>1056029</v>
       </c>
       <c r="F629" t="s">
         <v>27</v>
@@ -23185,13 +23185,13 @@
         <v>12</v>
       </c>
       <c r="C631">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D631">
         <v>105</v>
       </c>
       <c r="E631">
-        <v>2305006</v>
+        <v>2312400</v>
       </c>
       <c r="F631" t="s">
         <v>27</v>
@@ -23220,13 +23220,13 @@
         <v>12</v>
       </c>
       <c r="C632">
-        <v>8137</v>
+        <v>8154</v>
       </c>
       <c r="D632">
         <v>1864</v>
       </c>
       <c r="E632">
-        <v>14344552</v>
+        <v>14384577</v>
       </c>
       <c r="F632" t="s">
         <v>27</v>
@@ -23290,13 +23290,13 @@
         <v>12</v>
       </c>
       <c r="C634">
-        <v>1947</v>
+        <v>1957</v>
       </c>
       <c r="D634">
         <v>418</v>
       </c>
       <c r="E634">
-        <v>8526887</v>
+        <v>8618825</v>
       </c>
       <c r="F634" t="s">
         <v>27</v>
@@ -23360,13 +23360,13 @@
         <v>12</v>
       </c>
       <c r="C636">
-        <v>1203</v>
+        <v>1208</v>
       </c>
       <c r="D636">
         <v>227</v>
       </c>
       <c r="E636">
-        <v>5157647</v>
+        <v>5187740</v>
       </c>
       <c r="F636" t="s">
         <v>27</v>
@@ -23430,13 +23430,13 @@
         <v>12</v>
       </c>
       <c r="C638">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D638">
         <v>77</v>
       </c>
       <c r="E638">
-        <v>1504174</v>
+        <v>1505749</v>
       </c>
       <c r="F638" t="s">
         <v>27</v>
@@ -23465,13 +23465,13 @@
         <v>12</v>
       </c>
       <c r="C639">
-        <v>19184</v>
+        <v>19230</v>
       </c>
       <c r="D639">
         <v>4545</v>
       </c>
       <c r="E639">
-        <v>33939653</v>
+        <v>34075406</v>
       </c>
       <c r="F639" t="s">
         <v>27</v>
@@ -23535,13 +23535,13 @@
         <v>12</v>
       </c>
       <c r="C641">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D641">
         <v>4</v>
       </c>
       <c r="E641">
-        <v>69162</v>
+        <v>78181</v>
       </c>
       <c r="F641" t="s">
         <v>27</v>
@@ -23570,13 +23570,13 @@
         <v>12</v>
       </c>
       <c r="C642">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D642">
         <v>28</v>
       </c>
       <c r="E642">
-        <v>1019199</v>
+        <v>1033390</v>
       </c>
       <c r="F642" t="s">
         <v>27</v>
@@ -23605,13 +23605,13 @@
         <v>12</v>
       </c>
       <c r="C643">
-        <v>8440</v>
+        <v>8479</v>
       </c>
       <c r="D643">
         <v>1844</v>
       </c>
       <c r="E643">
-        <v>42180138</v>
+        <v>42514072</v>
       </c>
       <c r="F643" t="s">
         <v>27</v>
@@ -23675,13 +23675,13 @@
         <v>12</v>
       </c>
       <c r="C645">
-        <v>2232</v>
+        <v>2241</v>
       </c>
       <c r="D645">
         <v>434</v>
       </c>
       <c r="E645">
-        <v>12533525</v>
+        <v>12583104</v>
       </c>
       <c r="F645" t="s">
         <v>27</v>
@@ -23710,13 +23710,13 @@
         <v>12</v>
       </c>
       <c r="C646">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D646">
         <v>111</v>
       </c>
       <c r="E646">
-        <v>676057</v>
+        <v>680725</v>
       </c>
       <c r="F646" t="s">
         <v>27</v>
@@ -23745,13 +23745,13 @@
         <v>12</v>
       </c>
       <c r="C647">
-        <v>1059</v>
+        <v>1068</v>
       </c>
       <c r="D647">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E647">
-        <v>3820321</v>
+        <v>3841537</v>
       </c>
       <c r="F647" t="s">
         <v>27</v>
@@ -23780,13 +23780,13 @@
         <v>12</v>
       </c>
       <c r="C648">
-        <v>42429</v>
+        <v>42512</v>
       </c>
       <c r="D648">
-        <v>9309</v>
+        <v>9310</v>
       </c>
       <c r="E648">
-        <v>77961845</v>
+        <v>78228885</v>
       </c>
       <c r="F648" t="s">
         <v>27</v>
@@ -23920,13 +23920,13 @@
         <v>12</v>
       </c>
       <c r="C652">
-        <v>15212</v>
+        <v>15269</v>
       </c>
       <c r="D652">
         <v>2907</v>
       </c>
       <c r="E652">
-        <v>73190954</v>
+        <v>73622813</v>
       </c>
       <c r="F652" t="s">
         <v>27</v>
@@ -23990,13 +23990,13 @@
         <v>12</v>
       </c>
       <c r="C654">
-        <v>6971</v>
+        <v>6994</v>
       </c>
       <c r="D654">
         <v>1222</v>
       </c>
       <c r="E654">
-        <v>35802977</v>
+        <v>35924035</v>
       </c>
       <c r="F654" t="s">
         <v>27</v>
@@ -24025,13 +24025,13 @@
         <v>12</v>
       </c>
       <c r="C655">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="D655">
         <v>280</v>
       </c>
       <c r="E655">
-        <v>4334719</v>
+        <v>4383032</v>
       </c>
       <c r="F655" t="s">
         <v>27</v>
@@ -24060,13 +24060,13 @@
         <v>12</v>
       </c>
       <c r="C656">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="D656">
         <v>179</v>
       </c>
       <c r="E656">
-        <v>3868222</v>
+        <v>3900770</v>
       </c>
       <c r="F656" t="s">
         <v>27</v>
@@ -24095,13 +24095,13 @@
         <v>12</v>
       </c>
       <c r="C657">
-        <v>157795</v>
+        <v>158128</v>
       </c>
       <c r="D657">
-        <v>36146</v>
+        <v>36149</v>
       </c>
       <c r="E657">
-        <v>271182178</v>
+        <v>272115897</v>
       </c>
       <c r="F657" t="s">
         <v>27</v>
@@ -24270,13 +24270,13 @@
         <v>12</v>
       </c>
       <c r="C662">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D662">
         <v>108</v>
       </c>
       <c r="E662">
-        <v>4796242</v>
+        <v>4828778</v>
       </c>
       <c r="F662" t="s">
         <v>27</v>
@@ -24340,13 +24340,13 @@
         <v>12</v>
       </c>
       <c r="C664">
-        <v>68654</v>
+        <v>68886</v>
       </c>
       <c r="D664">
-        <v>14318</v>
+        <v>14324</v>
       </c>
       <c r="E664">
-        <v>338502533</v>
+        <v>340536910</v>
       </c>
       <c r="F664" t="s">
         <v>27</v>
@@ -24375,13 +24375,13 @@
         <v>12</v>
       </c>
       <c r="C665">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D665">
         <v>37</v>
       </c>
       <c r="E665">
-        <v>4249720</v>
+        <v>4252720</v>
       </c>
       <c r="F665" t="s">
         <v>27</v>
@@ -24445,13 +24445,13 @@
         <v>12</v>
       </c>
       <c r="C667">
-        <v>36873</v>
+        <v>36992</v>
       </c>
       <c r="D667">
-        <v>7137</v>
+        <v>7138</v>
       </c>
       <c r="E667">
-        <v>187880294</v>
+        <v>189004967</v>
       </c>
       <c r="F667" t="s">
         <v>27</v>
@@ -24550,13 +24550,13 @@
         <v>12</v>
       </c>
       <c r="C670">
-        <v>8532</v>
+        <v>8572</v>
       </c>
       <c r="D670">
         <v>1981</v>
       </c>
       <c r="E670">
-        <v>55991053</v>
+        <v>56318899</v>
       </c>
       <c r="F670" t="s">
         <v>27</v>
@@ -24620,13 +24620,13 @@
         <v>12</v>
       </c>
       <c r="C672">
-        <v>4630</v>
+        <v>4649</v>
       </c>
       <c r="D672">
         <v>813</v>
       </c>
       <c r="E672">
-        <v>18336269</v>
+        <v>18445328</v>
       </c>
       <c r="F672" t="s">
         <v>27</v>
@@ -24655,13 +24655,13 @@
         <v>12</v>
       </c>
       <c r="C673">
-        <v>23523</v>
+        <v>23567</v>
       </c>
       <c r="D673">
         <v>5331</v>
       </c>
       <c r="E673">
-        <v>40601016</v>
+        <v>40716705</v>
       </c>
       <c r="F673" t="s">
         <v>27</v>
@@ -24725,13 +24725,13 @@
         <v>12</v>
       </c>
       <c r="C675">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D675">
         <v>43</v>
       </c>
       <c r="E675">
-        <v>1290374</v>
+        <v>1291874</v>
       </c>
       <c r="F675" t="s">
         <v>27</v>
@@ -24760,13 +24760,13 @@
         <v>12</v>
       </c>
       <c r="C676">
-        <v>10485</v>
+        <v>10520</v>
       </c>
       <c r="D676">
         <v>2217</v>
       </c>
       <c r="E676">
-        <v>51953531</v>
+        <v>52891567</v>
       </c>
       <c r="F676" t="s">
         <v>27</v>
@@ -24795,13 +24795,13 @@
         <v>12</v>
       </c>
       <c r="C677">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D677">
         <v>7</v>
       </c>
       <c r="E677">
-        <v>648608</v>
+        <v>668994</v>
       </c>
       <c r="F677" t="s">
         <v>27</v>
@@ -24830,13 +24830,13 @@
         <v>12</v>
       </c>
       <c r="C678">
-        <v>4329</v>
+        <v>4340</v>
       </c>
       <c r="D678">
         <v>836</v>
       </c>
       <c r="E678">
-        <v>20104078</v>
+        <v>20159038</v>
       </c>
       <c r="F678" t="s">
         <v>27</v>
@@ -24865,13 +24865,13 @@
         <v>12</v>
       </c>
       <c r="C679">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D679">
         <v>91</v>
       </c>
       <c r="E679">
-        <v>481422</v>
+        <v>482922</v>
       </c>
       <c r="F679" t="s">
         <v>27</v>
@@ -24900,13 +24900,13 @@
         <v>12</v>
       </c>
       <c r="C680">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D680">
         <v>154</v>
       </c>
       <c r="E680">
-        <v>3725679</v>
+        <v>3743356</v>
       </c>
       <c r="F680" t="s">
         <v>27</v>
@@ -24935,13 +24935,13 @@
         <v>12</v>
       </c>
       <c r="C681">
-        <v>37803</v>
+        <v>37898</v>
       </c>
       <c r="D681">
         <v>8752</v>
       </c>
       <c r="E681">
-        <v>65959696</v>
+        <v>66197660</v>
       </c>
       <c r="F681" t="s">
         <v>27</v>
@@ -25075,13 +25075,13 @@
         <v>12</v>
       </c>
       <c r="C685">
-        <v>18162</v>
+        <v>18246</v>
       </c>
       <c r="D685">
         <v>3629</v>
       </c>
       <c r="E685">
-        <v>92465380</v>
+        <v>93052586</v>
       </c>
       <c r="F685" t="s">
         <v>27</v>
@@ -25145,13 +25145,13 @@
         <v>12</v>
       </c>
       <c r="C687">
-        <v>6326</v>
+        <v>6348</v>
       </c>
       <c r="D687">
         <v>1254</v>
       </c>
       <c r="E687">
-        <v>38573589</v>
+        <v>38790711</v>
       </c>
       <c r="F687" t="s">
         <v>27</v>
@@ -25180,13 +25180,13 @@
         <v>12</v>
       </c>
       <c r="C688">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="D688">
         <v>258</v>
       </c>
       <c r="E688">
-        <v>1770823</v>
+        <v>1800738</v>
       </c>
       <c r="F688" t="s">
         <v>27</v>
@@ -25215,13 +25215,13 @@
         <v>12</v>
       </c>
       <c r="C689">
-        <v>1168</v>
+        <v>1175</v>
       </c>
       <c r="D689">
         <v>190</v>
       </c>
       <c r="E689">
-        <v>4551443</v>
+        <v>4604589</v>
       </c>
       <c r="F689" t="s">
         <v>27</v>
@@ -25250,13 +25250,13 @@
         <v>12</v>
       </c>
       <c r="C690">
-        <v>23713</v>
+        <v>23747</v>
       </c>
       <c r="D690">
         <v>5601</v>
       </c>
       <c r="E690">
-        <v>40151744</v>
+        <v>40262385</v>
       </c>
       <c r="F690" t="s">
         <v>27</v>
@@ -25355,13 +25355,13 @@
         <v>12</v>
       </c>
       <c r="C693">
-        <v>10382</v>
+        <v>10418</v>
       </c>
       <c r="D693">
         <v>2186</v>
       </c>
       <c r="E693">
-        <v>46144265</v>
+        <v>46370756</v>
       </c>
       <c r="F693" t="s">
         <v>27</v>
@@ -25425,13 +25425,13 @@
         <v>12</v>
       </c>
       <c r="C695">
-        <v>4276</v>
+        <v>4288</v>
       </c>
       <c r="D695">
         <v>880</v>
       </c>
       <c r="E695">
-        <v>20992696</v>
+        <v>21036090</v>
       </c>
       <c r="F695" t="s">
         <v>27</v>
@@ -25460,13 +25460,13 @@
         <v>12</v>
       </c>
       <c r="C696">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D696">
         <v>202</v>
       </c>
       <c r="E696">
-        <v>2421336</v>
+        <v>2431336</v>
       </c>
       <c r="F696" t="s">
         <v>27</v>
@@ -25495,13 +25495,13 @@
         <v>12</v>
       </c>
       <c r="C697">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="D697">
         <v>172</v>
       </c>
       <c r="E697">
-        <v>3552888</v>
+        <v>3566222</v>
       </c>
       <c r="F697" t="s">
         <v>27</v>
@@ -25530,13 +25530,13 @@
         <v>12</v>
       </c>
       <c r="C698">
-        <v>63308</v>
+        <v>63443</v>
       </c>
       <c r="D698">
         <v>14733</v>
       </c>
       <c r="E698">
-        <v>107693675</v>
+        <v>108017723</v>
       </c>
       <c r="F698" t="s">
         <v>27</v>
@@ -25600,13 +25600,13 @@
         <v>12</v>
       </c>
       <c r="C700">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D700">
         <v>82</v>
       </c>
       <c r="E700">
-        <v>3387916</v>
+        <v>3407457</v>
       </c>
       <c r="F700" t="s">
         <v>27</v>
@@ -25635,13 +25635,13 @@
         <v>12</v>
       </c>
       <c r="C701">
-        <v>34494</v>
+        <v>34632</v>
       </c>
       <c r="D701">
         <v>6895</v>
       </c>
       <c r="E701">
-        <v>173138126</v>
+        <v>174268466</v>
       </c>
       <c r="F701" t="s">
         <v>27</v>
@@ -25670,13 +25670,13 @@
         <v>12</v>
       </c>
       <c r="C702">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D702">
         <v>24</v>
       </c>
       <c r="E702">
-        <v>3967276</v>
+        <v>4091620</v>
       </c>
       <c r="F702" t="s">
         <v>27</v>
@@ -25705,13 +25705,13 @@
         <v>12</v>
       </c>
       <c r="C703">
-        <v>13108</v>
+        <v>13164</v>
       </c>
       <c r="D703">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="E703">
-        <v>72845395</v>
+        <v>73268941</v>
       </c>
       <c r="F703" t="s">
         <v>27</v>
@@ -25775,13 +25775,13 @@
         <v>12</v>
       </c>
       <c r="C705">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="D705">
         <v>533</v>
       </c>
       <c r="E705">
-        <v>4059360</v>
+        <v>4097164</v>
       </c>
       <c r="F705" t="s">
         <v>27</v>
@@ -25810,13 +25810,13 @@
         <v>12</v>
       </c>
       <c r="C706">
-        <v>2240</v>
+        <v>2253</v>
       </c>
       <c r="D706">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E706">
-        <v>8026924</v>
+        <v>8100880</v>
       </c>
       <c r="F706" t="s">
         <v>27</v>
@@ -25880,13 +25880,13 @@
         <v>12</v>
       </c>
       <c r="C708">
-        <v>25479</v>
+        <v>25536</v>
       </c>
       <c r="D708">
         <v>5905</v>
       </c>
       <c r="E708">
-        <v>45567153</v>
+        <v>45687784</v>
       </c>
       <c r="F708" t="s">
         <v>27</v>
@@ -25985,13 +25985,13 @@
         <v>12</v>
       </c>
       <c r="C711">
-        <v>11398</v>
+        <v>11430</v>
       </c>
       <c r="D711">
         <v>2498</v>
       </c>
       <c r="E711">
-        <v>54994591</v>
+        <v>55303542</v>
       </c>
       <c r="F711" t="s">
         <v>27</v>
@@ -26090,13 +26090,13 @@
         <v>12</v>
       </c>
       <c r="C714">
-        <v>3362</v>
+        <v>3375</v>
       </c>
       <c r="D714">
         <v>667</v>
       </c>
       <c r="E714">
-        <v>20472201</v>
+        <v>20554793</v>
       </c>
       <c r="F714" t="s">
         <v>27</v>
@@ -26125,13 +26125,13 @@
         <v>12</v>
       </c>
       <c r="C715">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D715">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E715">
-        <v>698622</v>
+        <v>712770</v>
       </c>
       <c r="F715" t="s">
         <v>27</v>
@@ -26160,13 +26160,13 @@
         <v>12</v>
       </c>
       <c r="C716">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D716">
         <v>236</v>
       </c>
       <c r="E716">
-        <v>4976828</v>
+        <v>4986828</v>
       </c>
       <c r="F716" t="s">
         <v>27</v>
@@ -26195,13 +26195,13 @@
         <v>12</v>
       </c>
       <c r="C717">
-        <v>14748</v>
+        <v>14781</v>
       </c>
       <c r="D717">
         <v>3470</v>
       </c>
       <c r="E717">
-        <v>23205434</v>
+        <v>23265521</v>
       </c>
       <c r="F717" t="s">
         <v>28</v>
@@ -26265,13 +26265,13 @@
         <v>12</v>
       </c>
       <c r="C719">
-        <v>4760</v>
+        <v>4782</v>
       </c>
       <c r="D719">
         <v>943</v>
       </c>
       <c r="E719">
-        <v>22949209</v>
+        <v>23080840</v>
       </c>
       <c r="F719" t="s">
         <v>28</v>
@@ -26335,13 +26335,13 @@
         <v>12</v>
       </c>
       <c r="C721">
-        <v>3014</v>
+        <v>3023</v>
       </c>
       <c r="D721">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E721">
-        <v>13798014</v>
+        <v>13852809</v>
       </c>
       <c r="F721" t="s">
         <v>28</v>
@@ -26405,13 +26405,13 @@
         <v>12</v>
       </c>
       <c r="C723">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D723">
         <v>93</v>
       </c>
       <c r="E723">
-        <v>2282200</v>
+        <v>2301997</v>
       </c>
       <c r="F723" t="s">
         <v>28</v>
@@ -26440,13 +26440,13 @@
         <v>12</v>
       </c>
       <c r="C724">
-        <v>36653</v>
+        <v>36730</v>
       </c>
       <c r="D724">
         <v>7906</v>
       </c>
       <c r="E724">
-        <v>64476254</v>
+        <v>64672037</v>
       </c>
       <c r="F724" t="s">
         <v>28</v>
@@ -26545,13 +26545,13 @@
         <v>12</v>
       </c>
       <c r="C727">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D727">
         <v>25</v>
       </c>
       <c r="E727">
-        <v>1466572</v>
+        <v>1468072</v>
       </c>
       <c r="F727" t="s">
         <v>28</v>
@@ -26580,13 +26580,13 @@
         <v>12</v>
       </c>
       <c r="C728">
-        <v>14907</v>
+        <v>14947</v>
       </c>
       <c r="D728">
         <v>2816</v>
       </c>
       <c r="E728">
-        <v>73498600</v>
+        <v>73868770</v>
       </c>
       <c r="F728" t="s">
         <v>28</v>
@@ -26650,13 +26650,13 @@
         <v>12</v>
       </c>
       <c r="C730">
-        <v>9599</v>
+        <v>9628</v>
       </c>
       <c r="D730">
         <v>1697</v>
       </c>
       <c r="E730">
-        <v>44161446</v>
+        <v>44547941</v>
       </c>
       <c r="F730" t="s">
         <v>28</v>
@@ -26720,13 +26720,13 @@
         <v>12</v>
       </c>
       <c r="C732">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D732">
         <v>235</v>
       </c>
       <c r="E732">
-        <v>3966882</v>
+        <v>3976882</v>
       </c>
       <c r="F732" t="s">
         <v>28</v>
@@ -26755,13 +26755,13 @@
         <v>12</v>
       </c>
       <c r="C733">
-        <v>1054</v>
+        <v>1067</v>
       </c>
       <c r="D733">
         <v>173</v>
       </c>
       <c r="E733">
-        <v>4294780</v>
+        <v>4436446</v>
       </c>
       <c r="F733" t="s">
         <v>28</v>
@@ -26790,13 +26790,13 @@
         <v>12</v>
       </c>
       <c r="C734">
-        <v>26003</v>
+        <v>26060</v>
       </c>
       <c r="D734">
-        <v>5720</v>
+        <v>5721</v>
       </c>
       <c r="E734">
-        <v>50280255</v>
+        <v>50449853</v>
       </c>
       <c r="F734" t="s">
         <v>28</v>
@@ -26860,13 +26860,13 @@
         <v>12</v>
       </c>
       <c r="C736">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D736">
         <v>46</v>
       </c>
       <c r="E736">
-        <v>1502514</v>
+        <v>1523891</v>
       </c>
       <c r="F736" t="s">
         <v>28</v>
@@ -26895,13 +26895,13 @@
         <v>12</v>
       </c>
       <c r="C737">
-        <v>10684</v>
+        <v>10737</v>
       </c>
       <c r="D737">
         <v>2145</v>
       </c>
       <c r="E737">
-        <v>50760949</v>
+        <v>51231315</v>
       </c>
       <c r="F737" t="s">
         <v>28</v>
@@ -26930,13 +26930,13 @@
         <v>12</v>
       </c>
       <c r="C738">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D738">
         <v>9</v>
       </c>
       <c r="E738">
-        <v>1021434</v>
+        <v>1042144</v>
       </c>
       <c r="F738" t="s">
         <v>28</v>
@@ -26965,13 +26965,13 @@
         <v>12</v>
       </c>
       <c r="C739">
-        <v>3808</v>
+        <v>3821</v>
       </c>
       <c r="D739">
         <v>669</v>
       </c>
       <c r="E739">
-        <v>21098214</v>
+        <v>21217214</v>
       </c>
       <c r="F739" t="s">
         <v>28</v>
@@ -27035,13 +27035,13 @@
         <v>12</v>
       </c>
       <c r="C741">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D741">
         <v>408</v>
       </c>
       <c r="E741">
-        <v>1776010</v>
+        <v>1778660</v>
       </c>
       <c r="F741" t="s">
         <v>28</v>
@@ -27070,13 +27070,13 @@
         <v>12</v>
       </c>
       <c r="C742">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="D742">
         <v>158</v>
       </c>
       <c r="E742">
-        <v>4481038</v>
+        <v>4490612</v>
       </c>
       <c r="F742" t="s">
         <v>28</v>
@@ -27105,13 +27105,13 @@
         <v>12</v>
       </c>
       <c r="C743">
-        <v>73326</v>
+        <v>73462</v>
       </c>
       <c r="D743">
-        <v>15646</v>
+        <v>15648</v>
       </c>
       <c r="E743">
-        <v>120167562</v>
+        <v>120442652</v>
       </c>
       <c r="F743" t="s">
         <v>28</v>
@@ -27210,13 +27210,13 @@
         <v>12</v>
       </c>
       <c r="C746">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D746">
         <v>41</v>
       </c>
       <c r="E746">
-        <v>1693264</v>
+        <v>1698580</v>
       </c>
       <c r="F746" t="s">
         <v>28</v>
@@ -27245,13 +27245,13 @@
         <v>12</v>
       </c>
       <c r="C747">
-        <v>34623</v>
+        <v>34734</v>
       </c>
       <c r="D747">
         <v>6877</v>
       </c>
       <c r="E747">
-        <v>152771217</v>
+        <v>153717115</v>
       </c>
       <c r="F747" t="s">
         <v>28</v>
@@ -27280,13 +27280,13 @@
         <v>12</v>
       </c>
       <c r="C748">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D748">
         <v>12</v>
       </c>
       <c r="E748">
-        <v>1685702</v>
+        <v>1687202</v>
       </c>
       <c r="F748" t="s">
         <v>28</v>
@@ -27315,13 +27315,13 @@
         <v>12</v>
       </c>
       <c r="C749">
-        <v>17282</v>
+        <v>17329</v>
       </c>
       <c r="D749">
         <v>3245</v>
       </c>
       <c r="E749">
-        <v>79074439</v>
+        <v>79537225</v>
       </c>
       <c r="F749" t="s">
         <v>28</v>
@@ -27385,13 +27385,13 @@
         <v>12</v>
       </c>
       <c r="C751">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="D751">
         <v>389</v>
       </c>
       <c r="E751">
-        <v>6423765</v>
+        <v>6459630</v>
       </c>
       <c r="F751" t="s">
         <v>28</v>
@@ -27420,13 +27420,13 @@
         <v>12</v>
       </c>
       <c r="C752">
-        <v>2655</v>
+        <v>2666</v>
       </c>
       <c r="D752">
         <v>419</v>
       </c>
       <c r="E752">
-        <v>8169368</v>
+        <v>8224967</v>
       </c>
       <c r="F752" t="s">
         <v>28</v>
@@ -27455,13 +27455,13 @@
         <v>12</v>
       </c>
       <c r="C753">
-        <v>16556</v>
+        <v>16587</v>
       </c>
       <c r="D753">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="E753">
-        <v>29735969</v>
+        <v>29843033</v>
       </c>
       <c r="F753" t="s">
         <v>28</v>
@@ -27525,13 +27525,13 @@
         <v>12</v>
       </c>
       <c r="C755">
-        <v>6593</v>
+        <v>6602</v>
       </c>
       <c r="D755">
         <v>1409</v>
       </c>
       <c r="E755">
-        <v>28215585</v>
+        <v>28263041</v>
       </c>
       <c r="F755" t="s">
         <v>28</v>
@@ -27595,13 +27595,13 @@
         <v>12</v>
       </c>
       <c r="C757">
-        <v>3254</v>
+        <v>3261</v>
       </c>
       <c r="D757">
         <v>622</v>
       </c>
       <c r="E757">
-        <v>14663063</v>
+        <v>14729862</v>
       </c>
       <c r="F757" t="s">
         <v>28</v>
@@ -27630,13 +27630,13 @@
         <v>12</v>
       </c>
       <c r="C758">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="D758">
         <v>365</v>
       </c>
       <c r="E758">
-        <v>6494145</v>
+        <v>6515645</v>
       </c>
       <c r="F758" t="s">
         <v>28</v>
@@ -27665,13 +27665,13 @@
         <v>12</v>
       </c>
       <c r="C759">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="D759">
         <v>127</v>
       </c>
       <c r="E759">
-        <v>2842066</v>
+        <v>2875544</v>
       </c>
       <c r="F759" t="s">
         <v>28</v>
@@ -27700,13 +27700,13 @@
         <v>12</v>
       </c>
       <c r="C760">
-        <v>127759</v>
+        <v>127963</v>
       </c>
       <c r="D760">
-        <v>28555</v>
+        <v>28558</v>
       </c>
       <c r="E760">
-        <v>199778989</v>
+        <v>200177949</v>
       </c>
       <c r="F760" t="s">
         <v>28</v>
@@ -27875,13 +27875,13 @@
         <v>12</v>
       </c>
       <c r="C765">
-        <v>55407</v>
+        <v>55605</v>
       </c>
       <c r="D765">
-        <v>11203</v>
+        <v>11204</v>
       </c>
       <c r="E765">
-        <v>266611563</v>
+        <v>268137898</v>
       </c>
       <c r="F765" t="s">
         <v>28</v>
@@ -27980,13 +27980,13 @@
         <v>12</v>
       </c>
       <c r="C768">
-        <v>34777</v>
+        <v>34877</v>
       </c>
       <c r="D768">
         <v>6758</v>
       </c>
       <c r="E768">
-        <v>160532526</v>
+        <v>161174543</v>
       </c>
       <c r="F768" t="s">
         <v>28</v>
@@ -28050,13 +28050,13 @@
         <v>12</v>
       </c>
       <c r="C770">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D770">
         <v>272</v>
       </c>
       <c r="E770">
-        <v>1654338</v>
+        <v>1655838</v>
       </c>
       <c r="F770" t="s">
         <v>28</v>
@@ -28120,13 +28120,13 @@
         <v>12</v>
       </c>
       <c r="C772">
-        <v>5053</v>
+        <v>5083</v>
       </c>
       <c r="D772">
         <v>834</v>
       </c>
       <c r="E772">
-        <v>18750274</v>
+        <v>18936826</v>
       </c>
       <c r="F772" t="s">
         <v>28</v>
@@ -28155,13 +28155,13 @@
         <v>12</v>
       </c>
       <c r="C773">
-        <v>27307</v>
+        <v>27379</v>
       </c>
       <c r="D773">
         <v>5389</v>
       </c>
       <c r="E773">
-        <v>55863806</v>
+        <v>56118482</v>
       </c>
       <c r="F773" t="s">
         <v>28</v>
@@ -28260,13 +28260,13 @@
         <v>12</v>
       </c>
       <c r="C776">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D776">
         <v>30</v>
       </c>
       <c r="E776">
-        <v>2019507</v>
+        <v>2039507</v>
       </c>
       <c r="F776" t="s">
         <v>28</v>
@@ -28295,13 +28295,13 @@
         <v>12</v>
       </c>
       <c r="C777">
-        <v>12451</v>
+        <v>12495</v>
       </c>
       <c r="D777">
         <v>2044</v>
       </c>
       <c r="E777">
-        <v>71023134</v>
+        <v>71455304</v>
       </c>
       <c r="F777" t="s">
         <v>28</v>
@@ -28330,13 +28330,13 @@
         <v>12</v>
       </c>
       <c r="C778">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D778">
         <v>16</v>
       </c>
       <c r="E778">
-        <v>2459364</v>
+        <v>2469364</v>
       </c>
       <c r="F778" t="s">
         <v>28</v>
@@ -28365,13 +28365,13 @@
         <v>12</v>
       </c>
       <c r="C779">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D779">
         <v>3</v>
       </c>
       <c r="E779">
-        <v>1205210</v>
+        <v>1256172</v>
       </c>
       <c r="F779" t="s">
         <v>28</v>
@@ -28400,13 +28400,13 @@
         <v>12</v>
       </c>
       <c r="C780">
-        <v>4131</v>
+        <v>4146</v>
       </c>
       <c r="D780">
         <v>691</v>
       </c>
       <c r="E780">
-        <v>25540224</v>
+        <v>25720469</v>
       </c>
       <c r="F780" t="s">
         <v>28</v>
@@ -28540,13 +28540,13 @@
         <v>12</v>
       </c>
       <c r="C784">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D784">
         <v>146</v>
       </c>
       <c r="E784">
-        <v>4330980</v>
+        <v>4334365</v>
       </c>
       <c r="F784" t="s">
         <v>28</v>
@@ -28575,13 +28575,13 @@
         <v>12</v>
       </c>
       <c r="C785">
-        <v>130138</v>
+        <v>130399</v>
       </c>
       <c r="D785">
-        <v>28131</v>
+        <v>28135</v>
       </c>
       <c r="E785">
-        <v>207476913</v>
+        <v>208163048</v>
       </c>
       <c r="F785" t="s">
         <v>28</v>
@@ -28645,13 +28645,13 @@
         <v>12</v>
       </c>
       <c r="C787">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D787">
         <v>22</v>
       </c>
       <c r="E787">
-        <v>494750</v>
+        <v>499408</v>
       </c>
       <c r="F787" t="s">
         <v>28</v>
@@ -28715,13 +28715,13 @@
         <v>12</v>
       </c>
       <c r="C789">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D789">
         <v>72</v>
       </c>
       <c r="E789">
-        <v>3509177</v>
+        <v>3573036</v>
       </c>
       <c r="F789" t="s">
         <v>28</v>
@@ -28785,13 +28785,13 @@
         <v>12</v>
       </c>
       <c r="C791">
-        <v>60437</v>
+        <v>60647</v>
       </c>
       <c r="D791">
-        <v>11571</v>
+        <v>11574</v>
       </c>
       <c r="E791">
-        <v>289940593</v>
+        <v>291751489</v>
       </c>
       <c r="F791" t="s">
         <v>28</v>
@@ -28890,13 +28890,13 @@
         <v>12</v>
       </c>
       <c r="C794">
-        <v>41802</v>
+        <v>41936</v>
       </c>
       <c r="D794">
-        <v>7418</v>
+        <v>7419</v>
       </c>
       <c r="E794">
-        <v>195339114</v>
+        <v>196360812</v>
       </c>
       <c r="F794" t="s">
         <v>28</v>
@@ -28925,13 +28925,13 @@
         <v>12</v>
       </c>
       <c r="C795">
-        <v>2456</v>
+        <v>2462</v>
       </c>
       <c r="D795">
         <v>585</v>
       </c>
       <c r="E795">
-        <v>9999934</v>
+        <v>10039712</v>
       </c>
       <c r="F795" t="s">
         <v>28</v>
@@ -28960,13 +28960,13 @@
         <v>12</v>
       </c>
       <c r="C796">
-        <v>5126</v>
+        <v>5141</v>
       </c>
       <c r="D796">
         <v>768</v>
       </c>
       <c r="E796">
-        <v>17881045</v>
+        <v>17932233</v>
       </c>
       <c r="F796" t="s">
         <v>28</v>
@@ -28995,13 +28995,13 @@
         <v>12</v>
       </c>
       <c r="C797">
-        <v>17189</v>
+        <v>17232</v>
       </c>
       <c r="D797">
-        <v>3894</v>
+        <v>3895</v>
       </c>
       <c r="E797">
-        <v>31650600</v>
+        <v>31773284</v>
       </c>
       <c r="F797" t="s">
         <v>28</v>
@@ -29100,13 +29100,13 @@
         <v>12</v>
       </c>
       <c r="C800">
-        <v>6864</v>
+        <v>6890</v>
       </c>
       <c r="D800">
         <v>1323</v>
       </c>
       <c r="E800">
-        <v>31829212</v>
+        <v>32006373</v>
       </c>
       <c r="F800" t="s">
         <v>28</v>
@@ -29135,13 +29135,13 @@
         <v>12</v>
       </c>
       <c r="C801">
-        <v>3126</v>
+        <v>3139</v>
       </c>
       <c r="D801">
         <v>580</v>
       </c>
       <c r="E801">
-        <v>17662651</v>
+        <v>17894634</v>
       </c>
       <c r="F801" t="s">
         <v>28</v>
@@ -29205,13 +29205,13 @@
         <v>12</v>
       </c>
       <c r="C803">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D803">
         <v>113</v>
       </c>
       <c r="E803">
-        <v>3090135</v>
+        <v>3094416</v>
       </c>
       <c r="F803" t="s">
         <v>28</v>
@@ -29240,13 +29240,13 @@
         <v>12</v>
       </c>
       <c r="C804">
-        <v>8685</v>
+        <v>8715</v>
       </c>
       <c r="D804">
         <v>1913</v>
       </c>
       <c r="E804">
-        <v>18107960</v>
+        <v>18229508</v>
       </c>
       <c r="F804" t="s">
         <v>28</v>
@@ -29310,13 +29310,13 @@
         <v>12</v>
       </c>
       <c r="C806">
-        <v>3221</v>
+        <v>3234</v>
       </c>
       <c r="D806">
         <v>629</v>
       </c>
       <c r="E806">
-        <v>16742137</v>
+        <v>16820441</v>
       </c>
       <c r="F806" t="s">
         <v>28</v>
@@ -29380,13 +29380,13 @@
         <v>12</v>
       </c>
       <c r="C808">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="D808">
         <v>205</v>
       </c>
       <c r="E808">
-        <v>5848270</v>
+        <v>5898840</v>
       </c>
       <c r="F808" t="s">
         <v>28</v>
@@ -29450,13 +29450,13 @@
         <v>12</v>
       </c>
       <c r="C810">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D810">
         <v>72</v>
       </c>
       <c r="E810">
-        <v>1245377</v>
+        <v>1248117</v>
       </c>
       <c r="F810" t="s">
         <v>28</v>
@@ -29485,13 +29485,13 @@
         <v>12</v>
       </c>
       <c r="C811">
-        <v>49013</v>
+        <v>49150</v>
       </c>
       <c r="D811">
         <v>10665</v>
       </c>
       <c r="E811">
-        <v>84950680</v>
+        <v>85272203</v>
       </c>
       <c r="F811" t="s">
         <v>28</v>
@@ -29555,13 +29555,13 @@
         <v>12</v>
       </c>
       <c r="C813">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D813">
         <v>17</v>
       </c>
       <c r="E813">
-        <v>373923</v>
+        <v>383923</v>
       </c>
       <c r="F813" t="s">
         <v>28</v>
@@ -29625,13 +29625,13 @@
         <v>12</v>
       </c>
       <c r="C815">
-        <v>21577</v>
+        <v>21696</v>
       </c>
       <c r="D815">
         <v>4094</v>
       </c>
       <c r="E815">
-        <v>103580835</v>
+        <v>104457689</v>
       </c>
       <c r="F815" t="s">
         <v>28</v>
@@ -29695,13 +29695,13 @@
         <v>12</v>
       </c>
       <c r="C817">
-        <v>14242</v>
+        <v>14287</v>
       </c>
       <c r="D817">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="E817">
-        <v>78246752</v>
+        <v>78502013</v>
       </c>
       <c r="F817" t="s">
         <v>28</v>
@@ -29765,13 +29765,13 @@
         <v>12</v>
       </c>
       <c r="C819">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D819">
         <v>270</v>
       </c>
       <c r="E819">
-        <v>3596799</v>
+        <v>3606799</v>
       </c>
       <c r="F819" t="s">
         <v>28</v>
@@ -29835,13 +29835,13 @@
         <v>12</v>
       </c>
       <c r="C821">
-        <v>1597</v>
+        <v>1605</v>
       </c>
       <c r="D821">
         <v>275</v>
       </c>
       <c r="E821">
-        <v>5342849</v>
+        <v>5386198</v>
       </c>
       <c r="F821" t="s">
         <v>28</v>
@@ -29870,13 +29870,13 @@
         <v>12</v>
       </c>
       <c r="C822">
-        <v>30611</v>
+        <v>30657</v>
       </c>
       <c r="D822">
         <v>7235</v>
       </c>
       <c r="E822">
-        <v>48017006</v>
+        <v>48097290</v>
       </c>
       <c r="F822" t="s">
         <v>28</v>
@@ -29940,13 +29940,13 @@
         <v>12</v>
       </c>
       <c r="C824">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D824">
         <v>21</v>
       </c>
       <c r="E824">
-        <v>839646</v>
+        <v>841146</v>
       </c>
       <c r="F824" t="s">
         <v>28</v>
@@ -29975,13 +29975,13 @@
         <v>12</v>
       </c>
       <c r="C825">
-        <v>12590</v>
+        <v>12627</v>
       </c>
       <c r="D825">
         <v>2819</v>
       </c>
       <c r="E825">
-        <v>54728464</v>
+        <v>54978520</v>
       </c>
       <c r="F825" t="s">
         <v>28</v>
@@ -30045,13 +30045,13 @@
         <v>12</v>
       </c>
       <c r="C827">
-        <v>6341</v>
+        <v>6362</v>
       </c>
       <c r="D827">
         <v>1279</v>
       </c>
       <c r="E827">
-        <v>24777983</v>
+        <v>24865185</v>
       </c>
       <c r="F827" t="s">
         <v>28</v>
@@ -30080,13 +30080,13 @@
         <v>12</v>
       </c>
       <c r="C828">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D828">
         <v>134</v>
       </c>
       <c r="E828">
-        <v>1744862</v>
+        <v>1764862</v>
       </c>
       <c r="F828" t="s">
         <v>28</v>
@@ -30115,13 +30115,13 @@
         <v>12</v>
       </c>
       <c r="C829">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="D829">
         <v>220</v>
       </c>
       <c r="E829">
-        <v>4271005</v>
+        <v>4292429</v>
       </c>
       <c r="F829" t="s">
         <v>28</v>
@@ -30150,13 +30150,13 @@
         <v>12</v>
       </c>
       <c r="C830">
-        <v>20293</v>
+        <v>20324</v>
       </c>
       <c r="D830">
         <v>4769</v>
       </c>
       <c r="E830">
-        <v>32717584</v>
+        <v>32781578</v>
       </c>
       <c r="F830" t="s">
         <v>28</v>
@@ -30255,13 +30255,13 @@
         <v>12</v>
       </c>
       <c r="C833">
-        <v>7987</v>
+        <v>8032</v>
       </c>
       <c r="D833">
         <v>1830</v>
       </c>
       <c r="E833">
-        <v>34841694</v>
+        <v>35145091</v>
       </c>
       <c r="F833" t="s">
         <v>28</v>
@@ -30325,13 +30325,13 @@
         <v>12</v>
       </c>
       <c r="C835">
-        <v>3976</v>
+        <v>3989</v>
       </c>
       <c r="D835">
         <v>805</v>
       </c>
       <c r="E835">
-        <v>17061033</v>
+        <v>17133275</v>
       </c>
       <c r="F835" t="s">
         <v>28</v>
@@ -30360,13 +30360,13 @@
         <v>12</v>
       </c>
       <c r="C836">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D836">
         <v>95</v>
       </c>
       <c r="E836">
-        <v>666311</v>
+        <v>669977</v>
       </c>
       <c r="F836" t="s">
         <v>28</v>
@@ -30395,13 +30395,13 @@
         <v>12</v>
       </c>
       <c r="C837">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D837">
         <v>128</v>
       </c>
       <c r="E837">
-        <v>2539256</v>
+        <v>2560250</v>
       </c>
       <c r="F837" t="s">
         <v>28</v>
@@ -30430,13 +30430,13 @@
         <v>12</v>
       </c>
       <c r="C838">
-        <v>92735</v>
+        <v>92904</v>
       </c>
       <c r="D838">
-        <v>22258</v>
+        <v>22262</v>
       </c>
       <c r="E838">
-        <v>159707477</v>
+        <v>160111393</v>
       </c>
       <c r="F838" t="s">
         <v>29</v>
@@ -30535,13 +30535,13 @@
         <v>12</v>
       </c>
       <c r="C841">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D841">
         <v>141</v>
       </c>
       <c r="E841">
-        <v>5681921</v>
+        <v>5698937</v>
       </c>
       <c r="F841" t="s">
         <v>29</v>
@@ -30570,13 +30570,13 @@
         <v>12</v>
       </c>
       <c r="C842">
-        <v>54989</v>
+        <v>55180</v>
       </c>
       <c r="D842">
-        <v>11350</v>
+        <v>11351</v>
       </c>
       <c r="E842">
-        <v>273392620</v>
+        <v>275098469</v>
       </c>
       <c r="F842" t="s">
         <v>29</v>
@@ -30640,13 +30640,13 @@
         <v>12</v>
       </c>
       <c r="C844">
-        <v>17414</v>
+        <v>17464</v>
       </c>
       <c r="D844">
         <v>3341</v>
       </c>
       <c r="E844">
-        <v>104321400</v>
+        <v>105000439</v>
       </c>
       <c r="F844" t="s">
         <v>29</v>
@@ -30675,13 +30675,13 @@
         <v>12</v>
       </c>
       <c r="C845">
-        <v>1310</v>
+        <v>1315</v>
       </c>
       <c r="D845">
         <v>390</v>
       </c>
       <c r="E845">
-        <v>4803857</v>
+        <v>4825070</v>
       </c>
       <c r="F845" t="s">
         <v>29</v>
@@ -30710,13 +30710,13 @@
         <v>12</v>
       </c>
       <c r="C846">
-        <v>3471</v>
+        <v>3482</v>
       </c>
       <c r="D846">
         <v>586</v>
       </c>
       <c r="E846">
-        <v>16079400</v>
+        <v>16167899</v>
       </c>
       <c r="F846" t="s">
         <v>29</v>
@@ -30745,13 +30745,13 @@
         <v>12</v>
       </c>
       <c r="C847">
-        <v>46473</v>
+        <v>46554</v>
       </c>
       <c r="D847">
         <v>10714</v>
       </c>
       <c r="E847">
-        <v>85041831</v>
+        <v>85290470</v>
       </c>
       <c r="F847" t="s">
         <v>29</v>
@@ -30815,13 +30815,13 @@
         <v>12</v>
       </c>
       <c r="C849">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D849">
         <v>83</v>
       </c>
       <c r="E849">
-        <v>4556320</v>
+        <v>4564133</v>
       </c>
       <c r="F849" t="s">
         <v>29</v>
@@ -30850,13 +30850,13 @@
         <v>12</v>
       </c>
       <c r="C850">
-        <v>25596</v>
+        <v>25659</v>
       </c>
       <c r="D850">
-        <v>5519</v>
+        <v>5520</v>
       </c>
       <c r="E850">
-        <v>126073669</v>
+        <v>126708799</v>
       </c>
       <c r="F850" t="s">
         <v>29</v>
@@ -30885,13 +30885,13 @@
         <v>12</v>
       </c>
       <c r="C851">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D851">
         <v>12</v>
       </c>
       <c r="E851">
-        <v>2317721</v>
+        <v>2338869</v>
       </c>
       <c r="F851" t="s">
         <v>29</v>
@@ -30955,13 +30955,13 @@
         <v>12</v>
       </c>
       <c r="C853">
-        <v>6950</v>
+        <v>6967</v>
       </c>
       <c r="D853">
         <v>1346</v>
       </c>
       <c r="E853">
-        <v>40450688</v>
+        <v>40628878</v>
       </c>
       <c r="F853" t="s">
         <v>29</v>
@@ -31025,13 +31025,13 @@
         <v>12</v>
       </c>
       <c r="C855">
-        <v>1556</v>
+        <v>1566</v>
       </c>
       <c r="D855">
         <v>476</v>
       </c>
       <c r="E855">
-        <v>6914016</v>
+        <v>7007443</v>
       </c>
       <c r="F855" t="s">
         <v>29</v>
@@ -31060,13 +31060,13 @@
         <v>12</v>
       </c>
       <c r="C856">
-        <v>2309</v>
+        <v>2319</v>
       </c>
       <c r="D856">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E856">
-        <v>8937272</v>
+        <v>9005581</v>
       </c>
       <c r="F856" t="s">
         <v>29</v>
@@ -31095,13 +31095,13 @@
         <v>12</v>
       </c>
       <c r="C857">
-        <v>15034</v>
+        <v>15066</v>
       </c>
       <c r="D857">
         <v>3452</v>
       </c>
       <c r="E857">
-        <v>29769168</v>
+        <v>29840005</v>
       </c>
       <c r="F857" t="s">
         <v>29</v>
@@ -31130,13 +31130,13 @@
         <v>12</v>
       </c>
       <c r="C858">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D858">
         <v>42</v>
       </c>
       <c r="E858">
-        <v>1677735</v>
+        <v>1685694</v>
       </c>
       <c r="F858" t="s">
         <v>29</v>
@@ -31165,13 +31165,13 @@
         <v>12</v>
       </c>
       <c r="C859">
-        <v>7277</v>
+        <v>7307</v>
       </c>
       <c r="D859">
         <v>1700</v>
       </c>
       <c r="E859">
-        <v>33857791</v>
+        <v>34018203</v>
       </c>
       <c r="F859" t="s">
         <v>29</v>
@@ -31200,13 +31200,13 @@
         <v>12</v>
       </c>
       <c r="C860">
-        <v>1820</v>
+        <v>1825</v>
       </c>
       <c r="D860">
         <v>403</v>
       </c>
       <c r="E860">
-        <v>9559389</v>
+        <v>9606095</v>
       </c>
       <c r="F860" t="s">
         <v>29</v>
@@ -31235,13 +31235,13 @@
         <v>12</v>
       </c>
       <c r="C861">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D861">
         <v>94</v>
       </c>
       <c r="E861">
-        <v>1030578</v>
+        <v>1042151</v>
       </c>
       <c r="F861" t="s">
         <v>29</v>
@@ -31305,13 +31305,13 @@
         <v>12</v>
       </c>
       <c r="C863">
-        <v>27841</v>
+        <v>27889</v>
       </c>
       <c r="D863">
         <v>6340</v>
       </c>
       <c r="E863">
-        <v>52258076</v>
+        <v>52406298</v>
       </c>
       <c r="F863" t="s">
         <v>29</v>
@@ -31375,13 +31375,13 @@
         <v>12</v>
       </c>
       <c r="C865">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D865">
         <v>70</v>
       </c>
       <c r="E865">
-        <v>2724670</v>
+        <v>2765364</v>
       </c>
       <c r="F865" t="s">
         <v>29</v>
@@ -31410,13 +31410,13 @@
         <v>12</v>
       </c>
       <c r="C866">
-        <v>13523</v>
+        <v>13567</v>
       </c>
       <c r="D866">
         <v>2881</v>
       </c>
       <c r="E866">
-        <v>68616015</v>
+        <v>69404436</v>
       </c>
       <c r="F866" t="s">
         <v>29</v>
@@ -31445,13 +31445,13 @@
         <v>12</v>
       </c>
       <c r="C867">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D867">
         <v>10</v>
       </c>
       <c r="E867">
-        <v>1453313</v>
+        <v>1514591</v>
       </c>
       <c r="F867" t="s">
         <v>29</v>
@@ -31480,13 +31480,13 @@
         <v>12</v>
       </c>
       <c r="C868">
-        <v>4158</v>
+        <v>4171</v>
       </c>
       <c r="D868">
         <v>793</v>
       </c>
       <c r="E868">
-        <v>25809528</v>
+        <v>25962010</v>
       </c>
       <c r="F868" t="s">
         <v>29</v>
@@ -31515,13 +31515,13 @@
         <v>12</v>
       </c>
       <c r="C869">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D869">
         <v>98</v>
       </c>
       <c r="E869">
-        <v>798128</v>
+        <v>799628</v>
       </c>
       <c r="F869" t="s">
         <v>29</v>
@@ -31550,13 +31550,13 @@
         <v>12</v>
       </c>
       <c r="C870">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="D870">
         <v>170</v>
       </c>
       <c r="E870">
-        <v>4339574</v>
+        <v>4375809</v>
       </c>
       <c r="F870" t="s">
         <v>29</v>
@@ -31585,13 +31585,13 @@
         <v>12</v>
       </c>
       <c r="C871">
-        <v>40678</v>
+        <v>40733</v>
       </c>
       <c r="D871">
         <v>9636</v>
       </c>
       <c r="E871">
-        <v>73646807</v>
+        <v>73766291</v>
       </c>
       <c r="F871" t="s">
         <v>29</v>
@@ -31690,13 +31690,13 @@
         <v>12</v>
       </c>
       <c r="C874">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D874">
         <v>87</v>
       </c>
       <c r="E874">
-        <v>3896096</v>
+        <v>3909803</v>
       </c>
       <c r="F874" t="s">
         <v>29</v>
@@ -31725,13 +31725,13 @@
         <v>12</v>
       </c>
       <c r="C875">
-        <v>26677</v>
+        <v>26756</v>
       </c>
       <c r="D875">
         <v>5677</v>
       </c>
       <c r="E875">
-        <v>141162682</v>
+        <v>141754329</v>
       </c>
       <c r="F875" t="s">
         <v>29</v>
@@ -31795,13 +31795,13 @@
         <v>12</v>
       </c>
       <c r="C877">
-        <v>6727</v>
+        <v>6739</v>
       </c>
       <c r="D877">
         <v>1288</v>
       </c>
       <c r="E877">
-        <v>48570255</v>
+        <v>48672884</v>
       </c>
       <c r="F877" t="s">
         <v>29</v>
@@ -31865,13 +31865,13 @@
         <v>12</v>
       </c>
       <c r="C879">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D879">
         <v>201</v>
       </c>
       <c r="E879">
-        <v>1740076</v>
+        <v>1741156</v>
       </c>
       <c r="F879" t="s">
         <v>29</v>
@@ -31900,13 +31900,13 @@
         <v>12</v>
       </c>
       <c r="C880">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="D880">
         <v>273</v>
       </c>
       <c r="E880">
-        <v>6144038</v>
+        <v>6146513</v>
       </c>
       <c r="F880" t="s">
         <v>29</v>
@@ -31935,13 +31935,13 @@
         <v>12</v>
       </c>
       <c r="C881">
-        <v>20406</v>
+        <v>20443</v>
       </c>
       <c r="D881">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="E881">
-        <v>39836229</v>
+        <v>39947271</v>
       </c>
       <c r="F881" t="s">
         <v>30</v>
@@ -32005,13 +32005,13 @@
         <v>12</v>
       </c>
       <c r="C883">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D883">
         <v>9</v>
       </c>
       <c r="E883">
-        <v>215295</v>
+        <v>225295</v>
       </c>
       <c r="F883" t="s">
         <v>30</v>
@@ -32040,13 +32040,13 @@
         <v>12</v>
       </c>
       <c r="C884">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D884">
         <v>21</v>
       </c>
       <c r="E884">
-        <v>797927</v>
+        <v>799427</v>
       </c>
       <c r="F884" t="s">
         <v>30</v>
@@ -32075,13 +32075,13 @@
         <v>12</v>
       </c>
       <c r="C885">
-        <v>9007</v>
+        <v>9038</v>
       </c>
       <c r="D885">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="E885">
-        <v>44257419</v>
+        <v>44485384</v>
       </c>
       <c r="F885" t="s">
         <v>30</v>
@@ -32145,13 +32145,13 @@
         <v>12</v>
       </c>
       <c r="C887">
-        <v>4668</v>
+        <v>4684</v>
       </c>
       <c r="D887">
         <v>778</v>
       </c>
       <c r="E887">
-        <v>24141619</v>
+        <v>24236212</v>
       </c>
       <c r="F887" t="s">
         <v>30</v>
@@ -32285,13 +32285,13 @@
         <v>12</v>
       </c>
       <c r="C891">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="D891">
         <v>134</v>
       </c>
       <c r="E891">
-        <v>2898971</v>
+        <v>3057760</v>
       </c>
       <c r="F891" t="s">
         <v>30</v>
@@ -32320,13 +32320,13 @@
         <v>12</v>
       </c>
       <c r="C892">
-        <v>160976</v>
+        <v>161319</v>
       </c>
       <c r="D892">
-        <v>30691</v>
+        <v>30693</v>
       </c>
       <c r="E892">
-        <v>273919579</v>
+        <v>274792713</v>
       </c>
       <c r="F892" t="s">
         <v>30</v>
@@ -32355,13 +32355,13 @@
         <v>12</v>
       </c>
       <c r="C893">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D893">
         <v>23</v>
       </c>
       <c r="E893">
-        <v>211023</v>
+        <v>214489</v>
       </c>
       <c r="F893" t="s">
         <v>30</v>
@@ -32390,13 +32390,13 @@
         <v>12</v>
       </c>
       <c r="C894">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D894">
         <v>38</v>
       </c>
       <c r="E894">
-        <v>554715</v>
+        <v>557842</v>
       </c>
       <c r="F894" t="s">
         <v>30</v>
@@ -32495,13 +32495,13 @@
         <v>12</v>
       </c>
       <c r="C897">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="D897">
         <v>146</v>
       </c>
       <c r="E897">
-        <v>9121720</v>
+        <v>9257955</v>
       </c>
       <c r="F897" t="s">
         <v>30</v>
@@ -32565,13 +32565,13 @@
         <v>12</v>
       </c>
       <c r="C899">
-        <v>76558</v>
+        <v>76869</v>
       </c>
       <c r="D899">
-        <v>13176</v>
+        <v>13178</v>
       </c>
       <c r="E899">
-        <v>408046320</v>
+        <v>410798926</v>
       </c>
       <c r="F899" t="s">
         <v>30</v>
@@ -32600,13 +32600,13 @@
         <v>12</v>
       </c>
       <c r="C900">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D900">
         <v>54</v>
       </c>
       <c r="E900">
-        <v>9190993</v>
+        <v>9231821</v>
       </c>
       <c r="F900" t="s">
         <v>30</v>
@@ -32635,13 +32635,13 @@
         <v>12</v>
       </c>
       <c r="C901">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D901">
         <v>6</v>
       </c>
       <c r="E901">
-        <v>1632762</v>
+        <v>1639865</v>
       </c>
       <c r="F901" t="s">
         <v>30</v>
@@ -32670,13 +32670,13 @@
         <v>12</v>
       </c>
       <c r="C902">
-        <v>55722</v>
+        <v>55949</v>
       </c>
       <c r="D902">
-        <v>8940</v>
+        <v>8941</v>
       </c>
       <c r="E902">
-        <v>298406147</v>
+        <v>300712863</v>
       </c>
       <c r="F902" t="s">
         <v>30</v>
@@ -32740,13 +32740,13 @@
         <v>12</v>
       </c>
       <c r="C904">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="D904">
         <v>299</v>
       </c>
       <c r="E904">
-        <v>2299699</v>
+        <v>2310840</v>
       </c>
       <c r="F904" t="s">
         <v>30</v>
@@ -32775,13 +32775,13 @@
         <v>12</v>
       </c>
       <c r="C905">
-        <v>3225</v>
+        <v>3237</v>
       </c>
       <c r="D905">
         <v>483</v>
       </c>
       <c r="E905">
-        <v>12501382</v>
+        <v>12618751</v>
       </c>
       <c r="F905" t="s">
         <v>30</v>
@@ -32810,13 +32810,13 @@
         <v>12</v>
       </c>
       <c r="C906">
-        <v>192774</v>
+        <v>193139</v>
       </c>
       <c r="D906">
-        <v>40299</v>
+        <v>40303</v>
       </c>
       <c r="E906">
-        <v>317029027</v>
+        <v>317899112</v>
       </c>
       <c r="F906" t="s">
         <v>30</v>
@@ -32845,13 +32845,13 @@
         <v>12</v>
       </c>
       <c r="C907">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D907">
         <v>25</v>
       </c>
       <c r="E907">
-        <v>463041</v>
+        <v>464541</v>
       </c>
       <c r="F907" t="s">
         <v>30</v>
@@ -32985,13 +32985,13 @@
         <v>12</v>
       </c>
       <c r="C911">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="D911">
         <v>208</v>
       </c>
       <c r="E911">
-        <v>10372297</v>
+        <v>10383797</v>
       </c>
       <c r="F911" t="s">
         <v>30</v>
@@ -33055,13 +33055,13 @@
         <v>12</v>
       </c>
       <c r="C913">
-        <v>91558</v>
+        <v>91898</v>
       </c>
       <c r="D913">
-        <v>17523</v>
+        <v>17527</v>
       </c>
       <c r="E913">
-        <v>430856627</v>
+        <v>433279340</v>
       </c>
       <c r="F913" t="s">
         <v>30</v>
@@ -33160,13 +33160,13 @@
         <v>12</v>
       </c>
       <c r="C916">
-        <v>74651</v>
+        <v>74896</v>
       </c>
       <c r="D916">
-        <v>13337</v>
+        <v>13339</v>
       </c>
       <c r="E916">
-        <v>351997159</v>
+        <v>353999548</v>
       </c>
       <c r="F916" t="s">
         <v>30</v>
@@ -33195,13 +33195,13 @@
         <v>12</v>
       </c>
       <c r="C917">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="D917">
         <v>429</v>
       </c>
       <c r="E917">
-        <v>4263857</v>
+        <v>4268877</v>
       </c>
       <c r="F917" t="s">
         <v>30</v>
@@ -33230,13 +33230,13 @@
         <v>12</v>
       </c>
       <c r="C918">
-        <v>7408</v>
+        <v>7443</v>
       </c>
       <c r="D918">
         <v>1176</v>
       </c>
       <c r="E918">
-        <v>27543814</v>
+        <v>27726790</v>
       </c>
       <c r="F918" t="s">
         <v>30</v>
@@ -33265,13 +33265,13 @@
         <v>12</v>
       </c>
       <c r="C919">
-        <v>31061</v>
+        <v>31135</v>
       </c>
       <c r="D919">
         <v>5497</v>
       </c>
       <c r="E919">
-        <v>68493428</v>
+        <v>68799232</v>
       </c>
       <c r="F919" t="s">
         <v>30</v>
@@ -33370,13 +33370,13 @@
         <v>12</v>
       </c>
       <c r="C922">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D922">
         <v>28</v>
       </c>
       <c r="E922">
-        <v>1529099</v>
+        <v>1555935</v>
       </c>
       <c r="F922" t="s">
         <v>30</v>
@@ -33405,13 +33405,13 @@
         <v>12</v>
       </c>
       <c r="C923">
-        <v>11581</v>
+        <v>11619</v>
       </c>
       <c r="D923">
         <v>1950</v>
       </c>
       <c r="E923">
-        <v>72240308</v>
+        <v>72508284</v>
       </c>
       <c r="F923" t="s">
         <v>30</v>
@@ -33440,13 +33440,13 @@
         <v>12</v>
       </c>
       <c r="C924">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D924">
         <v>8</v>
       </c>
       <c r="E924">
-        <v>1672176</v>
+        <v>1872176</v>
       </c>
       <c r="F924" t="s">
         <v>30</v>
@@ -33475,13 +33475,13 @@
         <v>12</v>
       </c>
       <c r="C925">
-        <v>4227</v>
+        <v>4240</v>
       </c>
       <c r="D925">
         <v>646</v>
       </c>
       <c r="E925">
-        <v>26837665</v>
+        <v>26942853</v>
       </c>
       <c r="F925" t="s">
         <v>30</v>
@@ -33615,13 +33615,13 @@
         <v>12</v>
       </c>
       <c r="C929">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="D929">
         <v>135</v>
       </c>
       <c r="E929">
-        <v>3913480</v>
+        <v>4098592</v>
       </c>
       <c r="F929" t="s">
         <v>30</v>
@@ -33650,13 +33650,13 @@
         <v>12</v>
       </c>
       <c r="C930">
-        <v>124653</v>
+        <v>124872</v>
       </c>
       <c r="D930">
-        <v>26911</v>
+        <v>26913</v>
       </c>
       <c r="E930">
-        <v>211616545</v>
+        <v>212135371</v>
       </c>
       <c r="F930" t="s">
         <v>30</v>
@@ -33755,13 +33755,13 @@
         <v>12</v>
       </c>
       <c r="C933">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="D933">
         <v>142</v>
       </c>
       <c r="E933">
-        <v>7179211</v>
+        <v>7212442</v>
       </c>
       <c r="F933" t="s">
         <v>30</v>
@@ -33790,13 +33790,13 @@
         <v>12</v>
       </c>
       <c r="C934">
-        <v>51185</v>
+        <v>51338</v>
       </c>
       <c r="D934">
-        <v>10109</v>
+        <v>10112</v>
       </c>
       <c r="E934">
-        <v>256038551</v>
+        <v>257037662</v>
       </c>
       <c r="F934" t="s">
         <v>30</v>
@@ -33860,13 +33860,13 @@
         <v>12</v>
       </c>
       <c r="C936">
-        <v>36967</v>
+        <v>37077</v>
       </c>
       <c r="D936">
-        <v>6890</v>
+        <v>6892</v>
       </c>
       <c r="E936">
-        <v>183646975</v>
+        <v>184288415</v>
       </c>
       <c r="F936" t="s">
         <v>30</v>
@@ -33895,13 +33895,13 @@
         <v>12</v>
       </c>
       <c r="C937">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D937">
         <v>24</v>
       </c>
       <c r="E937">
-        <v>4909912</v>
+        <v>4973342</v>
       </c>
       <c r="F937" t="s">
         <v>30</v>
@@ -33930,13 +33930,13 @@
         <v>12</v>
       </c>
       <c r="C938">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D938">
         <v>366</v>
       </c>
       <c r="E938">
-        <v>5656325</v>
+        <v>5659325</v>
       </c>
       <c r="F938" t="s">
         <v>30</v>
@@ -33965,13 +33965,13 @@
         <v>12</v>
       </c>
       <c r="C939">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="D939">
         <v>440</v>
       </c>
       <c r="E939">
-        <v>9935738</v>
+        <v>9957328</v>
       </c>
       <c r="F939" t="s">
         <v>30</v>
@@ -34000,13 +34000,13 @@
         <v>12</v>
       </c>
       <c r="C940">
-        <v>63479</v>
+        <v>63609</v>
       </c>
       <c r="D940">
         <v>13581</v>
       </c>
       <c r="E940">
-        <v>109114139</v>
+        <v>109393242</v>
       </c>
       <c r="F940" t="s">
         <v>30</v>
@@ -34105,13 +34105,13 @@
         <v>12</v>
       </c>
       <c r="C943">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D943">
         <v>56</v>
       </c>
       <c r="E943">
-        <v>2464678</v>
+        <v>2474678</v>
       </c>
       <c r="F943" t="s">
         <v>30</v>
@@ -34140,13 +34140,13 @@
         <v>12</v>
       </c>
       <c r="C944">
-        <v>28452</v>
+        <v>28551</v>
       </c>
       <c r="D944">
         <v>5370</v>
       </c>
       <c r="E944">
-        <v>134373770</v>
+        <v>135025964</v>
       </c>
       <c r="F944" t="s">
         <v>30</v>
@@ -34175,13 +34175,13 @@
         <v>12</v>
       </c>
       <c r="C945">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D945">
         <v>16</v>
       </c>
       <c r="E945">
-        <v>2244613</v>
+        <v>2313301</v>
       </c>
       <c r="F945" t="s">
         <v>30</v>
@@ -34210,13 +34210,13 @@
         <v>12</v>
       </c>
       <c r="C946">
-        <v>18132</v>
+        <v>18186</v>
       </c>
       <c r="D946">
         <v>3294</v>
       </c>
       <c r="E946">
-        <v>86444591</v>
+        <v>86836632</v>
       </c>
       <c r="F946" t="s">
         <v>30</v>
@@ -34245,13 +34245,13 @@
         <v>12</v>
       </c>
       <c r="C947">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D947">
         <v>3</v>
       </c>
       <c r="E947">
-        <v>192448</v>
+        <v>217411</v>
       </c>
       <c r="F947" t="s">
         <v>30</v>
@@ -34280,13 +34280,13 @@
         <v>12</v>
       </c>
       <c r="C948">
-        <v>2083</v>
+        <v>2094</v>
       </c>
       <c r="D948">
         <v>549</v>
       </c>
       <c r="E948">
-        <v>12108922</v>
+        <v>12209046</v>
       </c>
       <c r="F948" t="s">
         <v>30</v>
@@ -34315,13 +34315,13 @@
         <v>12</v>
       </c>
       <c r="C949">
-        <v>2361</v>
+        <v>2373</v>
       </c>
       <c r="D949">
         <v>344</v>
       </c>
       <c r="E949">
-        <v>8164720</v>
+        <v>8231256</v>
       </c>
       <c r="F949" t="s">
         <v>30</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1170,13 +1170,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>37047</v>
+        <v>37114</v>
       </c>
       <c r="D2">
-        <v>9004</v>
+        <v>9005</v>
       </c>
       <c r="E2">
-        <v>67999759</v>
+        <v>68136677</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1275,13 +1275,13 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D5">
         <v>34</v>
       </c>
       <c r="E5">
-        <v>1554728</v>
+        <v>1566228</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1310,13 +1310,13 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>17037</v>
+        <v>17077</v>
       </c>
       <c r="D6">
         <v>3779</v>
       </c>
       <c r="E6">
-        <v>78478942</v>
+        <v>78769411</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1380,13 +1380,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>9549</v>
+        <v>9567</v>
       </c>
       <c r="D8">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E8">
-        <v>49851164</v>
+        <v>50086556</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1415,13 +1415,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D9">
         <v>127</v>
       </c>
       <c r="E9">
-        <v>1292270</v>
+        <v>1293770</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1450,13 +1450,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="D10">
         <v>240</v>
       </c>
       <c r="E10">
-        <v>6739170</v>
+        <v>6764920</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1485,13 +1485,13 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>25303</v>
+        <v>25350</v>
       </c>
       <c r="D11">
         <v>5733</v>
       </c>
       <c r="E11">
-        <v>47313241</v>
+        <v>47431219</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1625,13 +1625,13 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>8593</v>
+        <v>8601</v>
       </c>
       <c r="D15">
         <v>1803</v>
       </c>
       <c r="E15">
-        <v>38936969</v>
+        <v>38986679</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1695,13 +1695,13 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>4353</v>
+        <v>4360</v>
       </c>
       <c r="D17">
         <v>830</v>
       </c>
       <c r="E17">
-        <v>22332280</v>
+        <v>22359322</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1730,13 +1730,13 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>1240</v>
+        <v>1251</v>
       </c>
       <c r="D18">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E18">
-        <v>2105529</v>
+        <v>2118083</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1800,13 +1800,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>32882</v>
+        <v>32945</v>
       </c>
       <c r="D20">
-        <v>6881</v>
+        <v>6882</v>
       </c>
       <c r="E20">
-        <v>61828405</v>
+        <v>61987837</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1940,13 +1940,13 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>13336</v>
+        <v>13357</v>
       </c>
       <c r="D24">
         <v>2530</v>
       </c>
       <c r="E24">
-        <v>63228102</v>
+        <v>63382706</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -2010,13 +2010,13 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="D26">
         <v>901</v>
       </c>
       <c r="E26">
-        <v>27227622</v>
+        <v>27521540</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -2045,13 +2045,13 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D27">
         <v>181</v>
       </c>
       <c r="E27">
-        <v>1964032</v>
+        <v>1973514</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -2080,13 +2080,13 @@
         <v>12</v>
       </c>
       <c r="C28">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D28">
         <v>192</v>
       </c>
       <c r="E28">
-        <v>4153452</v>
+        <v>4154876</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -2115,13 +2115,13 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>15959</v>
+        <v>16007</v>
       </c>
       <c r="D29">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="E29">
-        <v>33280232</v>
+        <v>33401849</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -2220,13 +2220,13 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>4431</v>
+        <v>4444</v>
       </c>
       <c r="D32">
         <v>887</v>
       </c>
       <c r="E32">
-        <v>21080843</v>
+        <v>21167468</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -2290,13 +2290,13 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="D34">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E34">
-        <v>9598382</v>
+        <v>9647197</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -2325,13 +2325,13 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="D35">
         <v>392</v>
       </c>
       <c r="E35">
-        <v>1722233</v>
+        <v>1734050</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -2395,13 +2395,13 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D37">
         <v>83</v>
       </c>
       <c r="E37">
-        <v>1883452</v>
+        <v>1898913</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -2430,13 +2430,13 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>48718</v>
+        <v>48793</v>
       </c>
       <c r="D38">
         <v>10751</v>
       </c>
       <c r="E38">
-        <v>82037094</v>
+        <v>82205419</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -2570,13 +2570,13 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>20115</v>
+        <v>20155</v>
       </c>
       <c r="D42">
         <v>4096</v>
       </c>
       <c r="E42">
-        <v>93382143</v>
+        <v>93640256</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -2640,13 +2640,13 @@
         <v>12</v>
       </c>
       <c r="C44">
-        <v>11336</v>
+        <v>11355</v>
       </c>
       <c r="D44">
         <v>2153</v>
       </c>
       <c r="E44">
-        <v>57740365</v>
+        <v>57869795</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -2710,13 +2710,13 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D46">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E46">
-        <v>3203513</v>
+        <v>3205013</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -2745,13 +2745,13 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>2278</v>
+        <v>2284</v>
       </c>
       <c r="D47">
         <v>355</v>
       </c>
       <c r="E47">
-        <v>8136454</v>
+        <v>8177396</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2780,13 +2780,13 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>18169</v>
+        <v>18198</v>
       </c>
       <c r="D48">
         <v>4061</v>
       </c>
       <c r="E48">
-        <v>36936032</v>
+        <v>37025879</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2850,13 +2850,13 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D50">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1393239</v>
+        <v>1400554</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2885,13 +2885,13 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>7040</v>
+        <v>7057</v>
       </c>
       <c r="D51">
         <v>1455</v>
       </c>
       <c r="E51">
-        <v>31861692</v>
+        <v>32037144</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2955,13 +2955,13 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="D53">
         <v>567</v>
       </c>
       <c r="E53">
-        <v>14102730</v>
+        <v>14133154</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -3025,13 +3025,13 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D55">
         <v>145</v>
       </c>
       <c r="E55">
-        <v>2798207</v>
+        <v>2844214</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -3060,13 +3060,13 @@
         <v>12</v>
       </c>
       <c r="C56">
-        <v>94127</v>
+        <v>94390</v>
       </c>
       <c r="D56">
-        <v>18743</v>
+        <v>18745</v>
       </c>
       <c r="E56">
-        <v>195620704</v>
+        <v>196601379</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -3130,13 +3130,13 @@
         <v>12</v>
       </c>
       <c r="C58">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D58">
         <v>57</v>
       </c>
       <c r="E58">
-        <v>2206685</v>
+        <v>2226685</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
@@ -3165,13 +3165,13 @@
         <v>12</v>
       </c>
       <c r="C59">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D59">
         <v>68</v>
       </c>
       <c r="E59">
-        <v>3386758</v>
+        <v>3596758</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -3235,13 +3235,13 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>44443</v>
+        <v>44622</v>
       </c>
       <c r="D61">
-        <v>8040</v>
+        <v>8042</v>
       </c>
       <c r="E61">
-        <v>282353847</v>
+        <v>284215693</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -3270,13 +3270,13 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D62">
         <v>37</v>
       </c>
       <c r="E62">
-        <v>7376625</v>
+        <v>7395013</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -3340,13 +3340,13 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>19342</v>
+        <v>19422</v>
       </c>
       <c r="D64">
-        <v>3484</v>
+        <v>3488</v>
       </c>
       <c r="E64">
-        <v>157560792</v>
+        <v>158799275</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -3410,13 +3410,13 @@
         <v>12</v>
       </c>
       <c r="C66">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D66">
         <v>232</v>
       </c>
       <c r="E66">
-        <v>2278326</v>
+        <v>2298326</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
@@ -3480,13 +3480,13 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="D68">
         <v>298</v>
       </c>
       <c r="E68">
-        <v>12399380</v>
+        <v>12428198</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
@@ -3515,13 +3515,13 @@
         <v>12</v>
       </c>
       <c r="C69">
-        <v>102664</v>
+        <v>102782</v>
       </c>
       <c r="D69">
-        <v>22819</v>
+        <v>22821</v>
       </c>
       <c r="E69">
-        <v>183194942</v>
+        <v>183505520</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
@@ -3690,13 +3690,13 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <v>47410</v>
+        <v>47526</v>
       </c>
       <c r="D74">
-        <v>9657</v>
+        <v>9659</v>
       </c>
       <c r="E74">
-        <v>232720274</v>
+        <v>233527891</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
@@ -3760,13 +3760,13 @@
         <v>12</v>
       </c>
       <c r="C76">
-        <v>26621</v>
+        <v>26678</v>
       </c>
       <c r="D76">
-        <v>5041</v>
+        <v>5043</v>
       </c>
       <c r="E76">
-        <v>140419680</v>
+        <v>141132137</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
@@ -3830,13 +3830,13 @@
         <v>12</v>
       </c>
       <c r="C78">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D78">
         <v>224</v>
       </c>
       <c r="E78">
-        <v>1805554</v>
+        <v>1808554</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
@@ -3900,13 +3900,13 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>3486</v>
+        <v>3489</v>
       </c>
       <c r="D80">
         <v>605</v>
       </c>
       <c r="E80">
-        <v>16479431</v>
+        <v>16493346</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
@@ -3935,13 +3935,13 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>53617</v>
+        <v>53698</v>
       </c>
       <c r="D81">
         <v>11909</v>
       </c>
       <c r="E81">
-        <v>95058573</v>
+        <v>95257986</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
@@ -4005,13 +4005,13 @@
         <v>12</v>
       </c>
       <c r="C83">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D83">
         <v>80</v>
       </c>
       <c r="E83">
-        <v>2850913</v>
+        <v>2858241</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
@@ -4040,13 +4040,13 @@
         <v>12</v>
       </c>
       <c r="C84">
-        <v>21744</v>
+        <v>21793</v>
       </c>
       <c r="D84">
         <v>4754</v>
       </c>
       <c r="E84">
-        <v>96859438</v>
+        <v>97191255</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -4075,13 +4075,13 @@
         <v>12</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85">
         <v>17</v>
       </c>
       <c r="E85">
-        <v>1769778</v>
+        <v>1804159</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
@@ -4145,13 +4145,13 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>13450</v>
+        <v>13483</v>
       </c>
       <c r="D87">
         <v>2744</v>
       </c>
       <c r="E87">
-        <v>63908925</v>
+        <v>64150691</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -4215,13 +4215,13 @@
         <v>12</v>
       </c>
       <c r="C89">
-        <v>2774</v>
+        <v>2780</v>
       </c>
       <c r="D89">
         <v>456</v>
       </c>
       <c r="E89">
-        <v>10513900</v>
+        <v>10538479</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -4250,13 +4250,13 @@
         <v>12</v>
       </c>
       <c r="C90">
-        <v>48477</v>
+        <v>48573</v>
       </c>
       <c r="D90">
         <v>10640</v>
       </c>
       <c r="E90">
-        <v>86701177</v>
+        <v>86962499</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
@@ -4355,13 +4355,13 @@
         <v>12</v>
       </c>
       <c r="C93">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D93">
         <v>41</v>
       </c>
       <c r="E93">
-        <v>1870460</v>
+        <v>1880460</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
@@ -4390,13 +4390,13 @@
         <v>12</v>
       </c>
       <c r="C94">
-        <v>24586</v>
+        <v>24651</v>
       </c>
       <c r="D94">
         <v>4829</v>
       </c>
       <c r="E94">
-        <v>117460400</v>
+        <v>118008548</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
@@ -4460,13 +4460,13 @@
         <v>12</v>
       </c>
       <c r="C96">
-        <v>9630</v>
+        <v>9653</v>
       </c>
       <c r="D96">
         <v>1854</v>
       </c>
       <c r="E96">
-        <v>53245652</v>
+        <v>53416104</v>
       </c>
       <c r="F96" t="s">
         <v>13</v>
@@ -4530,13 +4530,13 @@
         <v>12</v>
       </c>
       <c r="C98">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D98">
         <v>155</v>
       </c>
       <c r="E98">
-        <v>1056915</v>
+        <v>1059915</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
@@ -4565,13 +4565,13 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="D99">
         <v>279</v>
       </c>
       <c r="E99">
-        <v>7154939</v>
+        <v>7171697</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -4600,13 +4600,13 @@
         <v>12</v>
       </c>
       <c r="C100">
-        <v>179883</v>
+        <v>180196</v>
       </c>
       <c r="D100">
-        <v>37706</v>
+        <v>37708</v>
       </c>
       <c r="E100">
-        <v>300185575</v>
+        <v>300878893</v>
       </c>
       <c r="F100" t="s">
         <v>13</v>
@@ -4635,13 +4635,13 @@
         <v>12</v>
       </c>
       <c r="C101">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D101">
         <v>11</v>
       </c>
       <c r="E101">
-        <v>116739</v>
+        <v>122694</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
@@ -4705,13 +4705,13 @@
         <v>12</v>
       </c>
       <c r="C103">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D103">
         <v>112</v>
       </c>
       <c r="E103">
-        <v>4094257</v>
+        <v>4119734</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
@@ -4775,13 +4775,13 @@
         <v>12</v>
       </c>
       <c r="C105">
-        <v>79880</v>
+        <v>80124</v>
       </c>
       <c r="D105">
-        <v>16051</v>
+        <v>16053</v>
       </c>
       <c r="E105">
-        <v>373431437</v>
+        <v>375223483</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -4810,13 +4810,13 @@
         <v>12</v>
       </c>
       <c r="C106">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D106">
         <v>37</v>
       </c>
       <c r="E106">
-        <v>2905225</v>
+        <v>2909627</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
@@ -4845,13 +4845,13 @@
         <v>12</v>
       </c>
       <c r="C107">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D107">
         <v>6</v>
       </c>
       <c r="E107">
-        <v>1453359</v>
+        <v>1653359</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
@@ -4880,13 +4880,13 @@
         <v>12</v>
       </c>
       <c r="C108">
-        <v>58289</v>
+        <v>58460</v>
       </c>
       <c r="D108">
-        <v>10894</v>
+        <v>10897</v>
       </c>
       <c r="E108">
-        <v>297291467</v>
+        <v>299158574</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
@@ -4950,13 +4950,13 @@
         <v>12</v>
       </c>
       <c r="C110">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="D110">
         <v>432</v>
       </c>
       <c r="E110">
-        <v>5319921</v>
+        <v>5371706</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
@@ -5020,13 +5020,13 @@
         <v>12</v>
       </c>
       <c r="C112">
-        <v>7201</v>
+        <v>7243</v>
       </c>
       <c r="D112">
         <v>1132</v>
       </c>
       <c r="E112">
-        <v>30048514</v>
+        <v>30643446</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
@@ -5090,13 +5090,13 @@
         <v>12</v>
       </c>
       <c r="C114">
-        <v>84248</v>
+        <v>84482</v>
       </c>
       <c r="D114">
-        <v>14273</v>
+        <v>14276</v>
       </c>
       <c r="E114">
-        <v>205665127</v>
+        <v>206643520</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
@@ -5125,13 +5125,13 @@
         <v>12</v>
       </c>
       <c r="C115">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D115">
         <v>69</v>
       </c>
       <c r="E115">
-        <v>840585</v>
+        <v>849729</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
@@ -5195,13 +5195,13 @@
         <v>12</v>
       </c>
       <c r="C117">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D117">
         <v>83</v>
       </c>
       <c r="E117">
-        <v>6290657</v>
+        <v>6309972</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
@@ -5265,13 +5265,13 @@
         <v>12</v>
       </c>
       <c r="C119">
-        <v>37012</v>
+        <v>37123</v>
       </c>
       <c r="D119">
-        <v>6195</v>
+        <v>6196</v>
       </c>
       <c r="E119">
-        <v>273839093</v>
+        <v>274970023</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
@@ -5300,13 +5300,13 @@
         <v>12</v>
       </c>
       <c r="C120">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D120">
         <v>50</v>
       </c>
       <c r="E120">
-        <v>13836106</v>
+        <v>14000764</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
@@ -5335,13 +5335,13 @@
         <v>12</v>
       </c>
       <c r="C121">
-        <v>13271</v>
+        <v>13317</v>
       </c>
       <c r="D121">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="E121">
-        <v>140932007</v>
+        <v>141656322</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
@@ -5475,13 +5475,13 @@
         <v>12</v>
       </c>
       <c r="C125">
-        <v>1486</v>
+        <v>1494</v>
       </c>
       <c r="D125">
         <v>270</v>
       </c>
       <c r="E125">
-        <v>9812641</v>
+        <v>10054631</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
@@ -5510,13 +5510,13 @@
         <v>12</v>
       </c>
       <c r="C126">
-        <v>34190</v>
+        <v>34237</v>
       </c>
       <c r="D126">
-        <v>7711</v>
+        <v>7712</v>
       </c>
       <c r="E126">
-        <v>58557390</v>
+        <v>58683858</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -5615,13 +5615,13 @@
         <v>12</v>
       </c>
       <c r="C129">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D129">
         <v>30</v>
       </c>
       <c r="E129">
-        <v>1150143</v>
+        <v>1151643</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -5650,13 +5650,13 @@
         <v>12</v>
       </c>
       <c r="C130">
-        <v>21129</v>
+        <v>21179</v>
       </c>
       <c r="D130">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E130">
-        <v>110358407</v>
+        <v>111041570</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -5685,13 +5685,13 @@
         <v>12</v>
       </c>
       <c r="C131">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D131">
         <v>21</v>
       </c>
       <c r="E131">
-        <v>3517573</v>
+        <v>3576887</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -5720,13 +5720,13 @@
         <v>12</v>
       </c>
       <c r="C132">
-        <v>6815</v>
+        <v>6836</v>
       </c>
       <c r="D132">
         <v>1292</v>
       </c>
       <c r="E132">
-        <v>41331760</v>
+        <v>41968980</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -5790,13 +5790,13 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D134">
         <v>324</v>
       </c>
       <c r="E134">
-        <v>5677529</v>
+        <v>5722894</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
@@ -5825,13 +5825,13 @@
         <v>12</v>
       </c>
       <c r="C135">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="D135">
         <v>218</v>
       </c>
       <c r="E135">
-        <v>5793838</v>
+        <v>5860084</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -5860,13 +5860,13 @@
         <v>12</v>
       </c>
       <c r="C136">
-        <v>29533</v>
+        <v>29618</v>
       </c>
       <c r="D136">
-        <v>6631</v>
+        <v>6632</v>
       </c>
       <c r="E136">
-        <v>52007088</v>
+        <v>52273949</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -5965,13 +5965,13 @@
         <v>12</v>
       </c>
       <c r="C139">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D139">
         <v>29</v>
       </c>
       <c r="E139">
-        <v>791108</v>
+        <v>801108</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
@@ -6000,13 +6000,13 @@
         <v>12</v>
       </c>
       <c r="C140">
-        <v>16205</v>
+        <v>16275</v>
       </c>
       <c r="D140">
         <v>3407</v>
       </c>
       <c r="E140">
-        <v>78612618</v>
+        <v>79170869</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -6070,13 +6070,13 @@
         <v>12</v>
       </c>
       <c r="C142">
-        <v>5907</v>
+        <v>5935</v>
       </c>
       <c r="D142">
         <v>1163</v>
       </c>
       <c r="E142">
-        <v>30098168</v>
+        <v>30224996</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -6175,13 +6175,13 @@
         <v>12</v>
       </c>
       <c r="C145">
-        <v>1333</v>
+        <v>1341</v>
       </c>
       <c r="D145">
         <v>225</v>
       </c>
       <c r="E145">
-        <v>6295974</v>
+        <v>6360859</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -6210,13 +6210,13 @@
         <v>12</v>
       </c>
       <c r="C146">
-        <v>12902</v>
+        <v>12918</v>
       </c>
       <c r="D146">
         <v>2952</v>
       </c>
       <c r="E146">
-        <v>23072462</v>
+        <v>23104902</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
@@ -6315,13 +6315,13 @@
         <v>12</v>
       </c>
       <c r="C149">
-        <v>4944</v>
+        <v>4953</v>
       </c>
       <c r="D149">
         <v>1125</v>
       </c>
       <c r="E149">
-        <v>21329179</v>
+        <v>21386073</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -6385,13 +6385,13 @@
         <v>12</v>
       </c>
       <c r="C151">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="D151">
         <v>380</v>
       </c>
       <c r="E151">
-        <v>8791404</v>
+        <v>8804857</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
@@ -6455,13 +6455,13 @@
         <v>12</v>
       </c>
       <c r="C153">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D153">
         <v>65</v>
       </c>
       <c r="E153">
-        <v>771827</v>
+        <v>794309</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -6490,13 +6490,13 @@
         <v>12</v>
       </c>
       <c r="C154">
-        <v>16976</v>
+        <v>16999</v>
       </c>
       <c r="D154">
         <v>3760</v>
       </c>
       <c r="E154">
-        <v>31107228</v>
+        <v>31164898</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -6560,13 +6560,13 @@
         <v>12</v>
       </c>
       <c r="C156">
-        <v>7851</v>
+        <v>7868</v>
       </c>
       <c r="D156">
         <v>1629</v>
       </c>
       <c r="E156">
-        <v>39267001</v>
+        <v>39442818</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -6630,13 +6630,13 @@
         <v>12</v>
       </c>
       <c r="C158">
-        <v>4081</v>
+        <v>4088</v>
       </c>
       <c r="D158">
         <v>824</v>
       </c>
       <c r="E158">
-        <v>21304162</v>
+        <v>21351820</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -6735,13 +6735,13 @@
         <v>12</v>
       </c>
       <c r="C161">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D161">
         <v>110</v>
       </c>
       <c r="E161">
-        <v>3999220</v>
+        <v>4000324</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
@@ -6770,13 +6770,13 @@
         <v>12</v>
       </c>
       <c r="C162">
-        <v>12803</v>
+        <v>12838</v>
       </c>
       <c r="D162">
         <v>2819</v>
       </c>
       <c r="E162">
-        <v>25469285</v>
+        <v>25552640</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -6805,13 +6805,13 @@
         <v>12</v>
       </c>
       <c r="C163">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D163">
         <v>27</v>
       </c>
       <c r="E163">
-        <v>908369</v>
+        <v>913534</v>
       </c>
       <c r="F163" t="s">
         <v>14</v>
@@ -6840,13 +6840,13 @@
         <v>12</v>
       </c>
       <c r="C164">
-        <v>5242</v>
+        <v>5251</v>
       </c>
       <c r="D164">
         <v>1054</v>
       </c>
       <c r="E164">
-        <v>24578555</v>
+        <v>24640875</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -6910,13 +6910,13 @@
         <v>12</v>
       </c>
       <c r="C166">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="D166">
         <v>370</v>
       </c>
       <c r="E166">
-        <v>9853693</v>
+        <v>9869114</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
@@ -6945,13 +6945,13 @@
         <v>12</v>
       </c>
       <c r="C167">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D167">
         <v>124</v>
       </c>
       <c r="E167">
-        <v>1267895</v>
+        <v>1273800</v>
       </c>
       <c r="F167" t="s">
         <v>14</v>
@@ -6980,13 +6980,13 @@
         <v>12</v>
       </c>
       <c r="C168">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D168">
         <v>82</v>
       </c>
       <c r="E168">
-        <v>1856328</v>
+        <v>1857509</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
@@ -7015,13 +7015,13 @@
         <v>12</v>
       </c>
       <c r="C169">
-        <v>37142</v>
+        <v>37191</v>
       </c>
       <c r="D169">
         <v>8145</v>
       </c>
       <c r="E169">
-        <v>72360345</v>
+        <v>72487482</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -7155,13 +7155,13 @@
         <v>12</v>
       </c>
       <c r="C173">
-        <v>17429</v>
+        <v>17465</v>
       </c>
       <c r="D173">
         <v>3514</v>
       </c>
       <c r="E173">
-        <v>84343267</v>
+        <v>84584633</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -7225,13 +7225,13 @@
         <v>12</v>
       </c>
       <c r="C175">
-        <v>6758</v>
+        <v>6775</v>
       </c>
       <c r="D175">
         <v>1291</v>
       </c>
       <c r="E175">
-        <v>38567772</v>
+        <v>38733141</v>
       </c>
       <c r="F175" t="s">
         <v>14</v>
@@ -7295,13 +7295,13 @@
         <v>12</v>
       </c>
       <c r="C177">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="D177">
         <v>415</v>
       </c>
       <c r="E177">
-        <v>4399358</v>
+        <v>4445548</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
@@ -7330,13 +7330,13 @@
         <v>12</v>
       </c>
       <c r="C178">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D178">
         <v>240</v>
       </c>
       <c r="E178">
-        <v>6051701</v>
+        <v>6057770</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
@@ -7365,13 +7365,13 @@
         <v>12</v>
       </c>
       <c r="C179">
-        <v>6631</v>
+        <v>6642</v>
       </c>
       <c r="D179">
         <v>1516</v>
       </c>
       <c r="E179">
-        <v>12362059</v>
+        <v>12400036</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -7435,13 +7435,13 @@
         <v>12</v>
       </c>
       <c r="C181">
-        <v>4023</v>
+        <v>4040</v>
       </c>
       <c r="D181">
         <v>835</v>
       </c>
       <c r="E181">
-        <v>21016524</v>
+        <v>21094219</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
@@ -7470,13 +7470,13 @@
         <v>12</v>
       </c>
       <c r="C182">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
       <c r="E182">
-        <v>63768</v>
+        <v>68748</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
@@ -7505,13 +7505,13 @@
         <v>12</v>
       </c>
       <c r="C183">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="D183">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E183">
-        <v>6575324</v>
+        <v>6609545</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -7575,13 +7575,13 @@
         <v>12</v>
       </c>
       <c r="C185">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D185">
         <v>31</v>
       </c>
       <c r="E185">
-        <v>1712462</v>
+        <v>1727030</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -7610,13 +7610,13 @@
         <v>12</v>
       </c>
       <c r="C186">
-        <v>19775</v>
+        <v>19809</v>
       </c>
       <c r="D186">
         <v>4501</v>
       </c>
       <c r="E186">
-        <v>36675370</v>
+        <v>36750949</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -7680,13 +7680,13 @@
         <v>12</v>
       </c>
       <c r="C188">
-        <v>8701</v>
+        <v>8721</v>
       </c>
       <c r="D188">
         <v>1799</v>
       </c>
       <c r="E188">
-        <v>41013891</v>
+        <v>41318218</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -7715,13 +7715,13 @@
         <v>12</v>
       </c>
       <c r="C189">
-        <v>4333</v>
+        <v>4340</v>
       </c>
       <c r="D189">
         <v>866</v>
       </c>
       <c r="E189">
-        <v>22242852</v>
+        <v>22286718</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -7750,13 +7750,13 @@
         <v>12</v>
       </c>
       <c r="C190">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="D190">
         <v>223</v>
       </c>
       <c r="E190">
-        <v>5386695</v>
+        <v>5438105</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -7785,13 +7785,13 @@
         <v>12</v>
       </c>
       <c r="C191">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D191">
         <v>117</v>
       </c>
       <c r="E191">
-        <v>2602377</v>
+        <v>2606015</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -7820,13 +7820,13 @@
         <v>12</v>
       </c>
       <c r="C192">
-        <v>36512</v>
+        <v>36581</v>
       </c>
       <c r="D192">
-        <v>8473</v>
+        <v>8475</v>
       </c>
       <c r="E192">
-        <v>74905269</v>
+        <v>75125778</v>
       </c>
       <c r="F192" t="s">
         <v>15</v>
@@ -7925,13 +7925,13 @@
         <v>12</v>
       </c>
       <c r="C195">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D195">
         <v>118</v>
       </c>
       <c r="E195">
-        <v>5550959</v>
+        <v>5552459</v>
       </c>
       <c r="F195" t="s">
         <v>15</v>
@@ -7960,13 +7960,13 @@
         <v>12</v>
       </c>
       <c r="C196">
-        <v>20705</v>
+        <v>20760</v>
       </c>
       <c r="D196">
         <v>4184</v>
       </c>
       <c r="E196">
-        <v>104373923</v>
+        <v>104880212</v>
       </c>
       <c r="F196" t="s">
         <v>15</v>
@@ -8030,13 +8030,13 @@
         <v>12</v>
       </c>
       <c r="C198">
-        <v>3787</v>
+        <v>3796</v>
       </c>
       <c r="D198">
         <v>751</v>
       </c>
       <c r="E198">
-        <v>25261413</v>
+        <v>25439331</v>
       </c>
       <c r="F198" t="s">
         <v>15</v>
@@ -8100,13 +8100,13 @@
         <v>12</v>
       </c>
       <c r="C200">
-        <v>1582</v>
+        <v>1593</v>
       </c>
       <c r="D200">
         <v>257</v>
       </c>
       <c r="E200">
-        <v>6666690</v>
+        <v>6724801</v>
       </c>
       <c r="F200" t="s">
         <v>15</v>
@@ -8135,13 +8135,13 @@
         <v>12</v>
       </c>
       <c r="C201">
-        <v>54629</v>
+        <v>54713</v>
       </c>
       <c r="D201">
-        <v>13167</v>
+        <v>13168</v>
       </c>
       <c r="E201">
-        <v>110410177</v>
+        <v>110651259</v>
       </c>
       <c r="F201" t="s">
         <v>15</v>
@@ -8205,13 +8205,13 @@
         <v>12</v>
       </c>
       <c r="C203">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D203">
         <v>9</v>
       </c>
       <c r="E203">
-        <v>51317</v>
+        <v>51872</v>
       </c>
       <c r="F203" t="s">
         <v>15</v>
@@ -8240,13 +8240,13 @@
         <v>12</v>
       </c>
       <c r="C204">
-        <v>1489</v>
+        <v>1495</v>
       </c>
       <c r="D204">
         <v>198</v>
       </c>
       <c r="E204">
-        <v>10282327</v>
+        <v>10333015</v>
       </c>
       <c r="F204" t="s">
         <v>15</v>
@@ -8275,13 +8275,13 @@
         <v>12</v>
       </c>
       <c r="C205">
-        <v>28703</v>
+        <v>28752</v>
       </c>
       <c r="D205">
-        <v>5712</v>
+        <v>5713</v>
       </c>
       <c r="E205">
-        <v>150130490</v>
+        <v>150685312</v>
       </c>
       <c r="F205" t="s">
         <v>15</v>
@@ -8380,13 +8380,13 @@
         <v>12</v>
       </c>
       <c r="C208">
-        <v>8254</v>
+        <v>8280</v>
       </c>
       <c r="D208">
         <v>1577</v>
       </c>
       <c r="E208">
-        <v>54637405</v>
+        <v>55062320</v>
       </c>
       <c r="F208" t="s">
         <v>15</v>
@@ -8450,13 +8450,13 @@
         <v>12</v>
       </c>
       <c r="C210">
-        <v>2171</v>
+        <v>2178</v>
       </c>
       <c r="D210">
         <v>399</v>
       </c>
       <c r="E210">
-        <v>10777171</v>
+        <v>10816048</v>
       </c>
       <c r="F210" t="s">
         <v>15</v>
@@ -8485,13 +8485,13 @@
         <v>12</v>
       </c>
       <c r="C211">
-        <v>61694</v>
+        <v>61803</v>
       </c>
       <c r="D211">
-        <v>14417</v>
+        <v>14418</v>
       </c>
       <c r="E211">
-        <v>112185901</v>
+        <v>112449165</v>
       </c>
       <c r="F211" t="s">
         <v>15</v>
@@ -8590,13 +8590,13 @@
         <v>12</v>
       </c>
       <c r="C214">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="D214">
         <v>162</v>
       </c>
       <c r="E214">
-        <v>7105813</v>
+        <v>7134095</v>
       </c>
       <c r="F214" t="s">
         <v>15</v>
@@ -8625,13 +8625,13 @@
         <v>12</v>
       </c>
       <c r="C215">
-        <v>40959</v>
+        <v>41073</v>
       </c>
       <c r="D215">
-        <v>8231</v>
+        <v>8233</v>
       </c>
       <c r="E215">
-        <v>220657279</v>
+        <v>221884843</v>
       </c>
       <c r="F215" t="s">
         <v>15</v>
@@ -8730,13 +8730,13 @@
         <v>12</v>
       </c>
       <c r="C218">
-        <v>8212</v>
+        <v>8238</v>
       </c>
       <c r="D218">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="E218">
-        <v>56110423</v>
+        <v>56595386</v>
       </c>
       <c r="F218" t="s">
         <v>15</v>
@@ -8835,13 +8835,13 @@
         <v>12</v>
       </c>
       <c r="C221">
-        <v>3024</v>
+        <v>3039</v>
       </c>
       <c r="D221">
         <v>508</v>
       </c>
       <c r="E221">
-        <v>14508785</v>
+        <v>14616288</v>
       </c>
       <c r="F221" t="s">
         <v>15</v>
@@ -8870,13 +8870,13 @@
         <v>12</v>
       </c>
       <c r="C222">
-        <v>52127</v>
+        <v>52206</v>
       </c>
       <c r="D222">
         <v>12087</v>
       </c>
       <c r="E222">
-        <v>100505529</v>
+        <v>100730981</v>
       </c>
       <c r="F222" t="s">
         <v>15</v>
@@ -8975,13 +8975,13 @@
         <v>12</v>
       </c>
       <c r="C225">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="D225">
         <v>165</v>
       </c>
       <c r="E225">
-        <v>8630722</v>
+        <v>8664469</v>
       </c>
       <c r="F225" t="s">
         <v>15</v>
@@ -9045,13 +9045,13 @@
         <v>12</v>
       </c>
       <c r="C227">
-        <v>30774</v>
+        <v>30849</v>
       </c>
       <c r="D227">
         <v>6104</v>
       </c>
       <c r="E227">
-        <v>158632196</v>
+        <v>159357351</v>
       </c>
       <c r="F227" t="s">
         <v>15</v>
@@ -9115,13 +9115,13 @@
         <v>12</v>
       </c>
       <c r="C229">
-        <v>7628</v>
+        <v>7655</v>
       </c>
       <c r="D229">
         <v>1505</v>
       </c>
       <c r="E229">
-        <v>46132274</v>
+        <v>46379937</v>
       </c>
       <c r="F229" t="s">
         <v>15</v>
@@ -9185,13 +9185,13 @@
         <v>12</v>
       </c>
       <c r="C231">
-        <v>1876</v>
+        <v>1885</v>
       </c>
       <c r="D231">
         <v>299</v>
       </c>
       <c r="E231">
-        <v>8572617</v>
+        <v>8639877</v>
       </c>
       <c r="F231" t="s">
         <v>15</v>
@@ -9220,13 +9220,13 @@
         <v>12</v>
       </c>
       <c r="C232">
-        <v>16973</v>
+        <v>16996</v>
       </c>
       <c r="D232">
-        <v>3895</v>
+        <v>3896</v>
       </c>
       <c r="E232">
-        <v>33654171</v>
+        <v>33722650</v>
       </c>
       <c r="F232" t="s">
         <v>16</v>
@@ -9290,13 +9290,13 @@
         <v>12</v>
       </c>
       <c r="C234">
-        <v>6863</v>
+        <v>6874</v>
       </c>
       <c r="D234">
         <v>1446</v>
       </c>
       <c r="E234">
-        <v>31010170</v>
+        <v>31116699</v>
       </c>
       <c r="F234" t="s">
         <v>16</v>
@@ -9360,13 +9360,13 @@
         <v>12</v>
       </c>
       <c r="C236">
-        <v>2796</v>
+        <v>2802</v>
       </c>
       <c r="D236">
         <v>565</v>
       </c>
       <c r="E236">
-        <v>14629399</v>
+        <v>14669961</v>
       </c>
       <c r="F236" t="s">
         <v>16</v>
@@ -9395,13 +9395,13 @@
         <v>12</v>
       </c>
       <c r="C237">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D237">
         <v>199</v>
       </c>
       <c r="E237">
-        <v>3987489</v>
+        <v>3987922</v>
       </c>
       <c r="F237" t="s">
         <v>16</v>
@@ -9465,13 +9465,13 @@
         <v>12</v>
       </c>
       <c r="C239">
-        <v>20632</v>
+        <v>20650</v>
       </c>
       <c r="D239">
         <v>4832</v>
       </c>
       <c r="E239">
-        <v>38847910</v>
+        <v>38892289</v>
       </c>
       <c r="F239" t="s">
         <v>16</v>
@@ -9535,13 +9535,13 @@
         <v>12</v>
       </c>
       <c r="C241">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D241">
         <v>42</v>
       </c>
       <c r="E241">
-        <v>1600204</v>
+        <v>1610204</v>
       </c>
       <c r="F241" t="s">
         <v>16</v>
@@ -9570,13 +9570,13 @@
         <v>12</v>
       </c>
       <c r="C242">
-        <v>9897</v>
+        <v>9922</v>
       </c>
       <c r="D242">
         <v>2227</v>
       </c>
       <c r="E242">
-        <v>44863200</v>
+        <v>45090714</v>
       </c>
       <c r="F242" t="s">
         <v>16</v>
@@ -9640,13 +9640,13 @@
         <v>12</v>
       </c>
       <c r="C244">
-        <v>5449</v>
+        <v>5461</v>
       </c>
       <c r="D244">
         <v>1126</v>
       </c>
       <c r="E244">
-        <v>22963141</v>
+        <v>23072259</v>
       </c>
       <c r="F244" t="s">
         <v>16</v>
@@ -9710,13 +9710,13 @@
         <v>12</v>
       </c>
       <c r="C246">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D246">
         <v>115</v>
       </c>
       <c r="E246">
-        <v>1989021</v>
+        <v>1991787</v>
       </c>
       <c r="F246" t="s">
         <v>16</v>
@@ -9745,13 +9745,13 @@
         <v>12</v>
       </c>
       <c r="C247">
-        <v>12519</v>
+        <v>12531</v>
       </c>
       <c r="D247">
         <v>2734</v>
       </c>
       <c r="E247">
-        <v>23877432</v>
+        <v>23912474</v>
       </c>
       <c r="F247" t="s">
         <v>16</v>
@@ -9850,13 +9850,13 @@
         <v>12</v>
       </c>
       <c r="C250">
-        <v>5012</v>
+        <v>5024</v>
       </c>
       <c r="D250">
         <v>1072</v>
       </c>
       <c r="E250">
-        <v>23428962</v>
+        <v>23508097</v>
       </c>
       <c r="F250" t="s">
         <v>16</v>
@@ -9885,13 +9885,13 @@
         <v>12</v>
       </c>
       <c r="C251">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D251">
         <v>6</v>
       </c>
       <c r="E251">
-        <v>1121924</v>
+        <v>1236706</v>
       </c>
       <c r="F251" t="s">
         <v>16</v>
@@ -9920,13 +9920,13 @@
         <v>12</v>
       </c>
       <c r="C252">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="D252">
         <v>388</v>
       </c>
       <c r="E252">
-        <v>10923808</v>
+        <v>10971332</v>
       </c>
       <c r="F252" t="s">
         <v>16</v>
@@ -9990,13 +9990,13 @@
         <v>12</v>
       </c>
       <c r="C254">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D254">
         <v>94</v>
       </c>
       <c r="E254">
-        <v>2531842</v>
+        <v>2533225</v>
       </c>
       <c r="F254" t="s">
         <v>16</v>
@@ -10025,13 +10025,13 @@
         <v>12</v>
       </c>
       <c r="C255">
-        <v>41297</v>
+        <v>41368</v>
       </c>
       <c r="D255">
-        <v>9347</v>
+        <v>9348</v>
       </c>
       <c r="E255">
-        <v>73001685</v>
+        <v>73196569</v>
       </c>
       <c r="F255" t="s">
         <v>16</v>
@@ -10060,13 +10060,13 @@
         <v>12</v>
       </c>
       <c r="C256">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D256">
         <v>3</v>
       </c>
       <c r="E256">
-        <v>42509</v>
+        <v>45383</v>
       </c>
       <c r="F256" t="s">
         <v>16</v>
@@ -10130,13 +10130,13 @@
         <v>12</v>
       </c>
       <c r="C258">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D258">
         <v>62</v>
       </c>
       <c r="E258">
-        <v>2885627</v>
+        <v>2894849</v>
       </c>
       <c r="F258" t="s">
         <v>16</v>
@@ -10165,13 +10165,13 @@
         <v>12</v>
       </c>
       <c r="C259">
-        <v>21487</v>
+        <v>21548</v>
       </c>
       <c r="D259">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E259">
-        <v>105478272</v>
+        <v>106082012</v>
       </c>
       <c r="F259" t="s">
         <v>16</v>
@@ -10270,13 +10270,13 @@
         <v>12</v>
       </c>
       <c r="C262">
-        <v>7465</v>
+        <v>7487</v>
       </c>
       <c r="D262">
         <v>1448</v>
       </c>
       <c r="E262">
-        <v>41225663</v>
+        <v>41384050</v>
       </c>
       <c r="F262" t="s">
         <v>16</v>
@@ -10305,13 +10305,13 @@
         <v>12</v>
       </c>
       <c r="C263">
-        <v>1516</v>
+        <v>1522</v>
       </c>
       <c r="D263">
         <v>349</v>
       </c>
       <c r="E263">
-        <v>7396461</v>
+        <v>7450687</v>
       </c>
       <c r="F263" t="s">
         <v>16</v>
@@ -10375,13 +10375,13 @@
         <v>12</v>
       </c>
       <c r="C265">
-        <v>1742</v>
+        <v>1749</v>
       </c>
       <c r="D265">
         <v>296</v>
       </c>
       <c r="E265">
-        <v>6758788</v>
+        <v>6783610</v>
       </c>
       <c r="F265" t="s">
         <v>16</v>
@@ -10445,13 +10445,13 @@
         <v>12</v>
       </c>
       <c r="C267">
-        <v>34480</v>
+        <v>34535</v>
       </c>
       <c r="D267">
-        <v>8093</v>
+        <v>8094</v>
       </c>
       <c r="E267">
-        <v>61147012</v>
+        <v>61262114</v>
       </c>
       <c r="F267" t="s">
         <v>16</v>
@@ -10515,13 +10515,13 @@
         <v>12</v>
       </c>
       <c r="C269">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D269">
         <v>61</v>
       </c>
       <c r="E269">
-        <v>2112848</v>
+        <v>2121599</v>
       </c>
       <c r="F269" t="s">
         <v>16</v>
@@ -10550,13 +10550,13 @@
         <v>12</v>
       </c>
       <c r="C270">
-        <v>18134</v>
+        <v>18171</v>
       </c>
       <c r="D270">
         <v>3849</v>
       </c>
       <c r="E270">
-        <v>87234377</v>
+        <v>87494791</v>
       </c>
       <c r="F270" t="s">
         <v>16</v>
@@ -10620,13 +10620,13 @@
         <v>12</v>
       </c>
       <c r="C272">
-        <v>8527</v>
+        <v>8545</v>
       </c>
       <c r="D272">
         <v>1754</v>
       </c>
       <c r="E272">
-        <v>40009244</v>
+        <v>40165068</v>
       </c>
       <c r="F272" t="s">
         <v>16</v>
@@ -10655,13 +10655,13 @@
         <v>12</v>
       </c>
       <c r="C273">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D273">
         <v>88</v>
       </c>
       <c r="E273">
-        <v>604836</v>
+        <v>623336</v>
       </c>
       <c r="F273" t="s">
         <v>16</v>
@@ -10690,13 +10690,13 @@
         <v>12</v>
       </c>
       <c r="C274">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="D274">
         <v>261</v>
       </c>
       <c r="E274">
-        <v>6086009</v>
+        <v>6110366</v>
       </c>
       <c r="F274" t="s">
         <v>16</v>
@@ -10725,13 +10725,13 @@
         <v>12</v>
       </c>
       <c r="C275">
-        <v>20153</v>
+        <v>20185</v>
       </c>
       <c r="D275">
         <v>4594</v>
       </c>
       <c r="E275">
-        <v>39837723</v>
+        <v>39924621</v>
       </c>
       <c r="F275" t="s">
         <v>16</v>
@@ -10830,13 +10830,13 @@
         <v>12</v>
       </c>
       <c r="C278">
-        <v>10037</v>
+        <v>10063</v>
       </c>
       <c r="D278">
         <v>2119</v>
       </c>
       <c r="E278">
-        <v>47847696</v>
+        <v>48048288</v>
       </c>
       <c r="F278" t="s">
         <v>16</v>
@@ -10900,13 +10900,13 @@
         <v>12</v>
       </c>
       <c r="C280">
-        <v>3591</v>
+        <v>3601</v>
       </c>
       <c r="D280">
         <v>711</v>
       </c>
       <c r="E280">
-        <v>20717348</v>
+        <v>20786133</v>
       </c>
       <c r="F280" t="s">
         <v>16</v>
@@ -10935,13 +10935,13 @@
         <v>12</v>
       </c>
       <c r="C281">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D281">
         <v>153</v>
       </c>
       <c r="E281">
-        <v>2183857</v>
+        <v>2209099</v>
       </c>
       <c r="F281" t="s">
         <v>16</v>
@@ -10970,13 +10970,13 @@
         <v>12</v>
       </c>
       <c r="C282">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="D282">
         <v>153</v>
       </c>
       <c r="E282">
-        <v>3103837</v>
+        <v>3135528</v>
       </c>
       <c r="F282" t="s">
         <v>16</v>
@@ -11005,13 +11005,13 @@
         <v>12</v>
       </c>
       <c r="C283">
-        <v>21877</v>
+        <v>21913</v>
       </c>
       <c r="D283">
         <v>4585</v>
       </c>
       <c r="E283">
-        <v>49151826</v>
+        <v>49313634</v>
       </c>
       <c r="F283" t="s">
         <v>17</v>
@@ -11145,13 +11145,13 @@
         <v>12</v>
       </c>
       <c r="C287">
-        <v>13721</v>
+        <v>13752</v>
       </c>
       <c r="D287">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="E287">
-        <v>90288139</v>
+        <v>90959749</v>
       </c>
       <c r="F287" t="s">
         <v>17</v>
@@ -11215,13 +11215,13 @@
         <v>12</v>
       </c>
       <c r="C289">
-        <v>8450</v>
+        <v>8466</v>
       </c>
       <c r="D289">
         <v>1461</v>
       </c>
       <c r="E289">
-        <v>50833233</v>
+        <v>51012198</v>
       </c>
       <c r="F289" t="s">
         <v>17</v>
@@ -11285,13 +11285,13 @@
         <v>12</v>
       </c>
       <c r="C291">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D291">
         <v>66</v>
       </c>
       <c r="E291">
-        <v>1641669</v>
+        <v>1648201</v>
       </c>
       <c r="F291" t="s">
         <v>17</v>
@@ -11320,13 +11320,13 @@
         <v>12</v>
       </c>
       <c r="C292">
-        <v>25967</v>
+        <v>26029</v>
       </c>
       <c r="D292">
-        <v>4940</v>
+        <v>4941</v>
       </c>
       <c r="E292">
-        <v>52697813</v>
+        <v>52920743</v>
       </c>
       <c r="F292" t="s">
         <v>17</v>
@@ -11390,13 +11390,13 @@
         <v>12</v>
       </c>
       <c r="C294">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D294">
         <v>12</v>
       </c>
       <c r="E294">
-        <v>203915</v>
+        <v>205415</v>
       </c>
       <c r="F294" t="s">
         <v>17</v>
@@ -11460,13 +11460,13 @@
         <v>12</v>
       </c>
       <c r="C296">
-        <v>12286</v>
+        <v>12338</v>
       </c>
       <c r="D296">
         <v>1972</v>
       </c>
       <c r="E296">
-        <v>70656413</v>
+        <v>71017666</v>
       </c>
       <c r="F296" t="s">
         <v>17</v>
@@ -11530,13 +11530,13 @@
         <v>12</v>
       </c>
       <c r="C298">
-        <v>8640</v>
+        <v>8663</v>
       </c>
       <c r="D298">
         <v>1433</v>
       </c>
       <c r="E298">
-        <v>47652217</v>
+        <v>47790251</v>
       </c>
       <c r="F298" t="s">
         <v>17</v>
@@ -11565,13 +11565,13 @@
         <v>12</v>
       </c>
       <c r="C299">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D299">
         <v>139</v>
       </c>
       <c r="E299">
-        <v>2077689</v>
+        <v>2092358</v>
       </c>
       <c r="F299" t="s">
         <v>17</v>
@@ -11600,13 +11600,13 @@
         <v>12</v>
       </c>
       <c r="C300">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D300">
         <v>92</v>
       </c>
       <c r="E300">
-        <v>1806085</v>
+        <v>1824434</v>
       </c>
       <c r="F300" t="s">
         <v>17</v>
@@ -11635,13 +11635,13 @@
         <v>12</v>
       </c>
       <c r="C301">
-        <v>14768</v>
+        <v>14794</v>
       </c>
       <c r="D301">
         <v>3338</v>
       </c>
       <c r="E301">
-        <v>28293950</v>
+        <v>28359749</v>
       </c>
       <c r="F301" t="s">
         <v>18</v>
@@ -11775,13 +11775,13 @@
         <v>12</v>
       </c>
       <c r="C305">
-        <v>5761</v>
+        <v>5775</v>
       </c>
       <c r="D305">
         <v>1239</v>
       </c>
       <c r="E305">
-        <v>25726945</v>
+        <v>25830930</v>
       </c>
       <c r="F305" t="s">
         <v>18</v>
@@ -11845,13 +11845,13 @@
         <v>12</v>
       </c>
       <c r="C307">
-        <v>2230</v>
+        <v>2240</v>
       </c>
       <c r="D307">
         <v>479</v>
       </c>
       <c r="E307">
-        <v>10740999</v>
+        <v>10794048</v>
       </c>
       <c r="F307" t="s">
         <v>18</v>
@@ -11880,13 +11880,13 @@
         <v>12</v>
       </c>
       <c r="C308">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D308">
         <v>128</v>
       </c>
       <c r="E308">
-        <v>626982</v>
+        <v>629082</v>
       </c>
       <c r="F308" t="s">
         <v>18</v>
@@ -11915,13 +11915,13 @@
         <v>12</v>
       </c>
       <c r="C309">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D309">
         <v>84</v>
       </c>
       <c r="E309">
-        <v>2430537</v>
+        <v>2448161</v>
       </c>
       <c r="F309" t="s">
         <v>18</v>
@@ -11950,13 +11950,13 @@
         <v>12</v>
       </c>
       <c r="C310">
-        <v>19865</v>
+        <v>19922</v>
       </c>
       <c r="D310">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="E310">
-        <v>47898984</v>
+        <v>48105914</v>
       </c>
       <c r="F310" t="s">
         <v>18</v>
@@ -12090,13 +12090,13 @@
         <v>12</v>
       </c>
       <c r="C314">
-        <v>8937</v>
+        <v>8969</v>
       </c>
       <c r="D314">
         <v>1879</v>
       </c>
       <c r="E314">
-        <v>42649834</v>
+        <v>43046319</v>
       </c>
       <c r="F314" t="s">
         <v>18</v>
@@ -12125,13 +12125,13 @@
         <v>12</v>
       </c>
       <c r="C315">
-        <v>4001</v>
+        <v>4014</v>
       </c>
       <c r="D315">
         <v>780</v>
       </c>
       <c r="E315">
-        <v>20501685</v>
+        <v>20586909</v>
       </c>
       <c r="F315" t="s">
         <v>18</v>
@@ -12230,13 +12230,13 @@
         <v>12</v>
       </c>
       <c r="C318">
-        <v>3340</v>
+        <v>3359</v>
       </c>
       <c r="D318">
         <v>997</v>
       </c>
       <c r="E318">
-        <v>24839766</v>
+        <v>25023776</v>
       </c>
       <c r="F318" t="s">
         <v>18</v>
@@ -12265,13 +12265,13 @@
         <v>12</v>
       </c>
       <c r="C319">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D319">
         <v>97</v>
       </c>
       <c r="E319">
-        <v>2035113</v>
+        <v>2039753</v>
       </c>
       <c r="F319" t="s">
         <v>18</v>
@@ -12300,13 +12300,13 @@
         <v>12</v>
       </c>
       <c r="C320">
-        <v>73207</v>
+        <v>73342</v>
       </c>
       <c r="D320">
         <v>15888</v>
       </c>
       <c r="E320">
-        <v>129240518</v>
+        <v>129601826</v>
       </c>
       <c r="F320" t="s">
         <v>18</v>
@@ -12370,13 +12370,13 @@
         <v>12</v>
       </c>
       <c r="C322">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D322">
         <v>6</v>
       </c>
       <c r="E322">
-        <v>184229</v>
+        <v>185729</v>
       </c>
       <c r="F322" t="s">
         <v>18</v>
@@ -12440,13 +12440,13 @@
         <v>12</v>
       </c>
       <c r="C324">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D324">
         <v>27</v>
       </c>
       <c r="E324">
-        <v>1184205</v>
+        <v>1192830</v>
       </c>
       <c r="F324" t="s">
         <v>18</v>
@@ -12510,13 +12510,13 @@
         <v>12</v>
       </c>
       <c r="C326">
-        <v>44870</v>
+        <v>45018</v>
       </c>
       <c r="D326">
-        <v>9054</v>
+        <v>9056</v>
       </c>
       <c r="E326">
-        <v>224057956</v>
+        <v>225386820</v>
       </c>
       <c r="F326" t="s">
         <v>18</v>
@@ -12580,13 +12580,13 @@
         <v>12</v>
       </c>
       <c r="C328">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D328">
         <v>12</v>
       </c>
       <c r="E328">
-        <v>1752512</v>
+        <v>1947447</v>
       </c>
       <c r="F328" t="s">
         <v>18</v>
@@ -12615,13 +12615,13 @@
         <v>12</v>
       </c>
       <c r="C329">
-        <v>22340</v>
+        <v>22408</v>
       </c>
       <c r="D329">
         <v>4505</v>
       </c>
       <c r="E329">
-        <v>130380926</v>
+        <v>131031879</v>
       </c>
       <c r="F329" t="s">
         <v>18</v>
@@ -12685,13 +12685,13 @@
         <v>12</v>
       </c>
       <c r="C331">
-        <v>5153</v>
+        <v>5179</v>
       </c>
       <c r="D331">
         <v>962</v>
       </c>
       <c r="E331">
-        <v>23881890</v>
+        <v>24002181</v>
       </c>
       <c r="F331" t="s">
         <v>18</v>
@@ -12720,13 +12720,13 @@
         <v>12</v>
       </c>
       <c r="C332">
-        <v>2946</v>
+        <v>2960</v>
       </c>
       <c r="D332">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E332">
-        <v>12005754</v>
+        <v>12110220</v>
       </c>
       <c r="F332" t="s">
         <v>18</v>
@@ -12755,13 +12755,13 @@
         <v>12</v>
       </c>
       <c r="C333">
-        <v>8425</v>
+        <v>8445</v>
       </c>
       <c r="D333">
         <v>1910</v>
       </c>
       <c r="E333">
-        <v>15289715</v>
+        <v>15332620</v>
       </c>
       <c r="F333" t="s">
         <v>18</v>
@@ -12825,13 +12825,13 @@
         <v>12</v>
       </c>
       <c r="C335">
-        <v>3686</v>
+        <v>3698</v>
       </c>
       <c r="D335">
         <v>776</v>
       </c>
       <c r="E335">
-        <v>17276361</v>
+        <v>17406938</v>
       </c>
       <c r="F335" t="s">
         <v>18</v>
@@ -12860,13 +12860,13 @@
         <v>12</v>
       </c>
       <c r="C336">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="D336">
         <v>334</v>
       </c>
       <c r="E336">
-        <v>7788475</v>
+        <v>7853856</v>
       </c>
       <c r="F336" t="s">
         <v>18</v>
@@ -12895,13 +12895,13 @@
         <v>12</v>
       </c>
       <c r="C337">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D337">
         <v>83</v>
       </c>
       <c r="E337">
-        <v>460737</v>
+        <v>462237</v>
       </c>
       <c r="F337" t="s">
         <v>18</v>
@@ -12930,13 +12930,13 @@
         <v>12</v>
       </c>
       <c r="C338">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D338">
         <v>64</v>
       </c>
       <c r="E338">
-        <v>1192708</v>
+        <v>1202708</v>
       </c>
       <c r="F338" t="s">
         <v>18</v>
@@ -12965,13 +12965,13 @@
         <v>12</v>
       </c>
       <c r="C339">
-        <v>41558</v>
+        <v>41668</v>
       </c>
       <c r="D339">
         <v>9399</v>
       </c>
       <c r="E339">
-        <v>75235488</v>
+        <v>75582628</v>
       </c>
       <c r="F339" t="s">
         <v>18</v>
@@ -13035,13 +13035,13 @@
         <v>12</v>
       </c>
       <c r="C341">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D341">
         <v>3</v>
       </c>
       <c r="E341">
-        <v>136923</v>
+        <v>160468</v>
       </c>
       <c r="F341" t="s">
         <v>18</v>
@@ -13105,13 +13105,13 @@
         <v>12</v>
       </c>
       <c r="C343">
-        <v>27071</v>
+        <v>27164</v>
       </c>
       <c r="D343">
         <v>5349</v>
       </c>
       <c r="E343">
-        <v>147463629</v>
+        <v>148738015</v>
       </c>
       <c r="F343" t="s">
         <v>18</v>
@@ -13175,13 +13175,13 @@
         <v>12</v>
       </c>
       <c r="C345">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D345">
         <v>5</v>
       </c>
       <c r="E345">
-        <v>1187326</v>
+        <v>1387326</v>
       </c>
       <c r="F345" t="s">
         <v>18</v>
@@ -13210,13 +13210,13 @@
         <v>12</v>
       </c>
       <c r="C346">
-        <v>13639</v>
+        <v>13683</v>
       </c>
       <c r="D346">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="E346">
-        <v>76315921</v>
+        <v>76960060</v>
       </c>
       <c r="F346" t="s">
         <v>18</v>
@@ -13245,13 +13245,13 @@
         <v>12</v>
       </c>
       <c r="C347">
-        <v>3174</v>
+        <v>3199</v>
       </c>
       <c r="D347">
         <v>693</v>
       </c>
       <c r="E347">
-        <v>19461340</v>
+        <v>19668732</v>
       </c>
       <c r="F347" t="s">
         <v>18</v>
@@ -13280,13 +13280,13 @@
         <v>12</v>
       </c>
       <c r="C348">
-        <v>1333</v>
+        <v>1344</v>
       </c>
       <c r="D348">
         <v>241</v>
       </c>
       <c r="E348">
-        <v>6589337</v>
+        <v>6691231</v>
       </c>
       <c r="F348" t="s">
         <v>18</v>
@@ -13315,13 +13315,13 @@
         <v>12</v>
       </c>
       <c r="C349">
-        <v>42548</v>
+        <v>42661</v>
       </c>
       <c r="D349">
-        <v>9946</v>
+        <v>9947</v>
       </c>
       <c r="E349">
-        <v>112686986</v>
+        <v>113192094</v>
       </c>
       <c r="F349" t="s">
         <v>18</v>
@@ -13350,13 +13350,13 @@
         <v>12</v>
       </c>
       <c r="C350">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D350">
         <v>66</v>
       </c>
       <c r="E350">
-        <v>1321723</v>
+        <v>1322481</v>
       </c>
       <c r="F350" t="s">
         <v>18</v>
@@ -13420,13 +13420,13 @@
         <v>12</v>
       </c>
       <c r="C352">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D352">
         <v>83</v>
       </c>
       <c r="E352">
-        <v>2769814</v>
+        <v>2782443</v>
       </c>
       <c r="F352" t="s">
         <v>18</v>
@@ -13455,13 +13455,13 @@
         <v>12</v>
       </c>
       <c r="C353">
-        <v>19245</v>
+        <v>19287</v>
       </c>
       <c r="D353">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="E353">
-        <v>99353227</v>
+        <v>99610895</v>
       </c>
       <c r="F353" t="s">
         <v>18</v>
@@ -13560,13 +13560,13 @@
         <v>12</v>
       </c>
       <c r="C356">
-        <v>8277</v>
+        <v>8293</v>
       </c>
       <c r="D356">
         <v>1601</v>
       </c>
       <c r="E356">
-        <v>52981040</v>
+        <v>53204383</v>
       </c>
       <c r="F356" t="s">
         <v>18</v>
@@ -13595,13 +13595,13 @@
         <v>12</v>
       </c>
       <c r="C357">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D357">
         <v>10</v>
       </c>
       <c r="E357">
-        <v>40541</v>
+        <v>41817</v>
       </c>
       <c r="F357" t="s">
         <v>18</v>
@@ -13630,13 +13630,13 @@
         <v>12</v>
       </c>
       <c r="C358">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D358">
         <v>135</v>
       </c>
       <c r="E358">
-        <v>13292423</v>
+        <v>13415677</v>
       </c>
       <c r="F358" t="s">
         <v>18</v>
@@ -13665,13 +13665,13 @@
         <v>12</v>
       </c>
       <c r="C359">
-        <v>11881</v>
+        <v>11955</v>
       </c>
       <c r="D359">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="E359">
-        <v>74488867</v>
+        <v>75068522</v>
       </c>
       <c r="F359" t="s">
         <v>18</v>
@@ -13700,13 +13700,13 @@
         <v>12</v>
       </c>
       <c r="C360">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="D360">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E360">
-        <v>3492206</v>
+        <v>3551786</v>
       </c>
       <c r="F360" t="s">
         <v>18</v>
@@ -13735,13 +13735,13 @@
         <v>12</v>
       </c>
       <c r="C361">
-        <v>39199</v>
+        <v>39253</v>
       </c>
       <c r="D361">
         <v>8712</v>
       </c>
       <c r="E361">
-        <v>65824911</v>
+        <v>65941765</v>
       </c>
       <c r="F361" t="s">
         <v>18</v>
@@ -13805,13 +13805,13 @@
         <v>12</v>
       </c>
       <c r="C363">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D363">
         <v>27</v>
       </c>
       <c r="E363">
-        <v>778577</v>
+        <v>781794</v>
       </c>
       <c r="F363" t="s">
         <v>18</v>
@@ -13840,13 +13840,13 @@
         <v>12</v>
       </c>
       <c r="C364">
-        <v>17954</v>
+        <v>17988</v>
       </c>
       <c r="D364">
         <v>3808</v>
       </c>
       <c r="E364">
-        <v>82473515</v>
+        <v>82678592</v>
       </c>
       <c r="F364" t="s">
         <v>18</v>
@@ -13910,13 +13910,13 @@
         <v>12</v>
       </c>
       <c r="C366">
-        <v>8079</v>
+        <v>8089</v>
       </c>
       <c r="D366">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="E366">
-        <v>43233007</v>
+        <v>43293414</v>
       </c>
       <c r="F366" t="s">
         <v>18</v>
@@ -14015,13 +14015,13 @@
         <v>12</v>
       </c>
       <c r="C369">
-        <v>1411</v>
+        <v>1420</v>
       </c>
       <c r="D369">
         <v>245</v>
       </c>
       <c r="E369">
-        <v>5673751</v>
+        <v>5719564</v>
       </c>
       <c r="F369" t="s">
         <v>18</v>
@@ -14050,13 +14050,13 @@
         <v>12</v>
       </c>
       <c r="C370">
-        <v>9158</v>
+        <v>9173</v>
       </c>
       <c r="D370">
         <v>2063</v>
       </c>
       <c r="E370">
-        <v>17669390</v>
+        <v>17713122</v>
       </c>
       <c r="F370" t="s">
         <v>18</v>
@@ -14155,13 +14155,13 @@
         <v>12</v>
       </c>
       <c r="C373">
-        <v>3462</v>
+        <v>3471</v>
       </c>
       <c r="D373">
         <v>724</v>
       </c>
       <c r="E373">
-        <v>15897415</v>
+        <v>15964737</v>
       </c>
       <c r="F373" t="s">
         <v>18</v>
@@ -14190,13 +14190,13 @@
         <v>12</v>
       </c>
       <c r="C374">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D374">
         <v>323</v>
       </c>
       <c r="E374">
-        <v>6748809</v>
+        <v>6750309</v>
       </c>
       <c r="F374" t="s">
         <v>18</v>
@@ -14260,13 +14260,13 @@
         <v>12</v>
       </c>
       <c r="C376">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D376">
         <v>43</v>
       </c>
       <c r="E376">
-        <v>1717454</v>
+        <v>1723938</v>
       </c>
       <c r="F376" t="s">
         <v>18</v>
@@ -14295,13 +14295,13 @@
         <v>12</v>
       </c>
       <c r="C377">
-        <v>46681</v>
+        <v>46756</v>
       </c>
       <c r="D377">
         <v>10697</v>
       </c>
       <c r="E377">
-        <v>83264388</v>
+        <v>83444644</v>
       </c>
       <c r="F377" t="s">
         <v>18</v>
@@ -14400,13 +14400,13 @@
         <v>12</v>
       </c>
       <c r="C380">
-        <v>23947</v>
+        <v>23996</v>
       </c>
       <c r="D380">
-        <v>5077</v>
+        <v>5079</v>
       </c>
       <c r="E380">
-        <v>121746137</v>
+        <v>122161954</v>
       </c>
       <c r="F380" t="s">
         <v>18</v>
@@ -14470,13 +14470,13 @@
         <v>12</v>
       </c>
       <c r="C382">
-        <v>15909</v>
+        <v>15940</v>
       </c>
       <c r="D382">
         <v>3244</v>
       </c>
       <c r="E382">
-        <v>74276858</v>
+        <v>74532802</v>
       </c>
       <c r="F382" t="s">
         <v>18</v>
@@ -14505,13 +14505,13 @@
         <v>12</v>
       </c>
       <c r="C383">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D383">
         <v>131</v>
       </c>
       <c r="E383">
-        <v>672099</v>
+        <v>674965</v>
       </c>
       <c r="F383" t="s">
         <v>18</v>
@@ -14540,13 +14540,13 @@
         <v>12</v>
       </c>
       <c r="C384">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="D384">
         <v>209</v>
       </c>
       <c r="E384">
-        <v>7902530</v>
+        <v>7913480</v>
       </c>
       <c r="F384" t="s">
         <v>18</v>
@@ -14575,13 +14575,13 @@
         <v>12</v>
       </c>
       <c r="C385">
-        <v>24525</v>
+        <v>24565</v>
       </c>
       <c r="D385">
         <v>5297</v>
       </c>
       <c r="E385">
-        <v>45382168</v>
+        <v>45507834</v>
       </c>
       <c r="F385" t="s">
         <v>18</v>
@@ -14715,13 +14715,13 @@
         <v>12</v>
       </c>
       <c r="C389">
-        <v>13355</v>
+        <v>13389</v>
       </c>
       <c r="D389">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="E389">
-        <v>61530082</v>
+        <v>61826110</v>
       </c>
       <c r="F389" t="s">
         <v>18</v>
@@ -14785,13 +14785,13 @@
         <v>12</v>
       </c>
       <c r="C391">
-        <v>5144</v>
+        <v>5156</v>
       </c>
       <c r="D391">
         <v>1014</v>
       </c>
       <c r="E391">
-        <v>26596293</v>
+        <v>26717198</v>
       </c>
       <c r="F391" t="s">
         <v>18</v>
@@ -14820,13 +14820,13 @@
         <v>12</v>
       </c>
       <c r="C392">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D392">
         <v>77</v>
       </c>
       <c r="E392">
-        <v>617363</v>
+        <v>622928</v>
       </c>
       <c r="F392" t="s">
         <v>18</v>
@@ -14855,13 +14855,13 @@
         <v>12</v>
       </c>
       <c r="C393">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D393">
         <v>134</v>
       </c>
       <c r="E393">
-        <v>2308331</v>
+        <v>2310432</v>
       </c>
       <c r="F393" t="s">
         <v>18</v>
@@ -14890,13 +14890,13 @@
         <v>12</v>
       </c>
       <c r="C394">
-        <v>61802</v>
+        <v>61856</v>
       </c>
       <c r="D394">
         <v>12267</v>
       </c>
       <c r="E394">
-        <v>98494197</v>
+        <v>98601311</v>
       </c>
       <c r="F394" t="s">
         <v>19</v>
@@ -14995,13 +14995,13 @@
         <v>12</v>
       </c>
       <c r="C397">
-        <v>15142</v>
+        <v>15159</v>
       </c>
       <c r="D397">
         <v>3291</v>
       </c>
       <c r="E397">
-        <v>50403015</v>
+        <v>50836899</v>
       </c>
       <c r="F397" t="s">
         <v>19</v>
@@ -15065,13 +15065,13 @@
         <v>12</v>
       </c>
       <c r="C399">
-        <v>13914</v>
+        <v>13919</v>
       </c>
       <c r="D399">
         <v>2816</v>
       </c>
       <c r="E399">
-        <v>36510209</v>
+        <v>36542246</v>
       </c>
       <c r="F399" t="s">
         <v>19</v>
@@ -15170,13 +15170,13 @@
         <v>12</v>
       </c>
       <c r="C402">
-        <v>24984</v>
+        <v>25025</v>
       </c>
       <c r="D402">
         <v>3738</v>
       </c>
       <c r="E402">
-        <v>49847854</v>
+        <v>49918489</v>
       </c>
       <c r="F402" t="s">
         <v>20</v>
@@ -15240,13 +15240,13 @@
         <v>12</v>
       </c>
       <c r="C404">
-        <v>5354</v>
+        <v>5361</v>
       </c>
       <c r="D404">
         <v>901</v>
       </c>
       <c r="E404">
-        <v>15411130</v>
+        <v>15463339</v>
       </c>
       <c r="F404" t="s">
         <v>20</v>
@@ -15310,13 +15310,13 @@
         <v>12</v>
       </c>
       <c r="C406">
-        <v>7900</v>
+        <v>7915</v>
       </c>
       <c r="D406">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="E406">
-        <v>19736991</v>
+        <v>19836690</v>
       </c>
       <c r="F406" t="s">
         <v>20</v>
@@ -15450,13 +15450,13 @@
         <v>12</v>
       </c>
       <c r="C410">
-        <v>24998</v>
+        <v>25031</v>
       </c>
       <c r="D410">
         <v>5520</v>
       </c>
       <c r="E410">
-        <v>50235668</v>
+        <v>50313376</v>
       </c>
       <c r="F410" t="s">
         <v>21</v>
@@ -15520,13 +15520,13 @@
         <v>12</v>
       </c>
       <c r="C412">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D412">
         <v>49</v>
       </c>
       <c r="E412">
-        <v>1689454</v>
+        <v>1692267</v>
       </c>
       <c r="F412" t="s">
         <v>21</v>
@@ -15555,13 +15555,13 @@
         <v>12</v>
       </c>
       <c r="C413">
-        <v>9864</v>
+        <v>9897</v>
       </c>
       <c r="D413">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="E413">
-        <v>48967802</v>
+        <v>49248127</v>
       </c>
       <c r="F413" t="s">
         <v>21</v>
@@ -15625,13 +15625,13 @@
         <v>12</v>
       </c>
       <c r="C415">
-        <v>5254</v>
+        <v>5270</v>
       </c>
       <c r="D415">
         <v>1038</v>
       </c>
       <c r="E415">
-        <v>25327004</v>
+        <v>25433777</v>
       </c>
       <c r="F415" t="s">
         <v>21</v>
@@ -15660,13 +15660,13 @@
         <v>12</v>
       </c>
       <c r="C416">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D416">
         <v>20</v>
       </c>
       <c r="E416">
-        <v>1111961</v>
+        <v>1119632</v>
       </c>
       <c r="F416" t="s">
         <v>21</v>
@@ -15695,13 +15695,13 @@
         <v>12</v>
       </c>
       <c r="C417">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D417">
         <v>309</v>
       </c>
       <c r="E417">
-        <v>5879908</v>
+        <v>5881408</v>
       </c>
       <c r="F417" t="s">
         <v>21</v>
@@ -15730,13 +15730,13 @@
         <v>12</v>
       </c>
       <c r="C418">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D418">
         <v>112</v>
       </c>
       <c r="E418">
-        <v>2525704</v>
+        <v>2537056</v>
       </c>
       <c r="F418" t="s">
         <v>21</v>
@@ -15765,13 +15765,13 @@
         <v>12</v>
       </c>
       <c r="C419">
-        <v>140717</v>
+        <v>140948</v>
       </c>
       <c r="D419">
-        <v>30552</v>
+        <v>30557</v>
       </c>
       <c r="E419">
-        <v>242647038</v>
+        <v>243141609</v>
       </c>
       <c r="F419" t="s">
         <v>21</v>
@@ -15870,13 +15870,13 @@
         <v>12</v>
       </c>
       <c r="C422">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="D422">
         <v>208</v>
       </c>
       <c r="E422">
-        <v>10023952</v>
+        <v>10032407</v>
       </c>
       <c r="F422" t="s">
         <v>21</v>
@@ -15905,13 +15905,13 @@
         <v>12</v>
       </c>
       <c r="C423">
-        <v>66477</v>
+        <v>66618</v>
       </c>
       <c r="D423">
-        <v>13132</v>
+        <v>13133</v>
       </c>
       <c r="E423">
-        <v>322240508</v>
+        <v>323614656</v>
       </c>
       <c r="F423" t="s">
         <v>21</v>
@@ -15940,13 +15940,13 @@
         <v>12</v>
       </c>
       <c r="C424">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D424">
         <v>57</v>
       </c>
       <c r="E424">
-        <v>7872768</v>
+        <v>7884756</v>
       </c>
       <c r="F424" t="s">
         <v>21</v>
@@ -15975,13 +15975,13 @@
         <v>12</v>
       </c>
       <c r="C425">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D425">
         <v>8</v>
       </c>
       <c r="E425">
-        <v>1143153</v>
+        <v>1154091</v>
       </c>
       <c r="F425" t="s">
         <v>21</v>
@@ -16010,13 +16010,13 @@
         <v>12</v>
       </c>
       <c r="C426">
-        <v>37782</v>
+        <v>37877</v>
       </c>
       <c r="D426">
-        <v>6902</v>
+        <v>6904</v>
       </c>
       <c r="E426">
-        <v>194490547</v>
+        <v>195591245</v>
       </c>
       <c r="F426" t="s">
         <v>21</v>
@@ -16080,13 +16080,13 @@
         <v>12</v>
       </c>
       <c r="C428">
-        <v>4282</v>
+        <v>4293</v>
       </c>
       <c r="D428">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E428">
-        <v>19872715</v>
+        <v>19931615</v>
       </c>
       <c r="F428" t="s">
         <v>21</v>
@@ -16150,13 +16150,13 @@
         <v>12</v>
       </c>
       <c r="C430">
-        <v>42098</v>
+        <v>42163</v>
       </c>
       <c r="D430">
         <v>9195</v>
       </c>
       <c r="E430">
-        <v>75138390</v>
+        <v>75307169</v>
       </c>
       <c r="F430" t="s">
         <v>21</v>
@@ -16220,13 +16220,13 @@
         <v>12</v>
       </c>
       <c r="C432">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="D432">
         <v>113</v>
       </c>
       <c r="E432">
-        <v>5044265</v>
+        <v>5113051</v>
       </c>
       <c r="F432" t="s">
         <v>21</v>
@@ -16255,13 +16255,13 @@
         <v>12</v>
       </c>
       <c r="C433">
-        <v>19120</v>
+        <v>19153</v>
       </c>
       <c r="D433">
         <v>4016</v>
       </c>
       <c r="E433">
-        <v>87005817</v>
+        <v>87418211</v>
       </c>
       <c r="F433" t="s">
         <v>21</v>
@@ -16325,13 +16325,13 @@
         <v>12</v>
       </c>
       <c r="C435">
-        <v>13594</v>
+        <v>13624</v>
       </c>
       <c r="D435">
         <v>2497</v>
       </c>
       <c r="E435">
-        <v>62149491</v>
+        <v>62315793</v>
       </c>
       <c r="F435" t="s">
         <v>21</v>
@@ -16395,13 +16395,13 @@
         <v>12</v>
       </c>
       <c r="C437">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D437">
         <v>184</v>
       </c>
       <c r="E437">
-        <v>3632314</v>
+        <v>3642314</v>
       </c>
       <c r="F437" t="s">
         <v>21</v>
@@ -16430,13 +16430,13 @@
         <v>12</v>
       </c>
       <c r="C438">
-        <v>71109</v>
+        <v>71235</v>
       </c>
       <c r="D438">
         <v>15795</v>
       </c>
       <c r="E438">
-        <v>128050704</v>
+        <v>128430979</v>
       </c>
       <c r="F438" t="s">
         <v>21</v>
@@ -16535,13 +16535,13 @@
         <v>12</v>
       </c>
       <c r="C441">
-        <v>1326</v>
+        <v>1336</v>
       </c>
       <c r="D441">
         <v>171</v>
       </c>
       <c r="E441">
-        <v>7524005</v>
+        <v>7717345</v>
       </c>
       <c r="F441" t="s">
         <v>21</v>
@@ -16570,13 +16570,13 @@
         <v>12</v>
       </c>
       <c r="C442">
-        <v>30257</v>
+        <v>30334</v>
       </c>
       <c r="D442">
         <v>6187</v>
       </c>
       <c r="E442">
-        <v>151748545</v>
+        <v>152249324</v>
       </c>
       <c r="F442" t="s">
         <v>21</v>
@@ -16605,13 +16605,13 @@
         <v>12</v>
       </c>
       <c r="C443">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D443">
         <v>24</v>
       </c>
       <c r="E443">
-        <v>2758374</v>
+        <v>2759874</v>
       </c>
       <c r="F443" t="s">
         <v>21</v>
@@ -16675,13 +16675,13 @@
         <v>12</v>
       </c>
       <c r="C445">
-        <v>14137</v>
+        <v>14176</v>
       </c>
       <c r="D445">
         <v>2797</v>
       </c>
       <c r="E445">
-        <v>82543528</v>
+        <v>82770065</v>
       </c>
       <c r="F445" t="s">
         <v>21</v>
@@ -16710,13 +16710,13 @@
         <v>12</v>
       </c>
       <c r="C446">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D446">
         <v>217</v>
       </c>
       <c r="E446">
-        <v>1757677</v>
+        <v>1759533</v>
       </c>
       <c r="F446" t="s">
         <v>21</v>
@@ -16745,13 +16745,13 @@
         <v>12</v>
       </c>
       <c r="C447">
-        <v>1316</v>
+        <v>1328</v>
       </c>
       <c r="D447">
         <v>233</v>
       </c>
       <c r="E447">
-        <v>4410254</v>
+        <v>4507195</v>
       </c>
       <c r="F447" t="s">
         <v>21</v>
@@ -16780,13 +16780,13 @@
         <v>12</v>
       </c>
       <c r="C448">
-        <v>30461</v>
+        <v>30507</v>
       </c>
       <c r="D448">
         <v>6832</v>
       </c>
       <c r="E448">
-        <v>55332156</v>
+        <v>55488276</v>
       </c>
       <c r="F448" t="s">
         <v>21</v>
@@ -16885,13 +16885,13 @@
         <v>12</v>
       </c>
       <c r="C451">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D451">
         <v>79</v>
       </c>
       <c r="E451">
-        <v>2661613</v>
+        <v>2672368</v>
       </c>
       <c r="F451" t="s">
         <v>21</v>
@@ -16920,13 +16920,13 @@
         <v>12</v>
       </c>
       <c r="C452">
-        <v>11618</v>
+        <v>11641</v>
       </c>
       <c r="D452">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="E452">
-        <v>61859976</v>
+        <v>62110409</v>
       </c>
       <c r="F452" t="s">
         <v>21</v>
@@ -16990,13 +16990,13 @@
         <v>12</v>
       </c>
       <c r="C454">
-        <v>6024</v>
+        <v>6037</v>
       </c>
       <c r="D454">
         <v>1160</v>
       </c>
       <c r="E454">
-        <v>33850157</v>
+        <v>33973496</v>
       </c>
       <c r="F454" t="s">
         <v>21</v>
@@ -17060,13 +17060,13 @@
         <v>12</v>
       </c>
       <c r="C456">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D456">
         <v>194</v>
       </c>
       <c r="E456">
-        <v>3766528</v>
+        <v>3767869</v>
       </c>
       <c r="F456" t="s">
         <v>21</v>
@@ -17095,13 +17095,13 @@
         <v>12</v>
       </c>
       <c r="C457">
-        <v>84765</v>
+        <v>84880</v>
       </c>
       <c r="D457">
         <v>16344</v>
       </c>
       <c r="E457">
-        <v>148013661</v>
+        <v>148283702</v>
       </c>
       <c r="F457" t="s">
         <v>22</v>
@@ -17235,13 +17235,13 @@
         <v>12</v>
       </c>
       <c r="C461">
-        <v>32754</v>
+        <v>32793</v>
       </c>
       <c r="D461">
         <v>7019</v>
       </c>
       <c r="E461">
-        <v>144752936</v>
+        <v>145155539</v>
       </c>
       <c r="F461" t="s">
         <v>22</v>
@@ -17270,13 +17270,13 @@
         <v>12</v>
       </c>
       <c r="C462">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D462">
         <v>16</v>
       </c>
       <c r="E462">
-        <v>1443629</v>
+        <v>1464791</v>
       </c>
       <c r="F462" t="s">
         <v>22</v>
@@ -17305,13 +17305,13 @@
         <v>12</v>
       </c>
       <c r="C463">
-        <v>32220</v>
+        <v>32266</v>
       </c>
       <c r="D463">
         <v>5973</v>
       </c>
       <c r="E463">
-        <v>133915495</v>
+        <v>134217931</v>
       </c>
       <c r="F463" t="s">
         <v>22</v>
@@ -17375,13 +17375,13 @@
         <v>12</v>
       </c>
       <c r="C465">
-        <v>1248</v>
+        <v>1256</v>
       </c>
       <c r="D465">
         <v>237</v>
       </c>
       <c r="E465">
-        <v>5368404</v>
+        <v>5403057</v>
       </c>
       <c r="F465" t="s">
         <v>22</v>
@@ -17410,13 +17410,13 @@
         <v>12</v>
       </c>
       <c r="C466">
-        <v>156740</v>
+        <v>156982</v>
       </c>
       <c r="D466">
-        <v>27220</v>
+        <v>27222</v>
       </c>
       <c r="E466">
-        <v>279304183</v>
+        <v>279833926</v>
       </c>
       <c r="F466" t="s">
         <v>22</v>
@@ -17515,13 +17515,13 @@
         <v>12</v>
       </c>
       <c r="C469">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="D469">
         <v>157</v>
       </c>
       <c r="E469">
-        <v>9648395</v>
+        <v>9740056</v>
       </c>
       <c r="F469" t="s">
         <v>22</v>
@@ -17550,13 +17550,13 @@
         <v>12</v>
       </c>
       <c r="C470">
-        <v>67480</v>
+        <v>67649</v>
       </c>
       <c r="D470">
-        <v>11925</v>
+        <v>11928</v>
       </c>
       <c r="E470">
-        <v>335789245</v>
+        <v>337676649</v>
       </c>
       <c r="F470" t="s">
         <v>22</v>
@@ -17620,13 +17620,13 @@
         <v>12</v>
       </c>
       <c r="C472">
-        <v>68724</v>
+        <v>68873</v>
       </c>
       <c r="D472">
-        <v>11424</v>
+        <v>11426</v>
       </c>
       <c r="E472">
-        <v>355130268</v>
+        <v>356511697</v>
       </c>
       <c r="F472" t="s">
         <v>22</v>
@@ -17690,13 +17690,13 @@
         <v>12</v>
       </c>
       <c r="C474">
-        <v>2400</v>
+        <v>2408</v>
       </c>
       <c r="D474">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E474">
-        <v>9612433</v>
+        <v>9642403</v>
       </c>
       <c r="F474" t="s">
         <v>22</v>
@@ -17725,13 +17725,13 @@
         <v>12</v>
       </c>
       <c r="C475">
-        <v>393001</v>
+        <v>393673</v>
       </c>
       <c r="D475">
-        <v>70235</v>
+        <v>70243</v>
       </c>
       <c r="E475">
-        <v>694907180</v>
+        <v>696369523</v>
       </c>
       <c r="F475" t="s">
         <v>22</v>
@@ -17795,13 +17795,13 @@
         <v>12</v>
       </c>
       <c r="C477">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D477">
         <v>77</v>
       </c>
       <c r="E477">
-        <v>2350271</v>
+        <v>2370271</v>
       </c>
       <c r="F477" t="s">
         <v>22</v>
@@ -17900,13 +17900,13 @@
         <v>12</v>
       </c>
       <c r="C480">
-        <v>3440</v>
+        <v>3451</v>
       </c>
       <c r="D480">
         <v>519</v>
       </c>
       <c r="E480">
-        <v>55627993</v>
+        <v>56173820</v>
       </c>
       <c r="F480" t="s">
         <v>22</v>
@@ -17935,13 +17935,13 @@
         <v>12</v>
       </c>
       <c r="C481">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D481">
         <v>30</v>
       </c>
       <c r="E481">
-        <v>4698291</v>
+        <v>4708291</v>
       </c>
       <c r="F481" t="s">
         <v>22</v>
@@ -17970,13 +17970,13 @@
         <v>12</v>
       </c>
       <c r="C482">
-        <v>262004</v>
+        <v>262597</v>
       </c>
       <c r="D482">
-        <v>42333</v>
+        <v>42335</v>
       </c>
       <c r="E482">
-        <v>1500630962</v>
+        <v>1507511987</v>
       </c>
       <c r="F482" t="s">
         <v>22</v>
@@ -18005,13 +18005,13 @@
         <v>12</v>
       </c>
       <c r="C483">
-        <v>2434</v>
+        <v>2445</v>
       </c>
       <c r="D483">
         <v>412</v>
       </c>
       <c r="E483">
-        <v>69184830</v>
+        <v>70087089</v>
       </c>
       <c r="F483" t="s">
         <v>22</v>
@@ -18040,13 +18040,13 @@
         <v>12</v>
       </c>
       <c r="C484">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D484">
         <v>42</v>
       </c>
       <c r="E484">
-        <v>12424822</v>
+        <v>12532898</v>
       </c>
       <c r="F484" t="s">
         <v>22</v>
@@ -18075,13 +18075,13 @@
         <v>12</v>
       </c>
       <c r="C485">
-        <v>205378</v>
+        <v>205910</v>
       </c>
       <c r="D485">
-        <v>33417</v>
+        <v>33422</v>
       </c>
       <c r="E485">
-        <v>1435463251</v>
+        <v>1445808053</v>
       </c>
       <c r="F485" t="s">
         <v>22</v>
@@ -18145,13 +18145,13 @@
         <v>12</v>
       </c>
       <c r="C487">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="D487">
         <v>604</v>
       </c>
       <c r="E487">
-        <v>7447961</v>
+        <v>7506000</v>
       </c>
       <c r="F487" t="s">
         <v>22</v>
@@ -18215,13 +18215,13 @@
         <v>12</v>
       </c>
       <c r="C489">
-        <v>10817</v>
+        <v>10848</v>
       </c>
       <c r="D489">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="E489">
-        <v>58639217</v>
+        <v>58950101</v>
       </c>
       <c r="F489" t="s">
         <v>22</v>
@@ -18320,13 +18320,13 @@
         <v>12</v>
       </c>
       <c r="C492">
-        <v>99303</v>
+        <v>99460</v>
       </c>
       <c r="D492">
-        <v>18987</v>
+        <v>18988</v>
       </c>
       <c r="E492">
-        <v>174095192</v>
+        <v>174430480</v>
       </c>
       <c r="F492" t="s">
         <v>22</v>
@@ -18425,13 +18425,13 @@
         <v>12</v>
       </c>
       <c r="C495">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D495">
         <v>114</v>
       </c>
       <c r="E495">
-        <v>4791560</v>
+        <v>4803060</v>
       </c>
       <c r="F495" t="s">
         <v>22</v>
@@ -18460,13 +18460,13 @@
         <v>12</v>
       </c>
       <c r="C496">
-        <v>38303</v>
+        <v>38399</v>
       </c>
       <c r="D496">
         <v>7940</v>
       </c>
       <c r="E496">
-        <v>177818072</v>
+        <v>178533965</v>
       </c>
       <c r="F496" t="s">
         <v>22</v>
@@ -18565,13 +18565,13 @@
         <v>12</v>
       </c>
       <c r="C499">
-        <v>35482</v>
+        <v>35569</v>
       </c>
       <c r="D499">
-        <v>6520</v>
+        <v>6522</v>
       </c>
       <c r="E499">
-        <v>154344984</v>
+        <v>155028247</v>
       </c>
       <c r="F499" t="s">
         <v>22</v>
@@ -18600,13 +18600,13 @@
         <v>12</v>
       </c>
       <c r="C500">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D500">
         <v>326</v>
       </c>
       <c r="E500">
-        <v>2421078</v>
+        <v>2422578</v>
       </c>
       <c r="F500" t="s">
         <v>22</v>
@@ -18635,13 +18635,13 @@
         <v>12</v>
       </c>
       <c r="C501">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="D501">
         <v>289</v>
       </c>
       <c r="E501">
-        <v>5722590</v>
+        <v>5749532</v>
       </c>
       <c r="F501" t="s">
         <v>22</v>
@@ -18705,13 +18705,13 @@
         <v>12</v>
       </c>
       <c r="C503">
-        <v>175274</v>
+        <v>175509</v>
       </c>
       <c r="D503">
-        <v>27620</v>
+        <v>27622</v>
       </c>
       <c r="E503">
-        <v>324092776</v>
+        <v>324620089</v>
       </c>
       <c r="F503" t="s">
         <v>22</v>
@@ -18775,13 +18775,13 @@
         <v>12</v>
       </c>
       <c r="C505">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D505">
         <v>13</v>
       </c>
       <c r="E505">
-        <v>415903</v>
+        <v>434901</v>
       </c>
       <c r="F505" t="s">
         <v>22</v>
@@ -18810,13 +18810,13 @@
         <v>12</v>
       </c>
       <c r="C506">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D506">
         <v>113</v>
       </c>
       <c r="E506">
-        <v>4376022</v>
+        <v>4419183</v>
       </c>
       <c r="F506" t="s">
         <v>22</v>
@@ -18845,13 +18845,13 @@
         <v>12</v>
       </c>
       <c r="C507">
-        <v>57456</v>
+        <v>57546</v>
       </c>
       <c r="D507">
         <v>11193</v>
       </c>
       <c r="E507">
-        <v>261592863</v>
+        <v>262833413</v>
       </c>
       <c r="F507" t="s">
         <v>22</v>
@@ -18880,13 +18880,13 @@
         <v>12</v>
       </c>
       <c r="C508">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D508">
         <v>30</v>
       </c>
       <c r="E508">
-        <v>6988179</v>
+        <v>7097670</v>
       </c>
       <c r="F508" t="s">
         <v>22</v>
@@ -18915,13 +18915,13 @@
         <v>12</v>
       </c>
       <c r="C509">
-        <v>65838</v>
+        <v>65934</v>
       </c>
       <c r="D509">
         <v>10841</v>
       </c>
       <c r="E509">
-        <v>247672364</v>
+        <v>248906089</v>
       </c>
       <c r="F509" t="s">
         <v>22</v>
@@ -18985,13 +18985,13 @@
         <v>12</v>
       </c>
       <c r="C511">
-        <v>2971</v>
+        <v>2981</v>
       </c>
       <c r="D511">
         <v>534</v>
       </c>
       <c r="E511">
-        <v>10807187</v>
+        <v>10839203</v>
       </c>
       <c r="F511" t="s">
         <v>22</v>
@@ -19020,13 +19020,13 @@
         <v>12</v>
       </c>
       <c r="C512">
-        <v>135813</v>
+        <v>136055</v>
       </c>
       <c r="D512">
-        <v>23518</v>
+        <v>23520</v>
       </c>
       <c r="E512">
-        <v>238387849</v>
+        <v>238872581</v>
       </c>
       <c r="F512" t="s">
         <v>22</v>
@@ -19090,13 +19090,13 @@
         <v>12</v>
       </c>
       <c r="C514">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D514">
         <v>92</v>
       </c>
       <c r="E514">
-        <v>4591608</v>
+        <v>4594446</v>
       </c>
       <c r="F514" t="s">
         <v>22</v>
@@ -19125,13 +19125,13 @@
         <v>12</v>
       </c>
       <c r="C515">
-        <v>45861</v>
+        <v>46003</v>
       </c>
       <c r="D515">
-        <v>8725</v>
+        <v>8728</v>
       </c>
       <c r="E515">
-        <v>209815318</v>
+        <v>211350712</v>
       </c>
       <c r="F515" t="s">
         <v>22</v>
@@ -19160,13 +19160,13 @@
         <v>12</v>
       </c>
       <c r="C516">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D516">
         <v>28</v>
       </c>
       <c r="E516">
-        <v>4372964</v>
+        <v>4560374</v>
       </c>
       <c r="F516" t="s">
         <v>22</v>
@@ -19230,13 +19230,13 @@
         <v>12</v>
       </c>
       <c r="C518">
-        <v>51714</v>
+        <v>51833</v>
       </c>
       <c r="D518">
-        <v>8705</v>
+        <v>8706</v>
       </c>
       <c r="E518">
-        <v>215317188</v>
+        <v>216834508</v>
       </c>
       <c r="F518" t="s">
         <v>22</v>
@@ -19265,13 +19265,13 @@
         <v>12</v>
       </c>
       <c r="C519">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D519">
         <v>138</v>
       </c>
       <c r="E519">
-        <v>1089097</v>
+        <v>1094447</v>
       </c>
       <c r="F519" t="s">
         <v>22</v>
@@ -19300,13 +19300,13 @@
         <v>12</v>
       </c>
       <c r="C520">
-        <v>2499</v>
+        <v>2506</v>
       </c>
       <c r="D520">
         <v>455</v>
       </c>
       <c r="E520">
-        <v>13538078</v>
+        <v>13578458</v>
       </c>
       <c r="F520" t="s">
         <v>22</v>
@@ -19335,13 +19335,13 @@
         <v>12</v>
       </c>
       <c r="C521">
-        <v>102450</v>
+        <v>102562</v>
       </c>
       <c r="D521">
         <v>17586</v>
       </c>
       <c r="E521">
-        <v>185967173</v>
+        <v>186211948</v>
       </c>
       <c r="F521" t="s">
         <v>22</v>
@@ -19405,13 +19405,13 @@
         <v>12</v>
       </c>
       <c r="C523">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D523">
         <v>128</v>
       </c>
       <c r="E523">
-        <v>6178111</v>
+        <v>6268476</v>
       </c>
       <c r="F523" t="s">
         <v>22</v>
@@ -19440,13 +19440,13 @@
         <v>12</v>
       </c>
       <c r="C524">
-        <v>33543</v>
+        <v>33588</v>
       </c>
       <c r="D524">
         <v>7076</v>
       </c>
       <c r="E524">
-        <v>146596822</v>
+        <v>146877110</v>
       </c>
       <c r="F524" t="s">
         <v>22</v>
@@ -19510,13 +19510,13 @@
         <v>12</v>
       </c>
       <c r="C526">
-        <v>39094</v>
+        <v>39157</v>
       </c>
       <c r="D526">
-        <v>6816</v>
+        <v>6817</v>
       </c>
       <c r="E526">
-        <v>145927703</v>
+        <v>146666749</v>
       </c>
       <c r="F526" t="s">
         <v>22</v>
@@ -19580,13 +19580,13 @@
         <v>12</v>
       </c>
       <c r="C528">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="D528">
         <v>235</v>
       </c>
       <c r="E528">
-        <v>4408861</v>
+        <v>4415699</v>
       </c>
       <c r="F528" t="s">
         <v>22</v>
@@ -19615,13 +19615,13 @@
         <v>12</v>
       </c>
       <c r="C529">
-        <v>94063</v>
+        <v>94217</v>
       </c>
       <c r="D529">
-        <v>19197</v>
+        <v>19198</v>
       </c>
       <c r="E529">
-        <v>160826868</v>
+        <v>161168374</v>
       </c>
       <c r="F529" t="s">
         <v>22</v>
@@ -19685,13 +19685,13 @@
         <v>12</v>
       </c>
       <c r="C531">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D531">
         <v>100</v>
       </c>
       <c r="E531">
-        <v>4555023</v>
+        <v>4575023</v>
       </c>
       <c r="F531" t="s">
         <v>22</v>
@@ -19720,13 +19720,13 @@
         <v>12</v>
       </c>
       <c r="C532">
-        <v>41027</v>
+        <v>41092</v>
       </c>
       <c r="D532">
         <v>8523</v>
       </c>
       <c r="E532">
-        <v>193892733</v>
+        <v>194602268</v>
       </c>
       <c r="F532" t="s">
         <v>22</v>
@@ -19755,13 +19755,13 @@
         <v>12</v>
       </c>
       <c r="C533">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D533">
         <v>27</v>
       </c>
       <c r="E533">
-        <v>1292168</v>
+        <v>1365498</v>
       </c>
       <c r="F533" t="s">
         <v>22</v>
@@ -19790,13 +19790,13 @@
         <v>12</v>
       </c>
       <c r="C534">
-        <v>35146</v>
+        <v>35217</v>
       </c>
       <c r="D534">
-        <v>6624</v>
+        <v>6625</v>
       </c>
       <c r="E534">
-        <v>151371330</v>
+        <v>152296256</v>
       </c>
       <c r="F534" t="s">
         <v>22</v>
@@ -19860,13 +19860,13 @@
         <v>12</v>
       </c>
       <c r="C536">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D536">
         <v>131</v>
       </c>
       <c r="E536">
-        <v>1073284</v>
+        <v>1074161</v>
       </c>
       <c r="F536" t="s">
         <v>22</v>
@@ -19895,13 +19895,13 @@
         <v>12</v>
       </c>
       <c r="C537">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="D537">
         <v>245</v>
       </c>
       <c r="E537">
-        <v>6300624</v>
+        <v>6310461</v>
       </c>
       <c r="F537" t="s">
         <v>22</v>
@@ -19930,13 +19930,13 @@
         <v>12</v>
       </c>
       <c r="C538">
-        <v>71579</v>
+        <v>71674</v>
       </c>
       <c r="D538">
-        <v>17464</v>
+        <v>17466</v>
       </c>
       <c r="E538">
-        <v>108717425</v>
+        <v>108861436</v>
       </c>
       <c r="F538" t="s">
         <v>23</v>
@@ -20000,13 +20000,13 @@
         <v>12</v>
       </c>
       <c r="C540">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D540">
         <v>9</v>
       </c>
       <c r="E540">
-        <v>114250</v>
+        <v>124132</v>
       </c>
       <c r="F540" t="s">
         <v>23</v>
@@ -20105,13 +20105,13 @@
         <v>12</v>
       </c>
       <c r="C543">
-        <v>21986</v>
+        <v>22017</v>
       </c>
       <c r="D543">
-        <v>6124</v>
+        <v>6125</v>
       </c>
       <c r="E543">
-        <v>69611106</v>
+        <v>69968313</v>
       </c>
       <c r="F543" t="s">
         <v>23</v>
@@ -20175,13 +20175,13 @@
         <v>12</v>
       </c>
       <c r="C545">
-        <v>6433</v>
+        <v>6440</v>
       </c>
       <c r="D545">
         <v>1634</v>
       </c>
       <c r="E545">
-        <v>23122316</v>
+        <v>23248247</v>
       </c>
       <c r="F545" t="s">
         <v>23</v>
@@ -20350,13 +20350,13 @@
         <v>12</v>
       </c>
       <c r="C550">
-        <v>33527</v>
+        <v>33565</v>
       </c>
       <c r="D550">
         <v>7102</v>
       </c>
       <c r="E550">
-        <v>53076113</v>
+        <v>53170671</v>
       </c>
       <c r="F550" t="s">
         <v>24</v>
@@ -20455,13 +20455,13 @@
         <v>12</v>
       </c>
       <c r="C553">
-        <v>14343</v>
+        <v>14364</v>
       </c>
       <c r="D553">
         <v>3212</v>
       </c>
       <c r="E553">
-        <v>48966221</v>
+        <v>49102589</v>
       </c>
       <c r="F553" t="s">
         <v>24</v>
@@ -20525,13 +20525,13 @@
         <v>12</v>
       </c>
       <c r="C555">
-        <v>10054</v>
+        <v>10058</v>
       </c>
       <c r="D555">
         <v>2094</v>
       </c>
       <c r="E555">
-        <v>28135731</v>
+        <v>28159293</v>
       </c>
       <c r="F555" t="s">
         <v>24</v>
@@ -20630,13 +20630,13 @@
         <v>12</v>
       </c>
       <c r="C558">
-        <v>43377</v>
+        <v>43421</v>
       </c>
       <c r="D558">
         <v>5415</v>
       </c>
       <c r="E558">
-        <v>100825171</v>
+        <v>100891095</v>
       </c>
       <c r="F558" t="s">
         <v>25</v>
@@ -20665,13 +20665,13 @@
         <v>12</v>
       </c>
       <c r="C559">
-        <v>4102</v>
+        <v>4104</v>
       </c>
       <c r="D559">
         <v>681</v>
       </c>
       <c r="E559">
-        <v>11844913</v>
+        <v>11851233</v>
       </c>
       <c r="F559" t="s">
         <v>25</v>
@@ -20805,13 +20805,13 @@
         <v>12</v>
       </c>
       <c r="C563">
-        <v>47410</v>
+        <v>47497</v>
       </c>
       <c r="D563">
-        <v>10831</v>
+        <v>10832</v>
       </c>
       <c r="E563">
-        <v>88490132</v>
+        <v>88763611</v>
       </c>
       <c r="F563" t="s">
         <v>26</v>
@@ -20910,13 +20910,13 @@
         <v>12</v>
       </c>
       <c r="C566">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="D566">
         <v>161</v>
       </c>
       <c r="E566">
-        <v>8102539</v>
+        <v>8130321</v>
       </c>
       <c r="F566" t="s">
         <v>26</v>
@@ -20945,13 +20945,13 @@
         <v>12</v>
       </c>
       <c r="C567">
-        <v>25419</v>
+        <v>25502</v>
       </c>
       <c r="D567">
         <v>4890</v>
       </c>
       <c r="E567">
-        <v>135590798</v>
+        <v>136237898</v>
       </c>
       <c r="F567" t="s">
         <v>26</v>
@@ -20980,13 +20980,13 @@
         <v>12</v>
       </c>
       <c r="C568">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D568">
         <v>11</v>
       </c>
       <c r="E568">
-        <v>1959708</v>
+        <v>1995139</v>
       </c>
       <c r="F568" t="s">
         <v>26</v>
@@ -21015,13 +21015,13 @@
         <v>12</v>
       </c>
       <c r="C569">
-        <v>10519</v>
+        <v>10549</v>
       </c>
       <c r="D569">
         <v>1915</v>
       </c>
       <c r="E569">
-        <v>69219070</v>
+        <v>69726382</v>
       </c>
       <c r="F569" t="s">
         <v>26</v>
@@ -21085,13 +21085,13 @@
         <v>12</v>
       </c>
       <c r="C571">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D571">
         <v>318</v>
       </c>
       <c r="E571">
-        <v>7879832</v>
+        <v>8057807</v>
       </c>
       <c r="F571" t="s">
         <v>26</v>
@@ -21120,13 +21120,13 @@
         <v>12</v>
       </c>
       <c r="C572">
-        <v>32690</v>
+        <v>32731</v>
       </c>
       <c r="D572">
         <v>7176</v>
       </c>
       <c r="E572">
-        <v>60449928</v>
+        <v>60527833</v>
       </c>
       <c r="F572" t="s">
         <v>26</v>
@@ -21155,13 +21155,13 @@
         <v>12</v>
       </c>
       <c r="C573">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D573">
         <v>63</v>
       </c>
       <c r="E573">
-        <v>2229019</v>
+        <v>2235064</v>
       </c>
       <c r="F573" t="s">
         <v>26</v>
@@ -21190,13 +21190,13 @@
         <v>12</v>
       </c>
       <c r="C574">
-        <v>14327</v>
+        <v>14346</v>
       </c>
       <c r="D574">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="E574">
-        <v>64671912</v>
+        <v>64845480</v>
       </c>
       <c r="F574" t="s">
         <v>26</v>
@@ -21260,13 +21260,13 @@
         <v>12</v>
       </c>
       <c r="C576">
-        <v>7274</v>
+        <v>7285</v>
       </c>
       <c r="D576">
         <v>1421</v>
       </c>
       <c r="E576">
-        <v>33138499</v>
+        <v>33258967</v>
       </c>
       <c r="F576" t="s">
         <v>26</v>
@@ -21330,13 +21330,13 @@
         <v>12</v>
       </c>
       <c r="C578">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D578">
         <v>157</v>
       </c>
       <c r="E578">
-        <v>2554962</v>
+        <v>2560995</v>
       </c>
       <c r="F578" t="s">
         <v>26</v>
@@ -21365,13 +21365,13 @@
         <v>12</v>
       </c>
       <c r="C579">
-        <v>29879</v>
+        <v>29928</v>
       </c>
       <c r="D579">
         <v>6689</v>
       </c>
       <c r="E579">
-        <v>63666860</v>
+        <v>63869842</v>
       </c>
       <c r="F579" t="s">
         <v>26</v>
@@ -21470,13 +21470,13 @@
         <v>12</v>
       </c>
       <c r="C582">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D582">
         <v>104</v>
       </c>
       <c r="E582">
-        <v>4652258</v>
+        <v>4680412</v>
       </c>
       <c r="F582" t="s">
         <v>26</v>
@@ -21540,13 +21540,13 @@
         <v>12</v>
       </c>
       <c r="C584">
-        <v>14461</v>
+        <v>14498</v>
       </c>
       <c r="D584">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="E584">
-        <v>75853704</v>
+        <v>76231880</v>
       </c>
       <c r="F584" t="s">
         <v>26</v>
@@ -21610,13 +21610,13 @@
         <v>12</v>
       </c>
       <c r="C586">
-        <v>3541</v>
+        <v>3549</v>
       </c>
       <c r="D586">
         <v>674</v>
       </c>
       <c r="E586">
-        <v>24530901</v>
+        <v>24647778</v>
       </c>
       <c r="F586" t="s">
         <v>26</v>
@@ -21680,13 +21680,13 @@
         <v>12</v>
       </c>
       <c r="C588">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D588">
         <v>157</v>
       </c>
       <c r="E588">
-        <v>4131165</v>
+        <v>4133451</v>
       </c>
       <c r="F588" t="s">
         <v>26</v>
@@ -21715,13 +21715,13 @@
         <v>12</v>
       </c>
       <c r="C589">
-        <v>16037</v>
+        <v>16060</v>
       </c>
       <c r="D589">
         <v>3654</v>
       </c>
       <c r="E589">
-        <v>32894681</v>
+        <v>32962394</v>
       </c>
       <c r="F589" t="s">
         <v>26</v>
@@ -21855,13 +21855,13 @@
         <v>12</v>
       </c>
       <c r="C593">
-        <v>6362</v>
+        <v>6371</v>
       </c>
       <c r="D593">
         <v>1369</v>
       </c>
       <c r="E593">
-        <v>28938655</v>
+        <v>29023695</v>
       </c>
       <c r="F593" t="s">
         <v>26</v>
@@ -21890,13 +21890,13 @@
         <v>12</v>
       </c>
       <c r="C594">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="D594">
         <v>463</v>
       </c>
       <c r="E594">
-        <v>11736148</v>
+        <v>11756694</v>
       </c>
       <c r="F594" t="s">
         <v>26</v>
@@ -21925,13 +21925,13 @@
         <v>12</v>
       </c>
       <c r="C595">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D595">
         <v>92</v>
       </c>
       <c r="E595">
-        <v>807393</v>
+        <v>824778</v>
       </c>
       <c r="F595" t="s">
         <v>26</v>
@@ -21960,13 +21960,13 @@
         <v>12</v>
       </c>
       <c r="C596">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D596">
         <v>95</v>
       </c>
       <c r="E596">
-        <v>1636405</v>
+        <v>1646405</v>
       </c>
       <c r="F596" t="s">
         <v>26</v>
@@ -21995,13 +21995,13 @@
         <v>12</v>
       </c>
       <c r="C597">
-        <v>64105</v>
+        <v>64207</v>
       </c>
       <c r="D597">
-        <v>14253</v>
+        <v>14255</v>
       </c>
       <c r="E597">
-        <v>118441244</v>
+        <v>118759789</v>
       </c>
       <c r="F597" t="s">
         <v>26</v>
@@ -22100,13 +22100,13 @@
         <v>12</v>
       </c>
       <c r="C600">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="D600">
         <v>131</v>
       </c>
       <c r="E600">
-        <v>6524399</v>
+        <v>6585584</v>
       </c>
       <c r="F600" t="s">
         <v>26</v>
@@ -22135,13 +22135,13 @@
         <v>12</v>
       </c>
       <c r="C601">
-        <v>30412</v>
+        <v>30486</v>
       </c>
       <c r="D601">
         <v>6072</v>
       </c>
       <c r="E601">
-        <v>160759830</v>
+        <v>161418505</v>
       </c>
       <c r="F601" t="s">
         <v>26</v>
@@ -22170,13 +22170,13 @@
         <v>12</v>
       </c>
       <c r="C602">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D602">
         <v>19</v>
       </c>
       <c r="E602">
-        <v>1077062</v>
+        <v>1119699</v>
       </c>
       <c r="F602" t="s">
         <v>26</v>
@@ -22205,13 +22205,13 @@
         <v>12</v>
       </c>
       <c r="C603">
-        <v>14415</v>
+        <v>14453</v>
       </c>
       <c r="D603">
         <v>2680</v>
       </c>
       <c r="E603">
-        <v>79832023</v>
+        <v>80105312</v>
       </c>
       <c r="F603" t="s">
         <v>26</v>
@@ -22275,13 +22275,13 @@
         <v>12</v>
       </c>
       <c r="C605">
-        <v>2397</v>
+        <v>2406</v>
       </c>
       <c r="D605">
         <v>428</v>
       </c>
       <c r="E605">
-        <v>10915971</v>
+        <v>10966248</v>
       </c>
       <c r="F605" t="s">
         <v>26</v>
@@ -22310,13 +22310,13 @@
         <v>12</v>
       </c>
       <c r="C606">
-        <v>23997</v>
+        <v>24035</v>
       </c>
       <c r="D606">
         <v>5504</v>
       </c>
       <c r="E606">
-        <v>41312844</v>
+        <v>41401212</v>
       </c>
       <c r="F606" t="s">
         <v>27</v>
@@ -22450,13 +22450,13 @@
         <v>12</v>
       </c>
       <c r="C610">
-        <v>9169</v>
+        <v>9185</v>
       </c>
       <c r="D610">
         <v>1963</v>
       </c>
       <c r="E610">
-        <v>45138200</v>
+        <v>45233048</v>
       </c>
       <c r="F610" t="s">
         <v>27</v>
@@ -22520,13 +22520,13 @@
         <v>12</v>
       </c>
       <c r="C612">
-        <v>2976</v>
+        <v>2982</v>
       </c>
       <c r="D612">
         <v>630</v>
       </c>
       <c r="E612">
-        <v>19093411</v>
+        <v>19133398</v>
       </c>
       <c r="F612" t="s">
         <v>27</v>
@@ -22555,13 +22555,13 @@
         <v>12</v>
       </c>
       <c r="C613">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D613">
         <v>73</v>
       </c>
       <c r="E613">
-        <v>976879</v>
+        <v>1009951</v>
       </c>
       <c r="F613" t="s">
         <v>27</v>
@@ -22590,13 +22590,13 @@
         <v>12</v>
       </c>
       <c r="C614">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="D614">
         <v>142</v>
       </c>
       <c r="E614">
-        <v>3041972</v>
+        <v>3061506</v>
       </c>
       <c r="F614" t="s">
         <v>27</v>
@@ -22625,13 +22625,13 @@
         <v>12</v>
       </c>
       <c r="C615">
-        <v>58190</v>
+        <v>58291</v>
       </c>
       <c r="D615">
-        <v>13714</v>
+        <v>13717</v>
       </c>
       <c r="E615">
-        <v>102994643</v>
+        <v>103256788</v>
       </c>
       <c r="F615" t="s">
         <v>27</v>
@@ -22730,13 +22730,13 @@
         <v>12</v>
       </c>
       <c r="C618">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D618">
         <v>77</v>
       </c>
       <c r="E618">
-        <v>2843256</v>
+        <v>2936694</v>
       </c>
       <c r="F618" t="s">
         <v>27</v>
@@ -22765,13 +22765,13 @@
         <v>12</v>
       </c>
       <c r="C619">
-        <v>28918</v>
+        <v>28978</v>
       </c>
       <c r="D619">
-        <v>5920</v>
+        <v>5921</v>
       </c>
       <c r="E619">
-        <v>155911087</v>
+        <v>156581373</v>
       </c>
       <c r="F619" t="s">
         <v>27</v>
@@ -22835,13 +22835,13 @@
         <v>12</v>
       </c>
       <c r="C621">
-        <v>9030</v>
+        <v>9048</v>
       </c>
       <c r="D621">
         <v>1775</v>
       </c>
       <c r="E621">
-        <v>54242779</v>
+        <v>54369499</v>
       </c>
       <c r="F621" t="s">
         <v>27</v>
@@ -22870,13 +22870,13 @@
         <v>12</v>
       </c>
       <c r="C622">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="D622">
         <v>308</v>
       </c>
       <c r="E622">
-        <v>3662016</v>
+        <v>3673787</v>
       </c>
       <c r="F622" t="s">
         <v>27</v>
@@ -22905,13 +22905,13 @@
         <v>12</v>
       </c>
       <c r="C623">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="D623">
         <v>306</v>
       </c>
       <c r="E623">
-        <v>7209092</v>
+        <v>7223553</v>
       </c>
       <c r="F623" t="s">
         <v>27</v>
@@ -22940,13 +22940,13 @@
         <v>12</v>
       </c>
       <c r="C624">
-        <v>16707</v>
+        <v>16735</v>
       </c>
       <c r="D624">
         <v>3935</v>
       </c>
       <c r="E624">
-        <v>31704830</v>
+        <v>31752330</v>
       </c>
       <c r="F624" t="s">
         <v>27</v>
@@ -23010,13 +23010,13 @@
         <v>12</v>
       </c>
       <c r="C626">
-        <v>6910</v>
+        <v>6925</v>
       </c>
       <c r="D626">
         <v>1437</v>
       </c>
       <c r="E626">
-        <v>33537015</v>
+        <v>33652162</v>
       </c>
       <c r="F626" t="s">
         <v>27</v>
@@ -23080,13 +23080,13 @@
         <v>12</v>
       </c>
       <c r="C628">
-        <v>3760</v>
+        <v>3767</v>
       </c>
       <c r="D628">
         <v>710</v>
       </c>
       <c r="E628">
-        <v>19301845</v>
+        <v>19355892</v>
       </c>
       <c r="F628" t="s">
         <v>27</v>
@@ -23115,13 +23115,13 @@
         <v>12</v>
       </c>
       <c r="C629">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D629">
         <v>207</v>
       </c>
       <c r="E629">
-        <v>1056029</v>
+        <v>1060420</v>
       </c>
       <c r="F629" t="s">
         <v>27</v>
@@ -23185,13 +23185,13 @@
         <v>12</v>
       </c>
       <c r="C631">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D631">
         <v>105</v>
       </c>
       <c r="E631">
-        <v>2312400</v>
+        <v>2320422</v>
       </c>
       <c r="F631" t="s">
         <v>27</v>
@@ -23220,13 +23220,13 @@
         <v>12</v>
       </c>
       <c r="C632">
-        <v>8154</v>
+        <v>8168</v>
       </c>
       <c r="D632">
         <v>1864</v>
       </c>
       <c r="E632">
-        <v>14384577</v>
+        <v>14411647</v>
       </c>
       <c r="F632" t="s">
         <v>27</v>
@@ -23255,13 +23255,13 @@
         <v>12</v>
       </c>
       <c r="C633">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D633">
         <v>10</v>
       </c>
       <c r="E633">
-        <v>404711</v>
+        <v>410729</v>
       </c>
       <c r="F633" t="s">
         <v>27</v>
@@ -23290,13 +23290,13 @@
         <v>12</v>
       </c>
       <c r="C634">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="D634">
         <v>418</v>
       </c>
       <c r="E634">
-        <v>8618825</v>
+        <v>8641297</v>
       </c>
       <c r="F634" t="s">
         <v>27</v>
@@ -23360,13 +23360,13 @@
         <v>12</v>
       </c>
       <c r="C636">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D636">
         <v>227</v>
       </c>
       <c r="E636">
-        <v>5187740</v>
+        <v>5200676</v>
       </c>
       <c r="F636" t="s">
         <v>27</v>
@@ -23430,13 +23430,13 @@
         <v>12</v>
       </c>
       <c r="C638">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D638">
         <v>77</v>
       </c>
       <c r="E638">
-        <v>1505749</v>
+        <v>1506486</v>
       </c>
       <c r="F638" t="s">
         <v>27</v>
@@ -23465,13 +23465,13 @@
         <v>12</v>
       </c>
       <c r="C639">
-        <v>19230</v>
+        <v>19263</v>
       </c>
       <c r="D639">
         <v>4545</v>
       </c>
       <c r="E639">
-        <v>34075406</v>
+        <v>34147864</v>
       </c>
       <c r="F639" t="s">
         <v>27</v>
@@ -23570,13 +23570,13 @@
         <v>12</v>
       </c>
       <c r="C642">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D642">
         <v>28</v>
       </c>
       <c r="E642">
-        <v>1033390</v>
+        <v>1058672</v>
       </c>
       <c r="F642" t="s">
         <v>27</v>
@@ -23605,13 +23605,13 @@
         <v>12</v>
       </c>
       <c r="C643">
-        <v>8479</v>
+        <v>8499</v>
       </c>
       <c r="D643">
         <v>1844</v>
       </c>
       <c r="E643">
-        <v>42514072</v>
+        <v>42685381</v>
       </c>
       <c r="F643" t="s">
         <v>27</v>
@@ -23675,13 +23675,13 @@
         <v>12</v>
       </c>
       <c r="C645">
-        <v>2241</v>
+        <v>2248</v>
       </c>
       <c r="D645">
         <v>434</v>
       </c>
       <c r="E645">
-        <v>12583104</v>
+        <v>12655980</v>
       </c>
       <c r="F645" t="s">
         <v>27</v>
@@ -23745,13 +23745,13 @@
         <v>12</v>
       </c>
       <c r="C647">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="D647">
         <v>197</v>
       </c>
       <c r="E647">
-        <v>3841537</v>
+        <v>3859420</v>
       </c>
       <c r="F647" t="s">
         <v>27</v>
@@ -23780,13 +23780,13 @@
         <v>12</v>
       </c>
       <c r="C648">
-        <v>42512</v>
+        <v>42585</v>
       </c>
       <c r="D648">
-        <v>9310</v>
+        <v>9312</v>
       </c>
       <c r="E648">
-        <v>78228885</v>
+        <v>78422679</v>
       </c>
       <c r="F648" t="s">
         <v>27</v>
@@ -23885,13 +23885,13 @@
         <v>12</v>
       </c>
       <c r="C651">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D651">
         <v>69</v>
       </c>
       <c r="E651">
-        <v>2478931</v>
+        <v>2492991</v>
       </c>
       <c r="F651" t="s">
         <v>27</v>
@@ -23920,13 +23920,13 @@
         <v>12</v>
       </c>
       <c r="C652">
-        <v>15269</v>
+        <v>15316</v>
       </c>
       <c r="D652">
         <v>2907</v>
       </c>
       <c r="E652">
-        <v>73622813</v>
+        <v>73958301</v>
       </c>
       <c r="F652" t="s">
         <v>27</v>
@@ -23955,13 +23955,13 @@
         <v>12</v>
       </c>
       <c r="C653">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D653">
         <v>10</v>
       </c>
       <c r="E653">
-        <v>2428678</v>
+        <v>2453261</v>
       </c>
       <c r="F653" t="s">
         <v>27</v>
@@ -23990,13 +23990,13 @@
         <v>12</v>
       </c>
       <c r="C654">
-        <v>6994</v>
+        <v>7008</v>
       </c>
       <c r="D654">
         <v>1222</v>
       </c>
       <c r="E654">
-        <v>35924035</v>
+        <v>35995621</v>
       </c>
       <c r="F654" t="s">
         <v>27</v>
@@ -24025,13 +24025,13 @@
         <v>12</v>
       </c>
       <c r="C655">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="D655">
         <v>280</v>
       </c>
       <c r="E655">
-        <v>4383032</v>
+        <v>4397235</v>
       </c>
       <c r="F655" t="s">
         <v>27</v>
@@ -24060,13 +24060,13 @@
         <v>12</v>
       </c>
       <c r="C656">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="D656">
         <v>179</v>
       </c>
       <c r="E656">
-        <v>3900770</v>
+        <v>3951026</v>
       </c>
       <c r="F656" t="s">
         <v>27</v>
@@ -24095,13 +24095,13 @@
         <v>12</v>
       </c>
       <c r="C657">
-        <v>158128</v>
+        <v>158470</v>
       </c>
       <c r="D657">
-        <v>36149</v>
+        <v>36154</v>
       </c>
       <c r="E657">
-        <v>272115897</v>
+        <v>273006671</v>
       </c>
       <c r="F657" t="s">
         <v>27</v>
@@ -24270,13 +24270,13 @@
         <v>12</v>
       </c>
       <c r="C662">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D662">
         <v>108</v>
       </c>
       <c r="E662">
-        <v>4828778</v>
+        <v>4838778</v>
       </c>
       <c r="F662" t="s">
         <v>27</v>
@@ -24340,13 +24340,13 @@
         <v>12</v>
       </c>
       <c r="C664">
-        <v>68886</v>
+        <v>69099</v>
       </c>
       <c r="D664">
         <v>14324</v>
       </c>
       <c r="E664">
-        <v>340536910</v>
+        <v>342633226</v>
       </c>
       <c r="F664" t="s">
         <v>27</v>
@@ -24375,13 +24375,13 @@
         <v>12</v>
       </c>
       <c r="C665">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D665">
         <v>37</v>
       </c>
       <c r="E665">
-        <v>4252720</v>
+        <v>4256124</v>
       </c>
       <c r="F665" t="s">
         <v>27</v>
@@ -24445,13 +24445,13 @@
         <v>12</v>
       </c>
       <c r="C667">
-        <v>36992</v>
+        <v>37109</v>
       </c>
       <c r="D667">
         <v>7138</v>
       </c>
       <c r="E667">
-        <v>189004967</v>
+        <v>189895469</v>
       </c>
       <c r="F667" t="s">
         <v>27</v>
@@ -24515,13 +24515,13 @@
         <v>12</v>
       </c>
       <c r="C669">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D669">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E669">
-        <v>636080</v>
+        <v>791148</v>
       </c>
       <c r="F669" t="s">
         <v>27</v>
@@ -24550,13 +24550,13 @@
         <v>12</v>
       </c>
       <c r="C670">
-        <v>8572</v>
+        <v>8612</v>
       </c>
       <c r="D670">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="E670">
-        <v>56318899</v>
+        <v>56736641</v>
       </c>
       <c r="F670" t="s">
         <v>27</v>
@@ -24620,13 +24620,13 @@
         <v>12</v>
       </c>
       <c r="C672">
-        <v>4649</v>
+        <v>4672</v>
       </c>
       <c r="D672">
         <v>813</v>
       </c>
       <c r="E672">
-        <v>18445328</v>
+        <v>18569803</v>
       </c>
       <c r="F672" t="s">
         <v>27</v>
@@ -24655,13 +24655,13 @@
         <v>12</v>
       </c>
       <c r="C673">
-        <v>23567</v>
+        <v>23599</v>
       </c>
       <c r="D673">
         <v>5331</v>
       </c>
       <c r="E673">
-        <v>40716705</v>
+        <v>40811012</v>
       </c>
       <c r="F673" t="s">
         <v>27</v>
@@ -24725,13 +24725,13 @@
         <v>12</v>
       </c>
       <c r="C675">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D675">
         <v>43</v>
       </c>
       <c r="E675">
-        <v>1291874</v>
+        <v>1295804</v>
       </c>
       <c r="F675" t="s">
         <v>27</v>
@@ -24760,13 +24760,13 @@
         <v>12</v>
       </c>
       <c r="C676">
-        <v>10520</v>
+        <v>10537</v>
       </c>
       <c r="D676">
         <v>2217</v>
       </c>
       <c r="E676">
-        <v>52891567</v>
+        <v>53055689</v>
       </c>
       <c r="F676" t="s">
         <v>27</v>
@@ -24830,13 +24830,13 @@
         <v>12</v>
       </c>
       <c r="C678">
-        <v>4340</v>
+        <v>4350</v>
       </c>
       <c r="D678">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E678">
-        <v>20159038</v>
+        <v>20406262</v>
       </c>
       <c r="F678" t="s">
         <v>27</v>
@@ -24900,13 +24900,13 @@
         <v>12</v>
       </c>
       <c r="C680">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="D680">
         <v>154</v>
       </c>
       <c r="E680">
-        <v>3743356</v>
+        <v>3757521</v>
       </c>
       <c r="F680" t="s">
         <v>27</v>
@@ -24935,13 +24935,13 @@
         <v>12</v>
       </c>
       <c r="C681">
-        <v>37898</v>
+        <v>37963</v>
       </c>
       <c r="D681">
         <v>8752</v>
       </c>
       <c r="E681">
-        <v>66197660</v>
+        <v>66389239</v>
       </c>
       <c r="F681" t="s">
         <v>27</v>
@@ -25075,13 +25075,13 @@
         <v>12</v>
       </c>
       <c r="C685">
-        <v>18246</v>
+        <v>18277</v>
       </c>
       <c r="D685">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="E685">
-        <v>93052586</v>
+        <v>93336240</v>
       </c>
       <c r="F685" t="s">
         <v>27</v>
@@ -25145,13 +25145,13 @@
         <v>12</v>
       </c>
       <c r="C687">
-        <v>6348</v>
+        <v>6358</v>
       </c>
       <c r="D687">
         <v>1254</v>
       </c>
       <c r="E687">
-        <v>38790711</v>
+        <v>38857749</v>
       </c>
       <c r="F687" t="s">
         <v>27</v>
@@ -25180,13 +25180,13 @@
         <v>12</v>
       </c>
       <c r="C688">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="D688">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E688">
-        <v>1800738</v>
+        <v>1809738</v>
       </c>
       <c r="F688" t="s">
         <v>27</v>
@@ -25215,13 +25215,13 @@
         <v>12</v>
       </c>
       <c r="C689">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="D689">
         <v>190</v>
       </c>
       <c r="E689">
-        <v>4604589</v>
+        <v>4632957</v>
       </c>
       <c r="F689" t="s">
         <v>27</v>
@@ -25250,13 +25250,13 @@
         <v>12</v>
       </c>
       <c r="C690">
-        <v>23747</v>
+        <v>23777</v>
       </c>
       <c r="D690">
         <v>5601</v>
       </c>
       <c r="E690">
-        <v>40262385</v>
+        <v>40317625</v>
       </c>
       <c r="F690" t="s">
         <v>27</v>
@@ -25355,13 +25355,13 @@
         <v>12</v>
       </c>
       <c r="C693">
-        <v>10418</v>
+        <v>10448</v>
       </c>
       <c r="D693">
         <v>2186</v>
       </c>
       <c r="E693">
-        <v>46370756</v>
+        <v>46697949</v>
       </c>
       <c r="F693" t="s">
         <v>27</v>
@@ -25425,13 +25425,13 @@
         <v>12</v>
       </c>
       <c r="C695">
-        <v>4288</v>
+        <v>4303</v>
       </c>
       <c r="D695">
         <v>880</v>
       </c>
       <c r="E695">
-        <v>21036090</v>
+        <v>21131976</v>
       </c>
       <c r="F695" t="s">
         <v>27</v>
@@ -25460,13 +25460,13 @@
         <v>12</v>
       </c>
       <c r="C696">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D696">
         <v>202</v>
       </c>
       <c r="E696">
-        <v>2431336</v>
+        <v>2449776</v>
       </c>
       <c r="F696" t="s">
         <v>27</v>
@@ -25495,13 +25495,13 @@
         <v>12</v>
       </c>
       <c r="C697">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="D697">
         <v>172</v>
       </c>
       <c r="E697">
-        <v>3566222</v>
+        <v>3610540</v>
       </c>
       <c r="F697" t="s">
         <v>27</v>
@@ -25530,13 +25530,13 @@
         <v>12</v>
       </c>
       <c r="C698">
-        <v>63443</v>
+        <v>63535</v>
       </c>
       <c r="D698">
         <v>14733</v>
       </c>
       <c r="E698">
-        <v>108017723</v>
+        <v>108249895</v>
       </c>
       <c r="F698" t="s">
         <v>27</v>
@@ -25600,13 +25600,13 @@
         <v>12</v>
       </c>
       <c r="C700">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D700">
         <v>82</v>
       </c>
       <c r="E700">
-        <v>3407457</v>
+        <v>3417044</v>
       </c>
       <c r="F700" t="s">
         <v>27</v>
@@ -25635,13 +25635,13 @@
         <v>12</v>
       </c>
       <c r="C701">
-        <v>34632</v>
+        <v>34732</v>
       </c>
       <c r="D701">
         <v>6895</v>
       </c>
       <c r="E701">
-        <v>174268466</v>
+        <v>175198554</v>
       </c>
       <c r="F701" t="s">
         <v>27</v>
@@ -25705,13 +25705,13 @@
         <v>12</v>
       </c>
       <c r="C703">
-        <v>13164</v>
+        <v>13201</v>
       </c>
       <c r="D703">
         <v>2459</v>
       </c>
       <c r="E703">
-        <v>73268941</v>
+        <v>73585000</v>
       </c>
       <c r="F703" t="s">
         <v>27</v>
@@ -25775,13 +25775,13 @@
         <v>12</v>
       </c>
       <c r="C705">
-        <v>1698</v>
+        <v>1705</v>
       </c>
       <c r="D705">
         <v>533</v>
       </c>
       <c r="E705">
-        <v>4097164</v>
+        <v>4128059</v>
       </c>
       <c r="F705" t="s">
         <v>27</v>
@@ -25810,13 +25810,13 @@
         <v>12</v>
       </c>
       <c r="C706">
-        <v>2253</v>
+        <v>2261</v>
       </c>
       <c r="D706">
         <v>411</v>
       </c>
       <c r="E706">
-        <v>8100880</v>
+        <v>8138812</v>
       </c>
       <c r="F706" t="s">
         <v>27</v>
@@ -25880,13 +25880,13 @@
         <v>12</v>
       </c>
       <c r="C708">
-        <v>25536</v>
+        <v>25569</v>
       </c>
       <c r="D708">
-        <v>5905</v>
+        <v>5906</v>
       </c>
       <c r="E708">
-        <v>45687784</v>
+        <v>45767406</v>
       </c>
       <c r="F708" t="s">
         <v>27</v>
@@ -25950,13 +25950,13 @@
         <v>12</v>
       </c>
       <c r="C710">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D710">
         <v>39</v>
       </c>
       <c r="E710">
-        <v>1847032</v>
+        <v>1854295</v>
       </c>
       <c r="F710" t="s">
         <v>27</v>
@@ -25985,13 +25985,13 @@
         <v>12</v>
       </c>
       <c r="C711">
-        <v>11430</v>
+        <v>11460</v>
       </c>
       <c r="D711">
         <v>2498</v>
       </c>
       <c r="E711">
-        <v>55303542</v>
+        <v>55515915</v>
       </c>
       <c r="F711" t="s">
         <v>27</v>
@@ -26090,13 +26090,13 @@
         <v>12</v>
       </c>
       <c r="C714">
-        <v>3375</v>
+        <v>3387</v>
       </c>
       <c r="D714">
         <v>667</v>
       </c>
       <c r="E714">
-        <v>20554793</v>
+        <v>20634133</v>
       </c>
       <c r="F714" t="s">
         <v>27</v>
@@ -26125,13 +26125,13 @@
         <v>12</v>
       </c>
       <c r="C715">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D715">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E715">
-        <v>712770</v>
+        <v>715218</v>
       </c>
       <c r="F715" t="s">
         <v>27</v>
@@ -26160,13 +26160,13 @@
         <v>12</v>
       </c>
       <c r="C716">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="D716">
         <v>236</v>
       </c>
       <c r="E716">
-        <v>4986828</v>
+        <v>4999666</v>
       </c>
       <c r="F716" t="s">
         <v>27</v>
@@ -26195,13 +26195,13 @@
         <v>12</v>
       </c>
       <c r="C717">
-        <v>14781</v>
+        <v>14803</v>
       </c>
       <c r="D717">
         <v>3470</v>
       </c>
       <c r="E717">
-        <v>23265521</v>
+        <v>23304902</v>
       </c>
       <c r="F717" t="s">
         <v>28</v>
@@ -26265,13 +26265,13 @@
         <v>12</v>
       </c>
       <c r="C719">
-        <v>4782</v>
+        <v>4789</v>
       </c>
       <c r="D719">
         <v>943</v>
       </c>
       <c r="E719">
-        <v>23080840</v>
+        <v>23126719</v>
       </c>
       <c r="F719" t="s">
         <v>28</v>
@@ -26335,13 +26335,13 @@
         <v>12</v>
       </c>
       <c r="C721">
-        <v>3023</v>
+        <v>3027</v>
       </c>
       <c r="D721">
         <v>569</v>
       </c>
       <c r="E721">
-        <v>13852809</v>
+        <v>13868318</v>
       </c>
       <c r="F721" t="s">
         <v>28</v>
@@ -26405,13 +26405,13 @@
         <v>12</v>
       </c>
       <c r="C723">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D723">
         <v>93</v>
       </c>
       <c r="E723">
-        <v>2301997</v>
+        <v>2311653</v>
       </c>
       <c r="F723" t="s">
         <v>28</v>
@@ -26440,13 +26440,13 @@
         <v>12</v>
       </c>
       <c r="C724">
-        <v>36730</v>
+        <v>36782</v>
       </c>
       <c r="D724">
-        <v>7906</v>
+        <v>7907</v>
       </c>
       <c r="E724">
-        <v>64672037</v>
+        <v>64799999</v>
       </c>
       <c r="F724" t="s">
         <v>28</v>
@@ -26545,13 +26545,13 @@
         <v>12</v>
       </c>
       <c r="C727">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D727">
         <v>25</v>
       </c>
       <c r="E727">
-        <v>1468072</v>
+        <v>1587458</v>
       </c>
       <c r="F727" t="s">
         <v>28</v>
@@ -26580,13 +26580,13 @@
         <v>12</v>
       </c>
       <c r="C728">
-        <v>14947</v>
+        <v>14971</v>
       </c>
       <c r="D728">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="E728">
-        <v>73868770</v>
+        <v>73999922</v>
       </c>
       <c r="F728" t="s">
         <v>28</v>
@@ -26650,13 +26650,13 @@
         <v>12</v>
       </c>
       <c r="C730">
-        <v>9628</v>
+        <v>9647</v>
       </c>
       <c r="D730">
         <v>1697</v>
       </c>
       <c r="E730">
-        <v>44547941</v>
+        <v>44630747</v>
       </c>
       <c r="F730" t="s">
         <v>28</v>
@@ -26720,13 +26720,13 @@
         <v>12</v>
       </c>
       <c r="C732">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="D732">
         <v>235</v>
       </c>
       <c r="E732">
-        <v>3976882</v>
+        <v>4002237</v>
       </c>
       <c r="F732" t="s">
         <v>28</v>
@@ -26755,13 +26755,13 @@
         <v>12</v>
       </c>
       <c r="C733">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="D733">
         <v>173</v>
       </c>
       <c r="E733">
-        <v>4436446</v>
+        <v>4466210</v>
       </c>
       <c r="F733" t="s">
         <v>28</v>
@@ -26790,13 +26790,13 @@
         <v>12</v>
       </c>
       <c r="C734">
-        <v>26060</v>
+        <v>26114</v>
       </c>
       <c r="D734">
         <v>5721</v>
       </c>
       <c r="E734">
-        <v>50449853</v>
+        <v>50565461</v>
       </c>
       <c r="F734" t="s">
         <v>28</v>
@@ -26895,13 +26895,13 @@
         <v>12</v>
       </c>
       <c r="C737">
-        <v>10737</v>
+        <v>10761</v>
       </c>
       <c r="D737">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="E737">
-        <v>51231315</v>
+        <v>51444832</v>
       </c>
       <c r="F737" t="s">
         <v>28</v>
@@ -26930,13 +26930,13 @@
         <v>12</v>
       </c>
       <c r="C738">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D738">
         <v>9</v>
       </c>
       <c r="E738">
-        <v>1042144</v>
+        <v>1062749</v>
       </c>
       <c r="F738" t="s">
         <v>28</v>
@@ -26965,13 +26965,13 @@
         <v>12</v>
       </c>
       <c r="C739">
-        <v>3821</v>
+        <v>3829</v>
       </c>
       <c r="D739">
         <v>669</v>
       </c>
       <c r="E739">
-        <v>21217214</v>
+        <v>21240465</v>
       </c>
       <c r="F739" t="s">
         <v>28</v>
@@ -27035,13 +27035,13 @@
         <v>12</v>
       </c>
       <c r="C741">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="D741">
         <v>408</v>
       </c>
       <c r="E741">
-        <v>1778660</v>
+        <v>1783160</v>
       </c>
       <c r="F741" t="s">
         <v>28</v>
@@ -27070,13 +27070,13 @@
         <v>12</v>
       </c>
       <c r="C742">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="D742">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E742">
-        <v>4490612</v>
+        <v>4528300</v>
       </c>
       <c r="F742" t="s">
         <v>28</v>
@@ -27105,13 +27105,13 @@
         <v>12</v>
       </c>
       <c r="C743">
-        <v>73462</v>
+        <v>73591</v>
       </c>
       <c r="D743">
-        <v>15648</v>
+        <v>15649</v>
       </c>
       <c r="E743">
-        <v>120442652</v>
+        <v>120745020</v>
       </c>
       <c r="F743" t="s">
         <v>28</v>
@@ -27175,13 +27175,13 @@
         <v>12</v>
       </c>
       <c r="C745">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D745">
         <v>22</v>
       </c>
       <c r="E745">
-        <v>166121</v>
+        <v>167783</v>
       </c>
       <c r="F745" t="s">
         <v>28</v>
@@ -27210,13 +27210,13 @@
         <v>12</v>
       </c>
       <c r="C746">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D746">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E746">
-        <v>1698580</v>
+        <v>1758427</v>
       </c>
       <c r="F746" t="s">
         <v>28</v>
@@ -27245,13 +27245,13 @@
         <v>12</v>
       </c>
       <c r="C747">
-        <v>34734</v>
+        <v>34816</v>
       </c>
       <c r="D747">
-        <v>6877</v>
+        <v>6878</v>
       </c>
       <c r="E747">
-        <v>153717115</v>
+        <v>154245381</v>
       </c>
       <c r="F747" t="s">
         <v>28</v>
@@ -27315,13 +27315,13 @@
         <v>12</v>
       </c>
       <c r="C749">
-        <v>17329</v>
+        <v>17390</v>
       </c>
       <c r="D749">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="E749">
-        <v>79537225</v>
+        <v>79919855</v>
       </c>
       <c r="F749" t="s">
         <v>28</v>
@@ -27385,13 +27385,13 @@
         <v>12</v>
       </c>
       <c r="C751">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D751">
         <v>389</v>
       </c>
       <c r="E751">
-        <v>6459630</v>
+        <v>6461130</v>
       </c>
       <c r="F751" t="s">
         <v>28</v>
@@ -27420,13 +27420,13 @@
         <v>12</v>
       </c>
       <c r="C752">
-        <v>2666</v>
+        <v>2681</v>
       </c>
       <c r="D752">
         <v>419</v>
       </c>
       <c r="E752">
-        <v>8224967</v>
+        <v>8279472</v>
       </c>
       <c r="F752" t="s">
         <v>28</v>
@@ -27455,13 +27455,13 @@
         <v>12</v>
       </c>
       <c r="C753">
-        <v>16587</v>
+        <v>16604</v>
       </c>
       <c r="D753">
         <v>3856</v>
       </c>
       <c r="E753">
-        <v>29843033</v>
+        <v>29904819</v>
       </c>
       <c r="F753" t="s">
         <v>28</v>
@@ -27525,13 +27525,13 @@
         <v>12</v>
       </c>
       <c r="C755">
-        <v>6602</v>
+        <v>6611</v>
       </c>
       <c r="D755">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="E755">
-        <v>28263041</v>
+        <v>28307163</v>
       </c>
       <c r="F755" t="s">
         <v>28</v>
@@ -27595,13 +27595,13 @@
         <v>12</v>
       </c>
       <c r="C757">
-        <v>3261</v>
+        <v>3264</v>
       </c>
       <c r="D757">
         <v>622</v>
       </c>
       <c r="E757">
-        <v>14729862</v>
+        <v>14739812</v>
       </c>
       <c r="F757" t="s">
         <v>28</v>
@@ -27630,13 +27630,13 @@
         <v>12</v>
       </c>
       <c r="C758">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="D758">
         <v>365</v>
       </c>
       <c r="E758">
-        <v>6515645</v>
+        <v>6589691</v>
       </c>
       <c r="F758" t="s">
         <v>28</v>
@@ -27665,13 +27665,13 @@
         <v>12</v>
       </c>
       <c r="C759">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="D759">
         <v>127</v>
       </c>
       <c r="E759">
-        <v>2875544</v>
+        <v>2935283</v>
       </c>
       <c r="F759" t="s">
         <v>28</v>
@@ -27700,13 +27700,13 @@
         <v>12</v>
       </c>
       <c r="C760">
-        <v>127963</v>
+        <v>128154</v>
       </c>
       <c r="D760">
-        <v>28558</v>
+        <v>28563</v>
       </c>
       <c r="E760">
-        <v>200177949</v>
+        <v>200614478</v>
       </c>
       <c r="F760" t="s">
         <v>28</v>
@@ -27875,13 +27875,13 @@
         <v>12</v>
       </c>
       <c r="C765">
-        <v>55605</v>
+        <v>55735</v>
       </c>
       <c r="D765">
-        <v>11204</v>
+        <v>11209</v>
       </c>
       <c r="E765">
-        <v>268137898</v>
+        <v>269212610</v>
       </c>
       <c r="F765" t="s">
         <v>28</v>
@@ -27910,13 +27910,13 @@
         <v>12</v>
       </c>
       <c r="C766">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D766">
         <v>34</v>
       </c>
       <c r="E766">
-        <v>4524951</v>
+        <v>4536451</v>
       </c>
       <c r="F766" t="s">
         <v>28</v>
@@ -27980,13 +27980,13 @@
         <v>12</v>
       </c>
       <c r="C768">
-        <v>34877</v>
+        <v>34952</v>
       </c>
       <c r="D768">
-        <v>6758</v>
+        <v>6759</v>
       </c>
       <c r="E768">
-        <v>161174543</v>
+        <v>161826723</v>
       </c>
       <c r="F768" t="s">
         <v>28</v>
@@ -28050,13 +28050,13 @@
         <v>12</v>
       </c>
       <c r="C770">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D770">
         <v>272</v>
       </c>
       <c r="E770">
-        <v>1655838</v>
+        <v>1660995</v>
       </c>
       <c r="F770" t="s">
         <v>28</v>
@@ -28120,13 +28120,13 @@
         <v>12</v>
       </c>
       <c r="C772">
-        <v>5083</v>
+        <v>5112</v>
       </c>
       <c r="D772">
         <v>834</v>
       </c>
       <c r="E772">
-        <v>18936826</v>
+        <v>19137433</v>
       </c>
       <c r="F772" t="s">
         <v>28</v>
@@ -28155,13 +28155,13 @@
         <v>12</v>
       </c>
       <c r="C773">
-        <v>27379</v>
+        <v>27429</v>
       </c>
       <c r="D773">
         <v>5389</v>
       </c>
       <c r="E773">
-        <v>56118482</v>
+        <v>56347452</v>
       </c>
       <c r="F773" t="s">
         <v>28</v>
@@ -28225,13 +28225,13 @@
         <v>12</v>
       </c>
       <c r="C775">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D775">
         <v>13</v>
       </c>
       <c r="E775">
-        <v>315698</v>
+        <v>321102</v>
       </c>
       <c r="F775" t="s">
         <v>28</v>
@@ -28260,13 +28260,13 @@
         <v>12</v>
       </c>
       <c r="C776">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D776">
         <v>30</v>
       </c>
       <c r="E776">
-        <v>2039507</v>
+        <v>2055661</v>
       </c>
       <c r="F776" t="s">
         <v>28</v>
@@ -28295,13 +28295,13 @@
         <v>12</v>
       </c>
       <c r="C777">
-        <v>12495</v>
+        <v>12521</v>
       </c>
       <c r="D777">
         <v>2044</v>
       </c>
       <c r="E777">
-        <v>71455304</v>
+        <v>71686547</v>
       </c>
       <c r="F777" t="s">
         <v>28</v>
@@ -28400,13 +28400,13 @@
         <v>12</v>
       </c>
       <c r="C780">
-        <v>4146</v>
+        <v>4155</v>
       </c>
       <c r="D780">
         <v>691</v>
       </c>
       <c r="E780">
-        <v>25720469</v>
+        <v>25873374</v>
       </c>
       <c r="F780" t="s">
         <v>28</v>
@@ -28540,13 +28540,13 @@
         <v>12</v>
       </c>
       <c r="C784">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D784">
         <v>146</v>
       </c>
       <c r="E784">
-        <v>4334365</v>
+        <v>4345865</v>
       </c>
       <c r="F784" t="s">
         <v>28</v>
@@ -28575,13 +28575,13 @@
         <v>12</v>
       </c>
       <c r="C785">
-        <v>130399</v>
+        <v>130669</v>
       </c>
       <c r="D785">
-        <v>28135</v>
+        <v>28138</v>
       </c>
       <c r="E785">
-        <v>208163048</v>
+        <v>208715709</v>
       </c>
       <c r="F785" t="s">
         <v>28</v>
@@ -28645,13 +28645,13 @@
         <v>12</v>
       </c>
       <c r="C787">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D787">
         <v>22</v>
       </c>
       <c r="E787">
-        <v>499408</v>
+        <v>509408</v>
       </c>
       <c r="F787" t="s">
         <v>28</v>
@@ -28715,13 +28715,13 @@
         <v>12</v>
       </c>
       <c r="C789">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D789">
         <v>72</v>
       </c>
       <c r="E789">
-        <v>3573036</v>
+        <v>3583036</v>
       </c>
       <c r="F789" t="s">
         <v>28</v>
@@ -28785,13 +28785,13 @@
         <v>12</v>
       </c>
       <c r="C791">
-        <v>60647</v>
+        <v>60785</v>
       </c>
       <c r="D791">
-        <v>11574</v>
+        <v>11575</v>
       </c>
       <c r="E791">
-        <v>291751489</v>
+        <v>293101855</v>
       </c>
       <c r="F791" t="s">
         <v>28</v>
@@ -28820,13 +28820,13 @@
         <v>12</v>
       </c>
       <c r="C792">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D792">
         <v>24</v>
       </c>
       <c r="E792">
-        <v>5244259</v>
+        <v>5270318</v>
       </c>
       <c r="F792" t="s">
         <v>28</v>
@@ -28890,13 +28890,13 @@
         <v>12</v>
       </c>
       <c r="C794">
-        <v>41936</v>
+        <v>42040</v>
       </c>
       <c r="D794">
         <v>7419</v>
       </c>
       <c r="E794">
-        <v>196360812</v>
+        <v>197041935</v>
       </c>
       <c r="F794" t="s">
         <v>28</v>
@@ -28925,13 +28925,13 @@
         <v>12</v>
       </c>
       <c r="C795">
-        <v>2462</v>
+        <v>2470</v>
       </c>
       <c r="D795">
         <v>585</v>
       </c>
       <c r="E795">
-        <v>10039712</v>
+        <v>10086564</v>
       </c>
       <c r="F795" t="s">
         <v>28</v>
@@ -28960,13 +28960,13 @@
         <v>12</v>
       </c>
       <c r="C796">
-        <v>5141</v>
+        <v>5162</v>
       </c>
       <c r="D796">
         <v>768</v>
       </c>
       <c r="E796">
-        <v>17932233</v>
+        <v>18034958</v>
       </c>
       <c r="F796" t="s">
         <v>28</v>
@@ -28995,13 +28995,13 @@
         <v>12</v>
       </c>
       <c r="C797">
-        <v>17232</v>
+        <v>17266</v>
       </c>
       <c r="D797">
         <v>3895</v>
       </c>
       <c r="E797">
-        <v>31773284</v>
+        <v>31858922</v>
       </c>
       <c r="F797" t="s">
         <v>28</v>
@@ -29065,13 +29065,13 @@
         <v>12</v>
       </c>
       <c r="C799">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D799">
         <v>20</v>
       </c>
       <c r="E799">
-        <v>877913</v>
+        <v>889148</v>
       </c>
       <c r="F799" t="s">
         <v>28</v>
@@ -29100,13 +29100,13 @@
         <v>12</v>
       </c>
       <c r="C800">
-        <v>6890</v>
+        <v>6920</v>
       </c>
       <c r="D800">
         <v>1323</v>
       </c>
       <c r="E800">
-        <v>32006373</v>
+        <v>32188928</v>
       </c>
       <c r="F800" t="s">
         <v>28</v>
@@ -29135,13 +29135,13 @@
         <v>12</v>
       </c>
       <c r="C801">
-        <v>3139</v>
+        <v>3147</v>
       </c>
       <c r="D801">
         <v>580</v>
       </c>
       <c r="E801">
-        <v>17894634</v>
+        <v>17957993</v>
       </c>
       <c r="F801" t="s">
         <v>28</v>
@@ -29170,13 +29170,13 @@
         <v>12</v>
       </c>
       <c r="C802">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D802">
         <v>204</v>
       </c>
       <c r="E802">
-        <v>1934330</v>
+        <v>1942326</v>
       </c>
       <c r="F802" t="s">
         <v>28</v>
@@ -29205,13 +29205,13 @@
         <v>12</v>
       </c>
       <c r="C803">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="D803">
         <v>113</v>
       </c>
       <c r="E803">
-        <v>3094416</v>
+        <v>3115486</v>
       </c>
       <c r="F803" t="s">
         <v>28</v>
@@ -29240,13 +29240,13 @@
         <v>12</v>
       </c>
       <c r="C804">
-        <v>8715</v>
+        <v>8752</v>
       </c>
       <c r="D804">
         <v>1913</v>
       </c>
       <c r="E804">
-        <v>18229508</v>
+        <v>18303358</v>
       </c>
       <c r="F804" t="s">
         <v>28</v>
@@ -29310,13 +29310,13 @@
         <v>12</v>
       </c>
       <c r="C806">
-        <v>3234</v>
+        <v>3240</v>
       </c>
       <c r="D806">
         <v>629</v>
       </c>
       <c r="E806">
-        <v>16820441</v>
+        <v>16893211</v>
       </c>
       <c r="F806" t="s">
         <v>28</v>
@@ -29380,13 +29380,13 @@
         <v>12</v>
       </c>
       <c r="C808">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="D808">
         <v>205</v>
       </c>
       <c r="E808">
-        <v>5898840</v>
+        <v>5935033</v>
       </c>
       <c r="F808" t="s">
         <v>28</v>
@@ -29415,13 +29415,13 @@
         <v>12</v>
       </c>
       <c r="C809">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D809">
         <v>99</v>
       </c>
       <c r="E809">
-        <v>403163</v>
+        <v>411810</v>
       </c>
       <c r="F809" t="s">
         <v>28</v>
@@ -29450,13 +29450,13 @@
         <v>12</v>
       </c>
       <c r="C810">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D810">
         <v>72</v>
       </c>
       <c r="E810">
-        <v>1248117</v>
+        <v>1259557</v>
       </c>
       <c r="F810" t="s">
         <v>28</v>
@@ -29485,13 +29485,13 @@
         <v>12</v>
       </c>
       <c r="C811">
-        <v>49150</v>
+        <v>49220</v>
       </c>
       <c r="D811">
         <v>10665</v>
       </c>
       <c r="E811">
-        <v>85272203</v>
+        <v>85443930</v>
       </c>
       <c r="F811" t="s">
         <v>28</v>
@@ -29625,13 +29625,13 @@
         <v>12</v>
       </c>
       <c r="C815">
-        <v>21696</v>
+        <v>21748</v>
       </c>
       <c r="D815">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="E815">
-        <v>104457689</v>
+        <v>104717690</v>
       </c>
       <c r="F815" t="s">
         <v>28</v>
@@ -29695,13 +29695,13 @@
         <v>12</v>
       </c>
       <c r="C817">
-        <v>14287</v>
+        <v>14329</v>
       </c>
       <c r="D817">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="E817">
-        <v>78502013</v>
+        <v>78799378</v>
       </c>
       <c r="F817" t="s">
         <v>28</v>
@@ -29765,13 +29765,13 @@
         <v>12</v>
       </c>
       <c r="C819">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D819">
         <v>270</v>
       </c>
       <c r="E819">
-        <v>3606799</v>
+        <v>3615775</v>
       </c>
       <c r="F819" t="s">
         <v>28</v>
@@ -29835,13 +29835,13 @@
         <v>12</v>
       </c>
       <c r="C821">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="D821">
         <v>275</v>
       </c>
       <c r="E821">
-        <v>5386198</v>
+        <v>5414882</v>
       </c>
       <c r="F821" t="s">
         <v>28</v>
@@ -29870,13 +29870,13 @@
         <v>12</v>
       </c>
       <c r="C822">
-        <v>30657</v>
+        <v>30717</v>
       </c>
       <c r="D822">
         <v>7235</v>
       </c>
       <c r="E822">
-        <v>48097290</v>
+        <v>48204768</v>
       </c>
       <c r="F822" t="s">
         <v>28</v>
@@ -29940,13 +29940,13 @@
         <v>12</v>
       </c>
       <c r="C824">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D824">
         <v>21</v>
       </c>
       <c r="E824">
-        <v>841146</v>
+        <v>851146</v>
       </c>
       <c r="F824" t="s">
         <v>28</v>
@@ -29975,13 +29975,13 @@
         <v>12</v>
       </c>
       <c r="C825">
-        <v>12627</v>
+        <v>12650</v>
       </c>
       <c r="D825">
         <v>2819</v>
       </c>
       <c r="E825">
-        <v>54978520</v>
+        <v>55119306</v>
       </c>
       <c r="F825" t="s">
         <v>28</v>
@@ -30045,13 +30045,13 @@
         <v>12</v>
       </c>
       <c r="C827">
-        <v>6362</v>
+        <v>6374</v>
       </c>
       <c r="D827">
         <v>1279</v>
       </c>
       <c r="E827">
-        <v>24865185</v>
+        <v>24912605</v>
       </c>
       <c r="F827" t="s">
         <v>28</v>
@@ -30080,13 +30080,13 @@
         <v>12</v>
       </c>
       <c r="C828">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D828">
         <v>134</v>
       </c>
       <c r="E828">
-        <v>1764862</v>
+        <v>1771647</v>
       </c>
       <c r="F828" t="s">
         <v>28</v>
@@ -30115,13 +30115,13 @@
         <v>12</v>
       </c>
       <c r="C829">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D829">
         <v>220</v>
       </c>
       <c r="E829">
-        <v>4292429</v>
+        <v>4296441</v>
       </c>
       <c r="F829" t="s">
         <v>28</v>
@@ -30150,13 +30150,13 @@
         <v>12</v>
       </c>
       <c r="C830">
-        <v>20324</v>
+        <v>20344</v>
       </c>
       <c r="D830">
         <v>4769</v>
       </c>
       <c r="E830">
-        <v>32781578</v>
+        <v>32843521</v>
       </c>
       <c r="F830" t="s">
         <v>28</v>
@@ -30255,13 +30255,13 @@
         <v>12</v>
       </c>
       <c r="C833">
-        <v>8032</v>
+        <v>8041</v>
       </c>
       <c r="D833">
         <v>1830</v>
       </c>
       <c r="E833">
-        <v>35145091</v>
+        <v>35177539</v>
       </c>
       <c r="F833" t="s">
         <v>28</v>
@@ -30325,13 +30325,13 @@
         <v>12</v>
       </c>
       <c r="C835">
-        <v>3989</v>
+        <v>3998</v>
       </c>
       <c r="D835">
         <v>805</v>
       </c>
       <c r="E835">
-        <v>17133275</v>
+        <v>17188245</v>
       </c>
       <c r="F835" t="s">
         <v>28</v>
@@ -30395,13 +30395,13 @@
         <v>12</v>
       </c>
       <c r="C837">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D837">
         <v>128</v>
       </c>
       <c r="E837">
-        <v>2560250</v>
+        <v>2564220</v>
       </c>
       <c r="F837" t="s">
         <v>28</v>
@@ -30430,13 +30430,13 @@
         <v>12</v>
       </c>
       <c r="C838">
-        <v>92904</v>
+        <v>93067</v>
       </c>
       <c r="D838">
-        <v>22262</v>
+        <v>22266</v>
       </c>
       <c r="E838">
-        <v>160111393</v>
+        <v>160524309</v>
       </c>
       <c r="F838" t="s">
         <v>29</v>
@@ -30535,13 +30535,13 @@
         <v>12</v>
       </c>
       <c r="C841">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D841">
         <v>141</v>
       </c>
       <c r="E841">
-        <v>5698937</v>
+        <v>5723741</v>
       </c>
       <c r="F841" t="s">
         <v>29</v>
@@ -30570,13 +30570,13 @@
         <v>12</v>
       </c>
       <c r="C842">
-        <v>55180</v>
+        <v>55321</v>
       </c>
       <c r="D842">
-        <v>11351</v>
+        <v>11352</v>
       </c>
       <c r="E842">
-        <v>275098469</v>
+        <v>276225150</v>
       </c>
       <c r="F842" t="s">
         <v>29</v>
@@ -30640,13 +30640,13 @@
         <v>12</v>
       </c>
       <c r="C844">
-        <v>17464</v>
+        <v>17516</v>
       </c>
       <c r="D844">
         <v>3341</v>
       </c>
       <c r="E844">
-        <v>105000439</v>
+        <v>105899968</v>
       </c>
       <c r="F844" t="s">
         <v>29</v>
@@ -30675,13 +30675,13 @@
         <v>12</v>
       </c>
       <c r="C845">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="D845">
         <v>390</v>
       </c>
       <c r="E845">
-        <v>4825070</v>
+        <v>4849936</v>
       </c>
       <c r="F845" t="s">
         <v>29</v>
@@ -30710,13 +30710,13 @@
         <v>12</v>
       </c>
       <c r="C846">
-        <v>3482</v>
+        <v>3504</v>
       </c>
       <c r="D846">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E846">
-        <v>16167899</v>
+        <v>16296297</v>
       </c>
       <c r="F846" t="s">
         <v>29</v>
@@ -30745,13 +30745,13 @@
         <v>12</v>
       </c>
       <c r="C847">
-        <v>46554</v>
+        <v>46650</v>
       </c>
       <c r="D847">
         <v>10714</v>
       </c>
       <c r="E847">
-        <v>85290470</v>
+        <v>85538459</v>
       </c>
       <c r="F847" t="s">
         <v>29</v>
@@ -30780,13 +30780,13 @@
         <v>12</v>
       </c>
       <c r="C848">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D848">
         <v>9</v>
       </c>
       <c r="E848">
-        <v>286026</v>
+        <v>301892</v>
       </c>
       <c r="F848" t="s">
         <v>29</v>
@@ -30815,13 +30815,13 @@
         <v>12</v>
       </c>
       <c r="C849">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D849">
         <v>83</v>
       </c>
       <c r="E849">
-        <v>4564133</v>
+        <v>4578579</v>
       </c>
       <c r="F849" t="s">
         <v>29</v>
@@ -30850,13 +30850,13 @@
         <v>12</v>
       </c>
       <c r="C850">
-        <v>25659</v>
+        <v>25741</v>
       </c>
       <c r="D850">
-        <v>5520</v>
+        <v>5521</v>
       </c>
       <c r="E850">
-        <v>126708799</v>
+        <v>127386602</v>
       </c>
       <c r="F850" t="s">
         <v>29</v>
@@ -30885,13 +30885,13 @@
         <v>12</v>
       </c>
       <c r="C851">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D851">
         <v>12</v>
       </c>
       <c r="E851">
-        <v>2338869</v>
+        <v>2362381</v>
       </c>
       <c r="F851" t="s">
         <v>29</v>
@@ -30955,13 +30955,13 @@
         <v>12</v>
       </c>
       <c r="C853">
-        <v>6967</v>
+        <v>6998</v>
       </c>
       <c r="D853">
         <v>1346</v>
       </c>
       <c r="E853">
-        <v>40628878</v>
+        <v>40894899</v>
       </c>
       <c r="F853" t="s">
         <v>29</v>
@@ -31025,13 +31025,13 @@
         <v>12</v>
       </c>
       <c r="C855">
-        <v>1566</v>
+        <v>1572</v>
       </c>
       <c r="D855">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E855">
-        <v>7007443</v>
+        <v>7044253</v>
       </c>
       <c r="F855" t="s">
         <v>29</v>
@@ -31060,13 +31060,13 @@
         <v>12</v>
       </c>
       <c r="C856">
-        <v>2319</v>
+        <v>2331</v>
       </c>
       <c r="D856">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E856">
-        <v>9005581</v>
+        <v>9082526</v>
       </c>
       <c r="F856" t="s">
         <v>29</v>
@@ -31095,13 +31095,13 @@
         <v>12</v>
       </c>
       <c r="C857">
-        <v>15066</v>
+        <v>15098</v>
       </c>
       <c r="D857">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="E857">
-        <v>29840005</v>
+        <v>29951927</v>
       </c>
       <c r="F857" t="s">
         <v>29</v>
@@ -31165,13 +31165,13 @@
         <v>12</v>
       </c>
       <c r="C859">
-        <v>7307</v>
+        <v>7319</v>
       </c>
       <c r="D859">
         <v>1700</v>
       </c>
       <c r="E859">
-        <v>34018203</v>
+        <v>34100765</v>
       </c>
       <c r="F859" t="s">
         <v>29</v>
@@ -31200,13 +31200,13 @@
         <v>12</v>
       </c>
       <c r="C860">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="D860">
         <v>403</v>
       </c>
       <c r="E860">
-        <v>9606095</v>
+        <v>9721034</v>
       </c>
       <c r="F860" t="s">
         <v>29</v>
@@ -31235,13 +31235,13 @@
         <v>12</v>
       </c>
       <c r="C861">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D861">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E861">
-        <v>1042151</v>
+        <v>1053651</v>
       </c>
       <c r="F861" t="s">
         <v>29</v>
@@ -31270,13 +31270,13 @@
         <v>12</v>
       </c>
       <c r="C862">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D862">
         <v>139</v>
       </c>
       <c r="E862">
-        <v>3346568</v>
+        <v>3356568</v>
       </c>
       <c r="F862" t="s">
         <v>29</v>
@@ -31305,13 +31305,13 @@
         <v>12</v>
       </c>
       <c r="C863">
-        <v>27889</v>
+        <v>27944</v>
       </c>
       <c r="D863">
         <v>6340</v>
       </c>
       <c r="E863">
-        <v>52406298</v>
+        <v>52569265</v>
       </c>
       <c r="F863" t="s">
         <v>29</v>
@@ -31410,13 +31410,13 @@
         <v>12</v>
       </c>
       <c r="C866">
-        <v>13567</v>
+        <v>13598</v>
       </c>
       <c r="D866">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="E866">
-        <v>69404436</v>
+        <v>69626516</v>
       </c>
       <c r="F866" t="s">
         <v>29</v>
@@ -31445,13 +31445,13 @@
         <v>12</v>
       </c>
       <c r="C867">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D867">
         <v>10</v>
       </c>
       <c r="E867">
-        <v>1514591</v>
+        <v>1523355</v>
       </c>
       <c r="F867" t="s">
         <v>29</v>
@@ -31480,13 +31480,13 @@
         <v>12</v>
       </c>
       <c r="C868">
-        <v>4171</v>
+        <v>4182</v>
       </c>
       <c r="D868">
         <v>793</v>
       </c>
       <c r="E868">
-        <v>25962010</v>
+        <v>26108824</v>
       </c>
       <c r="F868" t="s">
         <v>29</v>
@@ -31515,13 +31515,13 @@
         <v>12</v>
       </c>
       <c r="C869">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D869">
         <v>98</v>
       </c>
       <c r="E869">
-        <v>799628</v>
+        <v>801128</v>
       </c>
       <c r="F869" t="s">
         <v>29</v>
@@ -31550,13 +31550,13 @@
         <v>12</v>
       </c>
       <c r="C870">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D870">
         <v>170</v>
       </c>
       <c r="E870">
-        <v>4375809</v>
+        <v>4384554</v>
       </c>
       <c r="F870" t="s">
         <v>29</v>
@@ -31585,13 +31585,13 @@
         <v>12</v>
       </c>
       <c r="C871">
-        <v>40733</v>
+        <v>40816</v>
       </c>
       <c r="D871">
         <v>9636</v>
       </c>
       <c r="E871">
-        <v>73766291</v>
+        <v>73960334</v>
       </c>
       <c r="F871" t="s">
         <v>29</v>
@@ -31725,13 +31725,13 @@
         <v>12</v>
       </c>
       <c r="C875">
-        <v>26756</v>
+        <v>26815</v>
       </c>
       <c r="D875">
-        <v>5677</v>
+        <v>5678</v>
       </c>
       <c r="E875">
-        <v>141754329</v>
+        <v>142334894</v>
       </c>
       <c r="F875" t="s">
         <v>29</v>
@@ -31795,13 +31795,13 @@
         <v>12</v>
       </c>
       <c r="C877">
-        <v>6739</v>
+        <v>6768</v>
       </c>
       <c r="D877">
         <v>1288</v>
       </c>
       <c r="E877">
-        <v>48672884</v>
+        <v>49126209</v>
       </c>
       <c r="F877" t="s">
         <v>29</v>
@@ -31900,13 +31900,13 @@
         <v>12</v>
       </c>
       <c r="C880">
-        <v>1542</v>
+        <v>1549</v>
       </c>
       <c r="D880">
         <v>273</v>
       </c>
       <c r="E880">
-        <v>6146513</v>
+        <v>6204790</v>
       </c>
       <c r="F880" t="s">
         <v>29</v>
@@ -31935,13 +31935,13 @@
         <v>12</v>
       </c>
       <c r="C881">
-        <v>20443</v>
+        <v>20501</v>
       </c>
       <c r="D881">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E881">
-        <v>39947271</v>
+        <v>40171769</v>
       </c>
       <c r="F881" t="s">
         <v>30</v>
@@ -32075,13 +32075,13 @@
         <v>12</v>
       </c>
       <c r="C885">
-        <v>9038</v>
+        <v>9064</v>
       </c>
       <c r="D885">
         <v>1580</v>
       </c>
       <c r="E885">
-        <v>44485384</v>
+        <v>44724361</v>
       </c>
       <c r="F885" t="s">
         <v>30</v>
@@ -32145,13 +32145,13 @@
         <v>12</v>
       </c>
       <c r="C887">
-        <v>4684</v>
+        <v>4691</v>
       </c>
       <c r="D887">
         <v>778</v>
       </c>
       <c r="E887">
-        <v>24236212</v>
+        <v>24310111</v>
       </c>
       <c r="F887" t="s">
         <v>30</v>
@@ -32250,13 +32250,13 @@
         <v>12</v>
       </c>
       <c r="C890">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D890">
         <v>4</v>
       </c>
       <c r="E890">
-        <v>107158</v>
+        <v>109558</v>
       </c>
       <c r="F890" t="s">
         <v>30</v>
@@ -32285,13 +32285,13 @@
         <v>12</v>
       </c>
       <c r="C891">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D891">
         <v>134</v>
       </c>
       <c r="E891">
-        <v>3057760</v>
+        <v>3065270</v>
       </c>
       <c r="F891" t="s">
         <v>30</v>
@@ -32320,13 +32320,13 @@
         <v>12</v>
       </c>
       <c r="C892">
-        <v>161319</v>
+        <v>161580</v>
       </c>
       <c r="D892">
-        <v>30693</v>
+        <v>30694</v>
       </c>
       <c r="E892">
-        <v>274792713</v>
+        <v>275399712</v>
       </c>
       <c r="F892" t="s">
         <v>30</v>
@@ -32390,13 +32390,13 @@
         <v>12</v>
       </c>
       <c r="C894">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D894">
         <v>38</v>
       </c>
       <c r="E894">
-        <v>557842</v>
+        <v>567842</v>
       </c>
       <c r="F894" t="s">
         <v>30</v>
@@ -32495,13 +32495,13 @@
         <v>12</v>
       </c>
       <c r="C897">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D897">
         <v>146</v>
       </c>
       <c r="E897">
-        <v>9257955</v>
+        <v>9294366</v>
       </c>
       <c r="F897" t="s">
         <v>30</v>
@@ -32565,13 +32565,13 @@
         <v>12</v>
       </c>
       <c r="C899">
-        <v>76869</v>
+        <v>77064</v>
       </c>
       <c r="D899">
-        <v>13178</v>
+        <v>13179</v>
       </c>
       <c r="E899">
-        <v>410798926</v>
+        <v>412540644</v>
       </c>
       <c r="F899" t="s">
         <v>30</v>
@@ -32600,13 +32600,13 @@
         <v>12</v>
       </c>
       <c r="C900">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D900">
         <v>54</v>
       </c>
       <c r="E900">
-        <v>9231821</v>
+        <v>9241821</v>
       </c>
       <c r="F900" t="s">
         <v>30</v>
@@ -32670,13 +32670,13 @@
         <v>12</v>
       </c>
       <c r="C902">
-        <v>55949</v>
+        <v>56092</v>
       </c>
       <c r="D902">
-        <v>8941</v>
+        <v>8942</v>
       </c>
       <c r="E902">
-        <v>300712863</v>
+        <v>302362787</v>
       </c>
       <c r="F902" t="s">
         <v>30</v>
@@ -32740,13 +32740,13 @@
         <v>12</v>
       </c>
       <c r="C904">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D904">
         <v>299</v>
       </c>
       <c r="E904">
-        <v>2310840</v>
+        <v>2313176</v>
       </c>
       <c r="F904" t="s">
         <v>30</v>
@@ -32775,13 +32775,13 @@
         <v>12</v>
       </c>
       <c r="C905">
-        <v>3237</v>
+        <v>3250</v>
       </c>
       <c r="D905">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E905">
-        <v>12618751</v>
+        <v>12748196</v>
       </c>
       <c r="F905" t="s">
         <v>30</v>
@@ -32810,13 +32810,13 @@
         <v>12</v>
       </c>
       <c r="C906">
-        <v>193139</v>
+        <v>193392</v>
       </c>
       <c r="D906">
-        <v>40303</v>
+        <v>40304</v>
       </c>
       <c r="E906">
-        <v>317899112</v>
+        <v>318355894</v>
       </c>
       <c r="F906" t="s">
         <v>30</v>
@@ -32845,13 +32845,13 @@
         <v>12</v>
       </c>
       <c r="C907">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D907">
         <v>25</v>
       </c>
       <c r="E907">
-        <v>464541</v>
+        <v>470545</v>
       </c>
       <c r="F907" t="s">
         <v>30</v>
@@ -32985,13 +32985,13 @@
         <v>12</v>
       </c>
       <c r="C911">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="D911">
         <v>208</v>
       </c>
       <c r="E911">
-        <v>10383797</v>
+        <v>10474516</v>
       </c>
       <c r="F911" t="s">
         <v>30</v>
@@ -33055,13 +33055,13 @@
         <v>12</v>
       </c>
       <c r="C913">
-        <v>91898</v>
+        <v>92080</v>
       </c>
       <c r="D913">
-        <v>17527</v>
+        <v>17529</v>
       </c>
       <c r="E913">
-        <v>433279340</v>
+        <v>435139966</v>
       </c>
       <c r="F913" t="s">
         <v>30</v>
@@ -33160,13 +33160,13 @@
         <v>12</v>
       </c>
       <c r="C916">
-        <v>74896</v>
+        <v>75049</v>
       </c>
       <c r="D916">
-        <v>13339</v>
+        <v>13340</v>
       </c>
       <c r="E916">
-        <v>353999548</v>
+        <v>355207627</v>
       </c>
       <c r="F916" t="s">
         <v>30</v>
@@ -33195,13 +33195,13 @@
         <v>12</v>
       </c>
       <c r="C917">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="D917">
         <v>429</v>
       </c>
       <c r="E917">
-        <v>4268877</v>
+        <v>4283377</v>
       </c>
       <c r="F917" t="s">
         <v>30</v>
@@ -33230,13 +33230,13 @@
         <v>12</v>
       </c>
       <c r="C918">
-        <v>7443</v>
+        <v>7470</v>
       </c>
       <c r="D918">
         <v>1176</v>
       </c>
       <c r="E918">
-        <v>27726790</v>
+        <v>27869494</v>
       </c>
       <c r="F918" t="s">
         <v>30</v>
@@ -33265,13 +33265,13 @@
         <v>12</v>
       </c>
       <c r="C919">
-        <v>31135</v>
+        <v>31200</v>
       </c>
       <c r="D919">
         <v>5497</v>
       </c>
       <c r="E919">
-        <v>68799232</v>
+        <v>69066456</v>
       </c>
       <c r="F919" t="s">
         <v>30</v>
@@ -33405,13 +33405,13 @@
         <v>12</v>
       </c>
       <c r="C923">
-        <v>11619</v>
+        <v>11648</v>
       </c>
       <c r="D923">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E923">
-        <v>72508284</v>
+        <v>72845633</v>
       </c>
       <c r="F923" t="s">
         <v>30</v>
@@ -33475,13 +33475,13 @@
         <v>12</v>
       </c>
       <c r="C925">
-        <v>4240</v>
+        <v>4249</v>
       </c>
       <c r="D925">
         <v>646</v>
       </c>
       <c r="E925">
-        <v>26942853</v>
+        <v>27061160</v>
       </c>
       <c r="F925" t="s">
         <v>30</v>
@@ -33615,13 +33615,13 @@
         <v>12</v>
       </c>
       <c r="C929">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D929">
         <v>135</v>
       </c>
       <c r="E929">
-        <v>4098592</v>
+        <v>4115030</v>
       </c>
       <c r="F929" t="s">
         <v>30</v>
@@ -33650,13 +33650,13 @@
         <v>12</v>
       </c>
       <c r="C930">
-        <v>124872</v>
+        <v>125067</v>
       </c>
       <c r="D930">
         <v>26913</v>
       </c>
       <c r="E930">
-        <v>212135371</v>
+        <v>212572748</v>
       </c>
       <c r="F930" t="s">
         <v>30</v>
@@ -33755,13 +33755,13 @@
         <v>12</v>
       </c>
       <c r="C933">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D933">
         <v>142</v>
       </c>
       <c r="E933">
-        <v>7212442</v>
+        <v>7218473</v>
       </c>
       <c r="F933" t="s">
         <v>30</v>
@@ -33790,13 +33790,13 @@
         <v>12</v>
       </c>
       <c r="C934">
-        <v>51338</v>
+        <v>51438</v>
       </c>
       <c r="D934">
-        <v>10112</v>
+        <v>10113</v>
       </c>
       <c r="E934">
-        <v>257037662</v>
+        <v>258079721</v>
       </c>
       <c r="F934" t="s">
         <v>30</v>
@@ -33860,13 +33860,13 @@
         <v>12</v>
       </c>
       <c r="C936">
-        <v>37077</v>
+        <v>37139</v>
       </c>
       <c r="D936">
         <v>6892</v>
       </c>
       <c r="E936">
-        <v>184288415</v>
+        <v>185111604</v>
       </c>
       <c r="F936" t="s">
         <v>30</v>
@@ -33895,13 +33895,13 @@
         <v>12</v>
       </c>
       <c r="C937">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D937">
         <v>24</v>
       </c>
       <c r="E937">
-        <v>4973342</v>
+        <v>5124940</v>
       </c>
       <c r="F937" t="s">
         <v>30</v>
@@ -33930,13 +33930,13 @@
         <v>12</v>
       </c>
       <c r="C938">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="D938">
         <v>366</v>
       </c>
       <c r="E938">
-        <v>5659325</v>
+        <v>5702498</v>
       </c>
       <c r="F938" t="s">
         <v>30</v>
@@ -33965,13 +33965,13 @@
         <v>12</v>
       </c>
       <c r="C939">
-        <v>2751</v>
+        <v>2764</v>
       </c>
       <c r="D939">
         <v>440</v>
       </c>
       <c r="E939">
-        <v>9957328</v>
+        <v>10028239</v>
       </c>
       <c r="F939" t="s">
         <v>30</v>
@@ -34000,13 +34000,13 @@
         <v>12</v>
       </c>
       <c r="C940">
-        <v>63609</v>
+        <v>63691</v>
       </c>
       <c r="D940">
         <v>13581</v>
       </c>
       <c r="E940">
-        <v>109393242</v>
+        <v>109573180</v>
       </c>
       <c r="F940" t="s">
         <v>30</v>
@@ -34140,13 +34140,13 @@
         <v>12</v>
       </c>
       <c r="C944">
-        <v>28551</v>
+        <v>28602</v>
       </c>
       <c r="D944">
         <v>5370</v>
       </c>
       <c r="E944">
-        <v>135025964</v>
+        <v>135430118</v>
       </c>
       <c r="F944" t="s">
         <v>30</v>
@@ -34210,13 +34210,13 @@
         <v>12</v>
       </c>
       <c r="C946">
-        <v>18186</v>
+        <v>18246</v>
       </c>
       <c r="D946">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="E946">
-        <v>86836632</v>
+        <v>87580268</v>
       </c>
       <c r="F946" t="s">
         <v>30</v>
@@ -34280,13 +34280,13 @@
         <v>12</v>
       </c>
       <c r="C948">
-        <v>2094</v>
+        <v>2105</v>
       </c>
       <c r="D948">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E948">
-        <v>12209046</v>
+        <v>12334720</v>
       </c>
       <c r="F948" t="s">
         <v>30</v>
@@ -34315,13 +34315,13 @@
         <v>12</v>
       </c>
       <c r="C949">
-        <v>2373</v>
+        <v>2379</v>
       </c>
       <c r="D949">
         <v>344</v>
       </c>
       <c r="E949">
-        <v>8231256</v>
+        <v>8258009</v>
       </c>
       <c r="F949" t="s">
         <v>30</v>
